--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="943" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F980D5-0FB0-4AAF-ADD4-7C7CC7851A22}"/>
+  <xr:revisionPtr revIDLastSave="944" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AAC7FA-117D-4EF1-B9BD-2FBC0C49EFFC}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="885" windowWidth="26910" windowHeight="13470" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="795" windowWidth="26910" windowHeight="13470" tabRatio="877" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Type de vecteurs" sheetId="37" r:id="rId16"/>
     <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId17"/>
     <sheet name="Type de devenir du patient" sheetId="35" r:id="rId18"/>
-    <sheet name="Effet à obtenir" sheetId="10" r:id="rId19"/>
+    <sheet name="#Effet à obtenir" sheetId="10" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -8182,7 +8182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -8755,11 +8755,11 @@
         <v>1934</v>
       </c>
       <c r="C21" s="35" t="str">
-        <f>'Effet à obtenir'!$B$1</f>
+        <f>'#Effet à obtenir'!$B$1</f>
         <v>CISU</v>
       </c>
       <c r="D21" s="35" t="str">
-        <f>'Effet à obtenir'!$B$2</f>
+        <f>'#Effet à obtenir'!$B$2</f>
         <v>CodeEffet_a_obtenir</v>
       </c>
       <c r="E21" s="38" t="s">
@@ -15538,8 +15538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="944" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88AAC7FA-117D-4EF1-B9BD-2FBC0C49EFFC}"/>
+  <xr:revisionPtr revIDLastSave="965" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C78338-9B41-4E4C-8812-6A522D25CDFA}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="795" windowWidth="26910" windowHeight="13470" tabRatio="877" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="240" windowWidth="23655" windowHeight="13470" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="Type de devenir du patient" sheetId="35" r:id="rId18"/>
     <sheet name="#Effet à obtenir" sheetId="10" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$4:$K$21</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1955">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5289,9 +5292,6 @@
     <t>L'équipage du vecteur ne comporte que des secouristes professionnnels ni médecin, ni infimier</t>
   </si>
   <si>
-    <t>SI SAMU</t>
-  </si>
-  <si>
     <t>TYPE_MOYEN</t>
   </si>
   <si>
@@ -6146,7 +6146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6281,6 +6281,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6347,7 +6377,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6402,20 +6432,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6424,16 +6444,30 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -6447,7 +6481,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6461,7 +6495,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7787,8 +7821,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8182,3207 +8216,3206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="32" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="32" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="32" customWidth="1"/>
-    <col min="7" max="11" width="9" style="32" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="32"/>
+    <col min="1" max="1" width="31" style="28" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="28" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
+    <col min="7" max="11" width="9" style="28" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:11" s="34" customFormat="1" ht="15">
-      <c r="A4" s="33" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" s="30" customFormat="1" ht="15">
+      <c r="A4" s="29" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>1927</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>1928</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>1919</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="29" t="s">
         <v>1920</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G4" s="29" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>1945</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>1945</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>1944</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>1946</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>1947</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="35" t="s">
+      <c r="B5" s="39" t="s">
         <v>1922</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C5" s="35" t="str">
+      <c r="C5" s="31" t="str">
         <f>'Nature de fait'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="32" t="str">
         <f>'Nature de fait'!B2</f>
         <v>Code_Nature_de_fait</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="E5" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="35" t="s">
-        <v>1922</v>
+      <c r="A6" s="31" t="s">
+        <v>1921</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1929</v>
-      </c>
-      <c r="C6" s="35" t="str">
+        <v>1928</v>
+      </c>
+      <c r="C6" s="31" t="str">
         <f>'Type de lieu'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="31" t="str">
         <f>'Type de lieu'!B2</f>
         <v>Code_Type_de_lieu</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="E6" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="15">
-      <c r="A7" s="35" t="s">
-        <v>1922</v>
+      <c r="A7" s="31" t="s">
+        <v>1921</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C7" s="35" t="str">
+        <v>1929</v>
+      </c>
+      <c r="C7" s="31" t="str">
         <f>'Risque, menace et sensibilité'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="31" t="str">
         <f>'Risque, menace et sensibilité'!$B$2</f>
         <v>Code_Risque-Menace-Sensibilité</v>
       </c>
-      <c r="E7" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="E7" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="35" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C8" s="35" t="str">
+      <c r="A8" s="31" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C8" s="42" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
-        <v>CISU</v>
-      </c>
-      <c r="D8" s="35" t="str">
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D8" s="31" t="str">
         <f>'Motif de recours médico-secouri'!$B$2</f>
         <v>Code_Motif_patient-victime</v>
       </c>
-      <c r="E8" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="E8" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="35" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1926</v>
-      </c>
-      <c r="C9" s="35" t="str">
+      <c r="A9" s="31" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C9" s="31" t="str">
         <f>'Attribution du dossier'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="31" t="str">
         <f>'Attribution du dossier'!$B$2</f>
         <v>DEVENIRD</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="E9" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="35" t="s">
-        <v>1922</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C10" s="35" t="str">
+      <c r="A10" s="31" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C10" s="31" t="str">
         <f>'Priorité de régulation médicale'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="31" t="str">
         <f>'Priorité de régulation médicale'!$B$2</f>
         <v>PRIORITE</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="E10" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="35" t="s">
-        <v>1922</v>
+      <c r="A11" s="31" t="s">
+        <v>1921</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>1931</v>
-      </c>
-      <c r="C11" s="35" t="str">
-        <f>'Attribution du dossier'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D11" s="35" t="str">
-        <f>'Attribution du dossier'!$B$2</f>
-        <v>DEVENIRD</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="41" t="s">
-        <v>1925</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1932</v>
-      </c>
-      <c r="C12" s="35" t="str">
+        <v>1930</v>
+      </c>
+      <c r="C11" s="43" t="str">
         <f>'Nombre de patients-victimes'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D12" s="35" t="str">
+      <c r="D11" s="31" t="str">
         <f>'Nombre de patients-victimes'!$B$2</f>
         <v>CodeNombre_de_patients-victimes</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E11" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" ht="15">
+      <c r="A12" s="31" t="s">
         <v>1924</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
+      <c r="B12" s="35" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C12" s="31" t="str">
+        <f>'Type de requérant'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D12" s="31" t="str">
+        <f>'Type de requérant'!$B$2</f>
+        <v>TYPAPPLT</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="41" t="s">
-        <v>1925</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C13" s="35" t="str">
+      <c r="A13" s="31" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C13" s="31" t="str">
         <f>'Difficultés de communication'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D13" s="35" t="str">
+      <c r="D13" s="31" t="str">
         <f>'Difficultés de communication'!$B$2</f>
         <v>PBAPL</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F13" s="37" t="s">
+      <c r="E13" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" s="32" t="s">
         <v>1941</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-    </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="37" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C14" s="35" t="str">
+      <c r="B14" s="35" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C14" s="31" t="str">
         <f>Sexe!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="31" t="str">
         <f>Sexe!$B$2</f>
         <v>NOMENC_SEXE</v>
       </c>
-      <c r="E14" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F14" s="37" t="s">
+      <c r="E14" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="15">
+      <c r="A15" s="32" t="s">
         <v>1941</v>
       </c>
-      <c r="G14" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="37" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C15" s="35" t="str">
+      <c r="B15" s="35" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C15" s="31" t="str">
         <f>'Niveau de soin'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D15" s="35" t="str">
+      <c r="D15" s="31" t="str">
         <f>'Niveau de soin'!$B$2</f>
         <v>GRAVITE</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+      <c r="E15" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="41" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C16" s="35" t="str">
+      <c r="A16" s="31" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C16" s="31" t="str">
         <f>'Type de décision'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="31" t="str">
         <f>'Type de décision'!$B$2</f>
         <v>TYPEDEC</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
+      <c r="E16" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="41" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C17" s="35" t="str">
+      <c r="A17" s="31" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C17" s="41" t="str">
         <f>'Type de ressource'!$B$1</f>
-        <v>CISU</v>
-      </c>
-      <c r="D17" s="35" t="str">
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D17" s="31" t="str">
         <f>'Type de ressource'!$B$2</f>
         <v>TYPE_MOYEN</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39" t="s">
-        <v>1949</v>
+      <c r="E17" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="37" t="s">
-        <v>1952</v>
+      <c r="A18" s="32" t="s">
+        <v>1951</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C18" s="35" t="str">
+        <v>1953</v>
+      </c>
+      <c r="C18" s="31" t="str">
         <f>'Type de vecteurs'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="31" t="str">
         <f>'Type de vecteurs'!$B$2</f>
         <v>TYPE_VECTEUR</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39" t="s">
+      <c r="E18" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15">
+      <c r="A19" s="31" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>1949</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="41" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>1950</v>
-      </c>
-      <c r="C19" s="35" t="str">
+      <c r="C19" s="31" t="str">
         <f>'Niveau de prise en charge'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D19" s="35" t="str">
+      <c r="D19" s="31" t="str">
         <f>'Niveau de prise en charge'!$B$2</f>
         <v>NIVSOIN</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39" t="s">
-        <v>1949</v>
+      <c r="E19" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="41" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C20" s="35" t="str">
+      <c r="A20" s="31" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C20" s="31" t="str">
         <f>'Type de devenir du patient'!$B$1</f>
-        <v>SI SAMU</v>
-      </c>
-      <c r="D20" s="35" t="str">
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D20" s="31" t="str">
         <f>'Type de devenir du patient'!$B$2</f>
         <v>NOMENC_DEVENIR_PAT</v>
       </c>
-      <c r="E20" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="E20" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="37" t="s">
-        <v>1953</v>
+      <c r="A21" s="32" t="s">
+        <v>1952</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>1934</v>
-      </c>
-      <c r="C21" s="35" t="str">
+        <v>1933</v>
+      </c>
+      <c r="C21" s="31" t="str">
         <f>'#Effet à obtenir'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D21" s="35" t="str">
+      <c r="D21" s="31" t="str">
         <f>'#Effet à obtenir'!$B$2</f>
         <v>CodeEffet_a_obtenir</v>
       </c>
-      <c r="E21" s="38" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>1941</v>
-      </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39" t="s">
-        <v>1949</v>
-      </c>
-      <c r="K21" s="39"/>
+      <c r="E21" s="33" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34" t="s">
+        <v>1948</v>
+      </c>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="37"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="37"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="37"/>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="32"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="37"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="32"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="32"/>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="32"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="32"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="37"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="32"/>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="32"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="37"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="32"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="32"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="37"/>
+      <c r="A96" s="32"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="32"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
+      <c r="A97" s="32"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
+      <c r="K97" s="32"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="37"/>
+      <c r="A98" s="32"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
+      <c r="K98" s="32"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
+      <c r="A99" s="32"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
+      <c r="K99" s="32"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="37"/>
+      <c r="A100" s="32"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
+      <c r="A101" s="32"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
+      <c r="A102" s="32"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
+      <c r="A103" s="32"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="37"/>
+      <c r="A104" s="32"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
     </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
+      <c r="A106" s="32"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="37"/>
+      <c r="A108" s="32"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
+      <c r="A109" s="32"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="37"/>
+      <c r="A110" s="32"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
+      <c r="K110" s="32"/>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
+      <c r="A111" s="32"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
+      <c r="K111" s="32"/>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="37"/>
+      <c r="A112" s="32"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
+      <c r="A113" s="32"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
+      <c r="K113" s="32"/>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="37"/>
+      <c r="A114" s="32"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32"/>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
+      <c r="A115" s="32"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
+      <c r="K115" s="32"/>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="37"/>
+      <c r="A116" s="32"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
+      <c r="K116" s="32"/>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="37"/>
+      <c r="A117" s="32"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
+      <c r="D117" s="32"/>
+      <c r="E117" s="32"/>
+      <c r="F117" s="32"/>
+      <c r="G117" s="32"/>
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+      <c r="J117" s="32"/>
+      <c r="K117" s="32"/>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="37"/>
+      <c r="A118" s="32"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
+      <c r="K118" s="32"/>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="37"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
+      <c r="K119" s="32"/>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="37"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
+      <c r="K120" s="32"/>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="37"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
+      <c r="K121" s="32"/>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="37"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="37"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
+      <c r="K122" s="32"/>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
+      <c r="K123" s="32"/>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="37"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
+      <c r="K124" s="32"/>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="37"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="37"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
+      <c r="K126" s="32"/>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="37"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="37"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="37"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
+      <c r="K128" s="32"/>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="37"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="37"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
+      <c r="K130" s="32"/>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="37"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="37"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
+      <c r="K131" s="32"/>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="37"/>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="37"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+      <c r="J132" s="32"/>
+      <c r="K132" s="32"/>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="37"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="32"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="32"/>
+      <c r="K133" s="32"/>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="37"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="37"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
+      <c r="K134" s="32"/>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
-      <c r="K135" s="37"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
+      <c r="K135" s="32"/>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="37"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="37"/>
+      <c r="A136" s="32"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
+      <c r="K136" s="32"/>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="37"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="37"/>
+      <c r="A137" s="32"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
+      <c r="K137" s="32"/>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="37"/>
-      <c r="K138" s="37"/>
+      <c r="A138" s="32"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
-      <c r="K139" s="37"/>
+      <c r="A139" s="32"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
+      <c r="K139" s="32"/>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
-      <c r="K140" s="37"/>
+      <c r="A140" s="32"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
+      <c r="K140" s="32"/>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="37"/>
-      <c r="K141" s="37"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
+      <c r="K141" s="32"/>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="37"/>
-      <c r="B142" s="37"/>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="37"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="37"/>
-      <c r="B143" s="37"/>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="37"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
+      <c r="K143" s="32"/>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="37"/>
-      <c r="B144" s="37"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="37"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="32"/>
+      <c r="C144" s="32"/>
+      <c r="D144" s="32"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="37"/>
-      <c r="B145" s="37"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="37"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="32"/>
+      <c r="K145" s="32"/>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="37"/>
-      <c r="B146" s="37"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="37"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
+      <c r="K146" s="32"/>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="37"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="37"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
+      <c r="K147" s="32"/>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="37"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="37"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
+      <c r="K148" s="32"/>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="37"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="37"/>
+      <c r="A149" s="32"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
+      <c r="K149" s="32"/>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="37"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="37"/>
+      <c r="A150" s="32"/>
+      <c r="B150" s="32"/>
+      <c r="C150" s="32"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="32"/>
+      <c r="F150" s="32"/>
+      <c r="G150" s="32"/>
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+      <c r="J150" s="32"/>
+      <c r="K150" s="32"/>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="37"/>
-      <c r="B151" s="37"/>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37"/>
-      <c r="K151" s="37"/>
+      <c r="A151" s="32"/>
+      <c r="B151" s="32"/>
+      <c r="C151" s="32"/>
+      <c r="D151" s="32"/>
+      <c r="E151" s="32"/>
+      <c r="F151" s="32"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+      <c r="J151" s="32"/>
+      <c r="K151" s="32"/>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="37"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="37"/>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="32"/>
+      <c r="D152" s="32"/>
+      <c r="E152" s="32"/>
+      <c r="F152" s="32"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+      <c r="J152" s="32"/>
+      <c r="K152" s="32"/>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="37"/>
-      <c r="B153" s="37"/>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="37"/>
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="32"/>
+      <c r="D153" s="32"/>
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+      <c r="J153" s="32"/>
+      <c r="K153" s="32"/>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="37"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
-      <c r="I154" s="37"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="37"/>
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="32"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+      <c r="J154" s="32"/>
+      <c r="K154" s="32"/>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="37"/>
-      <c r="B155" s="37"/>
-      <c r="C155" s="37"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
-      <c r="I155" s="37"/>
-      <c r="J155" s="37"/>
-      <c r="K155" s="37"/>
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="32"/>
+      <c r="G155" s="32"/>
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
+      <c r="J155" s="32"/>
+      <c r="K155" s="32"/>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="37"/>
-      <c r="B156" s="37"/>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="37"/>
-      <c r="K156" s="37"/>
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="32"/>
+      <c r="D156" s="32"/>
+      <c r="E156" s="32"/>
+      <c r="F156" s="32"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+      <c r="J156" s="32"/>
+      <c r="K156" s="32"/>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="37"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="37"/>
+      <c r="A157" s="32"/>
+      <c r="B157" s="32"/>
+      <c r="C157" s="32"/>
+      <c r="D157" s="32"/>
+      <c r="E157" s="32"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="32"/>
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
+      <c r="J157" s="32"/>
+      <c r="K157" s="32"/>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="37"/>
-      <c r="B158" s="37"/>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="37"/>
+      <c r="A158" s="32"/>
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="32"/>
+      <c r="E158" s="32"/>
+      <c r="F158" s="32"/>
+      <c r="G158" s="32"/>
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+      <c r="J158" s="32"/>
+      <c r="K158" s="32"/>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="37"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="37"/>
-      <c r="K159" s="37"/>
+      <c r="A159" s="32"/>
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="32"/>
+      <c r="E159" s="32"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="32"/>
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+      <c r="J159" s="32"/>
+      <c r="K159" s="32"/>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="37"/>
-      <c r="B160" s="37"/>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="37"/>
-      <c r="K160" s="37"/>
+      <c r="A160" s="32"/>
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="32"/>
+      <c r="E160" s="32"/>
+      <c r="F160" s="32"/>
+      <c r="G160" s="32"/>
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+      <c r="J160" s="32"/>
+      <c r="K160" s="32"/>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="37"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="37"/>
-      <c r="K161" s="37"/>
+      <c r="A161" s="32"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="32"/>
+      <c r="E161" s="32"/>
+      <c r="F161" s="32"/>
+      <c r="G161" s="32"/>
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+      <c r="J161" s="32"/>
+      <c r="K161" s="32"/>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="37"/>
-      <c r="B162" s="37"/>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="37"/>
-      <c r="K162" s="37"/>
+      <c r="A162" s="32"/>
+      <c r="B162" s="32"/>
+      <c r="C162" s="32"/>
+      <c r="D162" s="32"/>
+      <c r="E162" s="32"/>
+      <c r="F162" s="32"/>
+      <c r="G162" s="32"/>
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+      <c r="J162" s="32"/>
+      <c r="K162" s="32"/>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="37"/>
-      <c r="B163" s="37"/>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="37"/>
-      <c r="K163" s="37"/>
+      <c r="A163" s="32"/>
+      <c r="B163" s="32"/>
+      <c r="C163" s="32"/>
+      <c r="D163" s="32"/>
+      <c r="E163" s="32"/>
+      <c r="F163" s="32"/>
+      <c r="G163" s="32"/>
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+      <c r="J163" s="32"/>
+      <c r="K163" s="32"/>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="37"/>
-      <c r="B164" s="37"/>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="37"/>
+      <c r="A164" s="32"/>
+      <c r="B164" s="32"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+      <c r="J164" s="32"/>
+      <c r="K164" s="32"/>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="37"/>
-      <c r="B165" s="37"/>
-      <c r="C165" s="37"/>
-      <c r="D165" s="37"/>
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="37"/>
+      <c r="A165" s="32"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="32"/>
+      <c r="D165" s="32"/>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="32"/>
+      <c r="K165" s="32"/>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="37"/>
-      <c r="B166" s="37"/>
-      <c r="C166" s="37"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="37"/>
-      <c r="K166" s="37"/>
+      <c r="A166" s="32"/>
+      <c r="B166" s="32"/>
+      <c r="C166" s="32"/>
+      <c r="D166" s="32"/>
+      <c r="E166" s="32"/>
+      <c r="F166" s="32"/>
+      <c r="G166" s="32"/>
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+      <c r="J166" s="32"/>
+      <c r="K166" s="32"/>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="37"/>
-      <c r="B167" s="37"/>
-      <c r="C167" s="37"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="37"/>
+      <c r="A167" s="32"/>
+      <c r="B167" s="32"/>
+      <c r="C167" s="32"/>
+      <c r="D167" s="32"/>
+      <c r="E167" s="32"/>
+      <c r="F167" s="32"/>
+      <c r="G167" s="32"/>
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+      <c r="J167" s="32"/>
+      <c r="K167" s="32"/>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="37"/>
-      <c r="B168" s="37"/>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="37"/>
+      <c r="A168" s="32"/>
+      <c r="B168" s="32"/>
+      <c r="C168" s="32"/>
+      <c r="D168" s="32"/>
+      <c r="E168" s="32"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="32"/>
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+      <c r="J168" s="32"/>
+      <c r="K168" s="32"/>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="37"/>
-      <c r="B169" s="37"/>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-      <c r="K169" s="37"/>
+      <c r="A169" s="32"/>
+      <c r="B169" s="32"/>
+      <c r="C169" s="32"/>
+      <c r="D169" s="32"/>
+      <c r="E169" s="32"/>
+      <c r="F169" s="32"/>
+      <c r="G169" s="32"/>
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+      <c r="J169" s="32"/>
+      <c r="K169" s="32"/>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="37"/>
-      <c r="B170" s="37"/>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="37"/>
-      <c r="K170" s="37"/>
+      <c r="A170" s="32"/>
+      <c r="B170" s="32"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="32"/>
+      <c r="E170" s="32"/>
+      <c r="F170" s="32"/>
+      <c r="G170" s="32"/>
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+      <c r="J170" s="32"/>
+      <c r="K170" s="32"/>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="37"/>
-      <c r="B171" s="37"/>
-      <c r="C171" s="37"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="37"/>
-      <c r="J171" s="37"/>
-      <c r="K171" s="37"/>
+      <c r="A171" s="32"/>
+      <c r="B171" s="32"/>
+      <c r="C171" s="32"/>
+      <c r="D171" s="32"/>
+      <c r="E171" s="32"/>
+      <c r="F171" s="32"/>
+      <c r="G171" s="32"/>
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+      <c r="J171" s="32"/>
+      <c r="K171" s="32"/>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="37"/>
-      <c r="B172" s="37"/>
-      <c r="C172" s="37"/>
-      <c r="D172" s="37"/>
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
-      <c r="I172" s="37"/>
-      <c r="J172" s="37"/>
-      <c r="K172" s="37"/>
+      <c r="A172" s="32"/>
+      <c r="B172" s="32"/>
+      <c r="C172" s="32"/>
+      <c r="D172" s="32"/>
+      <c r="E172" s="32"/>
+      <c r="F172" s="32"/>
+      <c r="G172" s="32"/>
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+      <c r="J172" s="32"/>
+      <c r="K172" s="32"/>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="37"/>
-      <c r="B173" s="37"/>
-      <c r="C173" s="37"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="37"/>
-      <c r="K173" s="37"/>
+      <c r="A173" s="32"/>
+      <c r="B173" s="32"/>
+      <c r="C173" s="32"/>
+      <c r="D173" s="32"/>
+      <c r="E173" s="32"/>
+      <c r="F173" s="32"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+      <c r="J173" s="32"/>
+      <c r="K173" s="32"/>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="37"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="37"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
-      <c r="G174" s="37"/>
-      <c r="H174" s="37"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="37"/>
+      <c r="A174" s="32"/>
+      <c r="B174" s="32"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="32"/>
+      <c r="E174" s="32"/>
+      <c r="F174" s="32"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+      <c r="J174" s="32"/>
+      <c r="K174" s="32"/>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="37"/>
-      <c r="B175" s="37"/>
-      <c r="C175" s="37"/>
-      <c r="D175" s="37"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="37"/>
-      <c r="K175" s="37"/>
+      <c r="A175" s="32"/>
+      <c r="B175" s="32"/>
+      <c r="C175" s="32"/>
+      <c r="D175" s="32"/>
+      <c r="E175" s="32"/>
+      <c r="F175" s="32"/>
+      <c r="G175" s="32"/>
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+      <c r="J175" s="32"/>
+      <c r="K175" s="32"/>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="37"/>
-      <c r="B176" s="37"/>
-      <c r="C176" s="37"/>
-      <c r="D176" s="37"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
-      <c r="I176" s="37"/>
-      <c r="J176" s="37"/>
-      <c r="K176" s="37"/>
+      <c r="A176" s="32"/>
+      <c r="B176" s="32"/>
+      <c r="C176" s="32"/>
+      <c r="D176" s="32"/>
+      <c r="E176" s="32"/>
+      <c r="F176" s="32"/>
+      <c r="G176" s="32"/>
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+      <c r="J176" s="32"/>
+      <c r="K176" s="32"/>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="37"/>
-      <c r="B177" s="37"/>
-      <c r="C177" s="37"/>
-      <c r="D177" s="37"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="37"/>
-      <c r="K177" s="37"/>
+      <c r="A177" s="32"/>
+      <c r="B177" s="32"/>
+      <c r="C177" s="32"/>
+      <c r="D177" s="32"/>
+      <c r="E177" s="32"/>
+      <c r="F177" s="32"/>
+      <c r="G177" s="32"/>
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+      <c r="J177" s="32"/>
+      <c r="K177" s="32"/>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="37"/>
-      <c r="B178" s="37"/>
-      <c r="C178" s="37"/>
-      <c r="D178" s="37"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
-      <c r="I178" s="37"/>
-      <c r="J178" s="37"/>
-      <c r="K178" s="37"/>
+      <c r="A178" s="32"/>
+      <c r="B178" s="32"/>
+      <c r="C178" s="32"/>
+      <c r="D178" s="32"/>
+      <c r="E178" s="32"/>
+      <c r="F178" s="32"/>
+      <c r="G178" s="32"/>
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
+      <c r="J178" s="32"/>
+      <c r="K178" s="32"/>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="37"/>
-      <c r="B179" s="37"/>
-      <c r="C179" s="37"/>
-      <c r="D179" s="37"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="37"/>
-      <c r="K179" s="37"/>
+      <c r="A179" s="32"/>
+      <c r="B179" s="32"/>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32"/>
+      <c r="E179" s="32"/>
+      <c r="F179" s="32"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="32"/>
+      <c r="K179" s="32"/>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="37"/>
-      <c r="B180" s="37"/>
-      <c r="C180" s="37"/>
-      <c r="D180" s="37"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="37"/>
-      <c r="H180" s="37"/>
-      <c r="I180" s="37"/>
-      <c r="J180" s="37"/>
-      <c r="K180" s="37"/>
+      <c r="A180" s="32"/>
+      <c r="B180" s="32"/>
+      <c r="C180" s="32"/>
+      <c r="D180" s="32"/>
+      <c r="E180" s="32"/>
+      <c r="F180" s="32"/>
+      <c r="G180" s="32"/>
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+      <c r="J180" s="32"/>
+      <c r="K180" s="32"/>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="37"/>
-      <c r="B181" s="37"/>
-      <c r="C181" s="37"/>
-      <c r="D181" s="37"/>
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="37"/>
-      <c r="H181" s="37"/>
-      <c r="I181" s="37"/>
-      <c r="J181" s="37"/>
-      <c r="K181" s="37"/>
+      <c r="A181" s="32"/>
+      <c r="B181" s="32"/>
+      <c r="C181" s="32"/>
+      <c r="D181" s="32"/>
+      <c r="E181" s="32"/>
+      <c r="F181" s="32"/>
+      <c r="G181" s="32"/>
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
+      <c r="J181" s="32"/>
+      <c r="K181" s="32"/>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="37"/>
-      <c r="B182" s="37"/>
-      <c r="C182" s="37"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="37"/>
-      <c r="K182" s="37"/>
+      <c r="A182" s="32"/>
+      <c r="B182" s="32"/>
+      <c r="C182" s="32"/>
+      <c r="D182" s="32"/>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32"/>
+      <c r="G182" s="32"/>
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
+      <c r="J182" s="32"/>
+      <c r="K182" s="32"/>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="37"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="37"/>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="37"/>
-      <c r="H183" s="37"/>
-      <c r="I183" s="37"/>
-      <c r="J183" s="37"/>
-      <c r="K183" s="37"/>
+      <c r="A183" s="32"/>
+      <c r="B183" s="32"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="32"/>
+      <c r="E183" s="32"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="32"/>
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+      <c r="J183" s="32"/>
+      <c r="K183" s="32"/>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="37"/>
-      <c r="B184" s="37"/>
-      <c r="C184" s="37"/>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="37"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="37"/>
-      <c r="K184" s="37"/>
+      <c r="A184" s="32"/>
+      <c r="B184" s="32"/>
+      <c r="C184" s="32"/>
+      <c r="D184" s="32"/>
+      <c r="E184" s="32"/>
+      <c r="F184" s="32"/>
+      <c r="G184" s="32"/>
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
+      <c r="J184" s="32"/>
+      <c r="K184" s="32"/>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="37"/>
-      <c r="B185" s="37"/>
-      <c r="C185" s="37"/>
-      <c r="D185" s="37"/>
-      <c r="E185" s="37"/>
-      <c r="F185" s="37"/>
-      <c r="G185" s="37"/>
-      <c r="H185" s="37"/>
-      <c r="I185" s="37"/>
-      <c r="J185" s="37"/>
-      <c r="K185" s="37"/>
+      <c r="A185" s="32"/>
+      <c r="B185" s="32"/>
+      <c r="C185" s="32"/>
+      <c r="D185" s="32"/>
+      <c r="E185" s="32"/>
+      <c r="F185" s="32"/>
+      <c r="G185" s="32"/>
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+      <c r="J185" s="32"/>
+      <c r="K185" s="32"/>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="37"/>
-      <c r="B186" s="37"/>
-      <c r="C186" s="37"/>
-      <c r="D186" s="37"/>
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
-      <c r="G186" s="37"/>
-      <c r="H186" s="37"/>
-      <c r="I186" s="37"/>
-      <c r="J186" s="37"/>
-      <c r="K186" s="37"/>
+      <c r="A186" s="32"/>
+      <c r="B186" s="32"/>
+      <c r="C186" s="32"/>
+      <c r="D186" s="32"/>
+      <c r="E186" s="32"/>
+      <c r="F186" s="32"/>
+      <c r="G186" s="32"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="32"/>
+      <c r="K186" s="32"/>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="37"/>
-      <c r="B187" s="37"/>
-      <c r="C187" s="37"/>
-      <c r="D187" s="37"/>
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
-      <c r="G187" s="37"/>
-      <c r="H187" s="37"/>
-      <c r="I187" s="37"/>
-      <c r="J187" s="37"/>
-      <c r="K187" s="37"/>
+      <c r="A187" s="32"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="32"/>
+      <c r="D187" s="32"/>
+      <c r="E187" s="32"/>
+      <c r="F187" s="32"/>
+      <c r="G187" s="32"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="32"/>
+      <c r="K187" s="32"/>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="37"/>
-      <c r="B188" s="37"/>
-      <c r="C188" s="37"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
-      <c r="G188" s="37"/>
-      <c r="H188" s="37"/>
-      <c r="I188" s="37"/>
-      <c r="J188" s="37"/>
-      <c r="K188" s="37"/>
+      <c r="A188" s="32"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="32"/>
+      <c r="D188" s="32"/>
+      <c r="E188" s="32"/>
+      <c r="F188" s="32"/>
+      <c r="G188" s="32"/>
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
+      <c r="J188" s="32"/>
+      <c r="K188" s="32"/>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="37"/>
-      <c r="B189" s="37"/>
-      <c r="C189" s="37"/>
-      <c r="D189" s="37"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="37"/>
-      <c r="H189" s="37"/>
-      <c r="I189" s="37"/>
-      <c r="J189" s="37"/>
-      <c r="K189" s="37"/>
+      <c r="A189" s="32"/>
+      <c r="B189" s="32"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="32"/>
+      <c r="E189" s="32"/>
+      <c r="F189" s="32"/>
+      <c r="G189" s="32"/>
+      <c r="H189" s="32"/>
+      <c r="I189" s="32"/>
+      <c r="J189" s="32"/>
+      <c r="K189" s="32"/>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="37"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="37"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
-      <c r="G190" s="37"/>
-      <c r="H190" s="37"/>
-      <c r="I190" s="37"/>
-      <c r="J190" s="37"/>
-      <c r="K190" s="37"/>
+      <c r="A190" s="32"/>
+      <c r="B190" s="32"/>
+      <c r="C190" s="32"/>
+      <c r="D190" s="32"/>
+      <c r="E190" s="32"/>
+      <c r="F190" s="32"/>
+      <c r="G190" s="32"/>
+      <c r="H190" s="32"/>
+      <c r="I190" s="32"/>
+      <c r="J190" s="32"/>
+      <c r="K190" s="32"/>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="37"/>
-      <c r="B191" s="37"/>
-      <c r="C191" s="37"/>
-      <c r="D191" s="37"/>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
-      <c r="I191" s="37"/>
-      <c r="J191" s="37"/>
-      <c r="K191" s="37"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="32"/>
+      <c r="G191" s="32"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="32"/>
+      <c r="K191" s="32"/>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="37"/>
-      <c r="B192" s="37"/>
-      <c r="C192" s="37"/>
-      <c r="D192" s="37"/>
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
-      <c r="I192" s="37"/>
-      <c r="J192" s="37"/>
-      <c r="K192" s="37"/>
+      <c r="A192" s="32"/>
+      <c r="B192" s="32"/>
+      <c r="C192" s="32"/>
+      <c r="D192" s="32"/>
+      <c r="E192" s="32"/>
+      <c r="F192" s="32"/>
+      <c r="G192" s="32"/>
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+      <c r="J192" s="32"/>
+      <c r="K192" s="32"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="37"/>
-      <c r="B193" s="37"/>
-      <c r="C193" s="37"/>
-      <c r="D193" s="37"/>
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
-      <c r="G193" s="37"/>
-      <c r="H193" s="37"/>
-      <c r="I193" s="37"/>
-      <c r="J193" s="37"/>
-      <c r="K193" s="37"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="32"/>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32"/>
+      <c r="E193" s="32"/>
+      <c r="F193" s="32"/>
+      <c r="G193" s="32"/>
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
+      <c r="J193" s="32"/>
+      <c r="K193" s="32"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="37"/>
-      <c r="B194" s="37"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="37"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="37"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="37"/>
-      <c r="I194" s="37"/>
-      <c r="J194" s="37"/>
-      <c r="K194" s="37"/>
+      <c r="A194" s="32"/>
+      <c r="B194" s="32"/>
+      <c r="C194" s="32"/>
+      <c r="D194" s="32"/>
+      <c r="E194" s="32"/>
+      <c r="F194" s="32"/>
+      <c r="G194" s="32"/>
+      <c r="H194" s="32"/>
+      <c r="I194" s="32"/>
+      <c r="J194" s="32"/>
+      <c r="K194" s="32"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="37"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="37"/>
-      <c r="F195" s="37"/>
-      <c r="G195" s="37"/>
-      <c r="H195" s="37"/>
-      <c r="I195" s="37"/>
-      <c r="J195" s="37"/>
-      <c r="K195" s="37"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="32"/>
+      <c r="C195" s="32"/>
+      <c r="D195" s="32"/>
+      <c r="E195" s="32"/>
+      <c r="F195" s="32"/>
+      <c r="G195" s="32"/>
+      <c r="H195" s="32"/>
+      <c r="I195" s="32"/>
+      <c r="J195" s="32"/>
+      <c r="K195" s="32"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="37"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="37"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="37"/>
-      <c r="I196" s="37"/>
-      <c r="J196" s="37"/>
-      <c r="K196" s="37"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="32"/>
+      <c r="C196" s="32"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="32"/>
+      <c r="G196" s="32"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="32"/>
+      <c r="J196" s="32"/>
+      <c r="K196" s="32"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="37"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="37"/>
-      <c r="E197" s="37"/>
-      <c r="F197" s="37"/>
-      <c r="G197" s="37"/>
-      <c r="H197" s="37"/>
-      <c r="I197" s="37"/>
-      <c r="J197" s="37"/>
-      <c r="K197" s="37"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="32"/>
+      <c r="C197" s="32"/>
+      <c r="D197" s="32"/>
+      <c r="E197" s="32"/>
+      <c r="F197" s="32"/>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="32"/>
+      <c r="J197" s="32"/>
+      <c r="K197" s="32"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="37"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="37"/>
-      <c r="E198" s="37"/>
-      <c r="F198" s="37"/>
-      <c r="G198" s="37"/>
-      <c r="H198" s="37"/>
-      <c r="I198" s="37"/>
-      <c r="J198" s="37"/>
-      <c r="K198" s="37"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="32"/>
+      <c r="C198" s="32"/>
+      <c r="D198" s="32"/>
+      <c r="E198" s="32"/>
+      <c r="F198" s="32"/>
+      <c r="G198" s="32"/>
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
+      <c r="J198" s="32"/>
+      <c r="K198" s="32"/>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="37"/>
-      <c r="B199" s="37"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="37"/>
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="37"/>
-      <c r="H199" s="37"/>
-      <c r="I199" s="37"/>
-      <c r="J199" s="37"/>
-      <c r="K199" s="37"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="32"/>
+      <c r="C199" s="32"/>
+      <c r="D199" s="32"/>
+      <c r="E199" s="32"/>
+      <c r="F199" s="32"/>
+      <c r="G199" s="32"/>
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
+      <c r="J199" s="32"/>
+      <c r="K199" s="32"/>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="37"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="37"/>
-      <c r="E200" s="37"/>
-      <c r="F200" s="37"/>
-      <c r="G200" s="37"/>
-      <c r="H200" s="37"/>
-      <c r="I200" s="37"/>
-      <c r="J200" s="37"/>
-      <c r="K200" s="37"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="32"/>
+      <c r="C200" s="32"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="32"/>
+      <c r="F200" s="32"/>
+      <c r="G200" s="32"/>
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
+      <c r="J200" s="32"/>
+      <c r="K200" s="32"/>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="37"/>
-      <c r="B201" s="37"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="37"/>
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
-      <c r="G201" s="37"/>
-      <c r="H201" s="37"/>
-      <c r="I201" s="37"/>
-      <c r="J201" s="37"/>
-      <c r="K201" s="37"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="32"/>
+      <c r="D201" s="32"/>
+      <c r="E201" s="32"/>
+      <c r="F201" s="32"/>
+      <c r="G201" s="32"/>
+      <c r="H201" s="32"/>
+      <c r="I201" s="32"/>
+      <c r="J201" s="32"/>
+      <c r="K201" s="32"/>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="37"/>
-      <c r="B202" s="37"/>
-      <c r="C202" s="37"/>
-      <c r="D202" s="37"/>
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
-      <c r="G202" s="37"/>
-      <c r="H202" s="37"/>
-      <c r="I202" s="37"/>
-      <c r="J202" s="37"/>
-      <c r="K202" s="37"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="32"/>
+      <c r="C202" s="32"/>
+      <c r="D202" s="32"/>
+      <c r="E202" s="32"/>
+      <c r="F202" s="32"/>
+      <c r="G202" s="32"/>
+      <c r="H202" s="32"/>
+      <c r="I202" s="32"/>
+      <c r="J202" s="32"/>
+      <c r="K202" s="32"/>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="37"/>
-      <c r="B203" s="37"/>
-      <c r="C203" s="37"/>
-      <c r="D203" s="37"/>
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
-      <c r="G203" s="37"/>
-      <c r="H203" s="37"/>
-      <c r="I203" s="37"/>
-      <c r="J203" s="37"/>
-      <c r="K203" s="37"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="32"/>
+      <c r="C203" s="32"/>
+      <c r="D203" s="32"/>
+      <c r="E203" s="32"/>
+      <c r="F203" s="32"/>
+      <c r="G203" s="32"/>
+      <c r="H203" s="32"/>
+      <c r="I203" s="32"/>
+      <c r="J203" s="32"/>
+      <c r="K203" s="32"/>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="37"/>
-      <c r="B204" s="37"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="37"/>
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
-      <c r="G204" s="37"/>
-      <c r="H204" s="37"/>
-      <c r="I204" s="37"/>
-      <c r="J204" s="37"/>
-      <c r="K204" s="37"/>
+      <c r="A204" s="32"/>
+      <c r="B204" s="32"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="32"/>
+      <c r="E204" s="32"/>
+      <c r="F204" s="32"/>
+      <c r="G204" s="32"/>
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
+      <c r="J204" s="32"/>
+      <c r="K204" s="32"/>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="37"/>
-      <c r="B205" s="37"/>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
-      <c r="G205" s="37"/>
-      <c r="H205" s="37"/>
-      <c r="I205" s="37"/>
-      <c r="J205" s="37"/>
-      <c r="K205" s="37"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="32"/>
+      <c r="C205" s="32"/>
+      <c r="D205" s="32"/>
+      <c r="E205" s="32"/>
+      <c r="F205" s="32"/>
+      <c r="G205" s="32"/>
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
+      <c r="J205" s="32"/>
+      <c r="K205" s="32"/>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="37"/>
-      <c r="B206" s="37"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="37"/>
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
-      <c r="G206" s="37"/>
-      <c r="H206" s="37"/>
-      <c r="I206" s="37"/>
-      <c r="J206" s="37"/>
-      <c r="K206" s="37"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="32"/>
+      <c r="D206" s="32"/>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
+      <c r="J206" s="32"/>
+      <c r="K206" s="32"/>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="37"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="37"/>
-      <c r="D207" s="37"/>
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
-      <c r="G207" s="37"/>
-      <c r="H207" s="37"/>
-      <c r="I207" s="37"/>
-      <c r="J207" s="37"/>
-      <c r="K207" s="37"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="32"/>
+      <c r="C207" s="32"/>
+      <c r="D207" s="32"/>
+      <c r="E207" s="32"/>
+      <c r="F207" s="32"/>
+      <c r="G207" s="32"/>
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
+      <c r="J207" s="32"/>
+      <c r="K207" s="32"/>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="37"/>
-      <c r="B208" s="37"/>
-      <c r="C208" s="37"/>
-      <c r="D208" s="37"/>
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="37"/>
-      <c r="H208" s="37"/>
-      <c r="I208" s="37"/>
-      <c r="J208" s="37"/>
-      <c r="K208" s="37"/>
+      <c r="A208" s="32"/>
+      <c r="B208" s="32"/>
+      <c r="C208" s="32"/>
+      <c r="D208" s="32"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
+      <c r="J208" s="32"/>
+      <c r="K208" s="32"/>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="37"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="37"/>
-      <c r="D209" s="37"/>
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
-      <c r="G209" s="37"/>
-      <c r="H209" s="37"/>
-      <c r="I209" s="37"/>
-      <c r="J209" s="37"/>
-      <c r="K209" s="37"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="32"/>
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32"/>
+      <c r="G209" s="32"/>
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
+      <c r="J209" s="32"/>
+      <c r="K209" s="32"/>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="37"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="37"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="37"/>
-      <c r="G210" s="37"/>
-      <c r="H210" s="37"/>
-      <c r="I210" s="37"/>
-      <c r="J210" s="37"/>
-      <c r="K210" s="37"/>
+      <c r="A210" s="32"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="32"/>
+      <c r="D210" s="32"/>
+      <c r="E210" s="32"/>
+      <c r="F210" s="32"/>
+      <c r="G210" s="32"/>
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
+      <c r="J210" s="32"/>
+      <c r="K210" s="32"/>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="37"/>
-      <c r="B211" s="37"/>
-      <c r="C211" s="37"/>
-      <c r="D211" s="37"/>
-      <c r="E211" s="37"/>
-      <c r="F211" s="37"/>
-      <c r="G211" s="37"/>
-      <c r="H211" s="37"/>
-      <c r="I211" s="37"/>
-      <c r="J211" s="37"/>
-      <c r="K211" s="37"/>
+      <c r="A211" s="32"/>
+      <c r="B211" s="32"/>
+      <c r="C211" s="32"/>
+      <c r="D211" s="32"/>
+      <c r="E211" s="32"/>
+      <c r="F211" s="32"/>
+      <c r="G211" s="32"/>
+      <c r="H211" s="32"/>
+      <c r="I211" s="32"/>
+      <c r="J211" s="32"/>
+      <c r="K211" s="32"/>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="37"/>
-      <c r="B212" s="37"/>
-      <c r="C212" s="37"/>
-      <c r="D212" s="37"/>
-      <c r="E212" s="37"/>
-      <c r="F212" s="37"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="37"/>
-      <c r="I212" s="37"/>
-      <c r="J212" s="37"/>
-      <c r="K212" s="37"/>
+      <c r="A212" s="32"/>
+      <c r="B212" s="32"/>
+      <c r="C212" s="32"/>
+      <c r="D212" s="32"/>
+      <c r="E212" s="32"/>
+      <c r="F212" s="32"/>
+      <c r="G212" s="32"/>
+      <c r="H212" s="32"/>
+      <c r="I212" s="32"/>
+      <c r="J212" s="32"/>
+      <c r="K212" s="32"/>
     </row>
     <row r="213" spans="1:11">
-      <c r="A213" s="37"/>
-      <c r="B213" s="37"/>
-      <c r="C213" s="37"/>
-      <c r="D213" s="37"/>
-      <c r="E213" s="37"/>
-      <c r="F213" s="37"/>
-      <c r="G213" s="37"/>
-      <c r="H213" s="37"/>
-      <c r="I213" s="37"/>
-      <c r="J213" s="37"/>
-      <c r="K213" s="37"/>
+      <c r="A213" s="32"/>
+      <c r="B213" s="32"/>
+      <c r="C213" s="32"/>
+      <c r="D213" s="32"/>
+      <c r="E213" s="32"/>
+      <c r="F213" s="32"/>
+      <c r="G213" s="32"/>
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
+      <c r="J213" s="32"/>
+      <c r="K213" s="32"/>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="37"/>
-      <c r="B214" s="37"/>
-      <c r="C214" s="37"/>
-      <c r="D214" s="37"/>
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
-      <c r="G214" s="37"/>
-      <c r="H214" s="37"/>
-      <c r="I214" s="37"/>
-      <c r="J214" s="37"/>
-      <c r="K214" s="37"/>
+      <c r="A214" s="32"/>
+      <c r="B214" s="32"/>
+      <c r="C214" s="32"/>
+      <c r="D214" s="32"/>
+      <c r="E214" s="32"/>
+      <c r="F214" s="32"/>
+      <c r="G214" s="32"/>
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
+      <c r="J214" s="32"/>
+      <c r="K214" s="32"/>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="37"/>
-      <c r="B215" s="37"/>
-      <c r="C215" s="37"/>
-      <c r="D215" s="37"/>
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
-      <c r="G215" s="37"/>
-      <c r="H215" s="37"/>
-      <c r="I215" s="37"/>
-      <c r="J215" s="37"/>
-      <c r="K215" s="37"/>
+      <c r="A215" s="32"/>
+      <c r="B215" s="32"/>
+      <c r="C215" s="32"/>
+      <c r="D215" s="32"/>
+      <c r="E215" s="32"/>
+      <c r="F215" s="32"/>
+      <c r="G215" s="32"/>
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
+      <c r="J215" s="32"/>
+      <c r="K215" s="32"/>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="37"/>
-      <c r="B216" s="37"/>
-      <c r="C216" s="37"/>
-      <c r="D216" s="37"/>
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
-      <c r="G216" s="37"/>
-      <c r="H216" s="37"/>
-      <c r="I216" s="37"/>
-      <c r="J216" s="37"/>
-      <c r="K216" s="37"/>
+      <c r="A216" s="32"/>
+      <c r="B216" s="32"/>
+      <c r="C216" s="32"/>
+      <c r="D216" s="32"/>
+      <c r="E216" s="32"/>
+      <c r="F216" s="32"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
+      <c r="J216" s="32"/>
+      <c r="K216" s="32"/>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="37"/>
-      <c r="B217" s="37"/>
-      <c r="C217" s="37"/>
-      <c r="D217" s="37"/>
-      <c r="E217" s="37"/>
-      <c r="F217" s="37"/>
-      <c r="G217" s="37"/>
-      <c r="H217" s="37"/>
-      <c r="I217" s="37"/>
-      <c r="J217" s="37"/>
-      <c r="K217" s="37"/>
+      <c r="A217" s="32"/>
+      <c r="B217" s="32"/>
+      <c r="C217" s="32"/>
+      <c r="D217" s="32"/>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
+      <c r="J217" s="32"/>
+      <c r="K217" s="32"/>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="37"/>
-      <c r="B218" s="37"/>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="37"/>
-      <c r="H218" s="37"/>
-      <c r="I218" s="37"/>
-      <c r="J218" s="37"/>
-      <c r="K218" s="37"/>
+      <c r="A218" s="32"/>
+      <c r="B218" s="32"/>
+      <c r="C218" s="32"/>
+      <c r="D218" s="32"/>
+      <c r="E218" s="32"/>
+      <c r="F218" s="32"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
+      <c r="J218" s="32"/>
+      <c r="K218" s="32"/>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="37"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="37"/>
-      <c r="D219" s="37"/>
-      <c r="E219" s="37"/>
-      <c r="F219" s="37"/>
-      <c r="G219" s="37"/>
-      <c r="H219" s="37"/>
-      <c r="I219" s="37"/>
-      <c r="J219" s="37"/>
-      <c r="K219" s="37"/>
+      <c r="A219" s="32"/>
+      <c r="B219" s="32"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="32"/>
+      <c r="E219" s="32"/>
+      <c r="F219" s="32"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
+      <c r="J219" s="32"/>
+      <c r="K219" s="32"/>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="37"/>
-      <c r="B220" s="37"/>
-      <c r="C220" s="37"/>
-      <c r="D220" s="37"/>
-      <c r="E220" s="37"/>
-      <c r="F220" s="37"/>
-      <c r="G220" s="37"/>
-      <c r="H220" s="37"/>
-      <c r="I220" s="37"/>
-      <c r="J220" s="37"/>
-      <c r="K220" s="37"/>
+      <c r="A220" s="32"/>
+      <c r="B220" s="32"/>
+      <c r="C220" s="32"/>
+      <c r="D220" s="32"/>
+      <c r="E220" s="32"/>
+      <c r="F220" s="32"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
+      <c r="J220" s="32"/>
+      <c r="K220" s="32"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:K21" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G5:K21">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>G5="X"</formula>
+  <conditionalFormatting sqref="A5:K220">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>ISEVEN(ROW())</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8">
+      <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:K21">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>G5=""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:K220">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8">
-      <formula>ISODD(ROW())</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>G5="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11414,7 +11447,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13170,7 +13203,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -13187,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>1</v>
+        <v>1311</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -13197,7 +13230,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13248,8 +13281,8 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>1708</v>
+      <c r="B8" s="27" t="s">
+        <v>1707</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -13276,118 +13309,114 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>1680</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1681</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1682</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1683</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1684</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1685</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1686</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1687</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="38" customFormat="1">
+      <c r="A14" s="21" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>1701</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="26" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>1689</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21" t="s">
+    </row>
+    <row r="15" spans="1:6" s="38" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>1702</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="26" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="26" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1690</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1691</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="21" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>1692</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1693</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="21" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>1694</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1695</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="21" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -13396,11 +13425,11 @@
         <v>1370</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="21" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F19" s="18"/>
     </row>
@@ -13621,7 +13650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -13648,7 +13679,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13699,8 +13730,8 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>1708</v>
+      <c r="B8" s="27" t="s">
+        <v>1707</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -13727,55 +13758,55 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B10" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C10" t="s">
         <v>1753</v>
       </c>
-      <c r="C10" t="s">
-        <v>1754</v>
-      </c>
       <c r="F10" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B11" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C11" t="s">
         <v>1755</v>
       </c>
-      <c r="C11" t="s">
-        <v>1756</v>
-      </c>
       <c r="F11" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B12" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C12" t="s">
         <v>1757</v>
       </c>
-      <c r="C12" t="s">
-        <v>1758</v>
-      </c>
       <c r="F12" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B13" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C13" t="s">
         <v>1759</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1760</v>
       </c>
       <c r="F13" t="s">
         <v>1370</v>
@@ -13783,13 +13814,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B14" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C14" t="s">
         <v>1761</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1762</v>
       </c>
       <c r="F14" t="s">
         <v>1370</v>
@@ -13800,10 +13831,10 @@
         <v>1370</v>
       </c>
       <c r="B15" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C15" t="s">
         <v>1763</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1764</v>
       </c>
       <c r="F15" t="s">
         <v>1370</v>
@@ -13811,13 +13842,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B16" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C16" t="s">
         <v>1765</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1766</v>
       </c>
       <c r="F16" t="s">
         <v>1370</v>
@@ -13825,13 +13856,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C17" t="s">
         <v>1767</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1768</v>
       </c>
       <c r="F17" t="s">
         <v>1370</v>
@@ -13842,10 +13873,10 @@
         <v>1603</v>
       </c>
       <c r="B18" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C18" t="s">
         <v>1769</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1770</v>
       </c>
       <c r="F18" t="s">
         <v>1370</v>
@@ -13853,13 +13884,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B19" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C19" t="s">
         <v>1771</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1772</v>
       </c>
       <c r="F19" t="s">
         <v>1370</v>
@@ -13870,7 +13901,7 @@
         <v>1373</v>
       </c>
       <c r="B20" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C20" t="s">
         <v>1373</v>
@@ -13884,10 +13915,10 @@
         <v>1649</v>
       </c>
       <c r="B21" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C21" t="s">
         <v>1774</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1775</v>
       </c>
       <c r="F21" t="s">
         <v>1370</v>
@@ -13895,114 +13926,114 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B22" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C22" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F22" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C23" t="s">
         <v>1777</v>
       </c>
-      <c r="C23" t="s">
-        <v>1778</v>
-      </c>
       <c r="F23" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B24" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C24" t="s">
         <v>1779</v>
       </c>
-      <c r="C24" t="s">
-        <v>1780</v>
-      </c>
       <c r="F24" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B25" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C25" t="s">
         <v>1781</v>
       </c>
-      <c r="C25" t="s">
-        <v>1782</v>
-      </c>
       <c r="F25" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B26" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C26" t="s">
         <v>1783</v>
       </c>
-      <c r="C26" t="s">
-        <v>1784</v>
-      </c>
       <c r="F26" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B27" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C27" t="s">
         <v>1785</v>
       </c>
-      <c r="C27" t="s">
-        <v>1786</v>
-      </c>
       <c r="F27" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B28" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C28" t="s">
         <v>1787</v>
       </c>
-      <c r="C28" t="s">
-        <v>1788</v>
-      </c>
       <c r="F28" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B29" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C29" t="s">
         <v>1789</v>
       </c>
-      <c r="C29" t="s">
-        <v>1790</v>
-      </c>
       <c r="F29" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -14010,27 +14041,27 @@
         <v>1347</v>
       </c>
       <c r="B30" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C30" t="s">
         <v>1791</v>
       </c>
-      <c r="C30" t="s">
-        <v>1792</v>
-      </c>
       <c r="F30" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B31" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C31" t="s">
         <v>1793</v>
       </c>
-      <c r="C31" t="s">
-        <v>1794</v>
-      </c>
       <c r="F31" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -14038,559 +14069,559 @@
         <v>1513</v>
       </c>
       <c r="B32" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C32" t="s">
         <v>1795</v>
       </c>
-      <c r="C32" t="s">
-        <v>1796</v>
-      </c>
       <c r="F32" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B33" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C33" t="s">
         <v>1797</v>
       </c>
-      <c r="C33" t="s">
-        <v>1798</v>
-      </c>
       <c r="F33" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B34" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C34" t="s">
         <v>1799</v>
       </c>
-      <c r="C34" t="s">
-        <v>1800</v>
-      </c>
       <c r="F34" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B35" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C35" t="s">
         <v>1801</v>
       </c>
-      <c r="C35" t="s">
-        <v>1802</v>
-      </c>
       <c r="F35" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B36" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C36" t="s">
         <v>1803</v>
       </c>
-      <c r="C36" t="s">
-        <v>1804</v>
-      </c>
       <c r="F36" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B37" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C37" t="s">
         <v>1805</v>
       </c>
-      <c r="C37" t="s">
-        <v>1806</v>
-      </c>
       <c r="F37" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B38" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C38" t="s">
         <v>1807</v>
       </c>
-      <c r="C38" t="s">
-        <v>1808</v>
-      </c>
       <c r="F38" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B39" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C39" t="s">
         <v>1809</v>
       </c>
-      <c r="C39" t="s">
-        <v>1810</v>
-      </c>
       <c r="F39" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B40" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C40" t="s">
         <v>1811</v>
       </c>
-      <c r="C40" t="s">
-        <v>1812</v>
-      </c>
       <c r="F40" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B41" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C41" t="s">
         <v>1813</v>
       </c>
-      <c r="C41" t="s">
-        <v>1814</v>
-      </c>
       <c r="F41" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B42" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C42" t="s">
         <v>1815</v>
       </c>
-      <c r="C42" t="s">
-        <v>1816</v>
-      </c>
       <c r="F42" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B43" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C43" t="s">
         <v>1817</v>
       </c>
-      <c r="C43" t="s">
-        <v>1818</v>
-      </c>
       <c r="F43" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B44" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C44" t="s">
         <v>1819</v>
       </c>
-      <c r="C44" t="s">
-        <v>1820</v>
-      </c>
       <c r="F44" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B45" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C45" t="s">
         <v>1821</v>
       </c>
-      <c r="C45" t="s">
-        <v>1822</v>
-      </c>
       <c r="F45" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B46" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C46" t="s">
         <v>1823</v>
       </c>
-      <c r="C46" t="s">
-        <v>1824</v>
-      </c>
       <c r="F46" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="B47" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C47" t="s">
         <v>1825</v>
       </c>
-      <c r="C47" t="s">
-        <v>1826</v>
-      </c>
       <c r="F47" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="B48" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C48" t="s">
         <v>1827</v>
       </c>
-      <c r="C48" t="s">
-        <v>1828</v>
-      </c>
       <c r="F48" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B49" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C49" t="s">
         <v>1829</v>
       </c>
-      <c r="C49" t="s">
-        <v>1830</v>
-      </c>
       <c r="F49" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B50" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C50" t="s">
         <v>1831</v>
       </c>
-      <c r="C50" t="s">
-        <v>1832</v>
-      </c>
       <c r="F50" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B51" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C51" t="s">
         <v>1833</v>
       </c>
-      <c r="C51" t="s">
-        <v>1834</v>
-      </c>
       <c r="F51" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B52" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C52" t="s">
         <v>1835</v>
       </c>
-      <c r="C52" t="s">
-        <v>1836</v>
-      </c>
       <c r="F52" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B53" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C53" t="s">
         <v>1837</v>
       </c>
-      <c r="C53" t="s">
-        <v>1838</v>
-      </c>
       <c r="F53" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B54" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C54" t="s">
         <v>1839</v>
       </c>
-      <c r="C54" t="s">
-        <v>1840</v>
-      </c>
       <c r="F54" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B55" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C55" t="s">
         <v>1841</v>
       </c>
-      <c r="C55" t="s">
-        <v>1842</v>
-      </c>
       <c r="F55" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B56" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C56" t="s">
         <v>1843</v>
       </c>
-      <c r="C56" t="s">
-        <v>1844</v>
-      </c>
       <c r="F56" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B57" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C57" t="s">
         <v>1845</v>
       </c>
-      <c r="C57" t="s">
-        <v>1846</v>
-      </c>
       <c r="F57" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B58" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C58" t="s">
         <v>1847</v>
       </c>
-      <c r="C58" t="s">
-        <v>1848</v>
-      </c>
       <c r="F58" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="B59" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C59" t="s">
         <v>1849</v>
       </c>
-      <c r="C59" t="s">
-        <v>1850</v>
-      </c>
       <c r="F59" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C60" t="s">
         <v>1851</v>
       </c>
-      <c r="C60" t="s">
-        <v>1852</v>
-      </c>
       <c r="F60" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B61" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C61" t="s">
         <v>1853</v>
       </c>
-      <c r="C61" t="s">
-        <v>1854</v>
-      </c>
       <c r="F61" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B62" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C62" t="s">
         <v>1855</v>
       </c>
-      <c r="C62" t="s">
-        <v>1856</v>
-      </c>
       <c r="F62" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B63" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C63" t="s">
         <v>1857</v>
       </c>
-      <c r="C63" t="s">
-        <v>1858</v>
-      </c>
       <c r="F63" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B64" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C64" t="s">
         <v>1859</v>
       </c>
-      <c r="C64" t="s">
-        <v>1860</v>
-      </c>
       <c r="F64" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B65" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C65" t="s">
         <v>1861</v>
       </c>
-      <c r="C65" t="s">
-        <v>1862</v>
-      </c>
       <c r="F65" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B66" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C66" t="s">
         <v>1863</v>
       </c>
-      <c r="C66" t="s">
-        <v>1864</v>
-      </c>
       <c r="F66" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B67" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C67" t="s">
         <v>1865</v>
       </c>
-      <c r="C67" t="s">
-        <v>1866</v>
-      </c>
       <c r="F67" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B68" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C68" t="s">
         <v>1867</v>
       </c>
-      <c r="C68" t="s">
-        <v>1868</v>
-      </c>
       <c r="F68" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B69" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C69" t="s">
         <v>1869</v>
       </c>
-      <c r="C69" t="s">
-        <v>1870</v>
-      </c>
       <c r="F69" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B70" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C70" t="s">
         <v>1871</v>
       </c>
-      <c r="C70" t="s">
-        <v>1872</v>
-      </c>
       <c r="F70" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B71" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C71" t="s">
         <v>1873</v>
       </c>
-      <c r="C71" t="s">
-        <v>1874</v>
-      </c>
       <c r="F71" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
@@ -15025,7 +15056,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -15042,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>1678</v>
+        <v>1311</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -15052,7 +15083,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15128,268 +15159,268 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>1728</v>
+      <c r="A10" s="26" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>1727</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="27" t="s">
-        <v>1747</v>
+      <c r="E10" s="26" t="s">
+        <v>1746</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>1729</v>
+      <c r="A11" s="26" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>1728</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="27" t="s">
-        <v>1747</v>
+      <c r="E11" s="26" t="s">
+        <v>1746</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>1730</v>
+        <v>1711</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>1729</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="27" t="s">
-        <v>1748</v>
+      <c r="E12" s="26" t="s">
+        <v>1747</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="20" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>1731</v>
+        <v>1712</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>1730</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="27" t="s">
-        <v>1748</v>
+      <c r="E13" s="26" t="s">
+        <v>1747</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>1732</v>
+        <v>1713</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>1731</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="27" t="s">
-        <v>1748</v>
+      <c r="E14" s="26" t="s">
+        <v>1747</v>
       </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="18" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>1733</v>
+        <v>1714</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>1732</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="27" t="s">
-        <v>1748</v>
+      <c r="E15" s="26" t="s">
+        <v>1747</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>1734</v>
+        <v>1715</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>1733</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="27" t="s">
-        <v>1748</v>
+      <c r="E16" s="26" t="s">
+        <v>1747</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="18" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>1735</v>
+        <v>1716</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>1734</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
-      <c r="E17" s="27" t="s">
-        <v>1749</v>
+      <c r="E17" s="26" t="s">
+        <v>1748</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>1736</v>
+        <v>1717</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>1735</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="27" t="s">
-        <v>1749</v>
+      <c r="E18" s="26" t="s">
+        <v>1748</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>1737</v>
+        <v>1718</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>1736</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="27" t="s">
-        <v>1750</v>
+      <c r="E19" s="26" t="s">
+        <v>1749</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>1738</v>
+        <v>1719</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>1737</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="27" t="s">
-        <v>1750</v>
+      <c r="E20" s="26" t="s">
+        <v>1749</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>1739</v>
+        <v>1720</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>1738</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="27" t="s">
-        <v>1751</v>
+      <c r="E21" s="26" t="s">
+        <v>1750</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>1740</v>
+        <v>1721</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>1739</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="27" t="s">
-        <v>1751</v>
+      <c r="E22" s="26" t="s">
+        <v>1750</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>1741</v>
+        <v>1722</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>1740</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="27" t="s">
-        <v>1751</v>
+      <c r="E23" s="26" t="s">
+        <v>1750</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>1742</v>
+        <v>1723</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>1741</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="27" t="s">
-        <v>1751</v>
+      <c r="E24" s="26" t="s">
+        <v>1750</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>1743</v>
+        <v>1691</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>1742</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="27" t="s">
-        <v>1751</v>
+      <c r="E25" s="26" t="s">
+        <v>1750</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>1744</v>
+        <v>1724</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>1743</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="27" t="s">
-        <v>1750</v>
+      <c r="E26" s="26" t="s">
+        <v>1749</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>1745</v>
+        <v>1725</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>1744</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="27" t="s">
-        <v>1750</v>
+      <c r="E27" s="26" t="s">
+        <v>1749</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>1727</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>1746</v>
+        <v>1726</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>1745</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="27" t="s">
-        <v>1748</v>
+      <c r="E28" s="26" t="s">
+        <v>1747</v>
       </c>
       <c r="F28" s="18"/>
     </row>
@@ -15538,8 +15569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -16433,7 +16464,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24418BCA-6BA9-46F7-8F30-546B2F7203DE}">
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -23491,7 +23524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8116353-BC00-4857-8D37-9470DD9A948C}">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -23507,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -24352,7 +24387,7 @@
         <v>1510</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
@@ -25267,9 +25302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -25423,6 +25456,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25836,68 +25930,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25915,30 +25974,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="965" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29C78338-9B41-4E4C-8812-6A522D25CDFA}"/>
+  <xr:revisionPtr revIDLastSave="966" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C13653A-A307-46DD-BE54-30F24EB7ECC1}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="240" windowWidth="23655" windowHeight="13470" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6288,13 +6288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -6307,6 +6300,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -6460,7 +6459,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6470,6 +6468,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -8217,7 +8216,7 @@
   <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -8289,7 +8288,7 @@
       <c r="A5" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>1922</v>
       </c>
       <c r="C5" s="31" t="str">
@@ -8320,7 +8319,7 @@
       <c r="A6" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>1928</v>
       </c>
       <c r="C6" s="31" t="str">
@@ -8351,7 +8350,7 @@
       <c r="A7" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>1929</v>
       </c>
       <c r="C7" s="31" t="str">
@@ -8382,10 +8381,10 @@
       <c r="A8" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="43" t="s">
         <v>1954</v>
       </c>
-      <c r="C8" s="42" t="str">
+      <c r="C8" s="40" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -8413,7 +8412,7 @@
       <c r="A9" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="43" t="s">
         <v>1925</v>
       </c>
       <c r="C9" s="31" t="str">
@@ -8442,7 +8441,7 @@
       <c r="A10" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="43" t="s">
         <v>1934</v>
       </c>
       <c r="C10" s="31" t="str">
@@ -8471,10 +8470,10 @@
       <c r="A11" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>1930</v>
       </c>
-      <c r="C11" s="43" t="str">
+      <c r="C11" s="41" t="str">
         <f>'Nombre de patients-victimes'!$B$1</f>
         <v>CISU</v>
       </c>
@@ -8500,7 +8499,7 @@
       <c r="A12" s="31" t="s">
         <v>1924</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="43" t="s">
         <v>1931</v>
       </c>
       <c r="C12" s="31" t="str">
@@ -8531,7 +8530,7 @@
       <c r="A13" s="31" t="s">
         <v>1924</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="43" t="s">
         <v>1932</v>
       </c>
       <c r="C13" s="31" t="str">
@@ -8562,7 +8561,7 @@
       <c r="A14" s="32" t="s">
         <v>1941</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="43" t="s">
         <v>1935</v>
       </c>
       <c r="C14" s="31" t="str">
@@ -8593,7 +8592,7 @@
       <c r="A15" s="32" t="s">
         <v>1941</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="43" t="s">
         <v>1936</v>
       </c>
       <c r="C15" s="31" t="str">
@@ -8622,7 +8621,7 @@
       <c r="A16" s="31" t="s">
         <v>1942</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="43" t="s">
         <v>1937</v>
       </c>
       <c r="C16" s="31" t="str">
@@ -8653,10 +8652,10 @@
       <c r="A17" s="31" t="s">
         <v>1951</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="43" t="s">
         <v>1939</v>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="39" t="str">
         <f>'Type de ressource'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -8686,7 +8685,7 @@
       <c r="A18" s="32" t="s">
         <v>1951</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="43" t="s">
         <v>1953</v>
       </c>
       <c r="C18" s="31" t="str">
@@ -8719,7 +8718,7 @@
       <c r="A19" s="31" t="s">
         <v>1951</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="43" t="s">
         <v>1949</v>
       </c>
       <c r="C19" s="31" t="str">
@@ -8754,7 +8753,7 @@
       <c r="A20" s="31" t="s">
         <v>1942</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="43" t="s">
         <v>1938</v>
       </c>
       <c r="C20" s="31" t="str">
@@ -8785,7 +8784,7 @@
       <c r="A21" s="32" t="s">
         <v>1952</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="43" t="s">
         <v>1933</v>
       </c>
       <c r="C21" s="31" t="str">

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="966" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C13653A-A307-46DD-BE54-30F24EB7ECC1}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="240" windowWidth="23655" windowHeight="13470" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3540" yWindow="2835" windowWidth="21600" windowHeight="11295" tabRatio="877" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -6449,12 +6449,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6469,6 +6463,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -7820,10 +7820,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
@@ -8215,7 +8211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
   <dimension ref="A1:K220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -8232,12 +8228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20"/>
@@ -8288,7 +8284,7 @@
       <c r="A5" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="40" t="s">
         <v>1922</v>
       </c>
       <c r="C5" s="31" t="str">
@@ -8319,7 +8315,7 @@
       <c r="A6" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="41" t="s">
         <v>1928</v>
       </c>
       <c r="C6" s="31" t="str">
@@ -8350,7 +8346,7 @@
       <c r="A7" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="41" t="s">
         <v>1929</v>
       </c>
       <c r="C7" s="31" t="str">
@@ -8381,10 +8377,10 @@
       <c r="A8" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="41" t="s">
         <v>1954</v>
       </c>
-      <c r="C8" s="40" t="str">
+      <c r="C8" s="38" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -8412,7 +8408,7 @@
       <c r="A9" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="41" t="s">
         <v>1925</v>
       </c>
       <c r="C9" s="31" t="str">
@@ -8441,7 +8437,7 @@
       <c r="A10" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>1934</v>
       </c>
       <c r="C10" s="31" t="str">
@@ -8470,10 +8466,10 @@
       <c r="A11" s="31" t="s">
         <v>1921</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>1930</v>
       </c>
-      <c r="C11" s="41" t="str">
+      <c r="C11" s="39" t="str">
         <f>'Nombre de patients-victimes'!$B$1</f>
         <v>CISU</v>
       </c>
@@ -8499,7 +8495,7 @@
       <c r="A12" s="31" t="s">
         <v>1924</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>1931</v>
       </c>
       <c r="C12" s="31" t="str">
@@ -8530,7 +8526,7 @@
       <c r="A13" s="31" t="s">
         <v>1924</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
         <v>1932</v>
       </c>
       <c r="C13" s="31" t="str">
@@ -8561,7 +8557,7 @@
       <c r="A14" s="32" t="s">
         <v>1941</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="C14" s="31" t="str">
@@ -8592,7 +8588,7 @@
       <c r="A15" s="32" t="s">
         <v>1941</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>1936</v>
       </c>
       <c r="C15" s="31" t="str">
@@ -8621,7 +8617,7 @@
       <c r="A16" s="31" t="s">
         <v>1942</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="41" t="s">
         <v>1937</v>
       </c>
       <c r="C16" s="31" t="str">
@@ -8652,10 +8648,10 @@
       <c r="A17" s="31" t="s">
         <v>1951</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="41" t="s">
         <v>1939</v>
       </c>
-      <c r="C17" s="39" t="str">
+      <c r="C17" s="37" t="str">
         <f>'Type de ressource'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -8685,7 +8681,7 @@
       <c r="A18" s="32" t="s">
         <v>1951</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>1953</v>
       </c>
       <c r="C18" s="31" t="str">
@@ -8718,7 +8714,7 @@
       <c r="A19" s="31" t="s">
         <v>1951</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>1949</v>
       </c>
       <c r="C19" s="31" t="str">
@@ -8753,7 +8749,7 @@
       <c r="A20" s="31" t="s">
         <v>1942</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>1938</v>
       </c>
       <c r="C20" s="31" t="str">
@@ -8784,7 +8780,7 @@
       <c r="A21" s="32" t="s">
         <v>1952</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="41" t="s">
         <v>1933</v>
       </c>
       <c r="C21" s="31" t="str">
@@ -12167,8 +12163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF6AB4-B57F-443F-8D0D-BF02A9C5B3B9}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -13358,7 +13354,7 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" s="38" customFormat="1">
+    <row r="14" spans="1:6" s="36" customFormat="1">
       <c r="A14" s="21" t="s">
         <v>1687</v>
       </c>
@@ -13369,7 +13365,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="38" customFormat="1">
+    <row r="15" spans="1:6" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
         <v>1914</v>
       </c>
@@ -25455,6 +25451,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -25504,15 +25509,6 @@
     </l0a6b4600f484920bbceae0813174244>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25930,27 +25926,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="966" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C13653A-A307-46DD-BE54-30F24EB7ECC1}"/>
+  <xr:revisionPtr revIDLastSave="981" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8452B9F3-DD8D-4E72-AAAF-63A765275180}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3540" yWindow="2835" windowWidth="21600" windowHeight="11295" tabRatio="877" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="180" windowWidth="27585" windowHeight="13020" tabRatio="877" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
-    <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId2"/>
-    <sheet name="Nature de fait" sheetId="5" r:id="rId3"/>
-    <sheet name="Type de lieu" sheetId="6" r:id="rId4"/>
-    <sheet name="Risque, menace et sensibilité" sheetId="1" r:id="rId5"/>
-    <sheet name="Motif de recours médico-secouri" sheetId="7" r:id="rId6"/>
-    <sheet name="Attribution du dossier" sheetId="12" r:id="rId7"/>
-    <sheet name="Priorité de régulation médicale" sheetId="32" r:id="rId8"/>
-    <sheet name="Nombre de patients-victimes" sheetId="2" r:id="rId9"/>
-    <sheet name="Type de requérant" sheetId="11" r:id="rId10"/>
-    <sheet name="Difficultés de communication" sheetId="13" r:id="rId11"/>
-    <sheet name="Sexe" sheetId="26" r:id="rId12"/>
-    <sheet name="Niveau de soin" sheetId="29" r:id="rId13"/>
-    <sheet name="Type de décision" sheetId="30" r:id="rId14"/>
-    <sheet name="Type de ressource" sheetId="36" r:id="rId15"/>
-    <sheet name="Type de vecteurs" sheetId="37" r:id="rId16"/>
-    <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId17"/>
-    <sheet name="Type de devenir du patient" sheetId="35" r:id="rId18"/>
-    <sheet name="#Effet à obtenir" sheetId="10" r:id="rId19"/>
+    <sheet name="Nature de fait" sheetId="5" r:id="rId2"/>
+    <sheet name="Type de lieu" sheetId="6" r:id="rId3"/>
+    <sheet name="Risque, menace et sensibilité" sheetId="1" r:id="rId4"/>
+    <sheet name="Motif de recours médico-secouri" sheetId="7" r:id="rId5"/>
+    <sheet name="Attribution du dossier" sheetId="12" r:id="rId6"/>
+    <sheet name="Priorité de régulation médicale" sheetId="32" r:id="rId7"/>
+    <sheet name="Type de requérant" sheetId="11" r:id="rId8"/>
+    <sheet name="Difficultés de communication" sheetId="13" r:id="rId9"/>
+    <sheet name="Sexe" sheetId="26" r:id="rId10"/>
+    <sheet name="Niveau de soin" sheetId="29" r:id="rId11"/>
+    <sheet name="Type de décision" sheetId="30" r:id="rId12"/>
+    <sheet name="Type de ressource" sheetId="36" r:id="rId13"/>
+    <sheet name="Type de vecteurs" sheetId="37" r:id="rId14"/>
+    <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId15"/>
+    <sheet name="Type de devenir du patient" sheetId="35" r:id="rId16"/>
+    <sheet name="#Effet à obtenir" sheetId="10" r:id="rId17"/>
+    <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId18"/>
+    <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$4:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$4:$K$20</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1878">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -4473,300 +4473,6 @@
     <t>CodeEffet_a_obtenir</t>
   </si>
   <si>
-    <t>EO.01.01</t>
-  </si>
-  <si>
-    <t>SECURITE PUBLIQUE</t>
-  </si>
-  <si>
-    <t>INDIVIDU(S) VIOLENT(S) NON ARME(S)</t>
-  </si>
-  <si>
-    <t>EO.01.02</t>
-  </si>
-  <si>
-    <t>INDIVIDU(S) VIOLENT(S) ARME(S)</t>
-  </si>
-  <si>
-    <t>EO.01.03</t>
-  </si>
-  <si>
-    <t>DECOUVERTE ARME / OBJET DANGEREUX</t>
-  </si>
-  <si>
-    <t>EO.01.04</t>
-  </si>
-  <si>
-    <t>BESOIN DEMINAGE</t>
-  </si>
-  <si>
-    <t>EO.01.05</t>
-  </si>
-  <si>
-    <t>IPM</t>
-  </si>
-  <si>
-    <t>EO.01.06</t>
-  </si>
-  <si>
-    <t>CONSTATATIONS / ENQUETE</t>
-  </si>
-  <si>
-    <t>EO.01.07</t>
-  </si>
-  <si>
-    <t>ASSISTANCE DEMINAGE</t>
-  </si>
-  <si>
-    <t>EO.02.01</t>
-  </si>
-  <si>
-    <t>PROTECTION &amp; SOUTIEN</t>
-  </si>
-  <si>
-    <t>PERIMETRE DE SECURITE</t>
-  </si>
-  <si>
-    <t>EO.02.02</t>
-  </si>
-  <si>
-    <t>SECURISATION PARTENAIRES INTERVENANTS</t>
-  </si>
-  <si>
-    <t>EO.02.03</t>
-  </si>
-  <si>
-    <t>ESCORTE / ASSISTANCE CIRCULATION PARTENAIRE</t>
-  </si>
-  <si>
-    <t>EO.02.04</t>
-  </si>
-  <si>
-    <t>GESTION CIRCULATION ROUTIERE</t>
-  </si>
-  <si>
-    <t>EO.02.05</t>
-  </si>
-  <si>
-    <t>BESOIN SECOURISTE / PERSONNE(S) BLESSE(ES)</t>
-  </si>
-  <si>
-    <t>EO.03.01</t>
-  </si>
-  <si>
-    <t>TRANSPORT</t>
-  </si>
-  <si>
-    <t>TRANSPORT DE PERSONNE</t>
-  </si>
-  <si>
-    <t>EO.03.02</t>
-  </si>
-  <si>
-    <t>TRANSPORT BARIATRIQUE</t>
-  </si>
-  <si>
-    <t>EO.03.03</t>
-  </si>
-  <si>
-    <t>BRANCARDAGE</t>
-  </si>
-  <si>
-    <t>EO.03.04</t>
-  </si>
-  <si>
-    <t>CARENCE AMBULATOIRE</t>
-  </si>
-  <si>
-    <t>EO.03.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSFERT INTERETABLISSEMENT </t>
-  </si>
-  <si>
-    <t>EO.04.01</t>
-  </si>
-  <si>
-    <t>SECOURS A LA PERSONNE</t>
-  </si>
-  <si>
-    <t>OUVERTURE ACCES DANS LOCAL</t>
-  </si>
-  <si>
-    <t>EO.04.02</t>
-  </si>
-  <si>
-    <t>RECHERCHE PERSONNES</t>
-  </si>
-  <si>
-    <t>EO.04.03</t>
-  </si>
-  <si>
-    <t>SIGNALEMENT RECHERCHE PERSONNES</t>
-  </si>
-  <si>
-    <t>EO.04.04</t>
-  </si>
-  <si>
-    <t>VICTIME ENSEVELIE</t>
-  </si>
-  <si>
-    <t>EO.04.05</t>
-  </si>
-  <si>
-    <t>PRISE EN CHARGE PERSONNES VULNERABLES</t>
-  </si>
-  <si>
-    <t>EO.04.06</t>
-  </si>
-  <si>
-    <t>INFORMATION SIGNALEMENT AUTEUR</t>
-  </si>
-  <si>
-    <t>EO.04.07</t>
-  </si>
-  <si>
-    <t>DESINCARCERATION</t>
-  </si>
-  <si>
-    <t>EO.04.08</t>
-  </si>
-  <si>
-    <t>DEGAGEMENT DE PERSONNE</t>
-  </si>
-  <si>
-    <t>EO.04.09</t>
-  </si>
-  <si>
-    <t>EVACUATION EN HAUTEUR</t>
-  </si>
-  <si>
-    <t>EO.04.10</t>
-  </si>
-  <si>
-    <t>INTERVENTION MILIEU DIFFICILE D'ACCES</t>
-  </si>
-  <si>
-    <t>EO.04.11</t>
-  </si>
-  <si>
-    <t>RELEVAGE</t>
-  </si>
-  <si>
-    <t>EO.05.01</t>
-  </si>
-  <si>
-    <t>SOINS D'URGENCE</t>
-  </si>
-  <si>
-    <t>ANALYSE MEDICO ADMINISTRATIVE</t>
-  </si>
-  <si>
-    <t>EO.05.02</t>
-  </si>
-  <si>
-    <t>NOMBREUSES VICTIMES</t>
-  </si>
-  <si>
-    <t>EO.05.03</t>
-  </si>
-  <si>
-    <t>MEDICALISATION OU EVALUATION MEDICALE</t>
-  </si>
-  <si>
-    <t>EO.05.04</t>
-  </si>
-  <si>
-    <t>PRISE EN CHARGE SECOURISTE</t>
-  </si>
-  <si>
-    <t>EO.05.05</t>
-  </si>
-  <si>
-    <t>RISQUES INFECTIEUX</t>
-  </si>
-  <si>
-    <t>EO.05.06</t>
-  </si>
-  <si>
-    <t>SOUTIEN MEDICO PSYCHOLOGIQUE ???</t>
-  </si>
-  <si>
-    <t>EO.05.07</t>
-  </si>
-  <si>
-    <t>PRISE EN CHARGE SOCIALE</t>
-  </si>
-  <si>
-    <t>EO.05.08</t>
-  </si>
-  <si>
-    <t>PARA MEDICALISATION</t>
-  </si>
-  <si>
-    <t>EO.06.01</t>
-  </si>
-  <si>
-    <t>SECOURS RISQUE INCENDIE,  TECHNOLOGIQUE ET NATUREL</t>
-  </si>
-  <si>
-    <t>LUTTE INCENDIE</t>
-  </si>
-  <si>
-    <t>EO.06.02</t>
-  </si>
-  <si>
-    <t>ODEUR SUSPECTE</t>
-  </si>
-  <si>
-    <t>EO.06.03</t>
-  </si>
-  <si>
-    <t>LUTTE POLLUTION / NRBC</t>
-  </si>
-  <si>
-    <t>EO.06.04</t>
-  </si>
-  <si>
-    <t>RISQUE TECHNOLOGIQUE</t>
-  </si>
-  <si>
-    <t>EO.06.05</t>
-  </si>
-  <si>
-    <t>CHUTE DE MATERIAUX</t>
-  </si>
-  <si>
-    <t>EO.06.06</t>
-  </si>
-  <si>
-    <t>RISQUE EFFONDREMENT / MOUVEMENT DE TERRAIN</t>
-  </si>
-  <si>
-    <t>EO.06.07</t>
-  </si>
-  <si>
-    <t>RISQUE EAU</t>
-  </si>
-  <si>
-    <t>EO.06.08</t>
-  </si>
-  <si>
-    <t>ANIMAL DANGEREUX ET/OU EN DETRESSE</t>
-  </si>
-  <si>
-    <t>EO.07.01</t>
-  </si>
-  <si>
-    <t>TOUTE SITUATION</t>
-  </si>
-  <si>
-    <t>INFORMATION FAMILLE VICTIMES</t>
-  </si>
-  <si>
-    <t>EO.07.02</t>
-  </si>
-  <si>
     <t>DEVENIRD</t>
   </si>
   <si>
@@ -6067,9 +5773,6 @@
     <t>Risque, menace et sensibilité</t>
   </si>
   <si>
-    <t>Nombre de patients-victimes</t>
-  </si>
-  <si>
     <t>Type de requérant</t>
   </si>
   <si>
@@ -6140,13 +5843,79 @@
   </si>
   <si>
     <t>Motif de recours médico-secouriste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demander une prise en charge secouriste </t>
+  </si>
+  <si>
+    <t>Demander une régulation médicale</t>
+  </si>
+  <si>
+    <t>Demander un soutien médico psychologique</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge médicale</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge para médicale</t>
+  </si>
+  <si>
+    <t>Autre demande de concours au SAMU</t>
+  </si>
+  <si>
+    <t>Demander le transport d'une personne</t>
+  </si>
+  <si>
+    <t>Demander la recherche de personne(s) ensevelie(s)</t>
+  </si>
+  <si>
+    <t>Demander de relever une personne</t>
+  </si>
+  <si>
+    <t>Demander d'extraire ou degager une personne</t>
+  </si>
+  <si>
+    <t>Demander un appui pour évacuation</t>
+  </si>
+  <si>
+    <t>Lutter contre l'incendie</t>
+  </si>
+  <si>
+    <t>Demander une levée de doute CO</t>
+  </si>
+  <si>
+    <t>Demander une levée de doute NRBC</t>
+  </si>
+  <si>
+    <t>Demander une levée de doute d'odeur/fumée suspecte</t>
+  </si>
+  <si>
+    <t>Demander un appui technique</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge de nombreuses victimes</t>
+  </si>
+  <si>
+    <t>Autre demande de concours au SIS</t>
+  </si>
+  <si>
+    <t>Demander un transfert interétablissement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demander une aide au brancardage </t>
+  </si>
+  <si>
+    <t>Demander un transport bariatrique</t>
+  </si>
+  <si>
+    <t>Demander l'ouverture d'accès</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6300,11 +6069,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -6337,7 +6101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6369,6 +6133,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6376,7 +6181,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6459,15 +6264,24 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7821,19 +7635,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="56"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
@@ -7848,7 +7649,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
@@ -7863,7 +7664,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
@@ -7876,7 +7677,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
@@ -7890,20 +7691,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
   <tableColumns count="5">
@@ -7917,7 +7705,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
   <tableColumns count="6">
@@ -7932,7 +7720,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="5">
@@ -7941,6 +7729,32 @@
     <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8209,10 +8023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
-  <dimension ref="A1:K220"/>
+  <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -8228,12 +8042,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20"/>
@@ -8247,45 +8061,45 @@
     </row>
     <row r="4" spans="1:11" s="30" customFormat="1" ht="15">
       <c r="A4" s="29" t="s">
-        <v>1950</v>
+        <v>1851</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1926</v>
+        <v>1828</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>1927</v>
+        <v>1829</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>1918</v>
+        <v>1820</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>1919</v>
+        <v>1821</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>1920</v>
+        <v>1822</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>1944</v>
+        <v>1845</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>1943</v>
+        <v>1844</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>1945</v>
+        <v>1846</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>1946</v>
+        <v>1847</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>1947</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>1922</v>
+        <v>1823</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>1824</v>
       </c>
       <c r="C5" s="31" t="str">
         <f>'Nature de fait'!$B$1</f>
@@ -8296,16 +8110,16 @@
         <v>Code_Nature_de_fait</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -8313,10 +8127,10 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>1928</v>
+        <v>1823</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1830</v>
       </c>
       <c r="C6" s="31" t="str">
         <f>'Type de lieu'!$B$1</f>
@@ -8327,16 +8141,16 @@
         <v>Code_Type_de_lieu</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -8344,10 +8158,10 @@
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>1929</v>
+        <v>1823</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>1831</v>
       </c>
       <c r="C7" s="31" t="str">
         <f>'Risque, menace et sensibilité'!$B$1</f>
@@ -8358,16 +8172,16 @@
         <v>Code_Risque-Menace-Sensibilité</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -8375,10 +8189,10 @@
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>1954</v>
+        <v>1823</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>1855</v>
       </c>
       <c r="C8" s="38" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
@@ -8389,16 +8203,16 @@
         <v>Code_Motif_patient-victime</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -8406,10 +8220,10 @@
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>1925</v>
+        <v>1823</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>1827</v>
       </c>
       <c r="C9" s="31" t="str">
         <f>'Attribution du dossier'!$B$1</f>
@@ -8420,14 +8234,14 @@
         <v>DEVENIRD</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -8435,10 +8249,10 @@
     </row>
     <row r="10" spans="1:11" ht="15">
       <c r="A10" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>1934</v>
+        <v>1823</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>1835</v>
       </c>
       <c r="C10" s="31" t="str">
         <f>'Priorité de régulation médicale'!$B$1</f>
@@ -8449,14 +8263,14 @@
         <v>PRIORITE</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -8464,90 +8278,92 @@
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="31" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C11" s="39" t="str">
-        <f>'Nombre de patients-victimes'!$B$1</f>
-        <v>CISU</v>
+        <v>1826</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C11" s="31" t="str">
+        <f>'Type de requérant'!$B$1</f>
+        <v>SI-SAMU</v>
       </c>
       <c r="D11" s="31" t="str">
-        <f>'Nombre de patients-victimes'!$B$2</f>
-        <v>CodeNombre_de_patients-victimes</v>
+        <f>'Type de requérant'!$B$2</f>
+        <v>TYPAPPLT</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="H11" s="34"/>
+        <v>1849</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>1849</v>
+      </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="31" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>1931</v>
+        <v>1826</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>1833</v>
       </c>
       <c r="C12" s="31" t="str">
-        <f>'Type de requérant'!$B$1</f>
+        <f>'Difficultés de communication'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D12" s="31" t="str">
-        <f>'Type de requérant'!$B$2</f>
-        <v>TYPAPPLT</v>
+        <f>'Difficultés de communication'!$B$2</f>
+        <v>PBAPL</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="31" t="s">
-        <v>1924</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>1932</v>
+      <c r="A13" s="32" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>1836</v>
       </c>
       <c r="C13" s="31" t="str">
-        <f>'Difficultés de communication'!$B$1</f>
+        <f>Sexe!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D13" s="31" t="str">
-        <f>'Difficultés de communication'!$B$2</f>
-        <v>PBAPL</v>
+        <f>Sexe!$B$2</f>
+        <v>NOMENC_SEXE</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
@@ -8555,59 +8371,59 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="32" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>1935</v>
+        <v>1842</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>1837</v>
       </c>
       <c r="C14" s="31" t="str">
-        <f>Sexe!$B$1</f>
+        <f>'Niveau de soin'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D14" s="31" t="str">
-        <f>Sexe!$B$2</f>
-        <v>NOMENC_SEXE</v>
+        <f>'Niveau de soin'!$B$2</f>
+        <v>GRAVITE</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>1948</v>
-      </c>
+        <v>1841</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="32" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>1936</v>
+      <c r="A15" s="31" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>1838</v>
       </c>
       <c r="C15" s="31" t="str">
-        <f>'Niveau de soin'!$B$1</f>
+        <f>'Type de décision'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D15" s="31" t="str">
-        <f>'Niveau de soin'!$B$2</f>
-        <v>GRAVITE</v>
+        <f>'Type de décision'!$B$2</f>
+        <v>TYPEDEC</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G15" s="34"/>
+        <v>1841</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>1849</v>
+      </c>
       <c r="H15" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
@@ -8615,202 +8431,184 @@
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="31" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C16" s="31" t="str">
-        <f>'Type de décision'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D16" s="31" t="str">
-        <f>'Type de décision'!$B$2</f>
-        <v>TYPEDEC</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="31" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C17" s="37" t="str">
+        <v>1852</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C16" s="37" t="str">
         <f>'Type de ressource'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D17" s="31" t="str">
+      <c r="D16" s="31" t="str">
         <f>'Type de ressource'!$B$2</f>
         <v>TYPE_MOYEN</v>
       </c>
+      <c r="E16" s="33" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15">
+      <c r="A17" s="32" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C17" s="31" t="str">
+        <f>'Type de vecteurs'!$B$1</f>
+        <v>CISU</v>
+      </c>
+      <c r="D17" s="31" t="str">
+        <f>'Type de vecteurs'!$B$2</f>
+        <v>TYPE_VECTEUR</v>
+      </c>
       <c r="E17" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>1940</v>
+        <v>1841</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="32" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>1953</v>
+      <c r="A18" s="31" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>1850</v>
       </c>
       <c r="C18" s="31" t="str">
-        <f>'Type de vecteurs'!$B$1</f>
-        <v>CISU</v>
+        <f>'Niveau de prise en charge'!$B$1</f>
+        <v>SI-SAMU</v>
       </c>
       <c r="D18" s="31" t="str">
-        <f>'Type de vecteurs'!$B$2</f>
-        <v>TYPE_VECTEUR</v>
+        <f>'Niveau de prise en charge'!$B$2</f>
+        <v>NIVSOIN</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>1923</v>
+        <v>1825</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G18" s="34"/>
+        <v>1841</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>1849</v>
+      </c>
       <c r="H18" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="34" t="s">
-        <v>1948</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15">
       <c r="A19" s="31" t="s">
-        <v>1951</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>1949</v>
+        <v>1843</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>1839</v>
       </c>
       <c r="C19" s="31" t="str">
-        <f>'Niveau de prise en charge'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D19" s="31" t="str">
-        <f>'Niveau de prise en charge'!$B$2</f>
-        <v>NIVSOIN</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="31" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C20" s="31" t="str">
         <f>'Type de devenir du patient'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D20" s="31" t="str">
+      <c r="D19" s="31" t="str">
         <f>'Type de devenir du patient'!$B$2</f>
         <v>NOMENC_DEVENIR_PAT</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="32" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C21" s="31" t="str">
+      <c r="E19" s="33" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+    </row>
+    <row r="20" spans="1:11" ht="15">
+      <c r="A20" s="32" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C20" s="31" t="str">
         <f>'#Effet à obtenir'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D21" s="31" t="str">
+      <c r="D20" s="31" t="str">
         <f>'#Effet à obtenir'!$B$2</f>
         <v>CodeEffet_a_obtenir</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>1940</v>
-      </c>
+      <c r="E20" s="33" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34" t="s">
+        <v>1849</v>
+      </c>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:11" ht="15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="J21" s="34" t="s">
-        <v>1948</v>
-      </c>
+      <c r="J21" s="34"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
+    <row r="22" spans="1:11">
       <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -9098,11 +8896,11 @@
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="32"/>
@@ -11379,25 +11177,12 @@
       <c r="J219" s="32"/>
       <c r="K219" s="32"/>
     </row>
-    <row r="220" spans="1:11">
-      <c r="A220" s="32"/>
-      <c r="B220" s="32"/>
-      <c r="C220" s="32"/>
-      <c r="D220" s="32"/>
-      <c r="E220" s="32"/>
-      <c r="F220" s="32"/>
-      <c r="G220" s="32"/>
-      <c r="H220" s="32"/>
-      <c r="I220" s="32"/>
-      <c r="J220" s="32"/>
-      <c r="K220" s="32"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:K21" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
+  <autoFilter ref="A4:K20" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:K220">
+  <conditionalFormatting sqref="A5:K219">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -11405,7 +11190,7 @@
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:K21">
+  <conditionalFormatting sqref="G5:K20">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>G5=""</formula>
     </cfRule>
@@ -11416,755 +11201,32 @@
   <hyperlinks>
     <hyperlink ref="E5" location="'Nature de fait'!A1" display="Lien nomenclature" xr:uid="{539BD578-8B92-438E-9797-279F8E85B856}"/>
     <hyperlink ref="E6" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{83312ADE-108A-4D25-8BE7-27C9395C4886}"/>
-    <hyperlink ref="E7:E21" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{29712ED5-564A-4FD2-8437-4B4AE7679944}"/>
+    <hyperlink ref="E7:E20" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{29712ED5-564A-4FD2-8437-4B4AE7679944}"/>
     <hyperlink ref="E7" location="'Risque, menace et sensibilité'!A1" display="Lien nomenclature" xr:uid="{9F738CF9-B437-4A27-8CF2-C50C5C0734F4}"/>
     <hyperlink ref="E8" location="'Motif de recours médico-secouri'!A1" display="Lien nomenclature" xr:uid="{34887817-DE20-4996-9B54-60201BD7BF6B}"/>
     <hyperlink ref="E9" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{3EDF5532-205A-406E-822B-B79908DFAF6A}"/>
     <hyperlink ref="E10" location="'Priorité de régulation médicale'!A1" display="Lien nomenclature" xr:uid="{D59E4120-4823-486C-9505-D44F77A631EC}"/>
-    <hyperlink ref="E11" location="'Nombre de patients-victimes'!A1" display="Lien nomenclature" xr:uid="{688EC436-E473-43C0-8092-DE52AC66163C}"/>
-    <hyperlink ref="E12" location="'Type de requérant'!A1" display="Lien nomenclature" xr:uid="{379E2147-AD1C-464C-83FF-DA5B8754B9E0}"/>
-    <hyperlink ref="E13" location="'Difficultés de communication'!A1" display="Lien nomenclature" xr:uid="{178F7592-0B6B-4DA8-89F4-525A55C10FA0}"/>
-    <hyperlink ref="E14" location="Sexe!A1" display="Lien nomenclature" xr:uid="{65BDA639-D0DB-4DC1-8264-8E35FE3B2996}"/>
-    <hyperlink ref="E15" location="'Niveau de soin'!A1" display="Lien nomenclature" xr:uid="{30F27E7E-2FB0-4F79-A16D-620776E8FCF1}"/>
-    <hyperlink ref="E16" location="'Type de décision'!A1" display="Lien nomenclature" xr:uid="{4F195D5A-2BD1-4EA9-BE69-3011CC92C820}"/>
-    <hyperlink ref="E17" location="'Type de ressource'!A1" display="Lien nomenclature" xr:uid="{3CDD18B1-CEEB-4D52-9CB8-283B075579C8}"/>
-    <hyperlink ref="E18" location="'Type de vecteurs'!A1" display="Lien nomenclature" xr:uid="{4A249EF4-3DA2-4A6E-947A-08D74AFD0EF9}"/>
-    <hyperlink ref="E19" location="'Niveau de prise en charge'!A1" display="Lien nomenclature" xr:uid="{2154EBB7-71EE-44B5-BBEE-716579483CDC}"/>
-    <hyperlink ref="E20" location="'Type de devenir du patient'!A1" display="Lien nomenclature" xr:uid="{0E2A9314-0B8D-4156-A7C3-BC0E2885D9D2}"/>
-    <hyperlink ref="E21" location="'Effet à obtenir'!A1" display="Lien nomenclature" xr:uid="{F32B9CB2-26FC-4D51-B612-B9EB269DC3B1}"/>
+    <hyperlink ref="E11" location="'Type de requérant'!A1" display="Lien nomenclature" xr:uid="{379E2147-AD1C-464C-83FF-DA5B8754B9E0}"/>
+    <hyperlink ref="E12" location="'Difficultés de communication'!A1" display="Lien nomenclature" xr:uid="{178F7592-0B6B-4DA8-89F4-525A55C10FA0}"/>
+    <hyperlink ref="E13" location="Sexe!A1" display="Lien nomenclature" xr:uid="{65BDA639-D0DB-4DC1-8264-8E35FE3B2996}"/>
+    <hyperlink ref="E14" location="'Niveau de soin'!A1" display="Lien nomenclature" xr:uid="{30F27E7E-2FB0-4F79-A16D-620776E8FCF1}"/>
+    <hyperlink ref="E15" location="'Type de décision'!A1" display="Lien nomenclature" xr:uid="{4F195D5A-2BD1-4EA9-BE69-3011CC92C820}"/>
+    <hyperlink ref="E16" location="'Type de ressource'!A1" display="Lien nomenclature" xr:uid="{3CDD18B1-CEEB-4D52-9CB8-283B075579C8}"/>
+    <hyperlink ref="E17" location="'Type de vecteurs'!A1" display="Lien nomenclature" xr:uid="{4A249EF4-3DA2-4A6E-947A-08D74AFD0EF9}"/>
+    <hyperlink ref="E18" location="'Niveau de prise en charge'!A1" display="Lien nomenclature" xr:uid="{2154EBB7-71EE-44B5-BBEE-716579483CDC}"/>
+    <hyperlink ref="E19" location="'Type de devenir du patient'!A1" display="Lien nomenclature" xr:uid="{0E2A9314-0B8D-4156-A7C3-BC0E2885D9D2}"/>
+    <hyperlink ref="E20" location="'Effet à obtenir'!A1" display="Lien nomenclature" xr:uid="{F32B9CB2-26FC-4D51-B612-B9EB269DC3B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29F356B-BB22-47DE-A619-877383F0285B}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="18" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>1315</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="45">
-      <c r="A11" s="18" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="18" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="18" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="18" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="45">
-      <c r="A15" s="18" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="18" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="18" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="18" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="60">
-      <c r="A19" s="18" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="18" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="18" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="18" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="18" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="18" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
-        <v>1357</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="18" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="18" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="18" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="30">
-      <c r="A28" s="18" t="s">
-        <v>1367</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="18" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="18" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E0C67-8E04-4A24-A8C2-D8A28C233AFE}">
-  <dimension ref="A1:F30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="18" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="45">
-      <c r="A11" s="18" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19" t="s">
-        <v>1383</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="45">
-      <c r="A12" s="18" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="18" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19" t="s">
-        <v>1389</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="45">
-      <c r="A14" s="18" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="18" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="19" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="18" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="18" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19" t="s">
-        <v>1400</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="18" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF6AB4-B57F-443F-8D0D-BF02A9C5B3B9}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12191,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1624</v>
+        <v>1526</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12211,7 +11273,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1504</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12272,24 +11334,24 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
-        <v>1625</v>
+        <v>1527</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1626</v>
+        <v>1528</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1627</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="20" t="s">
-        <v>1628</v>
+        <v>1530</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1629</v>
+        <v>1531</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>1630</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -12297,10 +11359,10 @@
         <v>1370</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1631</v>
+        <v>1533</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>1632</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -12308,10 +11370,10 @@
         <v>1373</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1633</v>
+        <v>1535</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>1634</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -12319,7 +11381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B8C8C-87E7-449D-BC82-028AFFEC58AC}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -12352,7 +11414,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1635</v>
+        <v>1537</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12372,7 +11434,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1504</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12433,57 +11495,57 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>1636</v>
+        <v>1538</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1637</v>
+        <v>1539</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="20" t="s">
-        <v>1638</v>
+        <v>1540</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
-        <v>1639</v>
+        <v>1541</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1640</v>
+        <v>1542</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="20" t="s">
-        <v>1641</v>
+        <v>1543</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
-        <v>1642</v>
+        <v>1544</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1643</v>
+        <v>1545</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="20" t="s">
-        <v>1644</v>
+        <v>1546</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>1645</v>
+        <v>1547</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1646</v>
+        <v>1548</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="20" t="s">
-        <v>1647</v>
+        <v>1549</v>
       </c>
       <c r="F13" s="18"/>
     </row>
@@ -12748,7 +11810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27DA8262-2222-433E-B162-3866A2FDA084}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -12781,7 +11843,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1648</v>
+        <v>1550</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12801,7 +11863,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1504</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12862,81 +11924,81 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>1649</v>
+        <v>1551</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1650</v>
+        <v>1552</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1651</v>
+        <v>1553</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>1652</v>
+        <v>1554</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
-        <v>1653</v>
+        <v>1555</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1654</v>
+        <v>1556</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>1655</v>
+        <v>1557</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>1656</v>
+        <v>1558</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
-        <v>1657</v>
+        <v>1559</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1658</v>
+        <v>1560</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1659</v>
+        <v>1561</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>1660</v>
+        <v>1562</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>1661</v>
+        <v>1563</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1662</v>
+        <v>1564</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1663</v>
+        <v>1565</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>1664</v>
+        <v>1566</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
-        <v>1665</v>
+        <v>1567</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1666</v>
+        <v>1568</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>1667</v>
+        <v>1569</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>1668</v>
+        <v>1570</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -13193,7 +12255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407A0FF-6A83-4239-B794-9A5636395AD1}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -13225,7 +12287,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1678</v>
+        <v>1580</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13277,7 +12339,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1707</v>
+        <v>1609</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -13304,114 +12366,114 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1680</v>
+        <v>1582</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1697</v>
+        <v>1599</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
-        <v>1681</v>
+        <v>1583</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1682</v>
+        <v>1584</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1698</v>
+        <v>1600</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1684</v>
+        <v>1586</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1699</v>
+        <v>1601</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
-        <v>1685</v>
+        <v>1587</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1686</v>
+        <v>1588</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="21" t="s">
-        <v>1700</v>
+        <v>1602</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" s="36" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1688</v>
+        <v>1590</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>1701</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>1914</v>
+        <v>1816</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1696</v>
+        <v>1598</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>1702</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
-        <v>1689</v>
+        <v>1591</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1690</v>
+        <v>1592</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="21" t="s">
-        <v>1703</v>
+        <v>1605</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
-        <v>1691</v>
+        <v>1593</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1692</v>
+        <v>1594</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="21" t="s">
-        <v>1704</v>
+        <v>1606</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
-        <v>1693</v>
+        <v>1595</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1694</v>
+        <v>1596</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="21" t="s">
-        <v>1705</v>
+        <v>1607</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -13420,11 +12482,11 @@
         <v>1370</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1695</v>
+        <v>1597</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="21" t="s">
-        <v>1706</v>
+        <v>1608</v>
       </c>
       <c r="F19" s="18"/>
     </row>
@@ -13641,7 +12703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F71"/>
   <sheetViews>
@@ -13674,7 +12736,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1751</v>
+        <v>1653</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13726,7 +12788,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1707</v>
+        <v>1609</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -13753,55 +12815,55 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1753</v>
+        <v>1655</v>
       </c>
       <c r="B10" t="s">
-        <v>1752</v>
+        <v>1654</v>
       </c>
       <c r="C10" t="s">
-        <v>1753</v>
+        <v>1655</v>
       </c>
       <c r="F10" t="s">
-        <v>1914</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1874</v>
+        <v>1776</v>
       </c>
       <c r="B11" t="s">
-        <v>1754</v>
+        <v>1656</v>
       </c>
       <c r="C11" t="s">
-        <v>1755</v>
+        <v>1657</v>
       </c>
       <c r="F11" t="s">
-        <v>1914</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1875</v>
+        <v>1777</v>
       </c>
       <c r="B12" t="s">
-        <v>1756</v>
+        <v>1658</v>
       </c>
       <c r="C12" t="s">
-        <v>1757</v>
+        <v>1659</v>
       </c>
       <c r="F12" t="s">
-        <v>1914</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1759</v>
+        <v>1661</v>
       </c>
       <c r="B13" t="s">
-        <v>1758</v>
+        <v>1660</v>
       </c>
       <c r="C13" t="s">
-        <v>1759</v>
+        <v>1661</v>
       </c>
       <c r="F13" t="s">
         <v>1370</v>
@@ -13809,13 +12871,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1876</v>
+        <v>1778</v>
       </c>
       <c r="B14" t="s">
-        <v>1760</v>
+        <v>1662</v>
       </c>
       <c r="C14" t="s">
-        <v>1761</v>
+        <v>1663</v>
       </c>
       <c r="F14" t="s">
         <v>1370</v>
@@ -13826,10 +12888,10 @@
         <v>1370</v>
       </c>
       <c r="B15" t="s">
-        <v>1762</v>
+        <v>1664</v>
       </c>
       <c r="C15" t="s">
-        <v>1763</v>
+        <v>1665</v>
       </c>
       <c r="F15" t="s">
         <v>1370</v>
@@ -13837,13 +12899,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1765</v>
+        <v>1667</v>
       </c>
       <c r="B16" t="s">
-        <v>1764</v>
+        <v>1666</v>
       </c>
       <c r="C16" t="s">
-        <v>1765</v>
+        <v>1667</v>
       </c>
       <c r="F16" t="s">
         <v>1370</v>
@@ -13851,13 +12913,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1767</v>
+        <v>1669</v>
       </c>
       <c r="B17" t="s">
-        <v>1766</v>
+        <v>1668</v>
       </c>
       <c r="C17" t="s">
-        <v>1767</v>
+        <v>1669</v>
       </c>
       <c r="F17" t="s">
         <v>1370</v>
@@ -13865,13 +12927,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1603</v>
+        <v>1505</v>
       </c>
       <c r="B18" t="s">
-        <v>1768</v>
+        <v>1670</v>
       </c>
       <c r="C18" t="s">
-        <v>1769</v>
+        <v>1671</v>
       </c>
       <c r="F18" t="s">
         <v>1370</v>
@@ -13879,13 +12941,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1877</v>
+        <v>1779</v>
       </c>
       <c r="B19" t="s">
-        <v>1770</v>
+        <v>1672</v>
       </c>
       <c r="C19" t="s">
-        <v>1771</v>
+        <v>1673</v>
       </c>
       <c r="F19" t="s">
         <v>1370</v>
@@ -13896,7 +12958,7 @@
         <v>1373</v>
       </c>
       <c r="B20" t="s">
-        <v>1772</v>
+        <v>1674</v>
       </c>
       <c r="C20" t="s">
         <v>1373</v>
@@ -13907,13 +12969,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1649</v>
+        <v>1551</v>
       </c>
       <c r="B21" t="s">
-        <v>1773</v>
+        <v>1675</v>
       </c>
       <c r="C21" t="s">
-        <v>1774</v>
+        <v>1676</v>
       </c>
       <c r="F21" t="s">
         <v>1370</v>
@@ -13921,114 +12983,114 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1693</v>
+        <v>1595</v>
       </c>
       <c r="B22" t="s">
-        <v>1775</v>
+        <v>1677</v>
       </c>
       <c r="C22" t="s">
-        <v>1693</v>
+        <v>1595</v>
       </c>
       <c r="F22" t="s">
-        <v>1693</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1878</v>
+        <v>1780</v>
       </c>
       <c r="B23" t="s">
-        <v>1776</v>
+        <v>1678</v>
       </c>
       <c r="C23" t="s">
-        <v>1777</v>
+        <v>1679</v>
       </c>
       <c r="F23" t="s">
-        <v>1915</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1879</v>
+        <v>1781</v>
       </c>
       <c r="B24" t="s">
-        <v>1778</v>
+        <v>1680</v>
       </c>
       <c r="C24" t="s">
-        <v>1779</v>
+        <v>1681</v>
       </c>
       <c r="F24" t="s">
-        <v>1915</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1880</v>
+        <v>1782</v>
       </c>
       <c r="B25" t="s">
-        <v>1780</v>
+        <v>1682</v>
       </c>
       <c r="C25" t="s">
-        <v>1781</v>
+        <v>1683</v>
       </c>
       <c r="F25" t="s">
-        <v>1915</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1881</v>
+        <v>1783</v>
       </c>
       <c r="B26" t="s">
-        <v>1782</v>
+        <v>1684</v>
       </c>
       <c r="C26" t="s">
-        <v>1783</v>
+        <v>1685</v>
       </c>
       <c r="F26" t="s">
-        <v>1915</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1882</v>
+        <v>1784</v>
       </c>
       <c r="B27" t="s">
-        <v>1784</v>
+        <v>1686</v>
       </c>
       <c r="C27" t="s">
-        <v>1785</v>
+        <v>1687</v>
       </c>
       <c r="F27" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1883</v>
+        <v>1785</v>
       </c>
       <c r="B28" t="s">
-        <v>1786</v>
+        <v>1688</v>
       </c>
       <c r="C28" t="s">
-        <v>1787</v>
+        <v>1689</v>
       </c>
       <c r="F28" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1884</v>
+        <v>1786</v>
       </c>
       <c r="B29" t="s">
-        <v>1788</v>
+        <v>1690</v>
       </c>
       <c r="C29" t="s">
-        <v>1789</v>
+        <v>1691</v>
       </c>
       <c r="F29" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -14036,587 +13098,587 @@
         <v>1347</v>
       </c>
       <c r="B30" t="s">
-        <v>1790</v>
+        <v>1692</v>
       </c>
       <c r="C30" t="s">
-        <v>1791</v>
+        <v>1693</v>
       </c>
       <c r="F30" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1885</v>
+        <v>1787</v>
       </c>
       <c r="B31" t="s">
-        <v>1792</v>
+        <v>1694</v>
       </c>
       <c r="C31" t="s">
-        <v>1793</v>
+        <v>1695</v>
       </c>
       <c r="F31" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1513</v>
+        <v>1415</v>
       </c>
       <c r="B32" t="s">
-        <v>1794</v>
+        <v>1696</v>
       </c>
       <c r="C32" t="s">
-        <v>1795</v>
+        <v>1697</v>
       </c>
       <c r="F32" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1886</v>
+        <v>1788</v>
       </c>
       <c r="B33" t="s">
-        <v>1796</v>
+        <v>1698</v>
       </c>
       <c r="C33" t="s">
-        <v>1797</v>
+        <v>1699</v>
       </c>
       <c r="F33" t="s">
-        <v>1683</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1887</v>
+        <v>1789</v>
       </c>
       <c r="B34" t="s">
-        <v>1798</v>
+        <v>1700</v>
       </c>
       <c r="C34" t="s">
-        <v>1799</v>
+        <v>1701</v>
       </c>
       <c r="F34" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1888</v>
+        <v>1790</v>
       </c>
       <c r="B35" t="s">
-        <v>1800</v>
+        <v>1702</v>
       </c>
       <c r="C35" t="s">
-        <v>1801</v>
+        <v>1703</v>
       </c>
       <c r="F35" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1803</v>
+        <v>1705</v>
       </c>
       <c r="B36" t="s">
-        <v>1802</v>
+        <v>1704</v>
       </c>
       <c r="C36" t="s">
-        <v>1803</v>
+        <v>1705</v>
       </c>
       <c r="F36" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1805</v>
+        <v>1707</v>
       </c>
       <c r="B37" t="s">
-        <v>1804</v>
+        <v>1706</v>
       </c>
       <c r="C37" t="s">
-        <v>1805</v>
+        <v>1707</v>
       </c>
       <c r="F37" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1889</v>
+        <v>1791</v>
       </c>
       <c r="B38" t="s">
-        <v>1806</v>
+        <v>1708</v>
       </c>
       <c r="C38" t="s">
-        <v>1807</v>
+        <v>1709</v>
       </c>
       <c r="F38" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1890</v>
+        <v>1792</v>
       </c>
       <c r="B39" t="s">
-        <v>1808</v>
+        <v>1710</v>
       </c>
       <c r="C39" t="s">
-        <v>1809</v>
+        <v>1711</v>
       </c>
       <c r="F39" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1891</v>
+        <v>1793</v>
       </c>
       <c r="B40" t="s">
-        <v>1810</v>
+        <v>1712</v>
       </c>
       <c r="C40" t="s">
-        <v>1811</v>
+        <v>1713</v>
       </c>
       <c r="F40" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1892</v>
+        <v>1794</v>
       </c>
       <c r="B41" t="s">
-        <v>1812</v>
+        <v>1714</v>
       </c>
       <c r="C41" t="s">
-        <v>1813</v>
+        <v>1715</v>
       </c>
       <c r="F41" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1893</v>
+        <v>1795</v>
       </c>
       <c r="B42" t="s">
-        <v>1814</v>
+        <v>1716</v>
       </c>
       <c r="C42" t="s">
-        <v>1815</v>
+        <v>1717</v>
       </c>
       <c r="F42" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1894</v>
+        <v>1796</v>
       </c>
       <c r="B43" t="s">
-        <v>1816</v>
+        <v>1718</v>
       </c>
       <c r="C43" t="s">
-        <v>1817</v>
+        <v>1719</v>
       </c>
       <c r="F43" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1895</v>
+        <v>1797</v>
       </c>
       <c r="B44" t="s">
-        <v>1818</v>
+        <v>1720</v>
       </c>
       <c r="C44" t="s">
-        <v>1819</v>
+        <v>1721</v>
       </c>
       <c r="F44" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1896</v>
+        <v>1798</v>
       </c>
       <c r="B45" t="s">
-        <v>1820</v>
+        <v>1722</v>
       </c>
       <c r="C45" t="s">
-        <v>1821</v>
+        <v>1723</v>
       </c>
       <c r="F45" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1897</v>
+        <v>1799</v>
       </c>
       <c r="B46" t="s">
-        <v>1822</v>
+        <v>1724</v>
       </c>
       <c r="C46" t="s">
-        <v>1823</v>
+        <v>1725</v>
       </c>
       <c r="F46" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1898</v>
+        <v>1800</v>
       </c>
       <c r="B47" t="s">
-        <v>1824</v>
+        <v>1726</v>
       </c>
       <c r="C47" t="s">
-        <v>1825</v>
+        <v>1727</v>
       </c>
       <c r="F47" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1899</v>
+        <v>1801</v>
       </c>
       <c r="B48" t="s">
-        <v>1826</v>
+        <v>1728</v>
       </c>
       <c r="C48" t="s">
-        <v>1827</v>
+        <v>1729</v>
       </c>
       <c r="F48" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1900</v>
+        <v>1802</v>
       </c>
       <c r="B49" t="s">
-        <v>1828</v>
+        <v>1730</v>
       </c>
       <c r="C49" t="s">
-        <v>1829</v>
+        <v>1731</v>
       </c>
       <c r="F49" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1901</v>
+        <v>1803</v>
       </c>
       <c r="B50" t="s">
-        <v>1830</v>
+        <v>1732</v>
       </c>
       <c r="C50" t="s">
-        <v>1831</v>
+        <v>1733</v>
       </c>
       <c r="F50" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1833</v>
+        <v>1735</v>
       </c>
       <c r="B51" t="s">
-        <v>1832</v>
+        <v>1734</v>
       </c>
       <c r="C51" t="s">
-        <v>1833</v>
+        <v>1735</v>
       </c>
       <c r="F51" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1835</v>
+        <v>1737</v>
       </c>
       <c r="B52" t="s">
-        <v>1834</v>
+        <v>1736</v>
       </c>
       <c r="C52" t="s">
-        <v>1835</v>
+        <v>1737</v>
       </c>
       <c r="F52" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1902</v>
+        <v>1804</v>
       </c>
       <c r="B53" t="s">
-        <v>1836</v>
+        <v>1738</v>
       </c>
       <c r="C53" t="s">
-        <v>1837</v>
+        <v>1739</v>
       </c>
       <c r="F53" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1903</v>
+        <v>1805</v>
       </c>
       <c r="B54" t="s">
-        <v>1838</v>
+        <v>1740</v>
       </c>
       <c r="C54" t="s">
-        <v>1839</v>
+        <v>1741</v>
       </c>
       <c r="F54" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1904</v>
+        <v>1806</v>
       </c>
       <c r="B55" t="s">
-        <v>1840</v>
+        <v>1742</v>
       </c>
       <c r="C55" t="s">
-        <v>1841</v>
+        <v>1743</v>
       </c>
       <c r="F55" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1843</v>
+        <v>1745</v>
       </c>
       <c r="B56" t="s">
-        <v>1842</v>
+        <v>1744</v>
       </c>
       <c r="C56" t="s">
-        <v>1843</v>
+        <v>1745</v>
       </c>
       <c r="F56" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1905</v>
+        <v>1807</v>
       </c>
       <c r="B57" t="s">
-        <v>1844</v>
+        <v>1746</v>
       </c>
       <c r="C57" t="s">
-        <v>1845</v>
+        <v>1747</v>
       </c>
       <c r="F57" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1906</v>
+        <v>1808</v>
       </c>
       <c r="B58" t="s">
-        <v>1846</v>
+        <v>1748</v>
       </c>
       <c r="C58" t="s">
-        <v>1847</v>
+        <v>1749</v>
       </c>
       <c r="F58" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1907</v>
+        <v>1809</v>
       </c>
       <c r="B59" t="s">
-        <v>1848</v>
+        <v>1750</v>
       </c>
       <c r="C59" t="s">
-        <v>1849</v>
+        <v>1751</v>
       </c>
       <c r="F59" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1851</v>
+        <v>1753</v>
       </c>
       <c r="B60" t="s">
-        <v>1850</v>
+        <v>1752</v>
       </c>
       <c r="C60" t="s">
-        <v>1851</v>
+        <v>1753</v>
       </c>
       <c r="F60" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1853</v>
+        <v>1755</v>
       </c>
       <c r="B61" t="s">
-        <v>1852</v>
+        <v>1754</v>
       </c>
       <c r="C61" t="s">
-        <v>1853</v>
+        <v>1755</v>
       </c>
       <c r="F61" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1855</v>
+        <v>1757</v>
       </c>
       <c r="B62" t="s">
-        <v>1854</v>
+        <v>1756</v>
       </c>
       <c r="C62" t="s">
-        <v>1855</v>
+        <v>1757</v>
       </c>
       <c r="F62" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1857</v>
+        <v>1759</v>
       </c>
       <c r="B63" t="s">
-        <v>1856</v>
+        <v>1758</v>
       </c>
       <c r="C63" t="s">
-        <v>1857</v>
+        <v>1759</v>
       </c>
       <c r="F63" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1908</v>
+        <v>1810</v>
       </c>
       <c r="B64" t="s">
-        <v>1858</v>
+        <v>1760</v>
       </c>
       <c r="C64" t="s">
-        <v>1859</v>
+        <v>1761</v>
       </c>
       <c r="F64" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1909</v>
+        <v>1811</v>
       </c>
       <c r="B65" t="s">
-        <v>1860</v>
+        <v>1762</v>
       </c>
       <c r="C65" t="s">
-        <v>1861</v>
+        <v>1763</v>
       </c>
       <c r="F65" t="s">
-        <v>1679</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1910</v>
+        <v>1812</v>
       </c>
       <c r="B66" t="s">
-        <v>1862</v>
+        <v>1764</v>
       </c>
       <c r="C66" t="s">
-        <v>1863</v>
+        <v>1765</v>
       </c>
       <c r="F66" t="s">
-        <v>1916</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1911</v>
+        <v>1813</v>
       </c>
       <c r="B67" t="s">
-        <v>1864</v>
+        <v>1766</v>
       </c>
       <c r="C67" t="s">
-        <v>1865</v>
+        <v>1767</v>
       </c>
       <c r="F67" t="s">
-        <v>1916</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1912</v>
+        <v>1814</v>
       </c>
       <c r="B68" t="s">
-        <v>1866</v>
+        <v>1768</v>
       </c>
       <c r="C68" t="s">
-        <v>1867</v>
+        <v>1769</v>
       </c>
       <c r="F68" t="s">
-        <v>1916</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1913</v>
+        <v>1815</v>
       </c>
       <c r="B69" t="s">
-        <v>1868</v>
+        <v>1770</v>
       </c>
       <c r="C69" t="s">
-        <v>1869</v>
+        <v>1771</v>
       </c>
       <c r="F69" t="s">
-        <v>1916</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1871</v>
+        <v>1773</v>
       </c>
       <c r="B70" t="s">
-        <v>1870</v>
+        <v>1772</v>
       </c>
       <c r="C70" t="s">
-        <v>1871</v>
+        <v>1773</v>
       </c>
       <c r="F70" t="s">
-        <v>1916</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1873</v>
+        <v>1775</v>
       </c>
       <c r="B71" t="s">
-        <v>1872</v>
+        <v>1774</v>
       </c>
       <c r="C71" t="s">
-        <v>1873</v>
+        <v>1775</v>
       </c>
       <c r="F71" t="s">
-        <v>1687</v>
+        <v>1589</v>
       </c>
     </row>
   </sheetData>
@@ -14624,7 +13686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF0C217-B984-434C-BFBC-BE2A43ACAFC2}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -14656,7 +13718,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1669</v>
+        <v>1571</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14676,7 +13738,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1504</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14740,40 +13802,40 @@
         <v>1332</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1670</v>
+        <v>1572</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1671</v>
+        <v>1573</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
-        <v>1672</v>
+        <v>1574</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1673</v>
+        <v>1575</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1674</v>
+        <v>1576</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
-        <v>1675</v>
+        <v>1577</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1676</v>
+        <v>1578</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1677</v>
+        <v>1579</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -15046,7 +14108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84808B80-6F52-46A5-8814-B228DDBE2F0A}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -15078,7 +14140,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1708</v>
+        <v>1610</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15155,267 +14217,267 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
-        <v>1709</v>
+        <v>1611</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1727</v>
+        <v>1629</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="26" t="s">
-        <v>1746</v>
+        <v>1648</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
-        <v>1710</v>
+        <v>1612</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1728</v>
+        <v>1630</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="26" t="s">
-        <v>1746</v>
+        <v>1648</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20" t="s">
-        <v>1711</v>
+        <v>1613</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1729</v>
+        <v>1631</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="26" t="s">
-        <v>1747</v>
+        <v>1649</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="20" t="s">
-        <v>1712</v>
+        <v>1614</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1730</v>
+        <v>1632</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="26" t="s">
-        <v>1747</v>
+        <v>1649</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
-        <v>1713</v>
+        <v>1615</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1731</v>
+        <v>1633</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="26" t="s">
-        <v>1747</v>
+        <v>1649</v>
       </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="18" t="s">
-        <v>1714</v>
+        <v>1616</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1732</v>
+        <v>1634</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="26" t="s">
-        <v>1747</v>
+        <v>1649</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
-        <v>1715</v>
+        <v>1617</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>1733</v>
+        <v>1635</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="26" t="s">
-        <v>1747</v>
+        <v>1649</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="18" t="s">
-        <v>1716</v>
+        <v>1618</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>1734</v>
+        <v>1636</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="26" t="s">
-        <v>1748</v>
+        <v>1650</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>1717</v>
+        <v>1619</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1735</v>
+        <v>1637</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="26" t="s">
-        <v>1748</v>
+        <v>1650</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>1718</v>
+        <v>1620</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1736</v>
+        <v>1638</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="26" t="s">
-        <v>1749</v>
+        <v>1651</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>1719</v>
+        <v>1621</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>1737</v>
+        <v>1639</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="26" t="s">
-        <v>1749</v>
+        <v>1651</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>1720</v>
+        <v>1622</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1738</v>
+        <v>1640</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="26" t="s">
-        <v>1750</v>
+        <v>1652</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>1721</v>
+        <v>1623</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1739</v>
+        <v>1641</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="26" t="s">
-        <v>1750</v>
+        <v>1652</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>1722</v>
+        <v>1624</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>1740</v>
+        <v>1642</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="26" t="s">
-        <v>1750</v>
+        <v>1652</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>1723</v>
+        <v>1625</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1741</v>
+        <v>1643</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="26" t="s">
-        <v>1750</v>
+        <v>1652</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>1691</v>
+        <v>1593</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1742</v>
+        <v>1644</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="26" t="s">
-        <v>1750</v>
+        <v>1652</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>1724</v>
+        <v>1626</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1743</v>
+        <v>1645</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="26" t="s">
-        <v>1749</v>
+        <v>1651</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>1725</v>
+        <v>1627</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1744</v>
+        <v>1646</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>1749</v>
+        <v>1651</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>1726</v>
+        <v>1628</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1745</v>
+        <v>1647</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="26" t="s">
-        <v>1747</v>
+        <v>1649</v>
       </c>
       <c r="F28" s="18"/>
     </row>
@@ -15560,18 +14622,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
@@ -15599,27 +14661,21 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>45218</v>
-      </c>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5">
@@ -15663,600 +14719,368 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1407</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="43" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1409</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="43" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1411</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="43" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1413</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="43" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1415</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="43" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1417</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="43" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1419</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="44" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1422</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="43" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1424</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="43" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1426</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="43" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1428</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="43" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1430</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="43" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="43" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>1435</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="46" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1437</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="43" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1439</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="46" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1441</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="43" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1444</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="44" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1446</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="44" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1448</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="44" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>1450</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="44" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>1452</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="45" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1454</v>
-      </c>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1456</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1458</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1460</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>1462</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1443</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>1464</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>1467</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>1469</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1471</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1473</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1475</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1477</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1479</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1481</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1484</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>1486</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>1488</v>
-      </c>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>1490</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1492</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>1494</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>1496</v>
-      </c>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1498</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1501</v>
-      </c>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>1370</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
@@ -16270,7 +15094,169 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0545B1B-517B-4CE5-AAD0-165B9A1E1BDF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -16455,7 +15441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24418BCA-6BA9-46F7-8F30-546B2F7203DE}">
   <dimension ref="A1:F317"/>
   <sheetViews>
@@ -20299,7 +19285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991FE2B-C9FE-43D1-B302-70CA3C5EF889}">
   <dimension ref="A1:H188"/>
   <sheetViews>
@@ -23018,7 +22004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
@@ -23515,7 +22501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8116353-BC00-4857-8D37-9470DD9A948C}">
   <dimension ref="A1:E61"/>
   <sheetViews>
@@ -24239,7 +23225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40BA41-A85C-4FB9-AA6F-684436E03697}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -24270,7 +23256,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1503</v>
+        <v>1405</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24290,7 +23276,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1504</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24351,493 +23337,493 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>1505</v>
+        <v>1407</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1505</v>
+        <v>1407</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>1506</v>
+        <v>1408</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
-        <v>1507</v>
+        <v>1409</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>1508</v>
+        <v>1410</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>1509</v>
+        <v>1411</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
-        <v>1510</v>
+        <v>1412</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1917</v>
+        <v>1819</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>1511</v>
+        <v>1413</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1512</v>
+        <v>1414</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>1513</v>
+        <v>1415</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>1514</v>
+        <v>1416</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>1515</v>
+        <v>1417</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
-        <v>1516</v>
+        <v>1418</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>1517</v>
+        <v>1419</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>1518</v>
+        <v>1420</v>
       </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="18" t="s">
-        <v>1519</v>
+        <v>1421</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>1520</v>
+        <v>1422</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>1521</v>
+        <v>1423</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
-        <v>1522</v>
+        <v>1424</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>1523</v>
+        <v>1425</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>1524</v>
+        <v>1426</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="18" t="s">
-        <v>1525</v>
+        <v>1427</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>1526</v>
+        <v>1428</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>1527</v>
+        <v>1429</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>1528</v>
+        <v>1430</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>1529</v>
+        <v>1431</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>1530</v>
+        <v>1432</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>1531</v>
+        <v>1433</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>1532</v>
+        <v>1434</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>1533</v>
+        <v>1435</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>1534</v>
+        <v>1436</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>1535</v>
+        <v>1437</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>1536</v>
+        <v>1438</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>1537</v>
+        <v>1439</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>1538</v>
+        <v>1440</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>1539</v>
+        <v>1441</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>1540</v>
+        <v>1442</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
-        <v>1541</v>
+        <v>1443</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>1542</v>
+        <v>1444</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>1543</v>
+        <v>1445</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>1544</v>
+        <v>1446</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1545</v>
+        <v>1447</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>1546</v>
+        <v>1448</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
-        <v>1547</v>
+        <v>1449</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>1548</v>
+        <v>1450</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>1549</v>
+        <v>1451</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
-        <v>1550</v>
+        <v>1452</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1551</v>
+        <v>1453</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>1552</v>
+        <v>1454</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1552</v>
+        <v>1454</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>1553</v>
+        <v>1455</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>1554</v>
+        <v>1456</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>1555</v>
+        <v>1457</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>1553</v>
+        <v>1455</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>1556</v>
+        <v>1458</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
-        <v>1557</v>
+        <v>1459</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>1558</v>
+        <v>1460</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="18" t="s">
-        <v>1559</v>
+        <v>1461</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
-        <v>1560</v>
+        <v>1462</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>1561</v>
+        <v>1463</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="18" t="s">
-        <v>1562</v>
+        <v>1464</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
-        <v>1563</v>
+        <v>1465</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>1564</v>
+        <v>1466</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="18" t="s">
-        <v>1565</v>
+        <v>1467</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
-        <v>1566</v>
+        <v>1468</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>1567</v>
+        <v>1469</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="18" t="s">
-        <v>1568</v>
+        <v>1470</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
-        <v>1569</v>
+        <v>1471</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1570</v>
+        <v>1472</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="18" t="s">
-        <v>1571</v>
+        <v>1473</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18" t="s">
-        <v>1572</v>
+        <v>1474</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1573</v>
+        <v>1475</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>1574</v>
+        <v>1476</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
-        <v>1575</v>
+        <v>1477</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1576</v>
+        <v>1478</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="18" t="s">
-        <v>1577</v>
+        <v>1479</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1577</v>
+        <v>1479</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>1578</v>
+        <v>1480</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="18" t="s">
-        <v>1579</v>
+        <v>1481</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>1580</v>
+        <v>1482</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>1581</v>
+        <v>1483</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="18" t="s">
-        <v>1582</v>
+        <v>1484</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
-        <v>1583</v>
+        <v>1485</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>1584</v>
+        <v>1486</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="18" t="s">
-        <v>1585</v>
+        <v>1487</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18" t="s">
-        <v>1586</v>
+        <v>1488</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>1587</v>
+        <v>1489</v>
       </c>
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="18" t="s">
-        <v>1588</v>
+        <v>1490</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
-        <v>1589</v>
+        <v>1491</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>1590</v>
+        <v>1492</v>
       </c>
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="18" t="s">
-        <v>1591</v>
+        <v>1493</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
-        <v>1592</v>
+        <v>1494</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>1593</v>
+        <v>1495</v>
       </c>
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="18" t="s">
-        <v>1594</v>
+        <v>1496</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
-        <v>1595</v>
+        <v>1497</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>1596</v>
+        <v>1498</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="18" t="s">
-        <v>1597</v>
+        <v>1499</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>1598</v>
+        <v>1500</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>1599</v>
+        <v>1501</v>
       </c>
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="18" t="s">
-        <v>1600</v>
+        <v>1502</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
-        <v>1601</v>
+        <v>1503</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>1602</v>
+        <v>1504</v>
       </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="18" t="s">
-        <v>1603</v>
+        <v>1505</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
-        <v>1604</v>
+        <v>1506</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>1605</v>
+        <v>1507</v>
       </c>
       <c r="F44" s="18"/>
     </row>
@@ -24848,10 +23834,10 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>1606</v>
+        <v>1508</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>1607</v>
+        <v>1509</v>
       </c>
       <c r="F45" s="18"/>
     </row>
@@ -24860,7 +23846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA714585-7513-48B3-971E-C881943D5D71}">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -24891,7 +23877,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1608</v>
+        <v>1510</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24911,7 +23897,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1504</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24972,71 +23958,71 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1609</v>
+        <v>1511</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1610</v>
+        <v>1512</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1611</v>
+        <v>1513</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1612</v>
+        <v>1514</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1613</v>
+        <v>1515</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1614</v>
+        <v>1516</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1615</v>
+        <v>1517</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1616</v>
+        <v>1518</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1617</v>
+        <v>1519</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1618</v>
+        <v>1520</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1619</v>
+        <v>1521</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="21" t="s">
-        <v>1620</v>
+        <v>1522</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
-        <v>1621</v>
+        <v>1523</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1622</v>
+        <v>1524</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="21" t="s">
-        <v>1623</v>
+        <v>1525</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -25293,81 +24279,478 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29F356B-BB22-47DE-A619-877383F0285B}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="18" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="45">
+      <c r="A11" s="18" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="18" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="18" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="18" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="18" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="60">
+      <c r="A19" s="18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="45">
+      <c r="A20" s="18" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="18" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="18" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="30">
+      <c r="A23" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="30">
+      <c r="A24" s="18" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="30">
+      <c r="A25" s="18" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" s="18" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="18" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="30">
+      <c r="A28" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="18" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E0C67-8E04-4A24-A8C2-D8A28C233AFE}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="89" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1311</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1376</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>1377</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>45191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -25375,143 +24758,250 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B10" s="24">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B11" s="24">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D14" s="2"/>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="18" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="18" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="18" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="18" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="18" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="30">
+      <c r="A16" s="18" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="18" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25925,33 +25415,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25969,4 +25494,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="981" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8452B9F3-DD8D-4E72-AAAF-63A765275180}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="180" windowWidth="27585" windowHeight="13020" tabRatio="877" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1395" yWindow="345" windowWidth="24855" windowHeight="14055" tabRatio="877" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -6265,12 +6265,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6282,6 +6276,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6309,6 +6309,234 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6568,120 +6796,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7502,120 +7616,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -7635,126 +7635,126 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
     <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1"/>
     <tableColumn id="5" xr3:uid="{A8693491-C517-461F-B62C-F068AE507B25}" name="Libellé niveau 2"/>
-    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8042,12 +8042,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="41"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20"/>
@@ -14720,7 +14720,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>1856</v>
       </c>
       <c r="C10" s="2"/>
@@ -14729,7 +14729,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="41" t="s">
         <v>1857</v>
       </c>
       <c r="C11" s="2"/>
@@ -14738,7 +14738,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="41" t="s">
         <v>1858</v>
       </c>
       <c r="C12" s="2"/>
@@ -14747,7 +14747,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="41" t="s">
         <v>1859</v>
       </c>
       <c r="C13" s="2"/>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="41" t="s">
         <v>1860</v>
       </c>
       <c r="C14" s="2"/>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>1861</v>
       </c>
       <c r="C15" s="2"/>
@@ -14774,7 +14774,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="42" t="s">
         <v>1862</v>
       </c>
       <c r="C16" s="2"/>
@@ -14783,7 +14783,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="41" t="s">
         <v>1863</v>
       </c>
       <c r="C17" s="2"/>
@@ -14792,7 +14792,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>1864</v>
       </c>
       <c r="C18" s="2"/>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="41" t="s">
         <v>1865</v>
       </c>
       <c r="C19" s="2"/>
@@ -14810,7 +14810,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="41" t="s">
         <v>1866</v>
       </c>
       <c r="C20" s="2"/>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="41" t="s">
         <v>1867</v>
       </c>
       <c r="C21" s="2"/>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="41" t="s">
         <v>1868</v>
       </c>
       <c r="C22" s="2"/>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="44" t="s">
         <v>1869</v>
       </c>
       <c r="C23" s="2"/>
@@ -14846,7 +14846,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="41" t="s">
         <v>1870</v>
       </c>
       <c r="C24" s="2"/>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>1871</v>
       </c>
       <c r="C25" s="2"/>
@@ -14864,7 +14864,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="41" t="s">
         <v>1872</v>
       </c>
       <c r="C26" s="2"/>
@@ -14873,7 +14873,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>1873</v>
       </c>
       <c r="C27" s="2"/>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="42" t="s">
         <v>1874</v>
       </c>
       <c r="C28" s="2"/>
@@ -14891,7 +14891,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="42" t="s">
         <v>1875</v>
       </c>
       <c r="C29" s="2"/>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="42" t="s">
         <v>1876</v>
       </c>
       <c r="C30" s="2"/>
@@ -14909,7 +14909,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>1877</v>
       </c>
       <c r="C31" s="2"/>
@@ -15101,7 +15101,7 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
@@ -23229,7 +23229,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40BA41-A85C-4FB9-AA6F-684436E03697}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -25002,6 +25004,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25415,68 +25478,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25494,30 +25522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="981" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8452B9F3-DD8D-4E72-AAAF-63A765275180}"/>
+  <xr:revisionPtr revIDLastSave="1019" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01280EC0-CB16-4FFA-A576-6317120C6325}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1395" yWindow="345" windowWidth="24855" windowHeight="14055" tabRatio="877" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="345" windowWidth="24975" windowHeight="13035" tabRatio="877" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -30,8 +30,10 @@
     <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId15"/>
     <sheet name="Type de devenir du patient" sheetId="35" r:id="rId16"/>
     <sheet name="#Effet à obtenir" sheetId="10" r:id="rId17"/>
-    <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId18"/>
-    <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId19"/>
+    <sheet name="#Delai d'intervention demande" sheetId="40" r:id="rId18"/>
+    <sheet name="#Delai de réponse" sheetId="39" r:id="rId19"/>
+    <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId20"/>
+    <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$4:$K$20</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="1948">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5910,12 +5912,222 @@
   <si>
     <t>Demander l'ouverture d'accès</t>
   </si>
+  <si>
+    <t>NOMENC_EXEC_ENTITE</t>
+  </si>
+  <si>
+    <t>OK0</t>
+  </si>
+  <si>
+    <t>Immédiat</t>
+  </si>
+  <si>
+    <t>OK15M</t>
+  </si>
+  <si>
+    <t>OK30M</t>
+  </si>
+  <si>
+    <t>OK45M</t>
+  </si>
+  <si>
+    <t>OK1H</t>
+  </si>
+  <si>
+    <t>OK2H</t>
+  </si>
+  <si>
+    <t>OK4H</t>
+  </si>
+  <si>
+    <t>OK12H</t>
+  </si>
+  <si>
+    <t>OK24H</t>
+  </si>
+  <si>
+    <t>OKSP</t>
+  </si>
+  <si>
+    <t>INDISPO</t>
+  </si>
+  <si>
+    <t>Indisponible</t>
+  </si>
+  <si>
+    <t>NRPMV</t>
+  </si>
+  <si>
+    <t>Non déclenché car non joignable</t>
+  </si>
+  <si>
+    <t>REFUS</t>
+  </si>
+  <si>
+    <t>Autres refus</t>
+  </si>
+  <si>
+    <t>Accord pour une mise en œuvre immédiate en vue d'une prise en charge dès que possible</t>
+  </si>
+  <si>
+    <t>Moyen sollicité indisponible</t>
+  </si>
+  <si>
+    <t>La ressource n'a pas pu être engagé car impossibilité de la déclencher (moyens de déclenchement non joignable)</t>
+  </si>
+  <si>
+    <t>Refus d'engagement du moyen sollicité</t>
+  </si>
+  <si>
+    <t>NOMENC_EXEC_DECISION</t>
+  </si>
+  <si>
+    <t>DEL0</t>
+  </si>
+  <si>
+    <t>DEL15M</t>
+  </si>
+  <si>
+    <t>DEL30M</t>
+  </si>
+  <si>
+    <t>DEL45M</t>
+  </si>
+  <si>
+    <t>DEL1H</t>
+  </si>
+  <si>
+    <t>DEL2H</t>
+  </si>
+  <si>
+    <t>DEL4H</t>
+  </si>
+  <si>
+    <t>A réaliser dans les 4 heures</t>
+  </si>
+  <si>
+    <t>DEL12H</t>
+  </si>
+  <si>
+    <t>DEL24H</t>
+  </si>
+  <si>
+    <t>DELSP</t>
+  </si>
+  <si>
+    <t>Délai non précisé</t>
+  </si>
+  <si>
+    <t>A réaliser dans le quart d’heure</t>
+  </si>
+  <si>
+    <t>A réaliser dans la demi-heure</t>
+  </si>
+  <si>
+    <t>A réaliser dans les 45 minutes</t>
+  </si>
+  <si>
+    <t>A réaliser dans l'heure</t>
+  </si>
+  <si>
+    <t>A réaliser dans les 2 heures</t>
+  </si>
+  <si>
+    <t>A réaliser dans les 12 heures</t>
+  </si>
+  <si>
+    <t>A réaliser dans les 24 heures</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 30 minutes</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 45 minutes</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 60 minutes</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 2 heures</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 4 heures maxi</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 12 heures</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 24 heures</t>
+  </si>
+  <si>
+    <t>La décision est validée sans précision du délai souhaité</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 15 minutes maximum</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 30 minutes</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 45 minutes</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 60 minutes</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 2 heures</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 4heures</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 12 heures</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge dans les 24 heures</t>
+  </si>
+  <si>
+    <t>Accord pour une prise en charge sans délai spécifié mais maximum dans 24 heures</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans le quart d’heure</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans la demi-heure</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans les 45 minutes</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans l'heure</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans les 2 heures</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans les 4 heures</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans les 12 heures</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans les 24 heures</t>
+  </si>
+  <si>
+    <t>Accepté, sera réalisé dans un délai non précisé</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge immédiate</t>
+  </si>
+  <si>
+    <t>La décision est validée pour une prise en charge souhaitée dans les 15 minutes maxi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6074,6 +6286,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6181,7 +6421,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6283,6 +6523,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -6290,7 +6535,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill>
@@ -6309,6 +6554,270 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7635,126 +8144,154 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="72"/>
+    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="71"/>
+    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
     <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1"/>
     <tableColumn id="5" xr3:uid="{A8693491-C517-461F-B62C-F068AE507B25}" name="Libellé niveau 2"/>
-    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -14626,8 +15163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -15095,85 +15632,88 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1CA169-4FB0-43D8-9F60-FA4DC3576143}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1311</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1900</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>45191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -15181,161 +15721,488 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B10" s="24">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B11" s="24">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D14" s="2"/>
+    <row r="10" spans="1:5" s="36" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="21" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="36" customFormat="1">
+      <c r="A11" s="21" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="21" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="36" customFormat="1">
+      <c r="A12" s="21" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="21" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="36" customFormat="1">
+      <c r="A13" s="21" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="21" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="36" customFormat="1">
+      <c r="A14" s="21" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="21" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="36" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="21" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="36" customFormat="1">
+      <c r="A16" s="21" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="21" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="36" customFormat="1">
+      <c r="A17" s="21" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="21" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="36" customFormat="1">
+      <c r="A18" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="21" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="36" customFormat="1">
+      <c r="A19" s="21" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="21" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="47"/>
+    </row>
+    <row r="22" spans="1:5" s="50" customFormat="1">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0545B1B-517B-4CE5-AAD0-165B9A1E1BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F9426-BF9A-4F69-8DB7-E6D9FAB47FDC}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1311</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="3" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>45191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -15343,95 +16210,414 @@
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="21" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="21" t="s">
+        <v>1928</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="21" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="21" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="21" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="21" t="s">
+        <v>1932</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="21" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="21" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="21" t="s">
+        <v>1935</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="21" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="21" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="21" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" s="50" customFormat="1">
+      <c r="A22" s="48" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="48" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19285,6 +20471,353 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0545B1B-517B-4CE5-AAD0-165B9A1E1BDF}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991FE2B-C9FE-43D1-B302-70CA3C5EF889}">
   <dimension ref="A1:H188"/>
@@ -23229,7 +24762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40BA41-A85C-4FB9-AA6F-684436E03697}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -25004,67 +26537,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25478,33 +26950,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25522,4 +27029,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1019" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01280EC0-CB16-4FFA-A576-6317120C6325}"/>
+  <xr:revisionPtr revIDLastSave="1023" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6679DB7-E770-4851-A087-4846D7905FA1}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="345" windowWidth="24975" windowHeight="13035" tabRatio="877" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="345" windowWidth="24975" windowHeight="13035" tabRatio="877" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="1948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1970">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -6121,6 +6121,72 @@
   </si>
   <si>
     <t>La décision est validée pour une prise en charge souhaitée dans les 15 minutes maxi</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
   </si>
 </sst>
 </file>
@@ -6517,17 +6583,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -6574,6 +6640,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6838,102 +7000,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8159,26 +8225,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8270,28 +8336,28 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8579,12 +8645,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20"/>
@@ -15163,8 +15229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -15256,7 +15322,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>1948</v>
+      </c>
       <c r="B10" s="41" t="s">
         <v>1856</v>
       </c>
@@ -15265,7 +15333,9 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>1949</v>
+      </c>
       <c r="B11" s="41" t="s">
         <v>1857</v>
       </c>
@@ -15274,7 +15344,9 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>1950</v>
+      </c>
       <c r="B12" s="41" t="s">
         <v>1858</v>
       </c>
@@ -15283,7 +15355,9 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>1951</v>
+      </c>
       <c r="B13" s="41" t="s">
         <v>1859</v>
       </c>
@@ -15292,7 +15366,9 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>1952</v>
+      </c>
       <c r="B14" s="41" t="s">
         <v>1860</v>
       </c>
@@ -15301,7 +15377,9 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>1953</v>
+      </c>
       <c r="B15" s="41" t="s">
         <v>1861</v>
       </c>
@@ -15310,7 +15388,9 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>1954</v>
+      </c>
       <c r="B16" s="42" t="s">
         <v>1862</v>
       </c>
@@ -15319,7 +15399,9 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>1955</v>
+      </c>
       <c r="B17" s="41" t="s">
         <v>1863</v>
       </c>
@@ -15328,7 +15410,9 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>1956</v>
+      </c>
       <c r="B18" s="41" t="s">
         <v>1864</v>
       </c>
@@ -15337,7 +15421,9 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>1957</v>
+      </c>
       <c r="B19" s="41" t="s">
         <v>1865</v>
       </c>
@@ -15346,7 +15432,9 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>1958</v>
+      </c>
       <c r="B20" s="41" t="s">
         <v>1866</v>
       </c>
@@ -15355,7 +15443,9 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>1959</v>
+      </c>
       <c r="B21" s="41" t="s">
         <v>1867</v>
       </c>
@@ -15364,7 +15454,9 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>1960</v>
+      </c>
       <c r="B22" s="41" t="s">
         <v>1868</v>
       </c>
@@ -15373,7 +15465,9 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>1961</v>
+      </c>
       <c r="B23" s="44" t="s">
         <v>1869</v>
       </c>
@@ -15382,7 +15476,9 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>1962</v>
+      </c>
       <c r="B24" s="41" t="s">
         <v>1870</v>
       </c>
@@ -15391,7 +15487,9 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>1963</v>
+      </c>
       <c r="B25" s="44" t="s">
         <v>1871</v>
       </c>
@@ -15400,7 +15498,9 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>1964</v>
+      </c>
       <c r="B26" s="41" t="s">
         <v>1872</v>
       </c>
@@ -15409,7 +15509,9 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>1965</v>
+      </c>
       <c r="B27" s="42" t="s">
         <v>1873</v>
       </c>
@@ -15418,7 +15520,9 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>1966</v>
+      </c>
       <c r="B28" s="42" t="s">
         <v>1874</v>
       </c>
@@ -15427,7 +15531,9 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>1967</v>
+      </c>
       <c r="B29" s="42" t="s">
         <v>1875</v>
       </c>
@@ -15436,7 +15542,9 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>1968</v>
+      </c>
       <c r="B30" s="42" t="s">
         <v>1876</v>
       </c>
@@ -15445,7 +15553,9 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>1969</v>
+      </c>
       <c r="B31" s="43" t="s">
         <v>1877</v>
       </c>
@@ -15638,7 +15748,7 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -15737,8 +15847,8 @@
       <c r="B10" s="21" t="s">
         <v>1880</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="21" t="s">
         <v>1946</v>
       </c>
@@ -15750,8 +15860,8 @@
       <c r="B11" s="21" t="s">
         <v>1913</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="21" t="s">
         <v>1947</v>
       </c>
@@ -15763,8 +15873,8 @@
       <c r="B12" s="21" t="s">
         <v>1914</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="21" t="s">
         <v>1920</v>
       </c>
@@ -15776,8 +15886,8 @@
       <c r="B13" s="21" t="s">
         <v>1915</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="21" t="s">
         <v>1921</v>
       </c>
@@ -15789,8 +15899,8 @@
       <c r="B14" s="21" t="s">
         <v>1916</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="21" t="s">
         <v>1922</v>
       </c>
@@ -15802,8 +15912,8 @@
       <c r="B15" s="21" t="s">
         <v>1917</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="21" t="s">
         <v>1923</v>
       </c>
@@ -15815,8 +15925,8 @@
       <c r="B16" s="21" t="s">
         <v>1908</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="21" t="s">
         <v>1924</v>
       </c>
@@ -15828,8 +15938,8 @@
       <c r="B17" s="21" t="s">
         <v>1918</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="21" t="s">
         <v>1925</v>
       </c>
@@ -15841,8 +15951,8 @@
       <c r="B18" s="21" t="s">
         <v>1919</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="21" t="s">
         <v>1926</v>
       </c>
@@ -15854,8 +15964,8 @@
       <c r="B19" s="21" t="s">
         <v>1912</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="21" t="s">
         <v>1927</v>
       </c>
@@ -15872,14 +15982,14 @@
       <c r="B21" s="21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" s="50" customFormat="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" s="48" customFormat="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
@@ -16375,16 +16485,16 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" s="50" customFormat="1">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:5" s="48" customFormat="1">
+      <c r="A22" s="46" t="s">
         <v>1894</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>1895</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="48" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46" t="s">
         <v>1899</v>
       </c>
     </row>
@@ -26951,15 +27061,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -27011,6 +27112,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
   <ds:schemaRefs>
@@ -27032,27 +27142,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1023" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6679DB7-E770-4851-A087-4846D7905FA1}"/>
+  <xr:revisionPtr revIDLastSave="1026" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E838BB7B-E5B2-4254-BDE3-E7319E109BEF}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="345" windowWidth="24975" windowHeight="13035" tabRatio="877" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="760" windowWidth="24980" windowHeight="13040" tabRatio="877" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Type de vecteurs" sheetId="37" r:id="rId14"/>
     <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId15"/>
     <sheet name="Type de devenir du patient" sheetId="35" r:id="rId16"/>
-    <sheet name="#Effet à obtenir" sheetId="10" r:id="rId17"/>
+    <sheet name="Effet à obtenir" sheetId="10" r:id="rId17"/>
     <sheet name="#Delai d'intervention demande" sheetId="40" r:id="rId18"/>
     <sheet name="#Delai de réponse" sheetId="39" r:id="rId19"/>
     <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId20"/>
@@ -4472,9 +4472,6 @@
     <t>Pas de communication possible avec l’appelant (ex : pas d'echange vocal, appel raccroché prématurement sans contre appel possible, ...)</t>
   </si>
   <si>
-    <t>CodeEffet_a_obtenir</t>
-  </si>
-  <si>
     <t>DEVENIRD</t>
   </si>
   <si>
@@ -6187,6 +6184,9 @@
   </si>
   <si>
     <t>E22</t>
+  </si>
+  <si>
+    <t>Code_Effet_a_obtenir</t>
   </si>
 </sst>
 </file>
@@ -6596,8 +6596,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
+    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
@@ -8632,19 +8632,19 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="31" style="28" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="28" customWidth="1"/>
     <col min="7" max="11" width="9" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="28"/>
+    <col min="12" max="16384" width="11.5" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="50"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -8662,47 +8662,47 @@
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:11" s="30" customFormat="1" ht="15">
+    <row r="4" spans="1:11" s="30" customFormat="1">
       <c r="A4" s="29" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>1828</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>1829</v>
-      </c>
       <c r="D4" s="29" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>1820</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>1821</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>1846</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>1844</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>1846</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>1847</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15">
-      <c r="A5" s="31" t="s">
+      <c r="B5" s="39" t="s">
         <v>1823</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>1824</v>
       </c>
       <c r="C5" s="31" t="str">
         <f>'Nature de fait'!$B$1</f>
@@ -8713,27 +8713,27 @@
         <v>Code_Nature_de_fait</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C6" s="31" t="str">
         <f>'Type de lieu'!$B$1</f>
@@ -8744,27 +8744,27 @@
         <v>Code_Type_de_lieu</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C7" s="31" t="str">
         <f>'Risque, menace et sensibilité'!$B$1</f>
@@ -8775,27 +8775,27 @@
         <v>Code_Risque-Menace-Sensibilité</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C8" s="38" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
@@ -8806,27 +8806,27 @@
         <v>Code_Motif_patient-victime</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11">
       <c r="A9" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C9" s="31" t="str">
         <f>'Attribution du dossier'!$B$1</f>
@@ -8837,25 +8837,25 @@
         <v>DEVENIRD</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11">
       <c r="A10" s="31" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C10" s="31" t="str">
         <f>'Priorité de régulation médicale'!$B$1</f>
@@ -8866,25 +8866,25 @@
         <v>PRIORITE</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11">
       <c r="A11" s="31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C11" s="31" t="str">
         <f>'Type de requérant'!$B$1</f>
@@ -8895,27 +8895,27 @@
         <v>TYPAPPLT</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11">
       <c r="A12" s="31" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C12" s="31" t="str">
         <f>'Difficultés de communication'!$B$1</f>
@@ -8926,27 +8926,27 @@
         <v>PBAPL</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11">
       <c r="A13" s="32" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C13" s="31" t="str">
         <f>Sexe!$B$1</f>
@@ -8957,27 +8957,27 @@
         <v>NOMENC_SEXE</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11">
       <c r="A14" s="32" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C14" s="31" t="str">
         <f>'Niveau de soin'!$B$1</f>
@@ -8988,25 +8988,25 @@
         <v>GRAVITE</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="31" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C15" s="31" t="str">
         <f>'Type de décision'!$B$1</f>
@@ -9017,27 +9017,27 @@
         <v>TYPEDEC</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11">
       <c r="A16" s="31" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C16" s="37" t="str">
         <f>'Type de ressource'!$B$1</f>
@@ -9048,29 +9048,29 @@
         <v>TYPE_MOYEN</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="32" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Type de vecteurs'!$B$1</f>
@@ -9081,29 +9081,29 @@
         <v>TYPE_VECTEUR</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J17" s="34"/>
       <c r="K17" s="34" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="31" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>1849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="31" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1850</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Niveau de prise en charge'!$B$1</f>
@@ -9114,31 +9114,31 @@
         <v>NIVSOIN</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="J18" s="34"/>
       <c r="K18" s="34" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="31" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Type de devenir du patient'!$B$1</f>
@@ -9149,51 +9149,51 @@
         <v>NOMENC_DEVENIR_PAT</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:11">
       <c r="A20" s="32" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C20" s="31" t="str">
-        <f>'#Effet à obtenir'!$B$1</f>
+        <f>'Effet à obtenir'!$B$1</f>
         <v>CISU</v>
       </c>
       <c r="D20" s="31" t="str">
-        <f>'#Effet à obtenir'!$B$2</f>
-        <v>CodeEffet_a_obtenir</v>
+        <f>'Effet à obtenir'!$B$2</f>
+        <v>Code_Effet_a_obtenir</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11">
       <c r="A21" s="32"/>
       <c r="B21" s="35"/>
       <c r="C21" s="31"/>
@@ -11832,13 +11832,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11856,7 +11856,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11876,7 +11876,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11937,24 +11937,24 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="20" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>1527</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>1528</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="20" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>1530</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>1531</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11962,10 +11962,10 @@
         <v>1370</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>1533</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11973,10 +11973,10 @@
         <v>1373</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>1535</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -11992,14 +11992,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12017,7 +12017,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12037,7 +12037,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12098,57 +12098,57 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>1538</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1539</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="20" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1541</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1542</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="20" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1544</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1545</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="20" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1547</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1548</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="20" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F13" s="18"/>
     </row>
@@ -12421,14 +12421,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12446,7 +12446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12466,7 +12466,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -12527,81 +12527,81 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>1551</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>1552</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>1553</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>1555</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>1556</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>1557</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>1559</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>1560</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>1561</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>1563</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="18" t="s">
         <v>1564</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>1565</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>1567</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>1568</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>1569</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -12866,13 +12866,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12890,7 +12890,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -12942,7 +12942,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -12969,114 +12969,114 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>1581</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1582</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1583</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1584</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1585</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1586</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1587</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1588</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="21" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" s="36" customFormat="1">
       <c r="A14" s="21" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1589</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>1590</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1591</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1592</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="21" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>1593</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1594</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="21" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>1595</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1596</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="21" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -13085,11 +13085,11 @@
         <v>1370</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="21" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F19" s="18"/>
     </row>
@@ -13316,12 +13316,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13339,7 +13339,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -13391,7 +13391,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -13418,55 +13418,55 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B10" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C10" t="s">
         <v>1654</v>
       </c>
-      <c r="C10" t="s">
-        <v>1655</v>
-      </c>
       <c r="F10" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B11" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C11" t="s">
         <v>1656</v>
       </c>
-      <c r="C11" t="s">
-        <v>1657</v>
-      </c>
       <c r="F11" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B12" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C12" t="s">
         <v>1658</v>
       </c>
-      <c r="C12" t="s">
-        <v>1659</v>
-      </c>
       <c r="F12" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B13" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C13" t="s">
         <v>1660</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1661</v>
       </c>
       <c r="F13" t="s">
         <v>1370</v>
@@ -13474,13 +13474,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C14" t="s">
         <v>1662</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1663</v>
       </c>
       <c r="F14" t="s">
         <v>1370</v>
@@ -13491,10 +13491,10 @@
         <v>1370</v>
       </c>
       <c r="B15" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C15" t="s">
         <v>1664</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1665</v>
       </c>
       <c r="F15" t="s">
         <v>1370</v>
@@ -13502,13 +13502,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B16" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C16" t="s">
         <v>1666</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1667</v>
       </c>
       <c r="F16" t="s">
         <v>1370</v>
@@ -13516,13 +13516,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C17" t="s">
         <v>1668</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1669</v>
       </c>
       <c r="F17" t="s">
         <v>1370</v>
@@ -13530,13 +13530,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B18" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C18" t="s">
         <v>1670</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1671</v>
       </c>
       <c r="F18" t="s">
         <v>1370</v>
@@ -13544,13 +13544,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B19" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C19" t="s">
         <v>1672</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1673</v>
       </c>
       <c r="F19" t="s">
         <v>1370</v>
@@ -13561,7 +13561,7 @@
         <v>1373</v>
       </c>
       <c r="B20" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C20" t="s">
         <v>1373</v>
@@ -13572,13 +13572,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B21" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C21" t="s">
         <v>1675</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1676</v>
       </c>
       <c r="F21" t="s">
         <v>1370</v>
@@ -13586,114 +13586,114 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B22" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C22" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="F22" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B23" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C23" t="s">
         <v>1678</v>
       </c>
-      <c r="C23" t="s">
-        <v>1679</v>
-      </c>
       <c r="F23" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B24" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C24" t="s">
         <v>1680</v>
       </c>
-      <c r="C24" t="s">
-        <v>1681</v>
-      </c>
       <c r="F24" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B25" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C25" t="s">
         <v>1682</v>
       </c>
-      <c r="C25" t="s">
-        <v>1683</v>
-      </c>
       <c r="F25" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B26" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C26" t="s">
         <v>1684</v>
       </c>
-      <c r="C26" t="s">
-        <v>1685</v>
-      </c>
       <c r="F26" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B27" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C27" t="s">
         <v>1686</v>
       </c>
-      <c r="C27" t="s">
-        <v>1687</v>
-      </c>
       <c r="F27" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B28" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C28" t="s">
         <v>1688</v>
       </c>
-      <c r="C28" t="s">
-        <v>1689</v>
-      </c>
       <c r="F28" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B29" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C29" t="s">
         <v>1690</v>
       </c>
-      <c r="C29" t="s">
-        <v>1691</v>
-      </c>
       <c r="F29" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -13701,587 +13701,587 @@
         <v>1347</v>
       </c>
       <c r="B30" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C30" t="s">
         <v>1692</v>
       </c>
-      <c r="C30" t="s">
-        <v>1693</v>
-      </c>
       <c r="F30" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B31" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C31" t="s">
         <v>1694</v>
       </c>
-      <c r="C31" t="s">
-        <v>1695</v>
-      </c>
       <c r="F31" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B32" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C32" t="s">
         <v>1696</v>
       </c>
-      <c r="C32" t="s">
-        <v>1697</v>
-      </c>
       <c r="F32" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B33" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C33" t="s">
         <v>1698</v>
       </c>
-      <c r="C33" t="s">
-        <v>1699</v>
-      </c>
       <c r="F33" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B34" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C34" t="s">
         <v>1700</v>
       </c>
-      <c r="C34" t="s">
-        <v>1701</v>
-      </c>
       <c r="F34" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B35" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C35" t="s">
         <v>1702</v>
       </c>
-      <c r="C35" t="s">
-        <v>1703</v>
-      </c>
       <c r="F35" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B36" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C36" t="s">
         <v>1704</v>
       </c>
-      <c r="C36" t="s">
-        <v>1705</v>
-      </c>
       <c r="F36" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B37" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C37" t="s">
         <v>1706</v>
       </c>
-      <c r="C37" t="s">
-        <v>1707</v>
-      </c>
       <c r="F37" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B38" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C38" t="s">
         <v>1708</v>
       </c>
-      <c r="C38" t="s">
-        <v>1709</v>
-      </c>
       <c r="F38" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B39" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C39" t="s">
         <v>1710</v>
       </c>
-      <c r="C39" t="s">
-        <v>1711</v>
-      </c>
       <c r="F39" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B40" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C40" t="s">
         <v>1712</v>
       </c>
-      <c r="C40" t="s">
-        <v>1713</v>
-      </c>
       <c r="F40" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B41" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C41" t="s">
         <v>1714</v>
       </c>
-      <c r="C41" t="s">
-        <v>1715</v>
-      </c>
       <c r="F41" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B42" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C42" t="s">
         <v>1716</v>
       </c>
-      <c r="C42" t="s">
-        <v>1717</v>
-      </c>
       <c r="F42" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B43" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C43" t="s">
         <v>1718</v>
       </c>
-      <c r="C43" t="s">
-        <v>1719</v>
-      </c>
       <c r="F43" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B44" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C44" t="s">
         <v>1720</v>
       </c>
-      <c r="C44" t="s">
-        <v>1721</v>
-      </c>
       <c r="F44" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B45" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C45" t="s">
         <v>1722</v>
       </c>
-      <c r="C45" t="s">
-        <v>1723</v>
-      </c>
       <c r="F45" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B46" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C46" t="s">
         <v>1724</v>
       </c>
-      <c r="C46" t="s">
-        <v>1725</v>
-      </c>
       <c r="F46" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B47" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C47" t="s">
         <v>1726</v>
       </c>
-      <c r="C47" t="s">
-        <v>1727</v>
-      </c>
       <c r="F47" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B48" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C48" t="s">
         <v>1728</v>
       </c>
-      <c r="C48" t="s">
-        <v>1729</v>
-      </c>
       <c r="F48" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B49" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C49" t="s">
         <v>1730</v>
       </c>
-      <c r="C49" t="s">
-        <v>1731</v>
-      </c>
       <c r="F49" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B50" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C50" t="s">
         <v>1732</v>
       </c>
-      <c r="C50" t="s">
-        <v>1733</v>
-      </c>
       <c r="F50" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B51" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C51" t="s">
         <v>1734</v>
       </c>
-      <c r="C51" t="s">
-        <v>1735</v>
-      </c>
       <c r="F51" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B52" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C52" t="s">
         <v>1736</v>
       </c>
-      <c r="C52" t="s">
-        <v>1737</v>
-      </c>
       <c r="F52" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B53" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C53" t="s">
         <v>1738</v>
       </c>
-      <c r="C53" t="s">
-        <v>1739</v>
-      </c>
       <c r="F53" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B54" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C54" t="s">
         <v>1740</v>
       </c>
-      <c r="C54" t="s">
-        <v>1741</v>
-      </c>
       <c r="F54" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B55" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C55" t="s">
         <v>1742</v>
       </c>
-      <c r="C55" t="s">
-        <v>1743</v>
-      </c>
       <c r="F55" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B56" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C56" t="s">
         <v>1744</v>
       </c>
-      <c r="C56" t="s">
-        <v>1745</v>
-      </c>
       <c r="F56" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B57" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C57" t="s">
         <v>1746</v>
       </c>
-      <c r="C57" t="s">
-        <v>1747</v>
-      </c>
       <c r="F57" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B58" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C58" t="s">
         <v>1748</v>
       </c>
-      <c r="C58" t="s">
-        <v>1749</v>
-      </c>
       <c r="F58" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C59" t="s">
         <v>1750</v>
       </c>
-      <c r="C59" t="s">
-        <v>1751</v>
-      </c>
       <c r="F59" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B60" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C60" t="s">
         <v>1752</v>
       </c>
-      <c r="C60" t="s">
-        <v>1753</v>
-      </c>
       <c r="F60" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B61" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C61" t="s">
         <v>1754</v>
       </c>
-      <c r="C61" t="s">
-        <v>1755</v>
-      </c>
       <c r="F61" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B62" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C62" t="s">
         <v>1756</v>
       </c>
-      <c r="C62" t="s">
-        <v>1757</v>
-      </c>
       <c r="F62" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B63" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C63" t="s">
         <v>1758</v>
       </c>
-      <c r="C63" t="s">
-        <v>1759</v>
-      </c>
       <c r="F63" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B64" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C64" t="s">
         <v>1760</v>
       </c>
-      <c r="C64" t="s">
-        <v>1761</v>
-      </c>
       <c r="F64" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B65" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C65" t="s">
         <v>1762</v>
       </c>
-      <c r="C65" t="s">
-        <v>1763</v>
-      </c>
       <c r="F65" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B66" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C66" t="s">
         <v>1764</v>
       </c>
-      <c r="C66" t="s">
-        <v>1765</v>
-      </c>
       <c r="F66" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B67" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C67" t="s">
         <v>1766</v>
       </c>
-      <c r="C67" t="s">
-        <v>1767</v>
-      </c>
       <c r="F67" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B68" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C68" t="s">
         <v>1768</v>
       </c>
-      <c r="C68" t="s">
-        <v>1769</v>
-      </c>
       <c r="F68" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B69" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C69" t="s">
         <v>1770</v>
       </c>
-      <c r="C69" t="s">
-        <v>1771</v>
-      </c>
       <c r="F69" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B70" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C70" t="s">
         <v>1772</v>
       </c>
-      <c r="C70" t="s">
-        <v>1773</v>
-      </c>
       <c r="F70" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B71" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C71" t="s">
         <v>1774</v>
       </c>
-      <c r="C71" t="s">
-        <v>1775</v>
-      </c>
       <c r="F71" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
   </sheetData>
@@ -14297,13 +14297,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14321,7 +14321,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14341,7 +14341,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -14405,40 +14405,40 @@
         <v>1332</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1574</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1575</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1577</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1578</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -14719,13 +14719,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14743,7 +14743,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -14820,267 +14820,267 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="26" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="26" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="26" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="26" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="20" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="26" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="20" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="26" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="26" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="18" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="26" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="26" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="18" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="26" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="26" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="26" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="26" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="26" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="26" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="26" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="26" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="26" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="26" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="26" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F28" s="18"/>
     </row>
@@ -15229,17 +15229,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15256,7 +15256,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1404</v>
+        <v>1969</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -15323,10 +15323,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -15334,10 +15334,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -15345,10 +15345,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -15356,10 +15356,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -15367,10 +15367,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -15378,10 +15378,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -15389,10 +15389,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -15400,10 +15400,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -15411,10 +15411,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -15422,10 +15422,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -15433,10 +15433,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -15444,10 +15444,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -15455,10 +15455,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -15466,10 +15466,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -15477,10 +15477,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -15488,10 +15488,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -15499,10 +15499,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -15510,10 +15510,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -15521,10 +15521,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -15532,10 +15532,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -15543,10 +15543,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -15554,10 +15554,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -15752,13 +15752,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15775,7 +15775,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -15842,132 +15842,132 @@
     </row>
     <row r="10" spans="1:5" s="36" customFormat="1">
       <c r="A10" s="21" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="21" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="36" customFormat="1">
       <c r="A11" s="21" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="21" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="36" customFormat="1">
       <c r="A12" s="21" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="21" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="36" customFormat="1">
       <c r="A13" s="21" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="21" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="36" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="21" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="21" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="36" customFormat="1">
       <c r="A16" s="21" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1907</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1908</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="21" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="36" customFormat="1">
       <c r="A17" s="21" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="21" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="36" customFormat="1">
       <c r="A18" s="21" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="21" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="36" customFormat="1">
       <c r="A19" s="21" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>1911</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1912</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="21" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16241,13 +16241,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16264,7 +16264,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16331,171 +16331,171 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>1879</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1880</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="21" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="21" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="21" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="21" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="21" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="21" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="21" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="21" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="21" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="21" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>1890</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1891</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="21" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>1892</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1893</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="21" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" s="48" customFormat="1">
       <c r="A22" s="46" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B22" s="46" t="s">
         <v>1894</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>1895</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="46" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -16745,14 +16745,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16835,7 +16835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64.5">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -16861,7 +16861,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -16875,7 +16875,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -16930,7 +16930,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -16956,7 +16956,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="26.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -16997,7 +16997,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="39">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -17011,7 +17011,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="39">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -17035,7 +17035,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -17049,7 +17049,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -17077,7 +17077,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -17113,7 +17113,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="51.75">
+    <row r="31" spans="1:6" ht="60">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -17166,7 +17166,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -17192,7 +17192,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="102.75">
+    <row r="37" spans="1:6" ht="120">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -17220,7 +17220,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="39">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -17245,7 +17245,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="39">
+    <row r="41" spans="1:6" ht="30">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -17259,7 +17259,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="26.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="39">
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -17297,7 +17297,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="39">
+    <row r="45" spans="1:6" ht="45">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -17396,7 +17396,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="64.5">
+    <row r="54" spans="1:6" ht="60">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -17781,7 +17781,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="39">
+    <row r="85" spans="1:6" ht="45">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -17807,7 +17807,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="128.25">
+    <row r="87" spans="1:6" ht="135">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -17833,7 +17833,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="51.75">
+    <row r="89" spans="1:6" ht="60">
       <c r="A89" s="2" t="s">
         <v>212</v>
       </c>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" ht="26.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -17886,7 +17886,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="26.25">
+    <row r="93" spans="1:6" ht="30">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -18057,7 +18057,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="26.25">
+    <row r="107" spans="1:6" ht="30">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6" ht="26.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -18195,7 +18195,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="26.25">
+    <row r="118" spans="1:6" ht="30">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="26.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="39">
+    <row r="120" spans="1:6" ht="45">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -18260,7 +18260,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="39">
+    <row r="123" spans="1:6" ht="45">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -18321,7 +18321,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="39">
+    <row r="128" spans="1:6" ht="45">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -18455,7 +18455,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="26.25">
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2" t="s">
         <v>336</v>
       </c>
@@ -18480,7 +18480,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="26.25">
+    <row r="141" spans="1:6" ht="30">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -18494,7 +18494,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="26.25">
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6" ht="26.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="26.25">
+    <row r="144" spans="1:6" ht="30">
       <c r="A144" s="2" t="s">
         <v>344</v>
       </c>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6" ht="26.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="39">
+    <row r="147" spans="1:6" ht="30">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="39">
+    <row r="148" spans="1:6" ht="30">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="26.25">
+    <row r="149" spans="1:6" ht="30">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -18606,7 +18606,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="26.25">
+    <row r="150" spans="1:6" ht="30">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="26.25">
+    <row r="151" spans="1:6" ht="30">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -18752,7 +18752,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="39">
+    <row r="162" spans="1:6" ht="30">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="39">
+    <row r="163" spans="1:6" ht="45">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -18780,7 +18780,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="39">
+    <row r="164" spans="1:6" ht="45">
       <c r="A164" s="2" t="s">
         <v>379</v>
       </c>
@@ -18831,7 +18831,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="26.25">
+    <row r="168" spans="1:6" ht="30">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -19048,7 +19048,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="26.25">
+    <row r="186" spans="1:6" ht="30">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -19184,7 +19184,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6" ht="26.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -19284,7 +19284,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="26.25">
+    <row r="205" spans="1:6" ht="30">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -19310,7 +19310,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="26.25">
+    <row r="207" spans="1:6" ht="30">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -19408,7 +19408,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="26.25">
+    <row r="215" spans="1:6" ht="30">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -20229,7 +20229,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="26.25">
+    <row r="283" spans="1:6" ht="30">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -20243,7 +20243,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="26.25">
+    <row r="284" spans="1:6" ht="30">
       <c r="A284" s="2" t="s">
         <v>641</v>
       </c>
@@ -20592,12 +20592,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20754,12 +20754,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20936,14 +20936,14 @@
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23655,12 +23655,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23671,7 +23671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.75">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -23737,7 +23737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -23759,7 +23759,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -23769,7 +23769,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="39">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -23779,7 +23779,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -23789,7 +23789,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="26.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -23799,7 +23799,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="39">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -23823,7 +23823,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="39">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -23833,7 +23833,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="39">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -23843,7 +23843,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="26.25">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -23853,7 +23853,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -23863,7 +23863,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -23893,7 +23893,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -23923,7 +23923,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="26.25">
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -23935,7 +23935,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="26.25">
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -23947,7 +23947,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="26.25">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -23969,7 +23969,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="26.25">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -23981,7 +23981,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="39">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="26.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -24005,7 +24005,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="128.25">
+    <row r="35" spans="1:4" ht="135">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -24017,7 +24017,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="128.25">
+    <row r="36" spans="1:4" ht="135">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -24101,7 +24101,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="26.25">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="26.25">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -24123,7 +24123,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="77.25">
+    <row r="46" spans="1:4" ht="75">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -24152,13 +24152,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="26.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -24297,7 +24297,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="26.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -24334,7 +24334,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="48.75">
+    <row r="18" spans="1:5" ht="40">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -24347,7 +24347,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="64.5">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -24496,7 +24496,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -24509,7 +24509,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -24596,7 +24596,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="51.75">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -24633,7 +24633,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="26.25">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -24646,7 +24646,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="39">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -24705,7 +24705,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="26.25">
+    <row r="49" spans="1:5" ht="30">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -24740,7 +24740,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="26.25">
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -24834,7 +24834,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="39">
+    <row r="60" spans="1:5" ht="45">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -24876,14 +24876,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.7109375" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -24901,7 +24901,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -24921,7 +24921,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -24982,493 +24982,493 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="18" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="18" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="18" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>1413</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>1414</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="18" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>1416</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>1417</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="18" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>1419</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>1420</v>
       </c>
       <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E15" s="18" t="s">
         <v>1422</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>1423</v>
       </c>
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="18" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E16" s="18" t="s">
         <v>1425</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>1426</v>
       </c>
       <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="18" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>1428</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>1429</v>
       </c>
       <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="18" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>1431</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>1432</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="18" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>1434</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>1435</v>
       </c>
       <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>1437</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>1438</v>
       </c>
       <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>1440</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>1441</v>
       </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>1446</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>1447</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>1449</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>1450</v>
       </c>
       <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>1452</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>1453</v>
       </c>
       <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>1459</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>1460</v>
       </c>
       <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="18" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>1462</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>1463</v>
       </c>
       <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="18" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E30" s="18" t="s">
         <v>1465</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>1466</v>
       </c>
       <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="18" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>1468</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>1469</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="18" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E32" s="18" t="s">
         <v>1471</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>1472</v>
       </c>
       <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="18" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>1474</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>1475</v>
       </c>
       <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>1477</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>1478</v>
       </c>
       <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="18" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="18" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="18" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E37" s="18" t="s">
         <v>1485</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>1486</v>
       </c>
       <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="18" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>1488</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>1489</v>
       </c>
       <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="18" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>1491</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>1492</v>
       </c>
       <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="18" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E40" s="18" t="s">
         <v>1494</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>1495</v>
       </c>
       <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="18" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>1497</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>1498</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="18" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="18" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>1503</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>1504</v>
       </c>
       <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="18" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E44" s="18" t="s">
         <v>1506</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>1507</v>
       </c>
       <c r="F44" s="18"/>
     </row>
@@ -25479,10 +25479,10 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E45" s="18" t="s">
         <v>1508</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>1509</v>
       </c>
       <c r="F45" s="18"/>
     </row>
@@ -25497,14 +25497,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25522,7 +25522,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -25542,7 +25542,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -25603,71 +25603,71 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>1511</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1512</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="21" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>1514</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1515</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="21" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1517</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1518</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="21" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1520</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1521</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="21" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1523</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1524</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="21" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -25932,13 +25932,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26024,7 +26024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="32">
       <c r="A10" s="18" t="s">
         <v>1314</v>
       </c>
@@ -26037,7 +26037,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" spans="1:5" ht="32">
       <c r="A11" s="18" t="s">
         <v>1317</v>
       </c>
@@ -26050,7 +26050,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="18" t="s">
         <v>1320</v>
       </c>
@@ -26063,7 +26063,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="32">
       <c r="A13" s="18" t="s">
         <v>1323</v>
       </c>
@@ -26076,7 +26076,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="18" t="s">
         <v>1326</v>
       </c>
@@ -26089,7 +26089,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="45">
+    <row r="15" spans="1:5" ht="32">
       <c r="A15" s="18" t="s">
         <v>1329</v>
       </c>
@@ -26102,7 +26102,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="32">
       <c r="A16" s="18" t="s">
         <v>1332</v>
       </c>
@@ -26115,7 +26115,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="32">
       <c r="A17" s="18" t="s">
         <v>1335</v>
       </c>
@@ -26128,7 +26128,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row r="18" spans="1:5" ht="48">
       <c r="A18" s="18" t="s">
         <v>1338</v>
       </c>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="48">
       <c r="A19" s="18" t="s">
         <v>1341</v>
       </c>
@@ -26154,7 +26154,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="45">
+    <row r="20" spans="1:5" ht="32">
       <c r="A20" s="18" t="s">
         <v>1344</v>
       </c>
@@ -26167,7 +26167,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="32">
       <c r="A21" s="18" t="s">
         <v>1347</v>
       </c>
@@ -26180,7 +26180,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="32">
       <c r="A22" s="18" t="s">
         <v>1350</v>
       </c>
@@ -26193,7 +26193,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="30">
+    <row r="23" spans="1:5" ht="32">
       <c r="A23" s="18" t="s">
         <v>1353</v>
       </c>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="32">
       <c r="A24" s="18" t="s">
         <v>1356</v>
       </c>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="32">
       <c r="A25" s="18" t="s">
         <v>1359</v>
       </c>
@@ -26232,7 +26232,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="30">
+    <row r="26" spans="1:5" ht="32">
       <c r="A26" s="18" t="s">
         <v>1362</v>
       </c>
@@ -26245,7 +26245,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="18" t="s">
         <v>1365</v>
       </c>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="32">
       <c r="A28" s="18" t="s">
         <v>1367</v>
       </c>
@@ -26271,7 +26271,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26284,7 +26284,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="18" t="s">
         <v>1373</v>
       </c>
@@ -26312,13 +26312,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26415,7 +26415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="18" t="s">
         <v>1378</v>
       </c>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="48">
       <c r="A11" s="18" t="s">
         <v>1381</v>
       </c>
@@ -26443,7 +26443,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="32">
       <c r="A12" s="18" t="s">
         <v>1384</v>
       </c>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="32">
       <c r="A13" s="18" t="s">
         <v>1387</v>
       </c>
@@ -26471,7 +26471,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="32">
       <c r="A14" s="18" t="s">
         <v>1390</v>
       </c>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="32">
       <c r="A15" s="18" t="s">
         <v>1393</v>
       </c>
@@ -26499,7 +26499,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="32">
       <c r="A16" s="18" t="s">
         <v>1396</v>
       </c>
@@ -26513,7 +26513,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="48">
       <c r="A17" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26527,7 +26527,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="32">
       <c r="A18" s="18" t="s">
         <v>1401</v>
       </c>
@@ -26647,6 +26647,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27060,68 +27121,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27139,30 +27165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -26708,8 +26708,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="4317e20fb51ec4e85b8666dabb09ede3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b908cdd69cb0859c51683a5db1834d0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -26772,12 +26772,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -26890,7 +26890,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -26909,7 +26909,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -26982,7 +26982,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -27031,8 +27031,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -27148,21 +27148,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477C49D6-F5F6-4D23-B822-AB2FD62E49A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A1607C-5E5F-439E-B62E-A69106800C3A}"/>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1026" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E838BB7B-E5B2-4254-BDE3-E7319E109BEF}"/>
+  <xr:revisionPtr revIDLastSave="1028" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E751DD-E313-3247-A164-FDB798066A6E}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="760" windowWidth="24980" windowHeight="13040" tabRatio="877" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15230,7 +15230,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -26647,67 +26647,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="4317e20fb51ec4e85b8666dabb09ede3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b908cdd69cb0859c51683a5db1834d0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27121,20 +27060,83 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A1607C-5E5F-439E-B62E-A69106800C3A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27148,5 +27150,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A1607C-5E5F-439E-B62E-A69106800C3A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1028" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E751DD-E313-3247-A164-FDB798066A6E}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="760" windowWidth="24980" windowHeight="13040" tabRatio="877" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -11829,7 +11829,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
@@ -15229,7 +15229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -16741,8 +16741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24418BCA-6BA9-46F7-8F30-546B2F7203DE}">
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -25928,7 +25928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29F356B-BB22-47DE-A619-877383F0285B}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -26647,6 +26647,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="4317e20fb51ec4e85b8666dabb09ede3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b908cdd69cb0859c51683a5db1834d0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27060,68 +27121,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A1607C-5E5F-439E-B62E-A69106800C3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27139,30 +27165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1028" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E751DD-E313-3247-A164-FDB798066A6E}"/>
+  <xr:revisionPtr revIDLastSave="1035" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7BB4F8-520C-4D49-B69C-1057BCFDD770}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="877" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10050" yWindow="570" windowWidth="16500" windowHeight="13980" tabRatio="877" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1947">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5853,51 +5853,15 @@
     <t>Demander un soutien médico psychologique</t>
   </si>
   <si>
-    <t>Demander une prise en charge médicale</t>
-  </si>
-  <si>
     <t>Demander une prise en charge para médicale</t>
   </si>
   <si>
     <t>Autre demande de concours au SAMU</t>
   </si>
   <si>
-    <t>Demander le transport d'une personne</t>
-  </si>
-  <si>
-    <t>Demander la recherche de personne(s) ensevelie(s)</t>
-  </si>
-  <si>
     <t>Demander de relever une personne</t>
   </si>
   <si>
-    <t>Demander d'extraire ou degager une personne</t>
-  </si>
-  <si>
-    <t>Demander un appui pour évacuation</t>
-  </si>
-  <si>
-    <t>Lutter contre l'incendie</t>
-  </si>
-  <si>
-    <t>Demander une levée de doute CO</t>
-  </si>
-  <si>
-    <t>Demander une levée de doute NRBC</t>
-  </si>
-  <si>
-    <t>Demander une levée de doute d'odeur/fumée suspecte</t>
-  </si>
-  <si>
-    <t>Demander un appui technique</t>
-  </si>
-  <si>
-    <t>Demander une prise en charge de nombreuses victimes</t>
-  </si>
-  <si>
-    <t>Autre demande de concours au SIS</t>
-  </si>
-  <si>
     <t>Demander un transfert interétablissement</t>
   </si>
   <si>
@@ -5907,9 +5871,6 @@
     <t>Demander un transport bariatrique</t>
   </si>
   <si>
-    <t>Demander l'ouverture d'accès</t>
-  </si>
-  <si>
     <t>NOMENC_EXEC_ENTITE</t>
   </si>
   <si>
@@ -6120,73 +6081,43 @@
     <t>La décision est validée pour une prise en charge souhaitée dans les 15 minutes maxi</t>
   </si>
   <si>
-    <t>E01</t>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>E04</t>
-  </si>
-  <si>
-    <t>E05</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>E08</t>
-  </si>
-  <si>
-    <t>E09</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
     <t>Code_Effet_a_obtenir</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge de médecine d'urgence</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge de médecine générale</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge de nombreuses patients/victimes</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>REGUL</t>
+  </si>
+  <si>
+    <t>CUMP</t>
+  </si>
+  <si>
+    <t>SAMU</t>
+  </si>
+  <si>
+    <t>RELEVE</t>
+  </si>
+  <si>
+    <t>NOVI</t>
+  </si>
+  <si>
+    <t>TIH</t>
+  </si>
+  <si>
+    <t>BRANCARD</t>
+  </si>
+  <si>
+    <t>BARIA</t>
   </si>
 </sst>
 </file>
@@ -6487,7 +6418,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6594,10 +6525,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
@@ -8629,22 +8575,22 @@
   <dimension ref="A1:K219"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31" style="28" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
     <col min="7" max="11" width="9" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="28"/>
+    <col min="12" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="50"/>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -8662,7 +8608,7 @@
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
-    <row r="4" spans="1:11" s="30" customFormat="1">
+    <row r="4" spans="1:11" s="30" customFormat="1" ht="15">
       <c r="A4" s="29" t="s">
         <v>1850</v>
       </c>
@@ -8697,7 +8643,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8728,7 +8674,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8759,7 +8705,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8790,7 +8736,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8821,7 +8767,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8850,7 +8796,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8879,7 +8825,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="31" t="s">
         <v>1825</v>
       </c>
@@ -8910,7 +8856,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="31" t="s">
         <v>1825</v>
       </c>
@@ -8941,7 +8887,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" s="32" t="s">
         <v>1841</v>
       </c>
@@ -8972,7 +8918,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="32" t="s">
         <v>1841</v>
       </c>
@@ -9001,7 +8947,7 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="31" t="s">
         <v>1842</v>
       </c>
@@ -9032,7 +8978,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" s="31" t="s">
         <v>1851</v>
       </c>
@@ -9065,7 +9011,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" s="32" t="s">
         <v>1851</v>
       </c>
@@ -9098,7 +9044,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" s="31" t="s">
         <v>1851</v>
       </c>
@@ -9133,7 +9079,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" s="31" t="s">
         <v>1842</v>
       </c>
@@ -9164,7 +9110,7 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="15">
       <c r="A20" s="32" t="s">
         <v>1852</v>
       </c>
@@ -9193,7 +9139,7 @@
       </c>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="15">
       <c r="A21" s="32"/>
       <c r="B21" s="35"/>
       <c r="C21" s="31"/>
@@ -11832,13 +11778,13 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11992,14 +11938,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12421,14 +12367,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12866,13 +12812,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13316,12 +13262,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14297,13 +14243,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14719,13 +14665,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15229,17 +15175,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15256,7 +15202,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1969</v>
+        <v>1934</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -15322,8 +15268,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>1947</v>
+      <c r="A10" s="52" t="s">
+        <v>1938</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>1855</v>
@@ -15333,8 +15279,8 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>1948</v>
+      <c r="A11" s="53" t="s">
+        <v>1939</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>1856</v>
@@ -15344,8 +15290,8 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>1949</v>
+      <c r="A12" s="54" t="s">
+        <v>1940</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>1857</v>
@@ -15355,210 +15301,170 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>1950</v>
+      <c r="A13" s="54" t="s">
+        <v>1580</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>1858</v>
+        <v>1935</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>1951</v>
+      <c r="A14" s="54" t="s">
+        <v>1444</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>1859</v>
+        <v>1936</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>1952</v>
+      <c r="A15" s="54" t="s">
+        <v>1573</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>1953</v>
+      <c r="A16" s="54" t="s">
+        <v>1941</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>1954</v>
+      <c r="A17" s="55" t="s">
+        <v>1942</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>1955</v>
+      <c r="A18" s="56" t="s">
+        <v>1943</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>1863</v>
+        <v>1937</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>1956</v>
+      <c r="A19" s="54" t="s">
+        <v>1944</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>1957</v>
+      <c r="A20" s="54" t="s">
+        <v>1945</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>1958</v>
+      <c r="A21" s="54" t="s">
+        <v>1946</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>1867</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>1960</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>1868</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>1869</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>1870</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>1963</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>1871</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>1872</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>1873</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>1874</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>1967</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>1875</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>1876</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -15752,13 +15658,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="80.5" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15775,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1899</v>
+        <v>1886</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -15842,132 +15748,132 @@
     </row>
     <row r="10" spans="1:5" s="36" customFormat="1">
       <c r="A10" s="21" t="s">
-        <v>1900</v>
+        <v>1887</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="21" t="s">
-        <v>1945</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="36" customFormat="1">
       <c r="A11" s="21" t="s">
-        <v>1901</v>
+        <v>1888</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1912</v>
+        <v>1899</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="21" t="s">
-        <v>1946</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="36" customFormat="1">
       <c r="A12" s="21" t="s">
-        <v>1902</v>
+        <v>1889</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1913</v>
+        <v>1900</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="21" t="s">
-        <v>1919</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="36" customFormat="1">
       <c r="A13" s="21" t="s">
-        <v>1903</v>
+        <v>1890</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1914</v>
+        <v>1901</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="21" t="s">
-        <v>1920</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="36" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>1904</v>
+        <v>1891</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1915</v>
+        <v>1902</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="21" t="s">
-        <v>1921</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>1905</v>
+        <v>1892</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1916</v>
+        <v>1903</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="21" t="s">
-        <v>1922</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="36" customFormat="1">
       <c r="A16" s="21" t="s">
-        <v>1906</v>
+        <v>1893</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1907</v>
+        <v>1894</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="21" t="s">
-        <v>1923</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="36" customFormat="1">
       <c r="A17" s="21" t="s">
-        <v>1908</v>
+        <v>1895</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1917</v>
+        <v>1904</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="21" t="s">
-        <v>1924</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="36" customFormat="1">
       <c r="A18" s="21" t="s">
-        <v>1909</v>
+        <v>1896</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1918</v>
+        <v>1905</v>
       </c>
       <c r="C18" s="49"/>
       <c r="D18" s="49"/>
       <c r="E18" s="21" t="s">
-        <v>1925</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="36" customFormat="1">
       <c r="A19" s="21" t="s">
-        <v>1910</v>
+        <v>1897</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="21" t="s">
-        <v>1926</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16241,13 +16147,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16264,7 +16170,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1877</v>
+        <v>1864</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16331,171 +16237,171 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
-        <v>1878</v>
+        <v>1865</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1879</v>
+        <v>1866</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="21" t="s">
-        <v>1895</v>
+        <v>1882</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>1880</v>
+        <v>1867</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1936</v>
+        <v>1923</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="21" t="s">
-        <v>1927</v>
+        <v>1914</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>1881</v>
+        <v>1868</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1937</v>
+        <v>1924</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="21" t="s">
-        <v>1928</v>
+        <v>1915</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>1882</v>
+        <v>1869</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1938</v>
+        <v>1925</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="21" t="s">
-        <v>1929</v>
+        <v>1916</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>1883</v>
+        <v>1870</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1939</v>
+        <v>1926</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="21" t="s">
-        <v>1930</v>
+        <v>1917</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>1884</v>
+        <v>1871</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1940</v>
+        <v>1927</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="21" t="s">
-        <v>1931</v>
+        <v>1918</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>1885</v>
+        <v>1872</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1941</v>
+        <v>1928</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="21" t="s">
-        <v>1932</v>
+        <v>1919</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1942</v>
+        <v>1929</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="21" t="s">
-        <v>1933</v>
+        <v>1920</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>1887</v>
+        <v>1874</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1943</v>
+        <v>1930</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="21" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>1888</v>
+        <v>1875</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1944</v>
+        <v>1931</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="21" t="s">
-        <v>1935</v>
+        <v>1922</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1890</v>
+        <v>1877</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="21" t="s">
-        <v>1896</v>
+        <v>1883</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
-        <v>1891</v>
+        <v>1878</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1892</v>
+        <v>1879</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="21" t="s">
-        <v>1897</v>
+        <v>1884</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" s="48" customFormat="1">
       <c r="A22" s="46" t="s">
-        <v>1893</v>
+        <v>1880</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>1894</v>
+        <v>1881</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
       <c r="E22" s="46" t="s">
-        <v>1898</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -16741,18 +16647,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24418BCA-6BA9-46F7-8F30-546B2F7203DE}">
   <dimension ref="A1:F317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16835,7 +16741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row r="10" spans="1:6" ht="64.5">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -16861,7 +16767,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -16875,7 +16781,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -16889,7 +16795,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -16902,7 +16808,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -16930,7 +16836,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="26.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -16956,7 +16862,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="26.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -16971,7 +16877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -16997,7 +16903,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="39">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -17011,7 +16917,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="39">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -17035,7 +16941,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -17049,7 +16955,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="26.25">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -17063,7 +16969,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="26.25">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -17077,7 +16983,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -17113,7 +17019,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="60">
+    <row r="31" spans="1:6" ht="51.75">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -17127,7 +17033,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -17166,7 +17072,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="26.25">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -17192,7 +17098,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="120">
+    <row r="37" spans="1:6" ht="102.75">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -17206,7 +17112,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="26.25">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -17220,7 +17126,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="39">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -17245,7 +17151,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="39">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -17259,7 +17165,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="26.25">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -17273,7 +17179,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="39">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -17297,7 +17203,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="45">
+    <row r="45" spans="1:6" ht="39">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -17396,7 +17302,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="26.25">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -17410,7 +17316,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="60">
+    <row r="54" spans="1:6" ht="64.5">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -17781,7 +17687,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="45">
+    <row r="85" spans="1:6" ht="39">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -17807,7 +17713,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="135">
+    <row r="87" spans="1:6" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -17833,7 +17739,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="60">
+    <row r="89" spans="1:6" ht="51.75">
       <c r="A89" s="2" t="s">
         <v>212</v>
       </c>
@@ -17846,7 +17752,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="26.25">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -17886,7 +17792,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="26.25">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -18057,7 +17963,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -18071,7 +17977,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="26.25">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -18195,7 +18101,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="30">
+    <row r="118" spans="1:6" ht="26.25">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -18209,7 +18115,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="26.25">
       <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
@@ -18222,7 +18128,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45">
+    <row r="120" spans="1:6" ht="39">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -18260,7 +18166,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="45">
+    <row r="123" spans="1:6" ht="39">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -18321,7 +18227,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="45">
+    <row r="128" spans="1:6" ht="39">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -18455,7 +18361,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6" ht="26.25">
       <c r="A139" s="2" t="s">
         <v>336</v>
       </c>
@@ -18480,7 +18386,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="30">
+    <row r="141" spans="1:6" ht="26.25">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -18494,7 +18400,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="30">
+    <row r="142" spans="1:6" ht="26.25">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -18508,7 +18414,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="26.25">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -18522,7 +18428,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="30">
+    <row r="144" spans="1:6" ht="26.25">
       <c r="A144" s="2" t="s">
         <v>344</v>
       </c>
@@ -18551,7 +18457,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="26.25">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -18565,7 +18471,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="30">
+    <row r="147" spans="1:6" ht="39">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -18579,7 +18485,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="30">
+    <row r="148" spans="1:6" ht="39">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -18593,7 +18499,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="30">
+    <row r="149" spans="1:6" ht="26.25">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -18606,7 +18512,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6" ht="26.25">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -18620,7 +18526,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6" ht="26.25">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -18752,7 +18658,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="30">
+    <row r="162" spans="1:6" ht="39">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -18766,7 +18672,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="45">
+    <row r="163" spans="1:6" ht="39">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -18780,7 +18686,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="45">
+    <row r="164" spans="1:6" ht="39">
       <c r="A164" s="2" t="s">
         <v>379</v>
       </c>
@@ -18831,7 +18737,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="30">
+    <row r="168" spans="1:6" ht="26.25">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -19048,7 +18954,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="30">
+    <row r="186" spans="1:6" ht="26.25">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -19184,7 +19090,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="26.25">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -19284,7 +19190,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="30">
+    <row r="205" spans="1:6" ht="26.25">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -19310,7 +19216,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="30">
+    <row r="207" spans="1:6" ht="26.25">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -19408,7 +19314,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="30">
+    <row r="215" spans="1:6" ht="26.25">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -20229,7 +20135,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="30">
+    <row r="283" spans="1:6" ht="26.25">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -20243,7 +20149,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="30">
+    <row r="284" spans="1:6" ht="26.25">
       <c r="A284" s="2" t="s">
         <v>641</v>
       </c>
@@ -20592,12 +20498,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20754,12 +20660,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20936,14 +20842,14 @@
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23655,12 +23561,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23671,7 +23577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="24.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -23737,7 +23643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="39">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -23759,7 +23665,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -23769,7 +23675,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="39">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -23779,7 +23685,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -23789,7 +23695,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -23799,7 +23705,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -23811,7 +23717,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="45">
+    <row r="17" spans="1:4" ht="39">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -23823,7 +23729,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="39">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -23833,7 +23739,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="45">
+    <row r="19" spans="1:4" ht="39">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -23843,7 +23749,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -23853,7 +23759,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="26.25">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -23863,7 +23769,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="26.25">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -23893,7 +23799,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -23923,7 +23829,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -23935,7 +23841,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="30">
+    <row r="29" spans="1:4" ht="26.25">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -23947,7 +23853,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="26.25">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -23969,7 +23875,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -23981,7 +23887,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="39">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -23993,7 +23899,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="26.25">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -24005,7 +23911,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="135">
+    <row r="35" spans="1:4" ht="128.25">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -24017,7 +23923,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="135">
+    <row r="36" spans="1:4" ht="128.25">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -24101,7 +24007,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="30">
+    <row r="44" spans="1:4" ht="26.25">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -24113,7 +24019,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="30">
+    <row r="45" spans="1:4" ht="26.25">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -24123,7 +24029,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="75">
+    <row r="46" spans="1:4" ht="77.25">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -24152,13 +24058,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24273,7 +24179,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -24297,7 +24203,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -24310,7 +24216,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -24334,7 +24240,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="40">
+    <row r="18" spans="1:5" ht="48.75">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -24347,7 +24253,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="64.5">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -24496,7 +24402,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="30">
+    <row r="32" spans="1:5" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -24509,7 +24415,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -24596,7 +24502,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="51.75">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -24633,7 +24539,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="30">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -24646,7 +24552,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -24705,7 +24611,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="30">
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -24740,7 +24646,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -24834,7 +24740,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="45">
+    <row r="60" spans="1:5" ht="39">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -24876,14 +24782,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.6640625" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.7109375" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25497,14 +25403,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25932,13 +25838,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26024,7 +25930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="18" t="s">
         <v>1314</v>
       </c>
@@ -26037,7 +25943,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="32">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="18" t="s">
         <v>1317</v>
       </c>
@@ -26050,7 +25956,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="18" t="s">
         <v>1320</v>
       </c>
@@ -26063,7 +25969,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="32">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="18" t="s">
         <v>1323</v>
       </c>
@@ -26076,7 +25982,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="18" t="s">
         <v>1326</v>
       </c>
@@ -26089,7 +25995,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="32">
+    <row r="15" spans="1:5" ht="45">
       <c r="A15" s="18" t="s">
         <v>1329</v>
       </c>
@@ -26102,7 +26008,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="32">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="18" t="s">
         <v>1332</v>
       </c>
@@ -26115,7 +26021,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="32">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="18" t="s">
         <v>1335</v>
       </c>
@@ -26128,7 +26034,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="48">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="18" t="s">
         <v>1338</v>
       </c>
@@ -26141,7 +26047,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="48">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="18" t="s">
         <v>1341</v>
       </c>
@@ -26154,7 +26060,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="32">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="18" t="s">
         <v>1344</v>
       </c>
@@ -26167,7 +26073,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="32">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="18" t="s">
         <v>1347</v>
       </c>
@@ -26180,7 +26086,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="32">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="18" t="s">
         <v>1350</v>
       </c>
@@ -26193,7 +26099,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="32">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="18" t="s">
         <v>1353</v>
       </c>
@@ -26206,7 +26112,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="32">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="18" t="s">
         <v>1356</v>
       </c>
@@ -26219,7 +26125,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="32">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="18" t="s">
         <v>1359</v>
       </c>
@@ -26232,7 +26138,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="32">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="18" t="s">
         <v>1362</v>
       </c>
@@ -26245,7 +26151,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row r="27" spans="1:5">
       <c r="A27" s="18" t="s">
         <v>1365</v>
       </c>
@@ -26258,7 +26164,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="32">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="18" t="s">
         <v>1367</v>
       </c>
@@ -26271,7 +26177,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:5">
       <c r="A29" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26284,7 +26190,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row r="30" spans="1:5">
       <c r="A30" s="18" t="s">
         <v>1373</v>
       </c>
@@ -26312,13 +26218,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26415,7 +26321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="18" t="s">
         <v>1378</v>
       </c>
@@ -26429,7 +26335,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="48">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="18" t="s">
         <v>1381</v>
       </c>
@@ -26443,7 +26349,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="32">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="18" t="s">
         <v>1384</v>
       </c>
@@ -26457,7 +26363,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="32">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="18" t="s">
         <v>1387</v>
       </c>
@@ -26471,7 +26377,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="32">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="18" t="s">
         <v>1390</v>
       </c>
@@ -26485,7 +26391,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="32">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="18" t="s">
         <v>1393</v>
       </c>
@@ -26499,7 +26405,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="32">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="18" t="s">
         <v>1396</v>
       </c>
@@ -26513,7 +26419,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="48">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26527,7 +26433,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="32">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="18" t="s">
         <v>1401</v>
       </c>
@@ -26647,69 +26553,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="4317e20fb51ec4e85b8666dabb09ede3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b908cdd69cb0859c51683a5db1834d0" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -26772,12 +26617,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -26890,7 +26735,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -26909,7 +26754,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -26982,7 +26827,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -27031,8 +26876,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -27121,22 +26966,69 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8EAFAAD-45BD-4A4A-9EC1-DDF1B9581D22}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27148,21 +27040,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A1607C-5E5F-439E-B62E-A69106800C3A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1035" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7BB4F8-520C-4D49-B69C-1057BCFDD770}"/>
+  <xr:revisionPtr revIDLastSave="1054" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A645E5-0C8D-4214-85A8-C0C88A86B91D}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="570" windowWidth="16500" windowHeight="13980" tabRatio="877" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="450" windowWidth="25455" windowHeight="13980" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$4:$K$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$2:$K$18</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1949">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -6090,9 +6090,6 @@
     <t>Demander une prise en charge de médecine générale</t>
   </si>
   <si>
-    <t>Demander une prise en charge de nombreuses patients/victimes</t>
-  </si>
-  <si>
     <t>SAP</t>
   </si>
   <si>
@@ -6118,13 +6115,22 @@
   </si>
   <si>
     <t>BARIA</t>
+  </si>
+  <si>
+    <t>Détails à préciser dans le texte libre de la demande de ressources</t>
+  </si>
+  <si>
+    <t>Demander une prise en charge de nombreux patients/victimes</t>
+  </si>
+  <si>
+    <t>Pour obtenir une consultation ou une visite du MG (uniquement pour lien 15-15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6226,12 +6232,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -6264,18 +6264,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -6311,6 +6299,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6338,7 +6338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -6359,15 +6359,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -6416,9 +6407,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6477,68 +6468,62 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8572,10 +8557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
-  <dimension ref="A1:K219"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -8590,73 +8575,122 @@
     <col min="12" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" s="30" customFormat="1" ht="15">
-      <c r="A4" s="29" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" s="30" customFormat="1" ht="15">
+      <c r="A2" s="29" t="s">
         <v>1850</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B2" s="29" t="s">
         <v>1827</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>1828</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D2" s="29" t="s">
         <v>1819</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>1820</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>1821</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>1844</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>1843</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>1845</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>1846</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>1847</v>
       </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="31" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C3" s="31" t="str">
+        <f>'Nature de fait'!$B$1</f>
+        <v>CISU</v>
+      </c>
+      <c r="D3" s="32" t="str">
+        <f>'Nature de fait'!B2</f>
+        <v>Code_Nature_de_fait</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="31" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C4" s="31" t="str">
+        <f>'Type de lieu'!$B$1</f>
+        <v>CISU</v>
+      </c>
+      <c r="D4" s="31" t="str">
+        <f>'Type de lieu'!B2</f>
+        <v>Code_Type_de_lieu</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>1823</v>
+      <c r="B5" s="38" t="s">
+        <v>1830</v>
       </c>
       <c r="C5" s="31" t="str">
-        <f>'Nature de fait'!$B$1</f>
+        <f>'Risque, menace et sensibilité'!$B$1</f>
         <v>CISU</v>
       </c>
-      <c r="D5" s="32" t="str">
-        <f>'Nature de fait'!B2</f>
-        <v>Code_Nature_de_fait</v>
+      <c r="D5" s="31" t="str">
+        <f>'Risque, menace et sensibilité'!$B$2</f>
+        <v>Code_Risque-Menace-Sensibilité</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>1824</v>
@@ -8678,16 +8712,16 @@
       <c r="A6" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C6" s="31" t="str">
-        <f>'Type de lieu'!$B$1</f>
-        <v>CISU</v>
+      <c r="B6" s="38" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C6" s="54" t="str">
+        <f>'Motif de recours médico-secouri'!$B$1</f>
+        <v>SI-SAMU</v>
       </c>
       <c r="D6" s="31" t="str">
-        <f>'Type de lieu'!B2</f>
-        <v>Code_Type_de_lieu</v>
+        <f>'Motif de recours médico-secouri'!$B$2</f>
+        <v>Code_Motif_patient-victime</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>1824</v>
@@ -8709,16 +8743,16 @@
       <c r="A7" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>1830</v>
-      </c>
-      <c r="C7" s="31" t="str">
-        <f>'Risque, menace et sensibilité'!$B$1</f>
-        <v>CISU</v>
+      <c r="B7" s="38" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C7" s="54" t="str">
+        <f>'Attribution du dossier'!$B$1</f>
+        <v>SI-SAMU</v>
       </c>
       <c r="D7" s="31" t="str">
-        <f>'Risque, menace et sensibilité'!$B$2</f>
-        <v>Code_Risque-Menace-Sensibilité</v>
+        <f>'Attribution du dossier'!$B$2</f>
+        <v>DEVENIRD</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>1824</v>
@@ -8726,9 +8760,7 @@
       <c r="F7" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
         <v>1848</v>
       </c>
@@ -8740,16 +8772,16 @@
       <c r="A8" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C8" s="38" t="str">
-        <f>'Motif de recours médico-secouri'!$B$1</f>
+      <c r="B8" s="38" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C8" s="54" t="str">
+        <f>'Priorité de régulation médicale'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D8" s="31" t="str">
-        <f>'Motif de recours médico-secouri'!$B$2</f>
-        <v>Code_Motif_patient-victime</v>
+        <f>'Priorité de régulation médicale'!$B$2</f>
+        <v>PRIORITE</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>1824</v>
@@ -8757,9 +8789,7 @@
       <c r="F8" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
         <v>1848</v>
       </c>
@@ -8769,18 +8799,18 @@
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="31" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C9" s="31" t="str">
-        <f>'Attribution du dossier'!$B$1</f>
+        <v>1825</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C9" s="54" t="str">
+        <f>'Type de requérant'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D9" s="31" t="str">
-        <f>'Attribution du dossier'!$B$2</f>
-        <v>DEVENIRD</v>
+        <f>'Type de requérant'!$B$2</f>
+        <v>TYPAPPLT</v>
       </c>
       <c r="E9" s="33" t="s">
         <v>1824</v>
@@ -8788,7 +8818,9 @@
       <c r="F9" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="34" t="s">
+        <v>1848</v>
+      </c>
       <c r="H9" s="34" t="s">
         <v>1848</v>
       </c>
@@ -8798,18 +8830,18 @@
     </row>
     <row r="10" spans="1:11" ht="15">
       <c r="A10" s="31" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C10" s="31" t="str">
-        <f>'Priorité de régulation médicale'!$B$1</f>
+        <v>1825</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C10" s="54" t="str">
+        <f>'Difficultés de communication'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D10" s="31" t="str">
-        <f>'Priorité de régulation médicale'!$B$2</f>
-        <v>PRIORITE</v>
+        <f>'Difficultés de communication'!$B$2</f>
+        <v>PBAPL</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>1824</v>
@@ -8817,7 +8849,9 @@
       <c r="F10" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="34" t="s">
+        <v>1848</v>
+      </c>
       <c r="H10" s="34" t="s">
         <v>1848</v>
       </c>
@@ -8826,19 +8860,19 @@
       <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="31" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C11" s="31" t="str">
-        <f>'Type de requérant'!$B$1</f>
+      <c r="A11" s="32" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C11" s="54" t="str">
+        <f>Sexe!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D11" s="31" t="str">
-        <f>'Type de requérant'!$B$2</f>
-        <v>TYPAPPLT</v>
+        <f>Sexe!$B$2</f>
+        <v>NOMENC_SEXE</v>
       </c>
       <c r="E11" s="33" t="s">
         <v>1824</v>
@@ -8857,19 +8891,19 @@
       <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="15">
-      <c r="A12" s="31" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C12" s="31" t="str">
-        <f>'Difficultés de communication'!$B$1</f>
+      <c r="A12" s="32" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C12" s="54" t="str">
+        <f>'Niveau de soin'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D12" s="31" t="str">
-        <f>'Difficultés de communication'!$B$2</f>
-        <v>PBAPL</v>
+        <f>'Niveau de soin'!$B$2</f>
+        <v>GRAVITE</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>1824</v>
@@ -8877,9 +8911,7 @@
       <c r="F12" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
         <v>1848</v>
       </c>
@@ -8888,19 +8920,19 @@
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="32" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C13" s="31" t="str">
-        <f>Sexe!$B$1</f>
+      <c r="A13" s="31" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C13" s="54" t="str">
+        <f>'Type de décision'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D13" s="31" t="str">
-        <f>Sexe!$B$2</f>
-        <v>NOMENC_SEXE</v>
+        <f>'Type de décision'!$B$2</f>
+        <v>TYPEDEC</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>1824</v>
@@ -8919,19 +8951,19 @@
       <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="32" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C14" s="31" t="str">
-        <f>'Niveau de soin'!$B$1</f>
+      <c r="A14" s="31" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C14" s="54" t="str">
+        <f>'Type de ressource'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D14" s="31" t="str">
-        <f>'Niveau de soin'!$B$2</f>
-        <v>GRAVITE</v>
+        <f>'Type de ressource'!$B$2</f>
+        <v>TYPE_MOYEN</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>1824</v>
@@ -8943,24 +8975,28 @@
       <c r="H14" s="34" t="s">
         <v>1848</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="34" t="s">
+        <v>1848</v>
+      </c>
       <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="K14" s="34" t="s">
+        <v>1848</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="31" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C15" s="31" t="str">
-        <f>'Type de décision'!$B$1</f>
-        <v>SI-SAMU</v>
+      <c r="A15" s="32" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C15" s="54" t="str">
+        <f>'Type de vecteurs'!$B$1</f>
+        <v>CISU</v>
       </c>
       <c r="D15" s="31" t="str">
-        <f>'Type de décision'!$B$2</f>
-        <v>TYPEDEC</v>
+        <f>'Type de vecteurs'!$B$2</f>
+        <v>TYPE_VECTEUR</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>1824</v>
@@ -8968,30 +9004,32 @@
       <c r="F15" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="G15" s="34"/>
       <c r="H15" s="34" t="s">
         <v>1848</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="34" t="s">
+        <v>1848</v>
+      </c>
       <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="K15" s="34" t="s">
+        <v>1848</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="31" t="s">
         <v>1851</v>
       </c>
-      <c r="B16" s="40" t="s">
-        <v>1839</v>
-      </c>
-      <c r="C16" s="37" t="str">
-        <f>'Type de ressource'!$B$1</f>
+      <c r="B16" s="38" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C16" s="31" t="str">
+        <f>'Niveau de prise en charge'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D16" s="31" t="str">
-        <f>'Type de ressource'!$B$2</f>
-        <v>TYPE_MOYEN</v>
+        <f>'Niveau de prise en charge'!$B$2</f>
+        <v>NIVSOIN</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>1824</v>
@@ -8999,7 +9037,9 @@
       <c r="F16" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>1848</v>
+      </c>
       <c r="H16" s="34" t="s">
         <v>1848</v>
       </c>
@@ -9012,19 +9052,19 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="32" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>1853</v>
+      <c r="A17" s="31" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>1838</v>
       </c>
       <c r="C17" s="31" t="str">
-        <f>'Type de vecteurs'!$B$1</f>
-        <v>CISU</v>
+        <f>'Type de devenir du patient'!$B$1</f>
+        <v>SI-SAMU</v>
       </c>
       <c r="D17" s="31" t="str">
-        <f>'Type de vecteurs'!$B$2</f>
-        <v>TYPE_VECTEUR</v>
+        <f>'Type de devenir du patient'!$B$2</f>
+        <v>NOMENC_DEVENIR_PAT</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>1824</v>
@@ -9032,32 +9072,30 @@
       <c r="F17" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>1848</v>
+      </c>
       <c r="H17" s="34" t="s">
         <v>1848</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="I17" s="34"/>
       <c r="J17" s="34"/>
-      <c r="K17" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="15">
-      <c r="A18" s="31" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1849</v>
+      <c r="A18" s="32" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>1833</v>
       </c>
       <c r="C18" s="31" t="str">
-        <f>'Niveau de prise en charge'!$B$1</f>
-        <v>SI-SAMU</v>
+        <f>'Effet à obtenir'!$B$1</f>
+        <v>CISU</v>
       </c>
       <c r="D18" s="31" t="str">
-        <f>'Niveau de prise en charge'!$B$2</f>
-        <v>NIVSOIN</v>
+        <f>'Effet à obtenir'!$B$2</f>
+        <v>Code_Effet_a_obtenir</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>1824</v>
@@ -9065,86 +9103,46 @@
       <c r="F18" s="32" t="s">
         <v>1840</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34" t="s">
         <v>1848</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>1848</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>1848</v>
-      </c>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="31" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C19" s="31" t="str">
-        <f>'Type de devenir du patient'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D19" s="31" t="str">
-        <f>'Type de devenir du patient'!$B$2</f>
-        <v>NOMENC_DEVENIR_PAT</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>1848</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="A19" s="32"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
     </row>
-    <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="32" t="s">
-        <v>1852</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C20" s="31" t="str">
-        <f>'Effet à obtenir'!$B$1</f>
-        <v>CISU</v>
-      </c>
-      <c r="D20" s="31" t="str">
-        <f>'Effet à obtenir'!$B$2</f>
-        <v>Code_Effet_a_obtenir</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>1840</v>
-      </c>
+    <row r="20" spans="1:11">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="34" t="s">
-        <v>1848</v>
-      </c>
+      <c r="J20" s="34"/>
       <c r="K20" s="34"/>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:11">
       <c r="A21" s="32"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
@@ -9419,11 +9417,11 @@
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="32"/>
@@ -9432,11 +9430,11 @@
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="32"/>
@@ -11700,38 +11698,9 @@
       <c r="J217" s="32"/>
       <c r="K217" s="32"/>
     </row>
-    <row r="218" spans="1:11">
-      <c r="A218" s="32"/>
-      <c r="B218" s="32"/>
-      <c r="C218" s="32"/>
-      <c r="D218" s="32"/>
-      <c r="E218" s="32"/>
-      <c r="F218" s="32"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="32"/>
-      <c r="I218" s="32"/>
-      <c r="J218" s="32"/>
-      <c r="K218" s="32"/>
-    </row>
-    <row r="219" spans="1:11">
-      <c r="A219" s="32"/>
-      <c r="B219" s="32"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="32"/>
-      <c r="E219" s="32"/>
-      <c r="F219" s="32"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="32"/>
-      <c r="I219" s="32"/>
-      <c r="J219" s="32"/>
-      <c r="K219" s="32"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:K20" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A5:K219">
+  <autoFilter ref="A2:K18" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
+  <conditionalFormatting sqref="A3:K217">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -11739,32 +11708,32 @@
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:K20">
+  <conditionalFormatting sqref="G3:K18">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>G5=""</formula>
+      <formula>G3=""</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>G5="X"</formula>
+      <formula>G3="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E5" location="'Nature de fait'!A1" display="Lien nomenclature" xr:uid="{539BD578-8B92-438E-9797-279F8E85B856}"/>
-    <hyperlink ref="E6" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{83312ADE-108A-4D25-8BE7-27C9395C4886}"/>
-    <hyperlink ref="E7:E20" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{29712ED5-564A-4FD2-8437-4B4AE7679944}"/>
-    <hyperlink ref="E7" location="'Risque, menace et sensibilité'!A1" display="Lien nomenclature" xr:uid="{9F738CF9-B437-4A27-8CF2-C50C5C0734F4}"/>
-    <hyperlink ref="E8" location="'Motif de recours médico-secouri'!A1" display="Lien nomenclature" xr:uid="{34887817-DE20-4996-9B54-60201BD7BF6B}"/>
-    <hyperlink ref="E9" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{3EDF5532-205A-406E-822B-B79908DFAF6A}"/>
-    <hyperlink ref="E10" location="'Priorité de régulation médicale'!A1" display="Lien nomenclature" xr:uid="{D59E4120-4823-486C-9505-D44F77A631EC}"/>
-    <hyperlink ref="E11" location="'Type de requérant'!A1" display="Lien nomenclature" xr:uid="{379E2147-AD1C-464C-83FF-DA5B8754B9E0}"/>
-    <hyperlink ref="E12" location="'Difficultés de communication'!A1" display="Lien nomenclature" xr:uid="{178F7592-0B6B-4DA8-89F4-525A55C10FA0}"/>
-    <hyperlink ref="E13" location="Sexe!A1" display="Lien nomenclature" xr:uid="{65BDA639-D0DB-4DC1-8264-8E35FE3B2996}"/>
-    <hyperlink ref="E14" location="'Niveau de soin'!A1" display="Lien nomenclature" xr:uid="{30F27E7E-2FB0-4F79-A16D-620776E8FCF1}"/>
-    <hyperlink ref="E15" location="'Type de décision'!A1" display="Lien nomenclature" xr:uid="{4F195D5A-2BD1-4EA9-BE69-3011CC92C820}"/>
-    <hyperlink ref="E16" location="'Type de ressource'!A1" display="Lien nomenclature" xr:uid="{3CDD18B1-CEEB-4D52-9CB8-283B075579C8}"/>
-    <hyperlink ref="E17" location="'Type de vecteurs'!A1" display="Lien nomenclature" xr:uid="{4A249EF4-3DA2-4A6E-947A-08D74AFD0EF9}"/>
-    <hyperlink ref="E18" location="'Niveau de prise en charge'!A1" display="Lien nomenclature" xr:uid="{2154EBB7-71EE-44B5-BBEE-716579483CDC}"/>
-    <hyperlink ref="E19" location="'Type de devenir du patient'!A1" display="Lien nomenclature" xr:uid="{0E2A9314-0B8D-4156-A7C3-BC0E2885D9D2}"/>
-    <hyperlink ref="E20" location="'Effet à obtenir'!A1" display="Lien nomenclature" xr:uid="{F32B9CB2-26FC-4D51-B612-B9EB269DC3B1}"/>
+    <hyperlink ref="E3" location="'Nature de fait'!A1" display="Lien nomenclature" xr:uid="{539BD578-8B92-438E-9797-279F8E85B856}"/>
+    <hyperlink ref="E4" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{83312ADE-108A-4D25-8BE7-27C9395C4886}"/>
+    <hyperlink ref="E5:E18" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{29712ED5-564A-4FD2-8437-4B4AE7679944}"/>
+    <hyperlink ref="E5" location="'Risque, menace et sensibilité'!A1" display="Lien nomenclature" xr:uid="{9F738CF9-B437-4A27-8CF2-C50C5C0734F4}"/>
+    <hyperlink ref="E6" location="'Motif de recours médico-secouri'!A1" display="Lien nomenclature" xr:uid="{34887817-DE20-4996-9B54-60201BD7BF6B}"/>
+    <hyperlink ref="E7" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{3EDF5532-205A-406E-822B-B79908DFAF6A}"/>
+    <hyperlink ref="E8" location="'Priorité de régulation médicale'!A1" display="Lien nomenclature" xr:uid="{D59E4120-4823-486C-9505-D44F77A631EC}"/>
+    <hyperlink ref="E9" location="'Type de requérant'!A1" display="Lien nomenclature" xr:uid="{379E2147-AD1C-464C-83FF-DA5B8754B9E0}"/>
+    <hyperlink ref="E10" location="'Difficultés de communication'!A1" display="Lien nomenclature" xr:uid="{178F7592-0B6B-4DA8-89F4-525A55C10FA0}"/>
+    <hyperlink ref="E11" location="Sexe!A1" display="Lien nomenclature" xr:uid="{65BDA639-D0DB-4DC1-8264-8E35FE3B2996}"/>
+    <hyperlink ref="E12" location="'Niveau de soin'!A1" display="Lien nomenclature" xr:uid="{30F27E7E-2FB0-4F79-A16D-620776E8FCF1}"/>
+    <hyperlink ref="E13" location="'Type de décision'!A1" display="Lien nomenclature" xr:uid="{4F195D5A-2BD1-4EA9-BE69-3011CC92C820}"/>
+    <hyperlink ref="E14" location="'Type de ressource'!A1" display="Lien nomenclature" xr:uid="{3CDD18B1-CEEB-4D52-9CB8-283B075579C8}"/>
+    <hyperlink ref="E15" location="'Type de vecteurs'!A1" display="Lien nomenclature" xr:uid="{4A249EF4-3DA2-4A6E-947A-08D74AFD0EF9}"/>
+    <hyperlink ref="E16" location="'Niveau de prise en charge'!A1" display="Lien nomenclature" xr:uid="{2154EBB7-71EE-44B5-BBEE-716579483CDC}"/>
+    <hyperlink ref="E17" location="'Type de devenir du patient'!A1" display="Lien nomenclature" xr:uid="{0E2A9314-0B8D-4156-A7C3-BC0E2885D9D2}"/>
+    <hyperlink ref="E18" location="'Effet à obtenir'!A1" display="Lien nomenclature" xr:uid="{F32B9CB2-26FC-4D51-B612-B9EB269DC3B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15175,8 +15144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -15184,7 +15153,7 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="56.140625" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15268,203 +15237,207 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="52" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="48" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B10" s="53" t="s">
         <v>1855</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="50" t="s">
         <v>1939</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="54" t="s">
+      <c r="B12" s="39" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="50" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="50" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="50" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="50" t="s">
         <v>1940</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="54" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>1935</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="54" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="54" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="54" t="s">
+      <c r="B16" s="40" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="51" t="s">
         <v>1941</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="55" t="s">
+      <c r="B17" s="39" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="52" t="s">
         <v>1942</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>1860</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="56" t="s">
+      <c r="B18" s="39" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="50" t="s">
         <v>1943</v>
       </c>
-      <c r="B18" s="41" t="s">
-        <v>1937</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="54" t="s">
+      <c r="B19" s="39" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="50" t="s">
         <v>1944</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>1861</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="54" t="s">
+      <c r="B20" s="39" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="50" t="s">
         <v>1945</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="54" t="s">
-        <v>1946</v>
-      </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>1863</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="40"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="43"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -15753,8 +15726,8 @@
       <c r="B10" s="21" t="s">
         <v>1866</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
       <c r="E10" s="21" t="s">
         <v>1932</v>
       </c>
@@ -15766,8 +15739,8 @@
       <c r="B11" s="21" t="s">
         <v>1899</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="21" t="s">
         <v>1933</v>
       </c>
@@ -15779,8 +15752,8 @@
       <c r="B12" s="21" t="s">
         <v>1900</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="21" t="s">
         <v>1906</v>
       </c>
@@ -15792,8 +15765,8 @@
       <c r="B13" s="21" t="s">
         <v>1901</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="21" t="s">
         <v>1907</v>
       </c>
@@ -15805,8 +15778,8 @@
       <c r="B14" s="21" t="s">
         <v>1902</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="21" t="s">
         <v>1908</v>
       </c>
@@ -15818,8 +15791,8 @@
       <c r="B15" s="21" t="s">
         <v>1903</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="21" t="s">
         <v>1909</v>
       </c>
@@ -15831,8 +15804,8 @@
       <c r="B16" s="21" t="s">
         <v>1894</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="21" t="s">
         <v>1910</v>
       </c>
@@ -15844,8 +15817,8 @@
       <c r="B17" s="21" t="s">
         <v>1904</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="21" t="s">
         <v>1911</v>
       </c>
@@ -15857,8 +15830,8 @@
       <c r="B18" s="21" t="s">
         <v>1905</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="21" t="s">
         <v>1912</v>
       </c>
@@ -15870,8 +15843,8 @@
       <c r="B19" s="21" t="s">
         <v>1898</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="21" t="s">
         <v>1913</v>
       </c>
@@ -15888,74 +15861,74 @@
       <c r="B21" s="21"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="45"/>
-    </row>
-    <row r="22" spans="1:5" s="48" customFormat="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="46"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" s="46" customFormat="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="43"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -16391,78 +16364,78 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" s="48" customFormat="1">
-      <c r="A22" s="46" t="s">
+    <row r="22" spans="1:5" s="46" customFormat="1">
+      <c r="A22" s="44" t="s">
         <v>1880</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>1881</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="46" t="s">
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44" t="s">
         <v>1885</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="44"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="41"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="43"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -26967,15 +26940,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -27027,32 +26991,57 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8EAFAAD-45BD-4A4A-9EC1-DDF1B9581D22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F317E4A3-C0C5-4204-BAF7-619A6A4AE4A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainfouilland/Library/CloudStorage/OneDrive-SharedLibraries-ANS/Espace Projets - Espace Programme SI-SAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1054" documentId="11_D1219352A73AC3F06E4E08ED344B052DFE2EB084" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A645E5-0C8D-4214-85A8-C0C88A86B91D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="450" windowWidth="25455" windowHeight="13980" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="877" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="#Delai de réponse" sheetId="39" r:id="rId19"/>
     <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId20"/>
     <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId21"/>
+    <sheet name="#Code Antares" sheetId="41" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$2:$K$18</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2517" uniqueCount="1949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2039">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -6124,6 +6125,276 @@
   </si>
   <si>
     <t>Pour obtenir une consultation ou une visite du MG (uniquement pour lien 15-15)</t>
+  </si>
+  <si>
+    <t>Code Antares</t>
+  </si>
+  <si>
+    <t>nexsis_code_situation</t>
+  </si>
+  <si>
+    <t>signification</t>
+  </si>
+  <si>
+    <t>Libelle_ long</t>
+  </si>
+  <si>
+    <t>Libelle_court</t>
+  </si>
+  <si>
+    <t>type_status</t>
+  </si>
+  <si>
+    <t>PARTI</t>
+  </si>
+  <si>
+    <t>Parti indisponible</t>
+  </si>
+  <si>
+    <t>mobilisation</t>
+  </si>
+  <si>
+    <t>SUR_LES_LIEUX</t>
+  </si>
+  <si>
+    <t>Sur les lieux indisponible</t>
+  </si>
+  <si>
+    <t>SUR LES LIEUX</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>Demande de parole pour message</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Demande de parole pour message urgent</t>
+  </si>
+  <si>
+    <t>MESSAGE URGENT</t>
+  </si>
+  <si>
+    <t>MESS URG</t>
+  </si>
+  <si>
+    <t>EN_TRANSIT_HOPITAL</t>
+  </si>
+  <si>
+    <t>Transport au centre hospitalierindisponible</t>
+  </si>
+  <si>
+    <t>TRANSP. HOPITAL</t>
+  </si>
+  <si>
+    <t>TRANS HOP</t>
+  </si>
+  <si>
+    <t>ARRIVE_HOPITAL</t>
+  </si>
+  <si>
+    <t>ArrivÈe au centre hospitalierl indisponible</t>
+  </si>
+  <si>
+    <t>ARRIVEE HOPITAL</t>
+  </si>
+  <si>
+    <t>ARR HOP</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>DISPONIBLE</t>
+  </si>
+  <si>
+    <t>DISPO</t>
+  </si>
+  <si>
+    <t>INDISPONIBLE</t>
+  </si>
+  <si>
+    <t>RENTRE_A_UF</t>
+  </si>
+  <si>
+    <t>RentrÈ indisponible</t>
+  </si>
+  <si>
+    <t>RENTRE</t>
+  </si>
+  <si>
+    <t>Reconnaissance en cours</t>
+  </si>
+  <si>
+    <t>REC. EN COURS</t>
+  </si>
+  <si>
+    <t>REC COURS</t>
+  </si>
+  <si>
+    <t>Feu circonscrit</t>
+  </si>
+  <si>
+    <t>FEU CIRCONSCRIT</t>
+  </si>
+  <si>
+    <t>FEU CIRC</t>
+  </si>
+  <si>
+    <t>Ma√Ætre du feu</t>
+  </si>
+  <si>
+    <t>MAITRE DU FEU</t>
+  </si>
+  <si>
+    <t>MTRE FEU</t>
+  </si>
+  <si>
+    <t>Feu Èteint</t>
+  </si>
+  <si>
+    <t>FEU ETEINT</t>
+  </si>
+  <si>
+    <t>F. ETEINT</t>
+  </si>
+  <si>
+    <t>RETOUR_VERS_UF</t>
+  </si>
+  <si>
+    <t>Quitte les lieux du sinistre indisponible</t>
+  </si>
+  <si>
+    <t>QUITTE LES LIEUX</t>
+  </si>
+  <si>
+    <t>QTTE LIEUX</t>
+  </si>
+  <si>
+    <t>Victime  refusant son transport</t>
+  </si>
+  <si>
+    <t>VIC REFUS. TRANSP</t>
+  </si>
+  <si>
+    <t>VIC REF T</t>
+  </si>
+  <si>
+    <t>Victime dÈcÈdÈe</t>
+  </si>
+  <si>
+    <t>VICTIME DECEDEE</t>
+  </si>
+  <si>
+    <t>VIC DCD</t>
+  </si>
+  <si>
+    <t>SMUR sur les lieux</t>
+  </si>
+  <si>
+    <t>SMUR SLL</t>
+  </si>
+  <si>
+    <t>Quitte le centre hospitalier indisponible</t>
+  </si>
+  <si>
+    <t>QUITTE HOP</t>
+  </si>
+  <si>
+    <t>QTTE HOP</t>
+  </si>
+  <si>
+    <t>Police sur les lieux</t>
+  </si>
+  <si>
+    <t>POLICE SLL</t>
+  </si>
+  <si>
+    <t>POL SLL</t>
+  </si>
+  <si>
+    <t>Gendarmerie sur les lieux</t>
+  </si>
+  <si>
+    <t>GENDARMERIE SLL</t>
+  </si>
+  <si>
+    <t>GEND SLL</t>
+  </si>
+  <si>
+    <t>EDF sur les lieux</t>
+  </si>
+  <si>
+    <t>EDF SLL</t>
+  </si>
+  <si>
+    <t>GDF sur les lieux</t>
+  </si>
+  <si>
+    <t>GDF SLL</t>
+  </si>
+  <si>
+    <t>DDT sur les lieux</t>
+  </si>
+  <si>
+    <t>DDT SLL</t>
+  </si>
+  <si>
+    <t>Accueil (inscription Flotte dÈpartement d'accueil)</t>
+  </si>
+  <si>
+    <t>ACCUEIL</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>Demande confirmation d'appel et d'adresse</t>
+  </si>
+  <si>
+    <t>DM CNF APP ET AD</t>
+  </si>
+  <si>
+    <t>DCAA</t>
+  </si>
+  <si>
+    <t>Demande Police ou Gendarmerie</t>
+  </si>
+  <si>
+    <t>DEM POLICE OU GEND</t>
+  </si>
+  <si>
+    <t>D. POL GEN</t>
+  </si>
+  <si>
+    <t>renfort</t>
+  </si>
+  <si>
+    <t>Demande SMUR</t>
+  </si>
+  <si>
+    <t>DEM SMUR</t>
+  </si>
+  <si>
+    <t>D. SMUR</t>
+  </si>
+  <si>
+    <t>DÈtresse d'un moyen</t>
+  </si>
+  <si>
+    <t>DETRESSE</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>sos</t>
   </si>
 </sst>
 </file>
@@ -6527,8 +6798,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
+    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
@@ -8559,20 +8830,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="31" style="28" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="37.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="28" customWidth="1"/>
     <col min="7" max="11" width="9" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="28"/>
+    <col min="12" max="16384" width="11.5" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8580,7 +8851,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:11" s="30" customFormat="1" ht="15">
+    <row r="2" spans="1:11" s="30" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>1850</v>
       </c>
@@ -8615,7 +8886,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:11">
       <c r="A3" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8646,7 +8917,7 @@
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:11">
       <c r="A4" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8677,7 +8948,7 @@
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8708,7 +8979,7 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8739,7 +9010,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8768,7 +9039,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8797,7 +9068,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11">
       <c r="A9" s="31" t="s">
         <v>1825</v>
       </c>
@@ -8828,7 +9099,7 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11">
       <c r="A10" s="31" t="s">
         <v>1825</v>
       </c>
@@ -8859,7 +9130,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:11">
       <c r="A11" s="32" t="s">
         <v>1841</v>
       </c>
@@ -8890,7 +9161,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11" ht="15">
+    <row r="12" spans="1:11">
       <c r="A12" s="32" t="s">
         <v>1841</v>
       </c>
@@ -8919,7 +9190,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:11">
       <c r="A13" s="31" t="s">
         <v>1842</v>
       </c>
@@ -8950,7 +9221,7 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:11">
       <c r="A14" s="31" t="s">
         <v>1851</v>
       </c>
@@ -8983,7 +9254,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:11">
       <c r="A15" s="32" t="s">
         <v>1851</v>
       </c>
@@ -9016,7 +9287,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:11">
       <c r="A16" s="31" t="s">
         <v>1851</v>
       </c>
@@ -9051,7 +9322,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:11">
       <c r="A17" s="31" t="s">
         <v>1842</v>
       </c>
@@ -9082,7 +9353,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
-    <row r="18" spans="1:11" ht="15">
+    <row r="18" spans="1:11">
       <c r="A18" s="32" t="s">
         <v>1852</v>
       </c>
@@ -9111,7 +9382,7 @@
       </c>
       <c r="K18" s="34"/>
     </row>
-    <row r="19" spans="1:11" ht="15">
+    <row r="19" spans="1:11">
       <c r="A19" s="32"/>
       <c r="B19" s="35"/>
       <c r="C19" s="31"/>
@@ -11747,13 +12018,13 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -11907,14 +12178,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12336,14 +12607,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12781,13 +13052,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13231,12 +13502,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14212,13 +14483,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14634,13 +14905,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15148,13 +15419,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15236,7 +15507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="48" t="s">
         <v>1937</v>
       </c>
@@ -15258,7 +15529,7 @@
       <c r="D11" s="40"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="50" t="s">
         <v>1939</v>
       </c>
@@ -15269,7 +15540,7 @@
       <c r="D12" s="40"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="50" t="s">
         <v>1580</v>
       </c>
@@ -15280,7 +15551,7 @@
       <c r="D13" s="40"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="50" t="s">
         <v>1444</v>
       </c>
@@ -15293,7 +15564,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="50" t="s">
         <v>1573</v>
       </c>
@@ -15304,7 +15575,7 @@
       <c r="D15" s="40"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="50" t="s">
         <v>1940</v>
       </c>
@@ -15317,7 +15588,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="51" t="s">
         <v>1941</v>
       </c>
@@ -15328,7 +15599,7 @@
       <c r="D17" s="40"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="52" t="s">
         <v>1942</v>
       </c>
@@ -15339,7 +15610,7 @@
       <c r="D18" s="40"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="50" t="s">
         <v>1943</v>
       </c>
@@ -15350,7 +15621,7 @@
       <c r="D19" s="40"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="50" t="s">
         <v>1944</v>
       </c>
@@ -15361,7 +15632,7 @@
       <c r="D20" s="40"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="50" t="s">
         <v>1945</v>
       </c>
@@ -15631,13 +15902,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16120,13 +16391,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16624,14 +16895,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16714,7 +16985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64.5">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -16740,7 +17011,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -16754,7 +17025,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -16768,7 +17039,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -16781,7 +17052,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -16809,7 +17080,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -16835,7 +17106,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="26.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -16850,7 +17121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -16876,7 +17147,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="39">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -16890,7 +17161,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="39">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -16914,7 +17185,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -16928,7 +17199,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -16942,7 +17213,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -16956,7 +17227,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -16992,7 +17263,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="51.75">
+    <row r="31" spans="1:6" ht="60">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -17006,7 +17277,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -17045,7 +17316,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -17071,7 +17342,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="102.75">
+    <row r="37" spans="1:6" ht="120">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -17085,7 +17356,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -17099,7 +17370,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="39">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -17124,7 +17395,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="39">
+    <row r="41" spans="1:6" ht="30">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -17138,7 +17409,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="26.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -17152,7 +17423,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="39">
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -17176,7 +17447,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="39">
+    <row r="45" spans="1:6" ht="45">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -17275,7 +17546,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -17289,7 +17560,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="64.5">
+    <row r="54" spans="1:6" ht="60">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -17660,7 +17931,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="39">
+    <row r="85" spans="1:6" ht="45">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -17686,7 +17957,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="128.25">
+    <row r="87" spans="1:6" ht="135">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -17712,7 +17983,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="51.75">
+    <row r="89" spans="1:6" ht="60">
       <c r="A89" s="2" t="s">
         <v>212</v>
       </c>
@@ -17725,7 +17996,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" ht="26.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -17765,7 +18036,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="26.25">
+    <row r="93" spans="1:6" ht="30">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -17936,7 +18207,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="26.25">
+    <row r="107" spans="1:6" ht="30">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -17950,7 +18221,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6" ht="26.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -18074,7 +18345,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="26.25">
+    <row r="118" spans="1:6" ht="30">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -18088,7 +18359,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="26.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
@@ -18101,7 +18372,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="39">
+    <row r="120" spans="1:6" ht="45">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -18139,7 +18410,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="39">
+    <row r="123" spans="1:6" ht="45">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -18200,7 +18471,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="39">
+    <row r="128" spans="1:6" ht="45">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -18334,7 +18605,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="26.25">
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2" t="s">
         <v>336</v>
       </c>
@@ -18359,7 +18630,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="26.25">
+    <row r="141" spans="1:6" ht="30">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -18373,7 +18644,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="26.25">
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -18387,7 +18658,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6" ht="26.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -18401,7 +18672,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="26.25">
+    <row r="144" spans="1:6" ht="30">
       <c r="A144" s="2" t="s">
         <v>344</v>
       </c>
@@ -18430,7 +18701,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6" ht="26.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -18444,7 +18715,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="39">
+    <row r="147" spans="1:6" ht="30">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -18458,7 +18729,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="39">
+    <row r="148" spans="1:6" ht="30">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -18472,7 +18743,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="26.25">
+    <row r="149" spans="1:6" ht="30">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -18485,7 +18756,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="26.25">
+    <row r="150" spans="1:6" ht="30">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -18499,7 +18770,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="26.25">
+    <row r="151" spans="1:6" ht="30">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -18631,7 +18902,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="39">
+    <row r="162" spans="1:6" ht="30">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -18645,7 +18916,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="39">
+    <row r="163" spans="1:6" ht="45">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -18659,7 +18930,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="39">
+    <row r="164" spans="1:6" ht="45">
       <c r="A164" s="2" t="s">
         <v>379</v>
       </c>
@@ -18710,7 +18981,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="26.25">
+    <row r="168" spans="1:6" ht="30">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -18927,7 +19198,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="26.25">
+    <row r="186" spans="1:6" ht="30">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -19063,7 +19334,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6" ht="26.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -19163,7 +19434,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="26.25">
+    <row r="205" spans="1:6" ht="30">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -19189,7 +19460,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="26.25">
+    <row r="207" spans="1:6" ht="30">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -19287,7 +19558,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="26.25">
+    <row r="215" spans="1:6" ht="30">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -20108,7 +20379,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="26.25">
+    <row r="283" spans="1:6" ht="30">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -20122,7 +20393,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="26.25">
+    <row r="284" spans="1:6" ht="30">
       <c r="A284" s="2" t="s">
         <v>641</v>
       </c>
@@ -20471,12 +20742,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20633,12 +20904,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20804,6 +21075,548 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA591B4A-9FC5-C747-8937-BC88FF6AE57D}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1973</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1981</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1983</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1987</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1989</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1993</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2003</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2029</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2030</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -20815,14 +21628,14 @@
       <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -23534,12 +24347,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23550,7 +24363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.75">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -23616,7 +24429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -23638,7 +24451,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -23648,7 +24461,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="39">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -23658,7 +24471,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -23668,7 +24481,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="26.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -23678,7 +24491,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -23690,7 +24503,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="39">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -23702,7 +24515,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="39">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -23712,7 +24525,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="39">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -23722,7 +24535,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="26.25">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -23732,7 +24545,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -23742,7 +24555,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -23772,7 +24585,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -23802,7 +24615,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="26.25">
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -23814,7 +24627,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="26.25">
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -23826,7 +24639,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="26.25">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -23848,7 +24661,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="26.25">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -23860,7 +24673,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="39">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -23872,7 +24685,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="26.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -23884,7 +24697,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="128.25">
+    <row r="35" spans="1:4" ht="135">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -23896,7 +24709,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="128.25">
+    <row r="36" spans="1:4" ht="135">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -23980,7 +24793,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="26.25">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -23992,7 +24805,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="26.25">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -24002,7 +24815,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="77.25">
+    <row r="46" spans="1:4" ht="75">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -24031,13 +24844,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24152,7 +24965,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="26.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -24176,7 +24989,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="26.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -24189,7 +25002,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -24213,7 +25026,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="48.75">
+    <row r="18" spans="1:5" ht="40">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -24226,7 +25039,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="64.5">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -24375,7 +25188,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -24388,7 +25201,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -24475,7 +25288,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="51.75">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -24512,7 +25325,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="26.25">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -24525,7 +25338,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="39">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -24584,7 +25397,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="26.25">
+    <row r="49" spans="1:5" ht="30">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -24619,7 +25432,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="26.25">
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -24713,7 +25526,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="39">
+    <row r="60" spans="1:5" ht="45">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -24755,14 +25568,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.7109375" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25376,14 +26189,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -25811,13 +26624,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25903,7 +26716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="32">
       <c r="A10" s="18" t="s">
         <v>1314</v>
       </c>
@@ -25916,7 +26729,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" spans="1:5" ht="32">
       <c r="A11" s="18" t="s">
         <v>1317</v>
       </c>
@@ -25929,7 +26742,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="18" t="s">
         <v>1320</v>
       </c>
@@ -25942,7 +26755,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="32">
       <c r="A13" s="18" t="s">
         <v>1323</v>
       </c>
@@ -25955,7 +26768,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="18" t="s">
         <v>1326</v>
       </c>
@@ -25968,7 +26781,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="45">
+    <row r="15" spans="1:5" ht="32">
       <c r="A15" s="18" t="s">
         <v>1329</v>
       </c>
@@ -25981,7 +26794,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="32">
       <c r="A16" s="18" t="s">
         <v>1332</v>
       </c>
@@ -25994,7 +26807,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="32">
       <c r="A17" s="18" t="s">
         <v>1335</v>
       </c>
@@ -26007,7 +26820,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row r="18" spans="1:5" ht="48">
       <c r="A18" s="18" t="s">
         <v>1338</v>
       </c>
@@ -26020,7 +26833,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="48">
       <c r="A19" s="18" t="s">
         <v>1341</v>
       </c>
@@ -26033,7 +26846,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="45">
+    <row r="20" spans="1:5" ht="32">
       <c r="A20" s="18" t="s">
         <v>1344</v>
       </c>
@@ -26046,7 +26859,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="32">
       <c r="A21" s="18" t="s">
         <v>1347</v>
       </c>
@@ -26059,7 +26872,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="32">
       <c r="A22" s="18" t="s">
         <v>1350</v>
       </c>
@@ -26072,7 +26885,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="30">
+    <row r="23" spans="1:5" ht="32">
       <c r="A23" s="18" t="s">
         <v>1353</v>
       </c>
@@ -26085,7 +26898,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="32">
       <c r="A24" s="18" t="s">
         <v>1356</v>
       </c>
@@ -26098,7 +26911,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="32">
       <c r="A25" s="18" t="s">
         <v>1359</v>
       </c>
@@ -26111,7 +26924,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="30">
+    <row r="26" spans="1:5" ht="32">
       <c r="A26" s="18" t="s">
         <v>1362</v>
       </c>
@@ -26124,7 +26937,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="18" t="s">
         <v>1365</v>
       </c>
@@ -26137,7 +26950,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="32">
       <c r="A28" s="18" t="s">
         <v>1367</v>
       </c>
@@ -26150,7 +26963,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26163,7 +26976,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="18" t="s">
         <v>1373</v>
       </c>
@@ -26191,13 +27004,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26294,7 +27107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="18" t="s">
         <v>1378</v>
       </c>
@@ -26308,7 +27121,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="48">
       <c r="A11" s="18" t="s">
         <v>1381</v>
       </c>
@@ -26322,7 +27135,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="32">
       <c r="A12" s="18" t="s">
         <v>1384</v>
       </c>
@@ -26336,7 +27149,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="32">
       <c r="A13" s="18" t="s">
         <v>1387</v>
       </c>
@@ -26350,7 +27163,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="32">
       <c r="A14" s="18" t="s">
         <v>1390</v>
       </c>
@@ -26364,7 +27177,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="32">
       <c r="A15" s="18" t="s">
         <v>1393</v>
       </c>
@@ -26378,7 +27191,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="32">
       <c r="A16" s="18" t="s">
         <v>1396</v>
       </c>
@@ -26392,7 +27205,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="48">
       <c r="A17" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26406,7 +27219,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="32">
       <c r="A18" s="18" t="s">
         <v>1401</v>
       </c>
@@ -26526,8 +27339,69 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="b3317a165cd10de70dc68851db9884d1">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b8430278eece82d06f551ff77398a68" ns1:_="" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="4317e20fb51ec4e85b8666dabb09ede3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b908cdd69cb0859c51683a5db1834d0" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -26590,12 +27464,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -26708,7 +27582,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -26727,7 +27601,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -26800,7 +27674,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -26849,8 +27723,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -26939,83 +27813,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F317E4A3-C0C5-4204-BAF7-619A6A4AE4A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -27039,9 +27840,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC150521-9E19-41EA-8AB8-73E22B400E61}"/>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romainfouilland/Library/CloudStorage/OneDrive-SharedLibraries-ANS/Espace Projets - Espace Programme SI-SAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0CFD67-B7A4-4DC9-B092-41319B8D5E3A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="877" firstSheet="13" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="1380" windowWidth="22995" windowHeight="12330" tabRatio="877" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="2045">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -6124,9 +6124,6 @@
     <t>Demander une prise en charge de nombreux patients/victimes</t>
   </si>
   <si>
-    <t>Pour obtenir une consultation ou une visite du MG (uniquement pour lien 15-15)</t>
-  </si>
-  <si>
     <t>Code Antares</t>
   </si>
   <si>
@@ -6395,13 +6392,34 @@
   </si>
   <si>
     <t>sos</t>
+  </si>
+  <si>
+    <t>changer nom pour type de moyen engagé</t>
+  </si>
+  <si>
+    <t>Demander l'intervention d'une équipe secouriste / ambulance privée</t>
+  </si>
+  <si>
+    <t>Demander la régulation médicale du dossier par un médecin régulateur (cas de partage d'activité - exemples : régulation spécialisée, régulation déportée la nuit, délestage, atypie locale )</t>
+  </si>
+  <si>
+    <t>Demander l'intervention de la CUMP</t>
+  </si>
+  <si>
+    <t>Demander l'intervention d'une équipe SMUR</t>
+  </si>
+  <si>
+    <t>Demander l'obtention d'une consultation ou une visite du MG (uniquement pour lien 15-15)</t>
+  </si>
+  <si>
+    <t>Demander l'intervention d'une équipe paramédicale (UMHP).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6572,13 +6590,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6680,7 +6691,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6790,16 +6801,19 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
@@ -8831,19 +8845,19 @@
   <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31" style="28" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="28" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
     <col min="7" max="11" width="9" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="28"/>
+    <col min="12" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8851,7 +8865,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:11" s="30" customFormat="1">
+    <row r="2" spans="1:11" s="30" customFormat="1" ht="15">
       <c r="A2" s="29" t="s">
         <v>1850</v>
       </c>
@@ -8886,7 +8900,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8917,7 +8931,7 @@
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8948,7 +8962,7 @@
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
         <v>1822</v>
       </c>
@@ -8979,14 +8993,14 @@
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="31" t="s">
         <v>1822</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>1854</v>
       </c>
-      <c r="C6" s="54" t="str">
+      <c r="C6" s="53" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9010,14 +9024,14 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="31" t="s">
         <v>1822</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>1826</v>
       </c>
-      <c r="C7" s="54" t="str">
+      <c r="C7" s="53" t="str">
         <f>'Attribution du dossier'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9039,14 +9053,14 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="31" t="s">
         <v>1822</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>1834</v>
       </c>
-      <c r="C8" s="54" t="str">
+      <c r="C8" s="53" t="str">
         <f>'Priorité de régulation médicale'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9068,14 +9082,14 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="31" t="s">
         <v>1825</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>1831</v>
       </c>
-      <c r="C9" s="54" t="str">
+      <c r="C9" s="53" t="str">
         <f>'Type de requérant'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9099,14 +9113,14 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="31" t="s">
         <v>1825</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>1832</v>
       </c>
-      <c r="C10" s="54" t="str">
+      <c r="C10" s="53" t="str">
         <f>'Difficultés de communication'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9130,14 +9144,14 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="32" t="s">
         <v>1841</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>1835</v>
       </c>
-      <c r="C11" s="54" t="str">
+      <c r="C11" s="53" t="str">
         <f>Sexe!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9161,14 +9175,14 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="32" t="s">
         <v>1841</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>1836</v>
       </c>
-      <c r="C12" s="54" t="str">
+      <c r="C12" s="53" t="str">
         <f>'Niveau de soin'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9190,14 +9204,14 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="15">
       <c r="A13" s="31" t="s">
         <v>1842</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>1837</v>
       </c>
-      <c r="C13" s="54" t="str">
+      <c r="C13" s="53" t="str">
         <f>'Type de décision'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9221,14 +9235,14 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="31" t="s">
         <v>1851</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>1839</v>
       </c>
-      <c r="C14" s="54" t="str">
+      <c r="C14" s="53" t="str">
         <f>'Type de ressource'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
@@ -9254,14 +9268,14 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="15">
       <c r="A15" s="32" t="s">
         <v>1851</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>1853</v>
       </c>
-      <c r="C15" s="54" t="str">
+      <c r="C15" s="53" t="str">
         <f>'Type de vecteurs'!$B$1</f>
         <v>CISU</v>
       </c>
@@ -9287,7 +9301,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="15">
       <c r="A16" s="31" t="s">
         <v>1851</v>
       </c>
@@ -9322,7 +9336,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="15">
       <c r="A17" s="31" t="s">
         <v>1842</v>
       </c>
@@ -9353,7 +9367,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="15">
       <c r="A18" s="32" t="s">
         <v>1852</v>
       </c>
@@ -9382,7 +9396,7 @@
       </c>
       <c r="K18" s="34"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="15">
       <c r="A19" s="32"/>
       <c r="B19" s="35"/>
       <c r="C19" s="31"/>
@@ -12018,13 +12032,13 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12178,14 +12192,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12607,14 +12621,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13049,16 +13063,16 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13078,7 +13092,9 @@
       <c r="B2" s="25" t="s">
         <v>1579</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>2038</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:6">
@@ -13497,17 +13513,17 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14483,13 +14499,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14905,13 +14921,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15415,17 +15431,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15507,121 +15523,137 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
+    <row r="10" spans="1:5">
       <c r="A10" s="48" t="s">
         <v>1937</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>1855</v>
       </c>
       <c r="C10" s="40"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="54" t="s">
+        <v>2039</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="49" t="s">
         <v>1938</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="54" t="s">
         <v>1856</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="54" t="s">
+        <v>2040</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
         <v>1939</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="54" t="s">
         <v>1857</v>
       </c>
       <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="D12" s="54" t="s">
+        <v>2041</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="16">
+    <row r="13" spans="1:5">
       <c r="A13" s="50" t="s">
         <v>1580</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="54" t="s">
         <v>1935</v>
       </c>
       <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
+      <c r="D13" s="54" t="s">
+        <v>2042</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:5">
       <c r="A14" s="50" t="s">
         <v>1444</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="54" t="s">
         <v>1936</v>
       </c>
       <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
-        <v>1948</v>
+      <c r="D14" s="54" t="s">
+        <v>2043</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16">
+    <row r="15" spans="1:5">
       <c r="A15" s="50" t="s">
         <v>1573</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="54" t="s">
         <v>1858</v>
       </c>
       <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
+      <c r="D15" s="54" t="s">
+        <v>2044</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="50" t="s">
         <v>1940</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="55" t="s">
         <v>1859</v>
       </c>
       <c r="C16" s="40"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="54" t="s">
         <v>1946</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16">
+    <row r="17" spans="1:5">
       <c r="A17" s="51" t="s">
         <v>1941</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="54" t="s">
         <v>1860</v>
       </c>
       <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
+      <c r="D17" s="54" t="s">
+        <v>1860</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row r="18" spans="1:5">
       <c r="A18" s="52" t="s">
         <v>1942</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="54" t="s">
         <v>1947</v>
       </c>
       <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
+      <c r="D18" s="54" t="s">
+        <v>1947</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row r="19" spans="1:5">
       <c r="A19" s="50" t="s">
         <v>1943</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="54" t="s">
         <v>1861</v>
       </c>
       <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
+      <c r="D19" s="54" t="s">
+        <v>1861</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="16">
+    <row r="20" spans="1:5">
       <c r="A20" s="50" t="s">
         <v>1944</v>
       </c>
@@ -15629,10 +15661,12 @@
         <v>1862</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
+      <c r="D20" s="54" t="s">
+        <v>1862</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16">
+    <row r="21" spans="1:5">
       <c r="A21" s="50" t="s">
         <v>1945</v>
       </c>
@@ -15640,7 +15674,9 @@
         <v>1863</v>
       </c>
       <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
+      <c r="D21" s="54" t="s">
+        <v>1863</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
@@ -15902,13 +15938,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="80.5" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16391,13 +16427,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16895,14 +16931,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16985,7 +17021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row r="10" spans="1:6" ht="64.5">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -17011,7 +17047,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -17025,7 +17061,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -17039,7 +17075,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -17052,7 +17088,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -17080,7 +17116,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="26.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -17106,7 +17142,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="26.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -17121,7 +17157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -17147,7 +17183,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="39">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -17161,7 +17197,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="39">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -17185,7 +17221,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -17199,7 +17235,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="26.25">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -17213,7 +17249,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="26.25">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -17227,7 +17263,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -17263,7 +17299,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="60">
+    <row r="31" spans="1:6" ht="51.75">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -17277,7 +17313,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -17316,7 +17352,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="26.25">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -17342,7 +17378,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="120">
+    <row r="37" spans="1:6" ht="102.75">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -17356,7 +17392,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="26.25">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -17370,7 +17406,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="39">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -17395,7 +17431,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="39">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -17409,7 +17445,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="26.25">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -17423,7 +17459,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="39">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -17447,7 +17483,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="45">
+    <row r="45" spans="1:6" ht="39">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -17546,7 +17582,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="26.25">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -17560,7 +17596,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="60">
+    <row r="54" spans="1:6" ht="64.5">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -17931,7 +17967,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="45">
+    <row r="85" spans="1:6" ht="39">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -17957,7 +17993,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="135">
+    <row r="87" spans="1:6" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -17983,7 +18019,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="60">
+    <row r="89" spans="1:6" ht="51.75">
       <c r="A89" s="2" t="s">
         <v>212</v>
       </c>
@@ -17996,7 +18032,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="26.25">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -18036,7 +18072,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="26.25">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -18207,7 +18243,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -18221,7 +18257,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="26.25">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -18345,7 +18381,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="30">
+    <row r="118" spans="1:6" ht="26.25">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -18359,7 +18395,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="26.25">
       <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
@@ -18372,7 +18408,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45">
+    <row r="120" spans="1:6" ht="39">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -18410,7 +18446,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="45">
+    <row r="123" spans="1:6" ht="39">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -18471,7 +18507,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="45">
+    <row r="128" spans="1:6" ht="39">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -18605,7 +18641,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6" ht="26.25">
       <c r="A139" s="2" t="s">
         <v>336</v>
       </c>
@@ -18630,7 +18666,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="30">
+    <row r="141" spans="1:6" ht="26.25">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -18644,7 +18680,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="30">
+    <row r="142" spans="1:6" ht="26.25">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -18658,7 +18694,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="26.25">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -18672,7 +18708,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="30">
+    <row r="144" spans="1:6" ht="26.25">
       <c r="A144" s="2" t="s">
         <v>344</v>
       </c>
@@ -18701,7 +18737,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="26.25">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -18715,7 +18751,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="30">
+    <row r="147" spans="1:6" ht="39">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -18729,7 +18765,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="30">
+    <row r="148" spans="1:6" ht="39">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -18743,7 +18779,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="30">
+    <row r="149" spans="1:6" ht="26.25">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -18756,7 +18792,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6" ht="26.25">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -18770,7 +18806,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6" ht="26.25">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -18902,7 +18938,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="30">
+    <row r="162" spans="1:6" ht="39">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -18916,7 +18952,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="45">
+    <row r="163" spans="1:6" ht="39">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -18930,7 +18966,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="45">
+    <row r="164" spans="1:6" ht="39">
       <c r="A164" s="2" t="s">
         <v>379</v>
       </c>
@@ -18981,7 +19017,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="30">
+    <row r="168" spans="1:6" ht="26.25">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -19198,7 +19234,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="30">
+    <row r="186" spans="1:6" ht="26.25">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -19334,7 +19370,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="26.25">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -19434,7 +19470,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="30">
+    <row r="205" spans="1:6" ht="26.25">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -19460,7 +19496,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="30">
+    <row r="207" spans="1:6" ht="26.25">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -19558,7 +19594,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="30">
+    <row r="215" spans="1:6" ht="26.25">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -20379,7 +20415,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="30">
+    <row r="283" spans="1:6" ht="26.25">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -20393,7 +20429,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="30">
+    <row r="284" spans="1:6" ht="26.25">
       <c r="A284" s="2" t="s">
         <v>641</v>
       </c>
@@ -20742,12 +20778,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20904,12 +20940,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -21085,7 +21121,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -21093,29 +21129,29 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1" t="s">
         <v>1949</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1950</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1951</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1952</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1953</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -21123,19 +21159,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C2" t="s">
         <v>1955</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F2" t="s">
         <v>1956</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1957</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21143,19 +21179,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C3" t="s">
         <v>1958</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1959</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>1960</v>
       </c>
-      <c r="E3" t="s">
-        <v>1961</v>
-      </c>
       <c r="F3" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -21163,16 +21199,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D4" t="s">
         <v>1962</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F4" t="s">
         <v>1963</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1963</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21180,16 +21216,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D5" t="s">
         <v>1965</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1966</v>
       </c>
-      <c r="E5" t="s">
-        <v>1967</v>
-      </c>
       <c r="F5" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21197,19 +21233,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C6" t="s">
         <v>1968</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1969</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1970</v>
       </c>
-      <c r="E6" t="s">
-        <v>1971</v>
-      </c>
       <c r="F6" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21217,19 +21253,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C7" t="s">
         <v>1972</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1973</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>1974</v>
       </c>
-      <c r="E7" t="s">
-        <v>1975</v>
-      </c>
       <c r="F7" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -21237,16 +21273,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D8" t="s">
         <v>1976</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>1977</v>
       </c>
-      <c r="E8" t="s">
-        <v>1978</v>
-      </c>
       <c r="F8" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21257,13 +21293,13 @@
         <v>1877</v>
       </c>
       <c r="D9" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E9" t="s">
         <v>1876</v>
       </c>
       <c r="F9" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21271,19 +21307,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C10" t="s">
         <v>1980</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>1981</v>
       </c>
-      <c r="D10" t="s">
-        <v>1982</v>
-      </c>
       <c r="E10" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21291,16 +21327,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D11" t="s">
         <v>1983</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1984</v>
       </c>
-      <c r="E11" t="s">
-        <v>1985</v>
-      </c>
       <c r="F11" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21308,16 +21344,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D12" t="s">
         <v>1986</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1987</v>
       </c>
-      <c r="E12" t="s">
-        <v>1988</v>
-      </c>
       <c r="F12" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -21325,16 +21361,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D13" t="s">
         <v>1989</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>1990</v>
       </c>
-      <c r="E13" t="s">
-        <v>1991</v>
-      </c>
       <c r="F13" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21342,16 +21378,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D14" t="s">
         <v>1992</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>1993</v>
       </c>
-      <c r="E14" t="s">
-        <v>1994</v>
-      </c>
       <c r="F14" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21359,19 +21395,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C15" t="s">
         <v>1995</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>1996</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>1997</v>
       </c>
-      <c r="E15" t="s">
-        <v>1998</v>
-      </c>
       <c r="F15" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21379,16 +21415,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D16" t="s">
         <v>1999</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>2000</v>
       </c>
-      <c r="E16" t="s">
-        <v>2001</v>
-      </c>
       <c r="F16" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -21396,16 +21432,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D17" t="s">
         <v>2002</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>2003</v>
       </c>
-      <c r="E17" t="s">
-        <v>2004</v>
-      </c>
       <c r="F17" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -21413,16 +21449,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D18" t="s">
         <v>2005</v>
       </c>
-      <c r="D18" t="s">
-        <v>2006</v>
-      </c>
       <c r="E18" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F18" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -21430,19 +21466,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C19" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D19" t="s">
         <v>2007</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>2008</v>
       </c>
-      <c r="E19" t="s">
-        <v>2009</v>
-      </c>
       <c r="F19" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -21450,16 +21486,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D20" t="s">
         <v>2010</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>2011</v>
       </c>
-      <c r="E20" t="s">
-        <v>2012</v>
-      </c>
       <c r="F20" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21467,16 +21503,16 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D21" t="s">
         <v>2013</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>2014</v>
       </c>
-      <c r="E21" t="s">
-        <v>2015</v>
-      </c>
       <c r="F21" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21484,16 +21520,16 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D22" t="s">
         <v>2016</v>
       </c>
-      <c r="D22" t="s">
-        <v>2017</v>
-      </c>
       <c r="E22" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="F22" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21501,16 +21537,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D23" t="s">
         <v>2018</v>
       </c>
-      <c r="D23" t="s">
-        <v>2019</v>
-      </c>
       <c r="E23" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F23" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21518,16 +21554,16 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D24" t="s">
         <v>2020</v>
       </c>
-      <c r="D24" t="s">
-        <v>2021</v>
-      </c>
       <c r="E24" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F24" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21535,16 +21571,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D25" t="s">
         <v>2022</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="s">
         <v>2023</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2023</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21552,16 +21588,16 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D26" t="s">
         <v>2025</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>2026</v>
       </c>
-      <c r="E26" t="s">
-        <v>2027</v>
-      </c>
       <c r="F26" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21569,16 +21605,16 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D27" t="s">
         <v>2028</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>2029</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>2030</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2031</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21586,16 +21622,16 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D28" t="s">
         <v>2032</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>2033</v>
       </c>
-      <c r="E28" t="s">
-        <v>2034</v>
-      </c>
       <c r="F28" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21603,16 +21639,16 @@
         <v>218</v>
       </c>
       <c r="C29" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D29" t="s">
         <v>2035</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>2036</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>2037</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2038</v>
       </c>
     </row>
   </sheetData>
@@ -21624,18 +21660,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3991FE2B-C9FE-43D1-B302-70CA3C5EF889}">
   <dimension ref="A1:H188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -24347,12 +24383,12 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -24363,7 +24399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="24.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -24429,7 +24465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="39">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -24451,7 +24487,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -24461,7 +24497,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="39">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -24471,7 +24507,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -24481,7 +24517,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -24491,7 +24527,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -24503,7 +24539,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="45">
+    <row r="17" spans="1:4" ht="39">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -24515,7 +24551,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="39">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -24525,7 +24561,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="45">
+    <row r="19" spans="1:4" ht="39">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -24535,7 +24571,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -24545,7 +24581,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="26.25">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -24555,7 +24591,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="26.25">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -24585,7 +24621,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -24615,7 +24651,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -24627,7 +24663,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="30">
+    <row r="29" spans="1:4" ht="26.25">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -24639,7 +24675,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="26.25">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -24661,7 +24697,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -24673,7 +24709,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="39">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -24685,7 +24721,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="26.25">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -24697,7 +24733,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="135">
+    <row r="35" spans="1:4" ht="128.25">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -24709,7 +24745,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="135">
+    <row r="36" spans="1:4" ht="128.25">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -24793,7 +24829,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="30">
+    <row r="44" spans="1:4" ht="26.25">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -24805,7 +24841,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="30">
+    <row r="45" spans="1:4" ht="26.25">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -24815,7 +24851,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="75">
+    <row r="46" spans="1:4" ht="77.25">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -24844,13 +24880,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -24965,7 +25001,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -24989,7 +25025,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -25002,7 +25038,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -25026,7 +25062,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="40">
+    <row r="18" spans="1:5" ht="48.75">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -25039,7 +25075,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="64.5">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -25188,7 +25224,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="30">
+    <row r="32" spans="1:5" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -25201,7 +25237,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -25288,7 +25324,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="51.75">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -25325,7 +25361,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="30">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -25338,7 +25374,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -25397,7 +25433,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="30">
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -25432,7 +25468,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -25526,7 +25562,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="45">
+    <row r="60" spans="1:5" ht="39">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -25568,14 +25604,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.6640625" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.7109375" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26189,14 +26225,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -26624,13 +26660,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26716,7 +26752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="18" t="s">
         <v>1314</v>
       </c>
@@ -26729,7 +26765,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="32">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="18" t="s">
         <v>1317</v>
       </c>
@@ -26742,7 +26778,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="18" t="s">
         <v>1320</v>
       </c>
@@ -26755,7 +26791,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="32">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="18" t="s">
         <v>1323</v>
       </c>
@@ -26768,7 +26804,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="18" t="s">
         <v>1326</v>
       </c>
@@ -26781,7 +26817,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="32">
+    <row r="15" spans="1:5" ht="45">
       <c r="A15" s="18" t="s">
         <v>1329</v>
       </c>
@@ -26794,7 +26830,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="32">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="18" t="s">
         <v>1332</v>
       </c>
@@ -26807,7 +26843,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="32">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="18" t="s">
         <v>1335</v>
       </c>
@@ -26820,7 +26856,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="48">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="18" t="s">
         <v>1338</v>
       </c>
@@ -26833,7 +26869,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="48">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="18" t="s">
         <v>1341</v>
       </c>
@@ -26846,7 +26882,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="32">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="18" t="s">
         <v>1344</v>
       </c>
@@ -26859,7 +26895,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="32">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="18" t="s">
         <v>1347</v>
       </c>
@@ -26872,7 +26908,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="32">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="18" t="s">
         <v>1350</v>
       </c>
@@ -26885,7 +26921,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="32">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="18" t="s">
         <v>1353</v>
       </c>
@@ -26898,7 +26934,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="32">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="18" t="s">
         <v>1356</v>
       </c>
@@ -26911,7 +26947,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="32">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="18" t="s">
         <v>1359</v>
       </c>
@@ -26924,7 +26960,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="32">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="18" t="s">
         <v>1362</v>
       </c>
@@ -26937,7 +26973,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row r="27" spans="1:5">
       <c r="A27" s="18" t="s">
         <v>1365</v>
       </c>
@@ -26950,7 +26986,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="32">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="18" t="s">
         <v>1367</v>
       </c>
@@ -26963,7 +26999,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:5">
       <c r="A29" s="18" t="s">
         <v>1370</v>
       </c>
@@ -26976,7 +27012,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row r="30" spans="1:5">
       <c r="A30" s="18" t="s">
         <v>1373</v>
       </c>
@@ -27004,13 +27040,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -27107,7 +27143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="18" t="s">
         <v>1378</v>
       </c>
@@ -27121,7 +27157,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="48">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="18" t="s">
         <v>1381</v>
       </c>
@@ -27135,7 +27171,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="32">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="18" t="s">
         <v>1384</v>
       </c>
@@ -27149,7 +27185,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="32">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="18" t="s">
         <v>1387</v>
       </c>
@@ -27163,7 +27199,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="32">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="18" t="s">
         <v>1390</v>
       </c>
@@ -27177,7 +27213,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="32">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="18" t="s">
         <v>1393</v>
       </c>
@@ -27191,7 +27227,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="32">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="18" t="s">
         <v>1396</v>
       </c>
@@ -27205,7 +27241,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="48">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="18" t="s">
         <v>1370</v>
       </c>
@@ -27219,7 +27255,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="32">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="18" t="s">
         <v>1401</v>
       </c>
@@ -27400,8 +27436,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="4317e20fb51ec4e85b8666dabb09ede3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b908cdd69cb0859c51683a5db1834d0" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="a24e46c8e369b0d0dbf292fc067594e6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b005a03a4b86eaa0f9218a8d7ff13ee" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -27464,12 +27500,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -27582,7 +27618,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -27601,7 +27637,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -27674,7 +27710,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -27723,8 +27759,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -27824,21 +27860,37 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC150521-9E19-41EA-8AB8-73E22B400E61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059494DF-AC78-4572-AFB9-E7754F64CB4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0CFD67-B7A4-4DC9-B092-41319B8D5E3A}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D96BE2AE-D72E-4509-8C7E-D69CD3AE4562}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1380" windowWidth="22995" windowHeight="12330" tabRatio="877" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="75" windowWidth="22800" windowHeight="14460" tabRatio="877" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="2045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="2009">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5248,15 +5248,9 @@
     <t>Vehicule Leger de Sécurité Civile</t>
   </si>
   <si>
-    <t>VL SC</t>
-  </si>
-  <si>
     <t>Autre vecteur de Sécurité Civile</t>
   </si>
   <si>
-    <t>VH SC</t>
-  </si>
-  <si>
     <t>Taxi et assimilés</t>
   </si>
   <si>
@@ -5266,15 +5260,9 @@
     <t>Transports en commun</t>
   </si>
   <si>
-    <t>BUS TRAM</t>
-  </si>
-  <si>
     <t>Autre vecteur</t>
   </si>
   <si>
-    <t>VH</t>
-  </si>
-  <si>
     <t>Train</t>
   </si>
   <si>
@@ -5290,105 +5278,54 @@
     <t>Moyen personnel sans précsion</t>
   </si>
   <si>
-    <t>VH PERSO</t>
-  </si>
-  <si>
     <t>A pied</t>
   </si>
   <si>
-    <t>A PIED</t>
-  </si>
-  <si>
     <t>Moyen inconnu</t>
   </si>
   <si>
     <t>Conseil médical</t>
   </si>
   <si>
-    <t>CONSEIL MED</t>
-  </si>
-  <si>
     <t>Défibrillateur Automatique externe</t>
   </si>
   <si>
     <t>Hélicoptère Forces de l’Ordre</t>
   </si>
   <si>
-    <t>HELICO FSI</t>
-  </si>
-  <si>
     <t>VL des FSI</t>
   </si>
   <si>
-    <t>VL FSI</t>
-  </si>
-  <si>
     <t>Fourgon des FSI</t>
   </si>
   <si>
-    <t>FOURGON FSI</t>
-  </si>
-  <si>
     <t>Autre vecteur des FSI</t>
   </si>
   <si>
-    <t>AUTRE VH FSI</t>
-  </si>
-  <si>
     <t>Consultation de Médicale Générale</t>
   </si>
   <si>
-    <t>CONSULT MG</t>
-  </si>
-  <si>
     <t>Visite de Médicale Générale</t>
   </si>
   <si>
-    <t>VISITE MG</t>
-  </si>
-  <si>
     <t>Recours au pharmacien</t>
   </si>
   <si>
-    <t>PHARMACIE</t>
-  </si>
-  <si>
     <t>Recours à un infirmier</t>
   </si>
   <si>
-    <t>INFIRMIER</t>
-  </si>
-  <si>
     <t>Recours à un médecin autre spécialité</t>
   </si>
   <si>
-    <t>MED AUTRE SPE</t>
-  </si>
-  <si>
     <t>Recours à un dentiste</t>
   </si>
   <si>
-    <t>DENTISTE</t>
-  </si>
-  <si>
-    <t>Autre professionnel de santé</t>
-  </si>
-  <si>
-    <t>AUTRE PRO</t>
-  </si>
-  <si>
     <t>Hélicoptère sécurité civile</t>
   </si>
   <si>
-    <t>HELICO SC</t>
-  </si>
-  <si>
     <t>Avion sécurité civile</t>
   </si>
   <si>
-    <t>AVION SC</t>
-  </si>
-  <si>
     <t>Véhicule de secours et d'assistance aux victimes</t>
   </si>
   <si>
@@ -5404,81 +5341,42 @@
     <t>Véhicule plongeurs</t>
   </si>
   <si>
-    <t>PLONGEURS</t>
-  </si>
-  <si>
     <t>Moyens de secours routiers du SIS</t>
   </si>
   <si>
-    <t>SECOURS ROUTIER</t>
-  </si>
-  <si>
     <t>Moyens incendie du SIS</t>
   </si>
   <si>
-    <t>MOYEN INCENDIE</t>
-  </si>
-  <si>
     <t>Véhicule du Poste Médical Avancé</t>
   </si>
   <si>
-    <t>PMA</t>
-  </si>
-  <si>
     <t>Véhicule intervention chimique</t>
   </si>
   <si>
-    <t>VH inter chimique</t>
-  </si>
-  <si>
     <t>Véhicule intervention radioactivité</t>
   </si>
   <si>
-    <t>VH inter radio</t>
-  </si>
-  <si>
     <t>Poste de commandement</t>
   </si>
   <si>
-    <t>PC SIS</t>
-  </si>
-  <si>
     <t>Véhicule léger infirmier SP</t>
   </si>
   <si>
-    <t>VL-ISP</t>
-  </si>
-  <si>
     <t>Véhicule léger Médecin SP</t>
   </si>
   <si>
-    <t>VL-MSP</t>
-  </si>
-  <si>
     <t>Véhicule léger chef de groupe</t>
   </si>
   <si>
-    <t>VL CHEF</t>
-  </si>
-  <si>
     <t>Véhicule léger autre usage</t>
   </si>
   <si>
-    <t>VL SIS</t>
-  </si>
-  <si>
     <t>Autre moyen SSE</t>
   </si>
   <si>
-    <t>MOYEN SSE</t>
-  </si>
-  <si>
     <t>Autre moyen du SIS</t>
   </si>
   <si>
-    <t>MOYEN SIS</t>
-  </si>
-  <si>
     <t>Véhicule Léger Médicalisé</t>
   </si>
   <si>
@@ -5494,21 +5392,12 @@
     <t>Ambulance de réanimation Bariatrique</t>
   </si>
   <si>
-    <t>AR BARIA</t>
-  </si>
-  <si>
     <t>Ambulance de réanimation Pédiatrique</t>
   </si>
   <si>
-    <t>AR PEDIA</t>
-  </si>
-  <si>
     <t>Véhicule de liaison Smur</t>
   </si>
   <si>
-    <t>VL SMUR</t>
-  </si>
-  <si>
     <t>HéliSmur</t>
   </si>
   <si>
@@ -5518,21 +5407,12 @@
     <t>Hélicoptère de transport sanitaire</t>
   </si>
   <si>
-    <t>HELICO SAN</t>
-  </si>
-  <si>
     <t>Avion Smur</t>
   </si>
   <si>
-    <t>AVIONSMUR</t>
-  </si>
-  <si>
     <t>Avion de transport sanitaire</t>
   </si>
   <si>
-    <t>AVION SAN</t>
-  </si>
-  <si>
     <t>NaviSmur</t>
   </si>
   <si>
@@ -5560,39 +5440,21 @@
     <t>Véhicule logistique transport PSM pédiatrique</t>
   </si>
   <si>
-    <t>PSM PEDIA</t>
-  </si>
-  <si>
     <t>Véhicule Poste de Commandement et ou d’évacuation SAMU</t>
   </si>
   <si>
-    <t>PC SAMU</t>
-  </si>
-  <si>
     <t>Ambulance privée grand contenant - type A</t>
   </si>
   <si>
-    <t>AP GRAND V3</t>
-  </si>
-  <si>
     <t>Ambulance privée petit contenant - type C</t>
   </si>
   <si>
-    <t>AP PETIT V3</t>
-  </si>
-  <si>
     <t>Ambulance privée grand contenant - type bariatrique</t>
   </si>
   <si>
-    <t>AP BARIA</t>
-  </si>
-  <si>
     <t>Ambulance de catégorie non définie</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
     <t>Véhicule Sanitaire Léger</t>
   </si>
   <si>
@@ -6413,13 +6275,44 @@
   </si>
   <si>
     <t>Demander l'intervention d'une équipe paramédicale (UMHP).</t>
+  </si>
+  <si>
+    <t>Ne transporte pas</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Hybride</t>
+  </si>
+  <si>
+    <t>AUTREVECT</t>
+  </si>
+  <si>
+    <t>AUTRETRANS</t>
+  </si>
+  <si>
+    <t>Autre vecteur de transport</t>
+  </si>
+  <si>
+    <t>DEFIB</t>
+  </si>
+  <si>
+    <t>Défibrillateur</t>
+  </si>
+  <si>
+    <t>Recours à autre professionnel de santé</t>
+  </si>
+  <si>
+    <t>Utilisée exclusivement en inter-santé
+A garder pour échanger : EMSI  (dans OPG) - dans le sens type de moyen/ressource, plus large que le type de vecteur/véhicule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6593,6 +6486,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6691,7 +6589,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6809,6 +6707,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8867,45 +8769,45 @@
     </row>
     <row r="2" spans="1:11" s="30" customFormat="1" ht="15">
       <c r="A2" s="29" t="s">
-        <v>1850</v>
+        <v>1804</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>1827</v>
+        <v>1781</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1828</v>
+        <v>1782</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1819</v>
+        <v>1773</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>1820</v>
+        <v>1774</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>1821</v>
+        <v>1775</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1844</v>
+        <v>1798</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1843</v>
+        <v>1797</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1845</v>
+        <v>1799</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1846</v>
+        <v>1800</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1847</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15">
       <c r="A3" s="31" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1823</v>
+        <v>1777</v>
       </c>
       <c r="C3" s="31" t="str">
         <f>'Nature de fait'!$B$1</f>
@@ -8916,16 +8818,16 @@
         <v>Code_Nature_de_fait</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
@@ -8933,10 +8835,10 @@
     </row>
     <row r="4" spans="1:11" ht="15">
       <c r="A4" s="31" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1829</v>
+        <v>1783</v>
       </c>
       <c r="C4" s="31" t="str">
         <f>'Type de lieu'!$B$1</f>
@@ -8947,16 +8849,16 @@
         <v>Code_Type_de_lieu</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
@@ -8964,10 +8866,10 @@
     </row>
     <row r="5" spans="1:11" ht="15">
       <c r="A5" s="31" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1830</v>
+        <v>1784</v>
       </c>
       <c r="C5" s="31" t="str">
         <f>'Risque, menace et sensibilité'!$B$1</f>
@@ -8978,16 +8880,16 @@
         <v>Code_Risque-Menace-Sensibilité</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -8995,10 +8897,10 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="31" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1854</v>
+        <v>1808</v>
       </c>
       <c r="C6" s="53" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
@@ -9009,16 +8911,16 @@
         <v>Code_Motif_patient-victime</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -9026,10 +8928,10 @@
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" s="31" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1826</v>
+        <v>1780</v>
       </c>
       <c r="C7" s="53" t="str">
         <f>'Attribution du dossier'!$B$1</f>
@@ -9040,14 +8942,14 @@
         <v>DEVENIRD</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -9055,10 +8957,10 @@
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="31" t="s">
-        <v>1822</v>
+        <v>1776</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1834</v>
+        <v>1788</v>
       </c>
       <c r="C8" s="53" t="str">
         <f>'Priorité de régulation médicale'!$B$1</f>
@@ -9069,14 +8971,14 @@
         <v>PRIORITE</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -9084,10 +8986,10 @@
     </row>
     <row r="9" spans="1:11" ht="15">
       <c r="A9" s="31" t="s">
-        <v>1825</v>
+        <v>1779</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1831</v>
+        <v>1785</v>
       </c>
       <c r="C9" s="53" t="str">
         <f>'Type de requérant'!$B$1</f>
@@ -9098,16 +9000,16 @@
         <v>TYPAPPLT</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
@@ -9115,10 +9017,10 @@
     </row>
     <row r="10" spans="1:11" ht="15">
       <c r="A10" s="31" t="s">
-        <v>1825</v>
+        <v>1779</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1832</v>
+        <v>1786</v>
       </c>
       <c r="C10" s="53" t="str">
         <f>'Difficultés de communication'!$B$1</f>
@@ -9129,16 +9031,16 @@
         <v>PBAPL</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
@@ -9146,10 +9048,10 @@
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="32" t="s">
-        <v>1841</v>
+        <v>1795</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1835</v>
+        <v>1789</v>
       </c>
       <c r="C11" s="53" t="str">
         <f>Sexe!$B$1</f>
@@ -9160,16 +9062,16 @@
         <v>NOMENC_SEXE</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -9177,10 +9079,10 @@
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="32" t="s">
-        <v>1841</v>
+        <v>1795</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1836</v>
+        <v>1790</v>
       </c>
       <c r="C12" s="53" t="str">
         <f>'Niveau de soin'!$B$1</f>
@@ -9191,14 +9093,14 @@
         <v>GRAVITE</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
@@ -9206,10 +9108,10 @@
     </row>
     <row r="13" spans="1:11" ht="15">
       <c r="A13" s="31" t="s">
-        <v>1842</v>
+        <v>1796</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1837</v>
+        <v>1791</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>'Type de décision'!$B$1</f>
@@ -9220,16 +9122,16 @@
         <v>TYPEDEC</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
@@ -9237,10 +9139,10 @@
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="31" t="s">
-        <v>1851</v>
+        <v>1805</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1839</v>
+        <v>1793</v>
       </c>
       <c r="C14" s="53" t="str">
         <f>'Type de ressource'!$B$1</f>
@@ -9251,29 +9153,29 @@
         <v>TYPE_MOYEN</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="32" t="s">
-        <v>1851</v>
+        <v>1805</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1853</v>
+        <v>1807</v>
       </c>
       <c r="C15" s="53" t="str">
         <f>'Type de vecteurs'!$B$1</f>
@@ -9284,29 +9186,29 @@
         <v>TYPE_VECTEUR</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="31" t="s">
-        <v>1851</v>
+        <v>1805</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1849</v>
+        <v>1803</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Niveau de prise en charge'!$B$1</f>
@@ -9317,31 +9219,31 @@
         <v>NIVSOIN</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="31" t="s">
-        <v>1842</v>
+        <v>1796</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1838</v>
+        <v>1792</v>
       </c>
       <c r="C17" s="31" t="str">
         <f>'Type de devenir du patient'!$B$1</f>
@@ -9352,16 +9254,16 @@
         <v>NOMENC_DEVENIR_PAT</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
@@ -9369,10 +9271,10 @@
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="32" t="s">
-        <v>1852</v>
+        <v>1806</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>1833</v>
+        <v>1787</v>
       </c>
       <c r="C18" s="31" t="str">
         <f>'Effet à obtenir'!$B$1</f>
@@ -9383,16 +9285,16 @@
         <v>Code_Effet_a_obtenir</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>1824</v>
+        <v>1778</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>1840</v>
+        <v>1794</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34" t="s">
-        <v>1848</v>
+        <v>1802</v>
       </c>
       <c r="K18" s="34"/>
     </row>
@@ -13093,7 +12995,7 @@
         <v>1579</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2038</v>
+        <v>1992</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -13234,7 +13136,7 @@
     </row>
     <row r="15" spans="1:6" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>1815</v>
+        <v>1769</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>1597</v>
@@ -13510,23 +13412,24 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13536,7 +13439,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13546,7 +13449,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -13554,7 +13457,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -13562,7 +13465,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -13570,7 +13473,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -13578,27 +13481,27 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1081</v>
+        <v>1169</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" customFormat="1" ht="36.75">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>1608</v>
+      <c r="B8" s="57" t="s">
+        <v>2008</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -13619,871 +13522,912 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="56" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="56" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="56" t="s">
         <v>1654</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56" t="s">
         <v>1653</v>
       </c>
-      <c r="C10" t="s">
-        <v>1654</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="56" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56" t="s">
         <v>1656</v>
       </c>
-      <c r="F11" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="56" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="56" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="56" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56" t="s">
         <v>1657</v>
       </c>
-      <c r="C12" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="56" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="56" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="56" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="56" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="56" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="56" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56" t="s">
         <v>1660</v>
       </c>
-      <c r="B13" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1666</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="56" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="56" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56" t="s">
         <v>1667</v>
       </c>
-      <c r="C17" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="56" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>2005</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="56" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56" t="s">
         <v>1669</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="56" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="56" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56" t="s">
         <v>1670</v>
       </c>
-      <c r="F18" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="56" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56" t="s">
         <v>1671</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="56" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56" t="s">
         <v>1672</v>
       </c>
-      <c r="F19" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="56" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56" t="s">
         <v>1673</v>
       </c>
-      <c r="C20" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="56" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="56" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56" t="s">
         <v>1674</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="56" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56" t="s">
         <v>1675</v>
       </c>
-      <c r="F21" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D34" s="56"/>
+      <c r="E34" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="56" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56" t="s">
         <v>1676</v>
       </c>
-      <c r="C22" t="s">
-        <v>1594</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>1779</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D35" s="56"/>
+      <c r="E35" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="56" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="56" t="s">
         <v>1677</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D36" s="56"/>
+      <c r="E36" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="56" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56" t="s">
         <v>1678</v>
       </c>
-      <c r="F23" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D37" s="56"/>
+      <c r="E37" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="56" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56" t="s">
         <v>1679</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="56" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="56" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="56" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="56" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="56" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="56" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="56" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="56" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="56" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="56" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="56" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="56" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="56" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="56" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="56" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="56" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="56" t="s">
         <v>1680</v>
       </c>
-      <c r="F24" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>1781</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D54" s="56"/>
+      <c r="E54" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="56" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56" t="s">
         <v>1681</v>
       </c>
-      <c r="C25" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>1782</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1688</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D55" s="56"/>
+      <c r="E55" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="56" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56" t="s">
         <v>1697</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D56" s="56"/>
+      <c r="E56" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="56" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56" t="s">
         <v>1698</v>
       </c>
-      <c r="F33" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>1788</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D57" s="56"/>
+      <c r="E57" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="56" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="56" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="56" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56" t="s">
         <v>1699</v>
       </c>
-      <c r="C34" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D60" s="56"/>
+      <c r="E60" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="56" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="56" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="56" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="56" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="56" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="56" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="56" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56" t="s">
         <v>1701</v>
       </c>
-      <c r="C35" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="D67" s="56"/>
+      <c r="E67" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="56" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="56" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56" t="s">
         <v>1704</v>
       </c>
-      <c r="B36" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="D69" s="56"/>
+      <c r="E69" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="56" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56" t="s">
         <v>1706</v>
       </c>
-      <c r="B37" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D70" s="56"/>
+      <c r="E70" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="56" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56" t="s">
         <v>1708</v>
       </c>
-      <c r="F38" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D71" s="56"/>
+      <c r="E71" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="56" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56" t="s">
         <v>1709</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D72" s="56"/>
+      <c r="E72" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="56" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56" t="s">
         <v>1710</v>
       </c>
-      <c r="F39" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D73" s="56"/>
+      <c r="E73" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="56" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56" t="s">
         <v>1711</v>
       </c>
-      <c r="C40" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1716</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1720</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D74" s="56"/>
+      <c r="E74" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="56" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B75" s="56" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="56" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="56" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56" t="s">
         <v>1721</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D77" s="56"/>
+      <c r="E77" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="56" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56" t="s">
         <v>1722</v>
       </c>
-      <c r="F45" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D78" s="56"/>
+      <c r="E78" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="56" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56" t="s">
         <v>1723</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D79" s="56"/>
+      <c r="E79" s="56" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="56" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56" t="s">
         <v>1724</v>
       </c>
-      <c r="F46" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1726</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1728</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1732</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1736</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1740</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1748</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1750</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1752</v>
-      </c>
-      <c r="F60" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>1754</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F61" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>1756</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1756</v>
-      </c>
-      <c r="F62" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1758</v>
-      </c>
-      <c r="F63" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1760</v>
-      </c>
-      <c r="F64" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1761</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1762</v>
-      </c>
-      <c r="F65" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1763</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F66" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1766</v>
-      </c>
-      <c r="F67" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1767</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1768</v>
-      </c>
-      <c r="F68" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F69" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1772</v>
-      </c>
-      <c r="F70" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1773</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1774</v>
-      </c>
-      <c r="F71" t="s">
-        <v>1588</v>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56" t="s">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -15431,7 +15375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -15458,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1934</v>
+        <v>1888</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -15525,40 +15469,40 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="48" t="s">
-        <v>1937</v>
+        <v>1891</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>1855</v>
+        <v>1809</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="54" t="s">
-        <v>2039</v>
+        <v>1993</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="49" t="s">
-        <v>1938</v>
+        <v>1892</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>1856</v>
+        <v>1810</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="54" t="s">
-        <v>2040</v>
+        <v>1994</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
-        <v>1939</v>
+        <v>1893</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>1857</v>
+        <v>1811</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="54" t="s">
-        <v>2041</v>
+        <v>1995</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -15567,11 +15511,11 @@
         <v>1580</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>1935</v>
+        <v>1889</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="54" t="s">
-        <v>2042</v>
+        <v>1996</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -15580,11 +15524,11 @@
         <v>1444</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>1936</v>
+        <v>1890</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="54" t="s">
-        <v>2043</v>
+        <v>1997</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -15593,89 +15537,89 @@
         <v>1573</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>1858</v>
+        <v>1812</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="54" t="s">
-        <v>2044</v>
+        <v>1998</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="50" t="s">
-        <v>1940</v>
+        <v>1894</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>1859</v>
+        <v>1813</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="54" t="s">
-        <v>1946</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="51" t="s">
-        <v>1941</v>
+        <v>1895</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>1860</v>
+        <v>1814</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="54" t="s">
-        <v>1860</v>
+        <v>1814</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="52" t="s">
-        <v>1942</v>
+        <v>1896</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>1947</v>
+        <v>1901</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="54" t="s">
-        <v>1947</v>
+        <v>1901</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="50" t="s">
-        <v>1943</v>
+        <v>1897</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>1861</v>
+        <v>1815</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="54" t="s">
-        <v>1861</v>
+        <v>1815</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="50" t="s">
-        <v>1944</v>
+        <v>1898</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>1862</v>
+        <v>1816</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="54" t="s">
-        <v>1862</v>
+        <v>1816</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="50" t="s">
-        <v>1945</v>
+        <v>1899</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>1863</v>
+        <v>1817</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="54" t="s">
-        <v>1863</v>
+        <v>1817</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -15961,7 +15905,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1886</v>
+        <v>1840</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16028,132 +15972,132 @@
     </row>
     <row r="10" spans="1:5" s="36" customFormat="1">
       <c r="A10" s="21" t="s">
-        <v>1887</v>
+        <v>1841</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1866</v>
+        <v>1820</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="47"/>
       <c r="E10" s="21" t="s">
-        <v>1932</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="36" customFormat="1">
       <c r="A11" s="21" t="s">
-        <v>1888</v>
+        <v>1842</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1899</v>
+        <v>1853</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
       <c r="E11" s="21" t="s">
-        <v>1933</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="36" customFormat="1">
       <c r="A12" s="21" t="s">
-        <v>1889</v>
+        <v>1843</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1900</v>
+        <v>1854</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="21" t="s">
-        <v>1906</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="36" customFormat="1">
       <c r="A13" s="21" t="s">
-        <v>1890</v>
+        <v>1844</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1901</v>
+        <v>1855</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
       <c r="E13" s="21" t="s">
-        <v>1907</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="36" customFormat="1">
       <c r="A14" s="21" t="s">
-        <v>1891</v>
+        <v>1845</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1902</v>
+        <v>1856</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
       <c r="E14" s="21" t="s">
-        <v>1908</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="36" customFormat="1">
       <c r="A15" s="21" t="s">
-        <v>1892</v>
+        <v>1846</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1903</v>
+        <v>1857</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
       <c r="E15" s="21" t="s">
-        <v>1909</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="36" customFormat="1">
       <c r="A16" s="21" t="s">
-        <v>1893</v>
+        <v>1847</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1894</v>
+        <v>1848</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
       <c r="E16" s="21" t="s">
-        <v>1910</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="36" customFormat="1">
       <c r="A17" s="21" t="s">
-        <v>1895</v>
+        <v>1849</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1904</v>
+        <v>1858</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="47"/>
       <c r="E17" s="21" t="s">
-        <v>1911</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="36" customFormat="1">
       <c r="A18" s="21" t="s">
-        <v>1896</v>
+        <v>1850</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1905</v>
+        <v>1859</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="E18" s="21" t="s">
-        <v>1912</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="36" customFormat="1">
       <c r="A19" s="21" t="s">
-        <v>1897</v>
+        <v>1851</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1898</v>
+        <v>1852</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="E19" s="21" t="s">
-        <v>1913</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -16450,7 +16394,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1864</v>
+        <v>1818</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16517,171 +16461,171 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
-        <v>1865</v>
+        <v>1819</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1866</v>
+        <v>1820</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="21" t="s">
-        <v>1882</v>
+        <v>1836</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>1867</v>
+        <v>1821</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1923</v>
+        <v>1877</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="21" t="s">
-        <v>1914</v>
+        <v>1868</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>1868</v>
+        <v>1822</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1924</v>
+        <v>1878</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="21" t="s">
-        <v>1915</v>
+        <v>1869</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>1869</v>
+        <v>1823</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1925</v>
+        <v>1879</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="21" t="s">
-        <v>1916</v>
+        <v>1870</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="21" t="s">
-        <v>1870</v>
+        <v>1824</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1926</v>
+        <v>1880</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="21" t="s">
-        <v>1917</v>
+        <v>1871</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>1871</v>
+        <v>1825</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1927</v>
+        <v>1881</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="21" t="s">
-        <v>1918</v>
+        <v>1872</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>1872</v>
+        <v>1826</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>1928</v>
+        <v>1882</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="21" t="s">
-        <v>1919</v>
+        <v>1873</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="21" t="s">
-        <v>1873</v>
+        <v>1827</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>1929</v>
+        <v>1883</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="21" t="s">
-        <v>1920</v>
+        <v>1874</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="21" t="s">
-        <v>1874</v>
+        <v>1828</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>1930</v>
+        <v>1884</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="21" t="s">
-        <v>1921</v>
+        <v>1875</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="21" t="s">
-        <v>1875</v>
+        <v>1829</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>1931</v>
+        <v>1885</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="21" t="s">
-        <v>1922</v>
+        <v>1876</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="21" t="s">
-        <v>1876</v>
+        <v>1830</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>1877</v>
+        <v>1831</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="21" t="s">
-        <v>1883</v>
+        <v>1837</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="21" t="s">
-        <v>1878</v>
+        <v>1832</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1879</v>
+        <v>1833</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="21" t="s">
-        <v>1884</v>
+        <v>1838</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" s="46" customFormat="1">
       <c r="A22" s="44" t="s">
-        <v>1880</v>
+        <v>1834</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>1881</v>
+        <v>1835</v>
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45"/>
       <c r="E22" s="44" t="s">
-        <v>1885</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -21136,22 +21080,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>1948</v>
+        <v>1902</v>
       </c>
       <c r="B1" t="s">
-        <v>1949</v>
+        <v>1903</v>
       </c>
       <c r="C1" t="s">
-        <v>1950</v>
+        <v>1904</v>
       </c>
       <c r="D1" t="s">
-        <v>1951</v>
+        <v>1905</v>
       </c>
       <c r="E1" t="s">
-        <v>1952</v>
+        <v>1906</v>
       </c>
       <c r="F1" t="s">
-        <v>1953</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -21159,19 +21103,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1954</v>
+        <v>1908</v>
       </c>
       <c r="C2" t="s">
-        <v>1955</v>
+        <v>1909</v>
       </c>
       <c r="D2" t="s">
-        <v>1954</v>
+        <v>1908</v>
       </c>
       <c r="E2" t="s">
-        <v>1954</v>
+        <v>1908</v>
       </c>
       <c r="F2" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21179,19 +21123,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1957</v>
+        <v>1911</v>
       </c>
       <c r="C3" t="s">
-        <v>1958</v>
+        <v>1912</v>
       </c>
       <c r="D3" t="s">
-        <v>1959</v>
+        <v>1913</v>
       </c>
       <c r="E3" t="s">
-        <v>1960</v>
+        <v>1914</v>
       </c>
       <c r="F3" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -21199,16 +21143,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1961</v>
+        <v>1915</v>
       </c>
       <c r="D4" t="s">
-        <v>1962</v>
+        <v>1916</v>
       </c>
       <c r="E4" t="s">
-        <v>1962</v>
+        <v>1916</v>
       </c>
       <c r="F4" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21216,16 +21160,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1964</v>
+        <v>1918</v>
       </c>
       <c r="D5" t="s">
-        <v>1965</v>
+        <v>1919</v>
       </c>
       <c r="E5" t="s">
-        <v>1966</v>
+        <v>1920</v>
       </c>
       <c r="F5" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21233,19 +21177,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1967</v>
+        <v>1921</v>
       </c>
       <c r="C6" t="s">
-        <v>1968</v>
+        <v>1922</v>
       </c>
       <c r="D6" t="s">
-        <v>1969</v>
+        <v>1923</v>
       </c>
       <c r="E6" t="s">
-        <v>1970</v>
+        <v>1924</v>
       </c>
       <c r="F6" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21253,19 +21197,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1971</v>
+        <v>1925</v>
       </c>
       <c r="C7" t="s">
-        <v>1972</v>
+        <v>1926</v>
       </c>
       <c r="D7" t="s">
-        <v>1973</v>
+        <v>1927</v>
       </c>
       <c r="E7" t="s">
-        <v>1974</v>
+        <v>1928</v>
       </c>
       <c r="F7" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -21273,16 +21217,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1975</v>
+        <v>1929</v>
       </c>
       <c r="D8" t="s">
-        <v>1976</v>
+        <v>1930</v>
       </c>
       <c r="E8" t="s">
-        <v>1977</v>
+        <v>1931</v>
       </c>
       <c r="F8" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21290,16 +21234,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1877</v>
+        <v>1831</v>
       </c>
       <c r="D9" t="s">
-        <v>1978</v>
+        <v>1932</v>
       </c>
       <c r="E9" t="s">
-        <v>1876</v>
+        <v>1830</v>
       </c>
       <c r="F9" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21307,19 +21251,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1979</v>
+        <v>1933</v>
       </c>
       <c r="C10" t="s">
-        <v>1980</v>
+        <v>1934</v>
       </c>
       <c r="D10" t="s">
-        <v>1981</v>
+        <v>1935</v>
       </c>
       <c r="E10" t="s">
-        <v>1981</v>
+        <v>1935</v>
       </c>
       <c r="F10" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21327,16 +21271,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>1982</v>
+        <v>1936</v>
       </c>
       <c r="D11" t="s">
-        <v>1983</v>
+        <v>1937</v>
       </c>
       <c r="E11" t="s">
-        <v>1984</v>
+        <v>1938</v>
       </c>
       <c r="F11" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21344,16 +21288,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>1985</v>
+        <v>1939</v>
       </c>
       <c r="D12" t="s">
-        <v>1986</v>
+        <v>1940</v>
       </c>
       <c r="E12" t="s">
-        <v>1987</v>
+        <v>1941</v>
       </c>
       <c r="F12" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -21361,16 +21305,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>1988</v>
+        <v>1942</v>
       </c>
       <c r="D13" t="s">
-        <v>1989</v>
+        <v>1943</v>
       </c>
       <c r="E13" t="s">
-        <v>1990</v>
+        <v>1944</v>
       </c>
       <c r="F13" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21378,16 +21322,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1991</v>
+        <v>1945</v>
       </c>
       <c r="D14" t="s">
-        <v>1992</v>
+        <v>1946</v>
       </c>
       <c r="E14" t="s">
-        <v>1993</v>
+        <v>1947</v>
       </c>
       <c r="F14" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21395,19 +21339,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>1994</v>
+        <v>1948</v>
       </c>
       <c r="C15" t="s">
-        <v>1995</v>
+        <v>1949</v>
       </c>
       <c r="D15" t="s">
-        <v>1996</v>
+        <v>1950</v>
       </c>
       <c r="E15" t="s">
-        <v>1997</v>
+        <v>1951</v>
       </c>
       <c r="F15" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21415,16 +21359,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>1998</v>
+        <v>1952</v>
       </c>
       <c r="D16" t="s">
-        <v>1999</v>
+        <v>1953</v>
       </c>
       <c r="E16" t="s">
-        <v>2000</v>
+        <v>1954</v>
       </c>
       <c r="F16" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -21432,16 +21376,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>2001</v>
+        <v>1955</v>
       </c>
       <c r="D17" t="s">
-        <v>2002</v>
+        <v>1956</v>
       </c>
       <c r="E17" t="s">
-        <v>2003</v>
+        <v>1957</v>
       </c>
       <c r="F17" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -21449,16 +21393,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>2004</v>
+        <v>1958</v>
       </c>
       <c r="D18" t="s">
-        <v>2005</v>
+        <v>1959</v>
       </c>
       <c r="E18" t="s">
-        <v>2005</v>
+        <v>1959</v>
       </c>
       <c r="F18" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -21466,19 +21410,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>1994</v>
+        <v>1948</v>
       </c>
       <c r="C19" t="s">
-        <v>2006</v>
+        <v>1960</v>
       </c>
       <c r="D19" t="s">
-        <v>2007</v>
+        <v>1961</v>
       </c>
       <c r="E19" t="s">
-        <v>2008</v>
+        <v>1962</v>
       </c>
       <c r="F19" t="s">
-        <v>1956</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -21486,16 +21430,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>2009</v>
+        <v>1963</v>
       </c>
       <c r="D20" t="s">
-        <v>2010</v>
+        <v>1964</v>
       </c>
       <c r="E20" t="s">
-        <v>2011</v>
+        <v>1965</v>
       </c>
       <c r="F20" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21503,16 +21447,16 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>2012</v>
+        <v>1966</v>
       </c>
       <c r="D21" t="s">
-        <v>2013</v>
+        <v>1967</v>
       </c>
       <c r="E21" t="s">
-        <v>2014</v>
+        <v>1968</v>
       </c>
       <c r="F21" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21520,16 +21464,16 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="D22" t="s">
-        <v>2016</v>
+        <v>1970</v>
       </c>
       <c r="E22" t="s">
-        <v>2016</v>
+        <v>1970</v>
       </c>
       <c r="F22" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21537,16 +21481,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>2017</v>
+        <v>1971</v>
       </c>
       <c r="D23" t="s">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="E23" t="s">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="F23" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21554,16 +21498,16 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>2019</v>
+        <v>1973</v>
       </c>
       <c r="D24" t="s">
-        <v>2020</v>
+        <v>1974</v>
       </c>
       <c r="E24" t="s">
-        <v>2020</v>
+        <v>1974</v>
       </c>
       <c r="F24" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21571,16 +21515,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>2021</v>
+        <v>1975</v>
       </c>
       <c r="D25" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
       <c r="E25" t="s">
-        <v>2022</v>
+        <v>1976</v>
       </c>
       <c r="F25" t="s">
-        <v>2023</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21588,16 +21532,16 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>2024</v>
+        <v>1978</v>
       </c>
       <c r="D26" t="s">
-        <v>2025</v>
+        <v>1979</v>
       </c>
       <c r="E26" t="s">
-        <v>2026</v>
+        <v>1980</v>
       </c>
       <c r="F26" t="s">
-        <v>1963</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21605,16 +21549,16 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>2027</v>
+        <v>1981</v>
       </c>
       <c r="D27" t="s">
-        <v>2028</v>
+        <v>1982</v>
       </c>
       <c r="E27" t="s">
-        <v>2029</v>
+        <v>1983</v>
       </c>
       <c r="F27" t="s">
-        <v>2030</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21622,16 +21566,16 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>2031</v>
+        <v>1985</v>
       </c>
       <c r="D28" t="s">
-        <v>2032</v>
+        <v>1986</v>
       </c>
       <c r="E28" t="s">
-        <v>2033</v>
+        <v>1987</v>
       </c>
       <c r="F28" t="s">
-        <v>2030</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21639,16 +21583,16 @@
         <v>218</v>
       </c>
       <c r="C29" t="s">
-        <v>2034</v>
+        <v>1988</v>
       </c>
       <c r="D29" t="s">
-        <v>2035</v>
+        <v>1989</v>
       </c>
       <c r="E29" t="s">
-        <v>2036</v>
+        <v>1990</v>
       </c>
       <c r="F29" t="s">
-        <v>2037</v>
+        <v>1991</v>
       </c>
     </row>
   </sheetData>
@@ -25741,7 +25685,7 @@
         <v>1411</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1818</v>
+        <v>1772</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
@@ -27375,67 +27319,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="a24e46c8e369b0d0dbf292fc067594e6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b005a03a4b86eaa0f9218a8d7ff13ee" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -27849,33 +27732,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059494DF-AC78-4572-AFB9-E7754F64CB4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27893,4 +27811,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D96BE2AE-D72E-4509-8C7E-D69CD3AE4562}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3AE2A9-48E6-4275-8143-3511AF03FE6C}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="75" windowWidth="22800" windowHeight="14460" tabRatio="877" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="0" windowWidth="25635" windowHeight="14460" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -30,11 +30,13 @@
     <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId15"/>
     <sheet name="Type de devenir du patient" sheetId="35" r:id="rId16"/>
     <sheet name="Effet à obtenir" sheetId="10" r:id="rId17"/>
-    <sheet name="#Delai d'intervention demande" sheetId="40" r:id="rId18"/>
-    <sheet name="#Delai de réponse" sheetId="39" r:id="rId19"/>
-    <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId20"/>
-    <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId21"/>
-    <sheet name="#Code Antares" sheetId="41" r:id="rId22"/>
+    <sheet name="Cadre conventionnel" sheetId="43" r:id="rId18"/>
+    <sheet name="Status du vecteur" sheetId="42" r:id="rId19"/>
+    <sheet name="#Delai d'intervention demande" sheetId="40" r:id="rId20"/>
+    <sheet name="#Delai de réponse" sheetId="39" r:id="rId21"/>
+    <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId22"/>
+    <sheet name="#Informations sur le requérant" sheetId="4" r:id="rId23"/>
+    <sheet name="#Code Antares" sheetId="41" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$2:$K$18</definedName>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="2009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="2096">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -5677,15 +5679,6 @@
     <t>RC-EDA</t>
   </si>
   <si>
-    <t>RS-RIG</t>
-  </si>
-  <si>
-    <t>RS-DDR</t>
-  </si>
-  <si>
-    <t>RS-RDR</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -6306,13 +6299,283 @@
   <si>
     <t>Utilisée exclusivement en inter-santé
 A garder pour échanger : EMSI  (dans OPG) - dans le sens type de moyen/ressource, plus large que le type de vecteur/véhicule</t>
+  </si>
+  <si>
+    <t>RS-SR</t>
+  </si>
+  <si>
+    <t>RS-RI</t>
+  </si>
+  <si>
+    <t>RS-DR</t>
+  </si>
+  <si>
+    <t>RS-RR</t>
+  </si>
+  <si>
+    <t>Status du vecteur</t>
+  </si>
+  <si>
+    <t>DECISION</t>
+  </si>
+  <si>
+    <t>Décision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La décision d'engager le véhicule a été prise </t>
+  </si>
+  <si>
+    <t>00-DECISION</t>
+  </si>
+  <si>
+    <t>DECLENCHE</t>
+  </si>
+  <si>
+    <t>Déclenché</t>
+  </si>
+  <si>
+    <t>La ressource a été engagée mais n’a pas encore quittée la base</t>
+  </si>
+  <si>
+    <t>DEPART</t>
+  </si>
+  <si>
+    <t>Début d’intervention</t>
+  </si>
+  <si>
+    <t>La ressource est partie de la base, pour se rendre sur les lieux de l’intervention</t>
+  </si>
+  <si>
+    <t>01-PARTI</t>
+  </si>
+  <si>
+    <t>ARRIVE</t>
+  </si>
+  <si>
+    <t>Arrivée sur les lieux</t>
+  </si>
+  <si>
+    <t>La ressource est arrivée sur les lieux de l’intervention</t>
+  </si>
+  <si>
+    <t>02-SLL</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>Début de prise en charge</t>
+  </si>
+  <si>
+    <t>La ressource est arrivée sur les lieux de l’intervention et a commencé la prise en charge du patient</t>
+  </si>
+  <si>
+    <t>ANNULE</t>
+  </si>
+  <si>
+    <t>Annulation  de l’intervention</t>
+  </si>
+  <si>
+    <t>La ressource engagée a été annulée : heure d'annulation de la ressource</t>
+  </si>
+  <si>
+    <t>BILAN</t>
+  </si>
+  <si>
+    <t>Transmission du bilan</t>
+  </si>
+  <si>
+    <t>03-MESSAGE</t>
+  </si>
+  <si>
+    <t>Départ des lieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La ressource quitte les lieux de l’intervention vers la destination</t>
+  </si>
+  <si>
+    <t>05-TRANSPORT</t>
+  </si>
+  <si>
+    <t>ETAPE1</t>
+  </si>
+  <si>
+    <t>Etape de transit 1</t>
+  </si>
+  <si>
+    <t>TRANSP2</t>
+  </si>
+  <si>
+    <t>Départ étape 1</t>
+  </si>
+  <si>
+    <t>ETAPE2</t>
+  </si>
+  <si>
+    <t>Etape de transit 2</t>
+  </si>
+  <si>
+    <t>TRANSP3</t>
+  </si>
+  <si>
+    <t>Départ étape 2</t>
+  </si>
+  <si>
+    <t>DESTIN</t>
+  </si>
+  <si>
+    <t>Arrivée à destination</t>
+  </si>
+  <si>
+    <t>La ressource est arrivée à la destination</t>
+  </si>
+  <si>
+    <t>06-DESTIN</t>
+  </si>
+  <si>
+    <t>FINPEC</t>
+  </si>
+  <si>
+    <t>Fin de prise en charge</t>
+  </si>
+  <si>
+    <t>Le patient a été pris en charge sur le plateau technique</t>
+  </si>
+  <si>
+    <t>24-FIN MED</t>
+  </si>
+  <si>
+    <t>RETOUR</t>
+  </si>
+  <si>
+    <t>Quitte la destination</t>
+  </si>
+  <si>
+    <t>La ressource quitte la destination</t>
+  </si>
+  <si>
+    <t>25-QTTE HOP</t>
+  </si>
+  <si>
+    <t>RET-BASE</t>
+  </si>
+  <si>
+    <t>Retour à la base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ressource est en cours de retour à la base </t>
+  </si>
+  <si>
+    <t>REN-BASE</t>
+  </si>
+  <si>
+    <t>Rentrée à la base</t>
+  </si>
+  <si>
+    <t>La ressource est rentrée à la base</t>
+  </si>
+  <si>
+    <t>STATUS_VECTEUR</t>
+  </si>
+  <si>
+    <t>DRSIS</t>
+  </si>
+  <si>
+    <t>Départ réflexe SIS</t>
+  </si>
+  <si>
+    <t>Engagement d'un moyen du SIS dans le cadre strict des départs réflexes prévu à l'annexe 1 du réferentiel SAP-AMU (Situations cliniques, circonstances particulières, Voie Publique)</t>
+  </si>
+  <si>
+    <t>MISSION</t>
+  </si>
+  <si>
+    <t>Propres missions</t>
+  </si>
+  <si>
+    <t>Engagement d'un moyen du partenaire résultant de ses missions propres (hors départ reflexe du SIS)</t>
+  </si>
+  <si>
+    <t>ITSP</t>
+  </si>
+  <si>
+    <t>Carence pour ITSP</t>
+  </si>
+  <si>
+    <t>Engagement d'un VSAV par carence résultant d'une Indisponibilité de Transporteur sanitaire Privé</t>
+  </si>
+  <si>
+    <t>CARENCE</t>
+  </si>
+  <si>
+    <t>Carence pour autre motif</t>
+  </si>
+  <si>
+    <t>Engagement d'un VSAV par carence résultant d'un autre motif</t>
+  </si>
+  <si>
+    <t>CONVENT</t>
+  </si>
+  <si>
+    <t>Convention locale</t>
+  </si>
+  <si>
+    <t>Engagement d'un moyen du partenaire, hors mission propre et hors carence, mais prévu dans une convention départementale ou régionale (notamment convention bi-tripartite)</t>
+  </si>
+  <si>
+    <t>SPE</t>
+  </si>
+  <si>
+    <t>Convention spécifique</t>
+  </si>
+  <si>
+    <t>Engagement d'un moyen du partenaire résultant d'une convention spécifique (transport bariatrique, ….)</t>
+  </si>
+  <si>
+    <t>HORS</t>
+  </si>
+  <si>
+    <t>Hors de ses missions</t>
+  </si>
+  <si>
+    <t>Engagement d'un moyen du partenaire hors cadre conventionnel, hors de ses missions et hors d'un cadre conventionnel</t>
+  </si>
+  <si>
+    <t>AUTRE1</t>
+  </si>
+  <si>
+    <t>Autre cas 1</t>
+  </si>
+  <si>
+    <t>Engagement d'un partenaire dans un nouveau cadre ou en test</t>
+  </si>
+  <si>
+    <t>AUTRE2</t>
+  </si>
+  <si>
+    <t>Autre cas 2</t>
+  </si>
+  <si>
+    <t>AUTRE3</t>
+  </si>
+  <si>
+    <t>Autre cas 3</t>
+  </si>
+  <si>
+    <t>CADRE_CONV</t>
+  </si>
+  <si>
+    <t>Cadre conventionnel</t>
+  </si>
+  <si>
+    <t>Ressource engagée / resourcesStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6488,11 +6751,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6515,6 +6817,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -6589,7 +6903,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6709,9 +7023,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -6719,7 +7046,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -8328,154 +8690,154 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
     <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1"/>
     <tableColumn id="5" xr3:uid="{A8693491-C517-461F-B62C-F068AE507B25}" name="Libellé niveau 2"/>
-    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8744,32 +9106,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
-  <dimension ref="A1:K217"/>
+  <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="28" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
     <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
-    <col min="7" max="11" width="9" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="28"/>
+    <col min="7" max="12" width="12.7109375" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:11" s="30" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="30" customFormat="1" ht="15">
       <c r="A2" s="29" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>1781</v>
@@ -8793,16 +9155,19 @@
         <v>1797</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1799</v>
+        <v>2007</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1800</v>
+        <v>2008</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+        <v>2009</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="31" t="s">
         <v>1776</v>
       </c>
@@ -8824,16 +9189,17 @@
         <v>1794</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
       <c r="K3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="31" t="s">
         <v>1776</v>
       </c>
@@ -8855,16 +9221,17 @@
         <v>1794</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
       <c r="K4" s="34"/>
-    </row>
-    <row r="5" spans="1:11" ht="15">
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="31" t="s">
         <v>1776</v>
       </c>
@@ -8886,21 +9253,22 @@
         <v>1794</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" ht="15">
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="31" t="s">
         <v>1776</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="C6" s="53" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
@@ -8917,16 +9285,17 @@
         <v>1794</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
-    </row>
-    <row r="7" spans="1:11" ht="15">
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="31" t="s">
         <v>1776</v>
       </c>
@@ -8949,13 +9318,14 @@
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
-    </row>
-    <row r="8" spans="1:11" ht="15">
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="31" t="s">
         <v>1776</v>
       </c>
@@ -8978,13 +9348,14 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" ht="15">
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="31" t="s">
         <v>1779</v>
       </c>
@@ -9006,16 +9377,17 @@
         <v>1794</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" ht="15">
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="31" t="s">
         <v>1779</v>
       </c>
@@ -9037,16 +9409,17 @@
         <v>1794</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" ht="15">
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="32" t="s">
         <v>1795</v>
       </c>
@@ -9068,16 +9441,17 @@
         <v>1794</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" ht="15">
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="32" t="s">
         <v>1795</v>
       </c>
@@ -9100,13 +9474,14 @@
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" ht="15">
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="31" t="s">
         <v>1796</v>
       </c>
@@ -9128,18 +9503,19 @@
         <v>1794</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" ht="15">
+      <c r="L13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="31" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B14" s="38" t="s">
         <v>1793</v>
@@ -9160,26 +9536,27 @@
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="J14" s="34"/>
       <c r="K14" s="34" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="A15" s="32" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="32" t="s">
-        <v>1805</v>
-      </c>
       <c r="B15" s="38" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="C15" s="53" t="str">
         <f>'Type de vecteurs'!$B$1</f>
-        <v>CISU</v>
+        <v>SI-SAMU</v>
       </c>
       <c r="D15" s="31" t="str">
         <f>'Type de vecteurs'!$B$2</f>
@@ -9193,22 +9570,23 @@
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="15">
+      <c r="A16" s="31" t="s">
         <v>1802</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="31" t="s">
-        <v>1805</v>
-      </c>
       <c r="B16" s="38" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C16" s="31" t="str">
         <f>'Niveau de prise en charge'!$B$1</f>
@@ -9225,20 +9603,21 @@
         <v>1794</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15">
+        <v>1799</v>
+      </c>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="31" t="s">
         <v>1796</v>
       </c>
@@ -9260,18 +9639,19 @@
         <v>1794</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="15">
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="32" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>1787</v>
@@ -9294,39 +9674,74 @@
       <c r="H18" s="34"/>
       <c r="I18" s="34"/>
       <c r="J18" s="34" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="15">
+      <c r="A19" s="32" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C19" s="31" t="str">
+        <f>'Cadre conventionnel'!$B$1</f>
+        <v>CISU</v>
+      </c>
+      <c r="D19" s="31" t="str">
+        <f>'Cadre conventionnel'!$B$2</f>
+        <v>CADRE_CONV</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>1794</v>
+      </c>
       <c r="G19" s="34"/>
       <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="J19" s="34" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" ht="15">
+      <c r="A20" s="32" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C20" s="31" t="str">
+        <f>'Status du vecteur'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D20" s="31" t="str">
+        <f>'Status du vecteur'!$B$2</f>
+        <v>STATUS_VECTEUR</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>1794</v>
+      </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="34" t="s">
+        <v>1799</v>
+      </c>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="34" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -9336,10 +9751,11 @@
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -9349,10 +9765,11 @@
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -9362,10 +9779,11 @@
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" ht="15">
       <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -9375,10 +9793,11 @@
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" ht="15">
       <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -9388,8 +9807,9 @@
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
@@ -9401,8 +9821,9 @@
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
@@ -9414,8 +9835,9 @@
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="32"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
@@ -9427,8 +9849,9 @@
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
@@ -9440,8 +9863,9 @@
       <c r="I29" s="34"/>
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="32"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -9453,8 +9877,9 @@
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="32"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
@@ -9466,8 +9891,9 @@
       <c r="I31" s="34"/>
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -9479,8 +9905,9 @@
       <c r="I32" s="34"/>
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -9492,8 +9919,9 @@
       <c r="I33" s="34"/>
       <c r="J33" s="34"/>
       <c r="K33" s="34"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -9505,8 +9933,9 @@
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
       <c r="K34" s="34"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -9518,8 +9947,9 @@
       <c r="I35" s="34"/>
       <c r="J35" s="34"/>
       <c r="K35" s="34"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="34"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -9531,8 +9961,9 @@
       <c r="I36" s="34"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -9544,8 +9975,9 @@
       <c r="I37" s="34"/>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -9557,8 +9989,9 @@
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
       <c r="K38" s="34"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -9570,8 +10003,9 @@
       <c r="I39" s="34"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="34"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -9583,21 +10017,23 @@
       <c r="I40" s="34"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -9609,8 +10045,9 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
@@ -9622,8 +10059,9 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
@@ -9635,8 +10073,9 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
@@ -9648,8 +10087,9 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
       <c r="K45" s="32"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
@@ -9661,8 +10101,9 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
@@ -9674,8 +10115,9 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
@@ -9687,8 +10129,9 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="32"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
@@ -9700,8 +10143,9 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
       <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="32"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
@@ -9713,8 +10157,9 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
@@ -9726,8 +10171,9 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
@@ -9739,8 +10185,9 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="32"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
@@ -9752,8 +10199,9 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="32"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="32"/>
       <c r="B54" s="32"/>
       <c r="C54" s="32"/>
@@ -9765,8 +10213,9 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="32"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="32"/>
       <c r="B55" s="32"/>
       <c r="C55" s="32"/>
@@ -9778,8 +10227,9 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="32"/>
       <c r="B56" s="32"/>
       <c r="C56" s="32"/>
@@ -9791,8 +10241,9 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="32"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="32"/>
       <c r="B57" s="32"/>
       <c r="C57" s="32"/>
@@ -9804,8 +10255,9 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="32"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="32"/>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
@@ -9817,8 +10269,9 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="32"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="32"/>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
@@ -9830,8 +10283,9 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
       <c r="K59" s="32"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="32"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="32"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -9843,8 +10297,9 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
       <c r="K60" s="32"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="32"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="32"/>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
@@ -9856,8 +10311,9 @@
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="32"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="32"/>
       <c r="B62" s="32"/>
       <c r="C62" s="32"/>
@@ -9869,8 +10325,9 @@
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="32"/>
       <c r="B63" s="32"/>
       <c r="C63" s="32"/>
@@ -9882,8 +10339,9 @@
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="32"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="32"/>
       <c r="B64" s="32"/>
       <c r="C64" s="32"/>
@@ -9895,8 +10353,9 @@
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
       <c r="K64" s="32"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="32"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -9908,8 +10367,9 @@
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
       <c r="K65" s="32"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -9921,8 +10381,9 @@
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="32"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -9934,8 +10395,9 @@
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="32"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -9947,8 +10409,9 @@
       <c r="I68" s="32"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="32"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -9960,8 +10423,9 @@
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="32"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -9973,8 +10437,9 @@
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="32"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -9986,8 +10451,9 @@
       <c r="I71" s="32"/>
       <c r="J71" s="32"/>
       <c r="K71" s="32"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="32"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -9999,8 +10465,9 @@
       <c r="I72" s="32"/>
       <c r="J72" s="32"/>
       <c r="K72" s="32"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="32"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -10012,8 +10479,9 @@
       <c r="I73" s="32"/>
       <c r="J73" s="32"/>
       <c r="K73" s="32"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="32"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -10025,8 +10493,9 @@
       <c r="I74" s="32"/>
       <c r="J74" s="32"/>
       <c r="K74" s="32"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="32"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -10038,8 +10507,9 @@
       <c r="I75" s="32"/>
       <c r="J75" s="32"/>
       <c r="K75" s="32"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="32"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="32"/>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
@@ -10051,8 +10521,9 @@
       <c r="I76" s="32"/>
       <c r="J76" s="32"/>
       <c r="K76" s="32"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="32"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="32"/>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
@@ -10064,8 +10535,9 @@
       <c r="I77" s="32"/>
       <c r="J77" s="32"/>
       <c r="K77" s="32"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="32"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="32"/>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
@@ -10077,8 +10549,9 @@
       <c r="I78" s="32"/>
       <c r="J78" s="32"/>
       <c r="K78" s="32"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="32"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -10090,8 +10563,9 @@
       <c r="I79" s="32"/>
       <c r="J79" s="32"/>
       <c r="K79" s="32"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="32"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -10103,8 +10577,9 @@
       <c r="I80" s="32"/>
       <c r="J80" s="32"/>
       <c r="K80" s="32"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="32"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -10116,8 +10591,9 @@
       <c r="I81" s="32"/>
       <c r="J81" s="32"/>
       <c r="K81" s="32"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="32"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -10129,8 +10605,9 @@
       <c r="I82" s="32"/>
       <c r="J82" s="32"/>
       <c r="K82" s="32"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="32"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -10142,8 +10619,9 @@
       <c r="I83" s="32"/>
       <c r="J83" s="32"/>
       <c r="K83" s="32"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="32"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -10155,8 +10633,9 @@
       <c r="I84" s="32"/>
       <c r="J84" s="32"/>
       <c r="K84" s="32"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="32"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -10168,8 +10647,9 @@
       <c r="I85" s="32"/>
       <c r="J85" s="32"/>
       <c r="K85" s="32"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="32"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -10181,8 +10661,9 @@
       <c r="I86" s="32"/>
       <c r="J86" s="32"/>
       <c r="K86" s="32"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="32"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -10194,8 +10675,9 @@
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
       <c r="K87" s="32"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="32"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -10207,8 +10689,9 @@
       <c r="I88" s="32"/>
       <c r="J88" s="32"/>
       <c r="K88" s="32"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="32"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -10220,8 +10703,9 @@
       <c r="I89" s="32"/>
       <c r="J89" s="32"/>
       <c r="K89" s="32"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="32"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -10233,8 +10717,9 @@
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
       <c r="K90" s="32"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="32"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -10246,8 +10731,9 @@
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
       <c r="K91" s="32"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="32"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -10259,8 +10745,9 @@
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
       <c r="K92" s="32"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="32"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -10272,8 +10759,9 @@
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
       <c r="K93" s="32"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="32"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -10285,8 +10773,9 @@
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
       <c r="K94" s="32"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="32"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -10298,8 +10787,9 @@
       <c r="I95" s="32"/>
       <c r="J95" s="32"/>
       <c r="K95" s="32"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="32"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="32"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32"/>
@@ -10311,8 +10801,9 @@
       <c r="I96" s="32"/>
       <c r="J96" s="32"/>
       <c r="K96" s="32"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="32"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="32"/>
       <c r="B97" s="32"/>
       <c r="C97" s="32"/>
@@ -10324,8 +10815,9 @@
       <c r="I97" s="32"/>
       <c r="J97" s="32"/>
       <c r="K97" s="32"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="32"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="32"/>
       <c r="B98" s="32"/>
       <c r="C98" s="32"/>
@@ -10337,8 +10829,9 @@
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
       <c r="K98" s="32"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="32"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="32"/>
       <c r="B99" s="32"/>
       <c r="C99" s="32"/>
@@ -10350,8 +10843,9 @@
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="32"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="32"/>
       <c r="B100" s="32"/>
       <c r="C100" s="32"/>
@@ -10363,8 +10857,9 @@
       <c r="I100" s="32"/>
       <c r="J100" s="32"/>
       <c r="K100" s="32"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="32"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="32"/>
       <c r="B101" s="32"/>
       <c r="C101" s="32"/>
@@ -10376,8 +10871,9 @@
       <c r="I101" s="32"/>
       <c r="J101" s="32"/>
       <c r="K101" s="32"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="32"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="32"/>
       <c r="B102" s="32"/>
       <c r="C102" s="32"/>
@@ -10389,8 +10885,9 @@
       <c r="I102" s="32"/>
       <c r="J102" s="32"/>
       <c r="K102" s="32"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="32"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="32"/>
       <c r="B103" s="32"/>
       <c r="C103" s="32"/>
@@ -10402,8 +10899,9 @@
       <c r="I103" s="32"/>
       <c r="J103" s="32"/>
       <c r="K103" s="32"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="32"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="32"/>
       <c r="B104" s="32"/>
       <c r="C104" s="32"/>
@@ -10415,8 +10913,9 @@
       <c r="I104" s="32"/>
       <c r="J104" s="32"/>
       <c r="K104" s="32"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="32"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="32"/>
       <c r="B105" s="32"/>
       <c r="C105" s="32"/>
@@ -10428,8 +10927,9 @@
       <c r="I105" s="32"/>
       <c r="J105" s="32"/>
       <c r="K105" s="32"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="32"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="32"/>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
@@ -10441,8 +10941,9 @@
       <c r="I106" s="32"/>
       <c r="J106" s="32"/>
       <c r="K106" s="32"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="32"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="32"/>
       <c r="B107" s="32"/>
       <c r="C107" s="32"/>
@@ -10454,8 +10955,9 @@
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
       <c r="K107" s="32"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="32"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="32"/>
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
@@ -10467,8 +10969,9 @@
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
       <c r="K108" s="32"/>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="32"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="32"/>
       <c r="B109" s="32"/>
       <c r="C109" s="32"/>
@@ -10480,8 +10983,9 @@
       <c r="I109" s="32"/>
       <c r="J109" s="32"/>
       <c r="K109" s="32"/>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="32"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="32"/>
       <c r="B110" s="32"/>
       <c r="C110" s="32"/>
@@ -10493,8 +10997,9 @@
       <c r="I110" s="32"/>
       <c r="J110" s="32"/>
       <c r="K110" s="32"/>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="32"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="32"/>
       <c r="B111" s="32"/>
       <c r="C111" s="32"/>
@@ -10506,8 +11011,9 @@
       <c r="I111" s="32"/>
       <c r="J111" s="32"/>
       <c r="K111" s="32"/>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="32"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="32"/>
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
@@ -10519,8 +11025,9 @@
       <c r="I112" s="32"/>
       <c r="J112" s="32"/>
       <c r="K112" s="32"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112" s="32"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="32"/>
       <c r="B113" s="32"/>
       <c r="C113" s="32"/>
@@ -10532,8 +11039,9 @@
       <c r="I113" s="32"/>
       <c r="J113" s="32"/>
       <c r="K113" s="32"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113" s="32"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="32"/>
       <c r="B114" s="32"/>
       <c r="C114" s="32"/>
@@ -10545,8 +11053,9 @@
       <c r="I114" s="32"/>
       <c r="J114" s="32"/>
       <c r="K114" s="32"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114" s="32"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="32"/>
       <c r="B115" s="32"/>
       <c r="C115" s="32"/>
@@ -10558,8 +11067,9 @@
       <c r="I115" s="32"/>
       <c r="J115" s="32"/>
       <c r="K115" s="32"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115" s="32"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="32"/>
       <c r="B116" s="32"/>
       <c r="C116" s="32"/>
@@ -10571,8 +11081,9 @@
       <c r="I116" s="32"/>
       <c r="J116" s="32"/>
       <c r="K116" s="32"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116" s="32"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="32"/>
       <c r="B117" s="32"/>
       <c r="C117" s="32"/>
@@ -10584,8 +11095,9 @@
       <c r="I117" s="32"/>
       <c r="J117" s="32"/>
       <c r="K117" s="32"/>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" s="32"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="32"/>
       <c r="B118" s="32"/>
       <c r="C118" s="32"/>
@@ -10597,8 +11109,9 @@
       <c r="I118" s="32"/>
       <c r="J118" s="32"/>
       <c r="K118" s="32"/>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118" s="32"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="32"/>
       <c r="B119" s="32"/>
       <c r="C119" s="32"/>
@@ -10610,8 +11123,9 @@
       <c r="I119" s="32"/>
       <c r="J119" s="32"/>
       <c r="K119" s="32"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119" s="32"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="32"/>
       <c r="B120" s="32"/>
       <c r="C120" s="32"/>
@@ -10623,8 +11137,9 @@
       <c r="I120" s="32"/>
       <c r="J120" s="32"/>
       <c r="K120" s="32"/>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120" s="32"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="32"/>
       <c r="B121" s="32"/>
       <c r="C121" s="32"/>
@@ -10636,8 +11151,9 @@
       <c r="I121" s="32"/>
       <c r="J121" s="32"/>
       <c r="K121" s="32"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121" s="32"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="32"/>
       <c r="B122" s="32"/>
       <c r="C122" s="32"/>
@@ -10649,8 +11165,9 @@
       <c r="I122" s="32"/>
       <c r="J122" s="32"/>
       <c r="K122" s="32"/>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122" s="32"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="32"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
@@ -10662,8 +11179,9 @@
       <c r="I123" s="32"/>
       <c r="J123" s="32"/>
       <c r="K123" s="32"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123" s="32"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="32"/>
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
@@ -10675,8 +11193,9 @@
       <c r="I124" s="32"/>
       <c r="J124" s="32"/>
       <c r="K124" s="32"/>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124" s="32"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="32"/>
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
@@ -10688,8 +11207,9 @@
       <c r="I125" s="32"/>
       <c r="J125" s="32"/>
       <c r="K125" s="32"/>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125" s="32"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="32"/>
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
@@ -10701,8 +11221,9 @@
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
       <c r="K126" s="32"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126" s="32"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="32"/>
       <c r="B127" s="32"/>
       <c r="C127" s="32"/>
@@ -10714,8 +11235,9 @@
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
       <c r="K127" s="32"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127" s="32"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
@@ -10727,8 +11249,9 @@
       <c r="I128" s="32"/>
       <c r="J128" s="32"/>
       <c r="K128" s="32"/>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128" s="32"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
@@ -10740,8 +11263,9 @@
       <c r="I129" s="32"/>
       <c r="J129" s="32"/>
       <c r="K129" s="32"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129" s="32"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
@@ -10753,8 +11277,9 @@
       <c r="I130" s="32"/>
       <c r="J130" s="32"/>
       <c r="K130" s="32"/>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130" s="32"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -10766,8 +11291,9 @@
       <c r="I131" s="32"/>
       <c r="J131" s="32"/>
       <c r="K131" s="32"/>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" s="32"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -10779,8 +11305,9 @@
       <c r="I132" s="32"/>
       <c r="J132" s="32"/>
       <c r="K132" s="32"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132" s="32"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -10792,8 +11319,9 @@
       <c r="I133" s="32"/>
       <c r="J133" s="32"/>
       <c r="K133" s="32"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133" s="32"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -10805,8 +11333,9 @@
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
       <c r="K134" s="32"/>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" s="32"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="32"/>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
@@ -10818,8 +11347,9 @@
       <c r="I135" s="32"/>
       <c r="J135" s="32"/>
       <c r="K135" s="32"/>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135" s="32"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="32"/>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
@@ -10831,8 +11361,9 @@
       <c r="I136" s="32"/>
       <c r="J136" s="32"/>
       <c r="K136" s="32"/>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136" s="32"/>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="32"/>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
@@ -10844,8 +11375,9 @@
       <c r="I137" s="32"/>
       <c r="J137" s="32"/>
       <c r="K137" s="32"/>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137" s="32"/>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="32"/>
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
@@ -10857,8 +11389,9 @@
       <c r="I138" s="32"/>
       <c r="J138" s="32"/>
       <c r="K138" s="32"/>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138" s="32"/>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="32"/>
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
@@ -10870,8 +11403,9 @@
       <c r="I139" s="32"/>
       <c r="J139" s="32"/>
       <c r="K139" s="32"/>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139" s="32"/>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="32"/>
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
@@ -10883,8 +11417,9 @@
       <c r="I140" s="32"/>
       <c r="J140" s="32"/>
       <c r="K140" s="32"/>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140" s="32"/>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="32"/>
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
@@ -10896,8 +11431,9 @@
       <c r="I141" s="32"/>
       <c r="J141" s="32"/>
       <c r="K141" s="32"/>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141" s="32"/>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="32"/>
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
@@ -10909,8 +11445,9 @@
       <c r="I142" s="32"/>
       <c r="J142" s="32"/>
       <c r="K142" s="32"/>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142" s="32"/>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="32"/>
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
@@ -10922,8 +11459,9 @@
       <c r="I143" s="32"/>
       <c r="J143" s="32"/>
       <c r="K143" s="32"/>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143" s="32"/>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="32"/>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -10935,8 +11473,9 @@
       <c r="I144" s="32"/>
       <c r="J144" s="32"/>
       <c r="K144" s="32"/>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" s="32"/>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="32"/>
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
@@ -10948,8 +11487,9 @@
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="32"/>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" s="32"/>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="32"/>
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
@@ -10961,8 +11501,9 @@
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="32"/>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146" s="32"/>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="32"/>
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
@@ -10974,8 +11515,9 @@
       <c r="I147" s="32"/>
       <c r="J147" s="32"/>
       <c r="K147" s="32"/>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147" s="32"/>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="32"/>
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
@@ -10987,8 +11529,9 @@
       <c r="I148" s="32"/>
       <c r="J148" s="32"/>
       <c r="K148" s="32"/>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148" s="32"/>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="32"/>
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
@@ -11000,8 +11543,9 @@
       <c r="I149" s="32"/>
       <c r="J149" s="32"/>
       <c r="K149" s="32"/>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149" s="32"/>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="32"/>
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
@@ -11013,8 +11557,9 @@
       <c r="I150" s="32"/>
       <c r="J150" s="32"/>
       <c r="K150" s="32"/>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150" s="32"/>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="32"/>
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
@@ -11026,8 +11571,9 @@
       <c r="I151" s="32"/>
       <c r="J151" s="32"/>
       <c r="K151" s="32"/>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151" s="32"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="32"/>
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
@@ -11039,8 +11585,9 @@
       <c r="I152" s="32"/>
       <c r="J152" s="32"/>
       <c r="K152" s="32"/>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152" s="32"/>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="32"/>
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
@@ -11052,8 +11599,9 @@
       <c r="I153" s="32"/>
       <c r="J153" s="32"/>
       <c r="K153" s="32"/>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153" s="32"/>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="32"/>
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
@@ -11065,8 +11613,9 @@
       <c r="I154" s="32"/>
       <c r="J154" s="32"/>
       <c r="K154" s="32"/>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154" s="32"/>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="32"/>
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
@@ -11078,8 +11627,9 @@
       <c r="I155" s="32"/>
       <c r="J155" s="32"/>
       <c r="K155" s="32"/>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155" s="32"/>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="32"/>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -11091,8 +11641,9 @@
       <c r="I156" s="32"/>
       <c r="J156" s="32"/>
       <c r="K156" s="32"/>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156" s="32"/>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="32"/>
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
@@ -11104,8 +11655,9 @@
       <c r="I157" s="32"/>
       <c r="J157" s="32"/>
       <c r="K157" s="32"/>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157" s="32"/>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="32"/>
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
@@ -11117,8 +11669,9 @@
       <c r="I158" s="32"/>
       <c r="J158" s="32"/>
       <c r="K158" s="32"/>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158" s="32"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="32"/>
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
@@ -11130,8 +11683,9 @@
       <c r="I159" s="32"/>
       <c r="J159" s="32"/>
       <c r="K159" s="32"/>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159" s="32"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="32"/>
       <c r="B160" s="32"/>
       <c r="C160" s="32"/>
@@ -11143,8 +11697,9 @@
       <c r="I160" s="32"/>
       <c r="J160" s="32"/>
       <c r="K160" s="32"/>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160" s="32"/>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="32"/>
       <c r="B161" s="32"/>
       <c r="C161" s="32"/>
@@ -11156,8 +11711,9 @@
       <c r="I161" s="32"/>
       <c r="J161" s="32"/>
       <c r="K161" s="32"/>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161" s="32"/>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="32"/>
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
@@ -11169,8 +11725,9 @@
       <c r="I162" s="32"/>
       <c r="J162" s="32"/>
       <c r="K162" s="32"/>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162" s="32"/>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="32"/>
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
@@ -11182,8 +11739,9 @@
       <c r="I163" s="32"/>
       <c r="J163" s="32"/>
       <c r="K163" s="32"/>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163" s="32"/>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="32"/>
       <c r="B164" s="32"/>
       <c r="C164" s="32"/>
@@ -11195,8 +11753,9 @@
       <c r="I164" s="32"/>
       <c r="J164" s="32"/>
       <c r="K164" s="32"/>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164" s="32"/>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="32"/>
       <c r="B165" s="32"/>
       <c r="C165" s="32"/>
@@ -11208,8 +11767,9 @@
       <c r="I165" s="32"/>
       <c r="J165" s="32"/>
       <c r="K165" s="32"/>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165" s="32"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="32"/>
       <c r="B166" s="32"/>
       <c r="C166" s="32"/>
@@ -11221,8 +11781,9 @@
       <c r="I166" s="32"/>
       <c r="J166" s="32"/>
       <c r="K166" s="32"/>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166" s="32"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="32"/>
       <c r="B167" s="32"/>
       <c r="C167" s="32"/>
@@ -11234,8 +11795,9 @@
       <c r="I167" s="32"/>
       <c r="J167" s="32"/>
       <c r="K167" s="32"/>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167" s="32"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="32"/>
       <c r="B168" s="32"/>
       <c r="C168" s="32"/>
@@ -11247,8 +11809,9 @@
       <c r="I168" s="32"/>
       <c r="J168" s="32"/>
       <c r="K168" s="32"/>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168" s="32"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="32"/>
       <c r="B169" s="32"/>
       <c r="C169" s="32"/>
@@ -11260,8 +11823,9 @@
       <c r="I169" s="32"/>
       <c r="J169" s="32"/>
       <c r="K169" s="32"/>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169" s="32"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="32"/>
       <c r="B170" s="32"/>
       <c r="C170" s="32"/>
@@ -11273,8 +11837,9 @@
       <c r="I170" s="32"/>
       <c r="J170" s="32"/>
       <c r="K170" s="32"/>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170" s="32"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="32"/>
       <c r="B171" s="32"/>
       <c r="C171" s="32"/>
@@ -11286,8 +11851,9 @@
       <c r="I171" s="32"/>
       <c r="J171" s="32"/>
       <c r="K171" s="32"/>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171" s="32"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="32"/>
       <c r="B172" s="32"/>
       <c r="C172" s="32"/>
@@ -11299,8 +11865,9 @@
       <c r="I172" s="32"/>
       <c r="J172" s="32"/>
       <c r="K172" s="32"/>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172" s="32"/>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="32"/>
       <c r="B173" s="32"/>
       <c r="C173" s="32"/>
@@ -11312,8 +11879,9 @@
       <c r="I173" s="32"/>
       <c r="J173" s="32"/>
       <c r="K173" s="32"/>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173" s="32"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="32"/>
       <c r="B174" s="32"/>
       <c r="C174" s="32"/>
@@ -11325,8 +11893,9 @@
       <c r="I174" s="32"/>
       <c r="J174" s="32"/>
       <c r="K174" s="32"/>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174" s="32"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="32"/>
       <c r="B175" s="32"/>
       <c r="C175" s="32"/>
@@ -11338,8 +11907,9 @@
       <c r="I175" s="32"/>
       <c r="J175" s="32"/>
       <c r="K175" s="32"/>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175" s="32"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
       <c r="C176" s="32"/>
@@ -11351,8 +11921,9 @@
       <c r="I176" s="32"/>
       <c r="J176" s="32"/>
       <c r="K176" s="32"/>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176" s="32"/>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="32"/>
       <c r="B177" s="32"/>
       <c r="C177" s="32"/>
@@ -11364,8 +11935,9 @@
       <c r="I177" s="32"/>
       <c r="J177" s="32"/>
       <c r="K177" s="32"/>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177" s="32"/>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
       <c r="C178" s="32"/>
@@ -11377,8 +11949,9 @@
       <c r="I178" s="32"/>
       <c r="J178" s="32"/>
       <c r="K178" s="32"/>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178" s="32"/>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="32"/>
       <c r="B179" s="32"/>
       <c r="C179" s="32"/>
@@ -11390,8 +11963,9 @@
       <c r="I179" s="32"/>
       <c r="J179" s="32"/>
       <c r="K179" s="32"/>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179" s="32"/>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
       <c r="C180" s="32"/>
@@ -11403,8 +11977,9 @@
       <c r="I180" s="32"/>
       <c r="J180" s="32"/>
       <c r="K180" s="32"/>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180" s="32"/>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="32"/>
       <c r="B181" s="32"/>
       <c r="C181" s="32"/>
@@ -11416,8 +11991,9 @@
       <c r="I181" s="32"/>
       <c r="J181" s="32"/>
       <c r="K181" s="32"/>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181" s="32"/>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="32"/>
       <c r="B182" s="32"/>
       <c r="C182" s="32"/>
@@ -11429,8 +12005,9 @@
       <c r="I182" s="32"/>
       <c r="J182" s="32"/>
       <c r="K182" s="32"/>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182" s="32"/>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="32"/>
       <c r="B183" s="32"/>
       <c r="C183" s="32"/>
@@ -11442,8 +12019,9 @@
       <c r="I183" s="32"/>
       <c r="J183" s="32"/>
       <c r="K183" s="32"/>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183" s="32"/>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="32"/>
       <c r="B184" s="32"/>
       <c r="C184" s="32"/>
@@ -11455,8 +12033,9 @@
       <c r="I184" s="32"/>
       <c r="J184" s="32"/>
       <c r="K184" s="32"/>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184" s="32"/>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="32"/>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
@@ -11468,8 +12047,9 @@
       <c r="I185" s="32"/>
       <c r="J185" s="32"/>
       <c r="K185" s="32"/>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185" s="32"/>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="32"/>
       <c r="B186" s="32"/>
       <c r="C186" s="32"/>
@@ -11481,8 +12061,9 @@
       <c r="I186" s="32"/>
       <c r="J186" s="32"/>
       <c r="K186" s="32"/>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186" s="32"/>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="32"/>
       <c r="B187" s="32"/>
       <c r="C187" s="32"/>
@@ -11494,8 +12075,9 @@
       <c r="I187" s="32"/>
       <c r="J187" s="32"/>
       <c r="K187" s="32"/>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187" s="32"/>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="32"/>
       <c r="B188" s="32"/>
       <c r="C188" s="32"/>
@@ -11507,8 +12089,9 @@
       <c r="I188" s="32"/>
       <c r="J188" s="32"/>
       <c r="K188" s="32"/>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188" s="32"/>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="32"/>
       <c r="B189" s="32"/>
       <c r="C189" s="32"/>
@@ -11520,8 +12103,9 @@
       <c r="I189" s="32"/>
       <c r="J189" s="32"/>
       <c r="K189" s="32"/>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189" s="32"/>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="32"/>
       <c r="B190" s="32"/>
       <c r="C190" s="32"/>
@@ -11533,8 +12117,9 @@
       <c r="I190" s="32"/>
       <c r="J190" s="32"/>
       <c r="K190" s="32"/>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190" s="32"/>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="32"/>
       <c r="B191" s="32"/>
       <c r="C191" s="32"/>
@@ -11546,8 +12131,9 @@
       <c r="I191" s="32"/>
       <c r="J191" s="32"/>
       <c r="K191" s="32"/>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191" s="32"/>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="32"/>
       <c r="B192" s="32"/>
       <c r="C192" s="32"/>
@@ -11559,8 +12145,9 @@
       <c r="I192" s="32"/>
       <c r="J192" s="32"/>
       <c r="K192" s="32"/>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192" s="32"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="32"/>
       <c r="B193" s="32"/>
       <c r="C193" s="32"/>
@@ -11572,8 +12159,9 @@
       <c r="I193" s="32"/>
       <c r="J193" s="32"/>
       <c r="K193" s="32"/>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193" s="32"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="32"/>
       <c r="B194" s="32"/>
       <c r="C194" s="32"/>
@@ -11585,8 +12173,9 @@
       <c r="I194" s="32"/>
       <c r="J194" s="32"/>
       <c r="K194" s="32"/>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194" s="32"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="32"/>
       <c r="B195" s="32"/>
       <c r="C195" s="32"/>
@@ -11598,8 +12187,9 @@
       <c r="I195" s="32"/>
       <c r="J195" s="32"/>
       <c r="K195" s="32"/>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195" s="32"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="32"/>
       <c r="B196" s="32"/>
       <c r="C196" s="32"/>
@@ -11611,8 +12201,9 @@
       <c r="I196" s="32"/>
       <c r="J196" s="32"/>
       <c r="K196" s="32"/>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196" s="32"/>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="32"/>
       <c r="B197" s="32"/>
       <c r="C197" s="32"/>
@@ -11624,8 +12215,9 @@
       <c r="I197" s="32"/>
       <c r="J197" s="32"/>
       <c r="K197" s="32"/>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197" s="32"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="32"/>
       <c r="B198" s="32"/>
       <c r="C198" s="32"/>
@@ -11637,8 +12229,9 @@
       <c r="I198" s="32"/>
       <c r="J198" s="32"/>
       <c r="K198" s="32"/>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198" s="32"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="32"/>
       <c r="B199" s="32"/>
       <c r="C199" s="32"/>
@@ -11650,8 +12243,9 @@
       <c r="I199" s="32"/>
       <c r="J199" s="32"/>
       <c r="K199" s="32"/>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199" s="32"/>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="32"/>
       <c r="B200" s="32"/>
       <c r="C200" s="32"/>
@@ -11663,8 +12257,9 @@
       <c r="I200" s="32"/>
       <c r="J200" s="32"/>
       <c r="K200" s="32"/>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200" s="32"/>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="32"/>
       <c r="B201" s="32"/>
       <c r="C201" s="32"/>
@@ -11676,8 +12271,9 @@
       <c r="I201" s="32"/>
       <c r="J201" s="32"/>
       <c r="K201" s="32"/>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201" s="32"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="32"/>
       <c r="B202" s="32"/>
       <c r="C202" s="32"/>
@@ -11689,8 +12285,9 @@
       <c r="I202" s="32"/>
       <c r="J202" s="32"/>
       <c r="K202" s="32"/>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202" s="32"/>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="32"/>
       <c r="B203" s="32"/>
       <c r="C203" s="32"/>
@@ -11702,8 +12299,9 @@
       <c r="I203" s="32"/>
       <c r="J203" s="32"/>
       <c r="K203" s="32"/>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203" s="32"/>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="32"/>
       <c r="B204" s="32"/>
       <c r="C204" s="32"/>
@@ -11715,8 +12313,9 @@
       <c r="I204" s="32"/>
       <c r="J204" s="32"/>
       <c r="K204" s="32"/>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204" s="32"/>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="32"/>
       <c r="B205" s="32"/>
       <c r="C205" s="32"/>
@@ -11728,8 +12327,9 @@
       <c r="I205" s="32"/>
       <c r="J205" s="32"/>
       <c r="K205" s="32"/>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205" s="32"/>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="32"/>
       <c r="B206" s="32"/>
       <c r="C206" s="32"/>
@@ -11741,8 +12341,9 @@
       <c r="I206" s="32"/>
       <c r="J206" s="32"/>
       <c r="K206" s="32"/>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206" s="32"/>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="32"/>
       <c r="B207" s="32"/>
       <c r="C207" s="32"/>
@@ -11754,8 +12355,9 @@
       <c r="I207" s="32"/>
       <c r="J207" s="32"/>
       <c r="K207" s="32"/>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207" s="32"/>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="32"/>
       <c r="B208" s="32"/>
       <c r="C208" s="32"/>
@@ -11767,8 +12369,9 @@
       <c r="I208" s="32"/>
       <c r="J208" s="32"/>
       <c r="K208" s="32"/>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208" s="32"/>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="32"/>
       <c r="B209" s="32"/>
       <c r="C209" s="32"/>
@@ -11780,8 +12383,9 @@
       <c r="I209" s="32"/>
       <c r="J209" s="32"/>
       <c r="K209" s="32"/>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209" s="32"/>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="32"/>
       <c r="B210" s="32"/>
       <c r="C210" s="32"/>
@@ -11793,8 +12397,9 @@
       <c r="I210" s="32"/>
       <c r="J210" s="32"/>
       <c r="K210" s="32"/>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210" s="32"/>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="32"/>
       <c r="B211" s="32"/>
       <c r="C211" s="32"/>
@@ -11806,8 +12411,9 @@
       <c r="I211" s="32"/>
       <c r="J211" s="32"/>
       <c r="K211" s="32"/>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211" s="32"/>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="32"/>
       <c r="B212" s="32"/>
       <c r="C212" s="32"/>
@@ -11819,8 +12425,9 @@
       <c r="I212" s="32"/>
       <c r="J212" s="32"/>
       <c r="K212" s="32"/>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212" s="32"/>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="32"/>
       <c r="B213" s="32"/>
       <c r="C213" s="32"/>
@@ -11832,8 +12439,9 @@
       <c r="I213" s="32"/>
       <c r="J213" s="32"/>
       <c r="K213" s="32"/>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213" s="32"/>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="32"/>
       <c r="B214" s="32"/>
       <c r="C214" s="32"/>
@@ -11845,8 +12453,9 @@
       <c r="I214" s="32"/>
       <c r="J214" s="32"/>
       <c r="K214" s="32"/>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214" s="32"/>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="32"/>
       <c r="B215" s="32"/>
       <c r="C215" s="32"/>
@@ -11858,8 +12467,9 @@
       <c r="I215" s="32"/>
       <c r="J215" s="32"/>
       <c r="K215" s="32"/>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215" s="32"/>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="32"/>
       <c r="B216" s="32"/>
       <c r="C216" s="32"/>
@@ -11871,36 +12481,48 @@
       <c r="I216" s="32"/>
       <c r="J216" s="32"/>
       <c r="K216" s="32"/>
-    </row>
-    <row r="217" spans="1:11">
-      <c r="A217" s="32"/>
-      <c r="B217" s="32"/>
-      <c r="C217" s="32"/>
-      <c r="D217" s="32"/>
-      <c r="E217" s="32"/>
-      <c r="F217" s="32"/>
-      <c r="G217" s="32"/>
-      <c r="H217" s="32"/>
-      <c r="I217" s="32"/>
-      <c r="J217" s="32"/>
-      <c r="K217" s="32"/>
+      <c r="L216" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K18" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
-  <conditionalFormatting sqref="A3:K217">
-    <cfRule type="expression" dxfId="2" priority="6">
+  <conditionalFormatting sqref="A3:L216">
+    <cfRule type="expression" dxfId="7" priority="16">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
-    <cfRule type="expression" priority="8">
+    <cfRule type="expression" priority="18">
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:K18">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="G20:L37 G3:K19">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>G3=""</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>G3="X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L19">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>L3=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>L3="X"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISEVEN(ROW())</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>ISODD(ROW())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>L19=""</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>G3="X"</formula>
+      <formula>L19="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -11921,6 +12543,9 @@
     <hyperlink ref="E16" location="'Niveau de prise en charge'!A1" display="Lien nomenclature" xr:uid="{2154EBB7-71EE-44B5-BBEE-716579483CDC}"/>
     <hyperlink ref="E17" location="'Type de devenir du patient'!A1" display="Lien nomenclature" xr:uid="{0E2A9314-0B8D-4156-A7C3-BC0E2885D9D2}"/>
     <hyperlink ref="E18" location="'Effet à obtenir'!A1" display="Lien nomenclature" xr:uid="{F32B9CB2-26FC-4D51-B612-B9EB269DC3B1}"/>
+    <hyperlink ref="E20" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{9DFDDF82-C842-46CA-9B9A-3545027D4646}"/>
+    <hyperlink ref="E20" location="'Status du vecteur'!A1" display="Lien nomenclature" xr:uid="{CBB6C543-B740-4053-95FD-E8C10E8B561C}"/>
+    <hyperlink ref="E19" location="'Cadre conventionnel'!A1" display="Lien nomenclature" xr:uid="{018B40BB-963F-4A1C-AF4F-5EA9FD5F329B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12995,7 +13620,7 @@
         <v>1579</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -13414,8 +14039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13434,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>1</v>
+        <v>1311</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -13495,8 +14120,8 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>2008</v>
+      <c r="B8" s="58" t="s">
+        <v>2005</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -13522,912 +14147,912 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>1769</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="57" t="s">
         <v>1769</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="57" t="s">
         <v>1729</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57" t="s">
         <v>1655</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="57" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="57" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="57" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="56" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56" t="s">
+      <c r="B14" s="57" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="57" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="57" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="57" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="57" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="57" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="57" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="57" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="57" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="57" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="56" t="s">
-        <v>1730</v>
-      </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="56" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="57" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="57" t="s">
         <v>2002</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="56" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="56" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="56" t="s">
-        <v>1731</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="56" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="56" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="56" t="s">
-        <v>1732</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="56" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="56" t="s">
+      <c r="B25" s="57" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C25" s="57" t="s">
         <v>2003</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="57" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="57" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B27" s="57" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="57" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="57" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="57" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="57" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="57" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="57" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="57" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="57" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="57" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="57" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="57" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="57" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57" t="s">
         <v>2004</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="56" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="56" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>2006</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="56" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="56" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>1770</v>
-      </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="56" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="56" t="s">
-        <v>1734</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="56" t="s">
-        <v>1735</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="56" t="s">
-        <v>1736</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="56" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>1584</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="56" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="56" t="s">
-        <v>1738</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="56" t="s">
-        <v>1739</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="56" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="56" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="56" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="56" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56" t="s">
-        <v>2007</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56" t="s">
-        <v>1999</v>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="57" t="s">
         <v>1588</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="57" t="s">
         <v>1588</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="57" t="s">
         <v>1683</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57" t="s">
         <v>1682</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56" t="s">
-        <v>1999</v>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="57" t="s">
         <v>1685</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57" t="s">
         <v>1684</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56" t="s">
-        <v>1999</v>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="57" t="s">
         <v>1744</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57" t="s">
         <v>1686</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56" t="s">
-        <v>1999</v>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="57" t="s">
         <v>1745</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57" t="s">
         <v>1687</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56" t="s">
-        <v>1999</v>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="57" t="s">
         <v>1746</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56" t="s">
+      <c r="B45" s="57"/>
+      <c r="C45" s="57" t="s">
         <v>1688</v>
       </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56" t="s">
-        <v>1999</v>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="57" t="s">
         <v>1747</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="57" t="s">
         <v>1689</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56" t="s">
-        <v>1999</v>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="57" t="s">
         <v>1748</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="57" t="s">
         <v>1690</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56" t="s">
-        <v>1999</v>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="57" t="s">
         <v>1749</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56" t="s">
+      <c r="B48" s="57"/>
+      <c r="C48" s="57" t="s">
         <v>1691</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56" t="s">
-        <v>1999</v>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="57" t="s">
         <v>1750</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57" t="s">
         <v>1692</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56" t="s">
-        <v>1999</v>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="57" t="s">
         <v>1751</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="57" t="s">
         <v>1693</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56" t="s">
-        <v>1999</v>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="56" t="s">
+      <c r="A51" s="57" t="s">
         <v>1752</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56" t="s">
+      <c r="B51" s="57"/>
+      <c r="C51" s="57" t="s">
         <v>1694</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56" t="s">
-        <v>1999</v>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="57" t="s">
         <v>1753</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56" t="s">
+      <c r="B52" s="57"/>
+      <c r="C52" s="57" t="s">
         <v>1695</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56" t="s">
-        <v>1999</v>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="57" t="s">
         <v>1754</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56" t="s">
+      <c r="B53" s="57"/>
+      <c r="C53" s="57" t="s">
         <v>1696</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56" t="s">
-        <v>1999</v>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="57" t="s">
         <v>1742</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56" t="s">
+      <c r="B54" s="57"/>
+      <c r="C54" s="57" t="s">
         <v>1680</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56" t="s">
-        <v>2000</v>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="57" t="s">
         <v>1743</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56" t="s">
+      <c r="B55" s="57"/>
+      <c r="C55" s="57" t="s">
         <v>1681</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56" t="s">
-        <v>2000</v>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="57" t="s">
         <v>1755</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56" t="s">
+      <c r="B56" s="57"/>
+      <c r="C56" s="57" t="s">
         <v>1697</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56" t="s">
-        <v>2001</v>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57" t="s">
+        <v>1998</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>1756</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56" t="s">
+      <c r="B57" s="57"/>
+      <c r="C57" s="57" t="s">
         <v>1698</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56" t="s">
-        <v>2001</v>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57" t="s">
+        <v>1998</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="57" t="s">
         <v>1728</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56" t="s">
+      <c r="B58" s="57"/>
+      <c r="C58" s="57" t="s">
         <v>1727</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56" t="s">
-        <v>2001</v>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57" t="s">
+        <v>1998</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="57" t="s">
         <v>1580</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="57" t="s">
         <v>1580</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="57" t="s">
         <v>1700</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56" t="s">
+      <c r="B60" s="57"/>
+      <c r="C60" s="57" t="s">
         <v>1699</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56" t="s">
-        <v>1999</v>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="57" t="s">
         <v>1759</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56" t="s">
+      <c r="B61" s="57"/>
+      <c r="C61" s="57" t="s">
         <v>1705</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56" t="s">
-        <v>1999</v>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="57" t="s">
         <v>1714</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56" t="s">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57" t="s">
         <v>1713</v>
       </c>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56" t="s">
-        <v>1999</v>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="57" t="s">
         <v>1716</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56" t="s">
+      <c r="B63" s="57"/>
+      <c r="C63" s="57" t="s">
         <v>1715</v>
       </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56" t="s">
-        <v>1999</v>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="57" t="s">
         <v>1718</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56" t="s">
+      <c r="B64" s="57"/>
+      <c r="C64" s="57" t="s">
         <v>1717</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56" t="s">
-        <v>1999</v>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="56" t="s">
+      <c r="A65" s="57" t="s">
         <v>1763</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56" t="s">
+      <c r="B65" s="57"/>
+      <c r="C65" s="57" t="s">
         <v>1719</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56" t="s">
-        <v>1999</v>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="57" t="s">
         <v>1764</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56" t="s">
+      <c r="B66" s="57"/>
+      <c r="C66" s="57" t="s">
         <v>1720</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56" t="s">
-        <v>1999</v>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="57" t="s">
         <v>1702</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56" t="s">
+      <c r="B67" s="57"/>
+      <c r="C67" s="57" t="s">
         <v>1701</v>
       </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56" t="s">
-        <v>2000</v>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="57" t="s">
         <v>1757</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56" t="s">
+      <c r="B68" s="57"/>
+      <c r="C68" s="57" t="s">
         <v>1703</v>
       </c>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56" t="s">
-        <v>2000</v>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="57" t="s">
         <v>1758</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56" t="s">
+      <c r="B69" s="57"/>
+      <c r="C69" s="57" t="s">
         <v>1704</v>
       </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56" t="s">
-        <v>2000</v>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="57" t="s">
         <v>1707</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56" t="s">
+      <c r="B70" s="57"/>
+      <c r="C70" s="57" t="s">
         <v>1706</v>
       </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56" t="s">
-        <v>2000</v>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="57" t="s">
         <v>1760</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56" t="s">
+      <c r="B71" s="57"/>
+      <c r="C71" s="57" t="s">
         <v>1708</v>
       </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56" t="s">
-        <v>2000</v>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="56" t="s">
+      <c r="A72" s="57" t="s">
         <v>1761</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56" t="s">
+      <c r="B72" s="57"/>
+      <c r="C72" s="57" t="s">
         <v>1709</v>
       </c>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56" t="s">
-        <v>2000</v>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="57" t="s">
         <v>1762</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56" t="s">
+      <c r="B73" s="57"/>
+      <c r="C73" s="57" t="s">
         <v>1710</v>
       </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56" t="s">
-        <v>2000</v>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="56" t="s">
+      <c r="A74" s="57" t="s">
         <v>1712</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56" t="s">
+      <c r="B74" s="57"/>
+      <c r="C74" s="57" t="s">
         <v>1711</v>
       </c>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56" t="s">
-        <v>2000</v>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="57" t="s">
         <v>1771</v>
       </c>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="57" t="s">
         <v>1771</v>
       </c>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="57" t="s">
         <v>1726</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56" t="s">
+      <c r="B76" s="57"/>
+      <c r="C76" s="57" t="s">
         <v>1725</v>
       </c>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56" t="s">
-        <v>1999</v>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="57" t="s">
         <v>1765</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56" t="s">
+      <c r="B77" s="57"/>
+      <c r="C77" s="57" t="s">
         <v>1721</v>
       </c>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56" t="s">
-        <v>2000</v>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="56" t="s">
+      <c r="A78" s="57" t="s">
         <v>1766</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56" t="s">
+      <c r="B78" s="57"/>
+      <c r="C78" s="57" t="s">
         <v>1722</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56" t="s">
-        <v>2000</v>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="57" t="s">
         <v>1767</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56" t="s">
+      <c r="B79" s="57"/>
+      <c r="C79" s="57" t="s">
         <v>1723</v>
       </c>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56" t="s">
-        <v>2000</v>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="57" t="s">
         <v>1768</v>
       </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56" t="s">
+      <c r="B80" s="57"/>
+      <c r="C80" s="57" t="s">
         <v>1724</v>
       </c>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56" t="s">
-        <v>2000</v>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57" t="s">
+        <v>1997</v>
       </c>
     </row>
   </sheetData>
@@ -15375,9 +16000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3700FB-CD0A-4D38-965B-161A1B9D93F3}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -15402,7 +16025,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -15469,40 +16092,40 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="48" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="54" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="49" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="54" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="54" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -15511,11 +16134,11 @@
         <v>1580</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="54" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -15524,11 +16147,11 @@
         <v>1444</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="54" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -15537,89 +16160,89 @@
         <v>1573</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="54" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="50" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="54" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="51" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="54" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="52" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="54" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="50" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="54" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="50" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="54" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="50" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="54" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -15872,998 +16495,688 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1CA169-4FB0-43D8-9F60-FA4DC3576143}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9BEB10-AB8F-4AD3-8FC8-79C80461B406}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="56" customFormat="1">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" s="56" customFormat="1">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1840</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="60" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" s="56" customFormat="1">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:6" s="56" customFormat="1">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:6" s="56" customFormat="1">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:6" s="56" customFormat="1">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:6" s="56" customFormat="1">
+      <c r="A7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="63" t="s">
         <v>1081</v>
       </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" s="56" customFormat="1">
+      <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:6" s="56" customFormat="1">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="36" customFormat="1">
-      <c r="A10" s="21" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="21" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="36" customFormat="1">
-      <c r="A11" s="21" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1853</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="21" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="36" customFormat="1">
-      <c r="A12" s="21" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1854</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="21" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="36" customFormat="1">
-      <c r="A13" s="21" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1855</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="21" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="36" customFormat="1">
-      <c r="A14" s="21" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="21" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="36" customFormat="1">
-      <c r="A15" s="21" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="21" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="36" customFormat="1">
-      <c r="A16" s="21" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="21" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="36" customFormat="1">
-      <c r="A17" s="21" t="s">
-        <v>1849</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="21" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="36" customFormat="1">
-      <c r="A18" s="21" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1859</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="21" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="36" customFormat="1">
-      <c r="A19" s="21" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1852</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="21" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="43"/>
-    </row>
-    <row r="22" spans="1:5" s="46" customFormat="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="68" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="68" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="68" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="68" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="68" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="68" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="68" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="68" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="68" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="68" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F19" s="68" t="s">
+        <v>2088</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F9426-BF9A-4F69-8DB7-E6D9FAB47FDC}">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730C132-AF0D-4124-AB29-0565D21E3ED1}">
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" style="56" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="60" t="s">
         <v>1311</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="60" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="63" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="21" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="21" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>1821</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="21" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="21" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>1823</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="21" t="s">
-        <v>1870</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="21" t="s">
-        <v>1824</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="21" t="s">
-        <v>1871</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="21" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="21" t="s">
-        <v>1873</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="21" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>1828</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="21" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="21" t="s">
-        <v>1829</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1885</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="21" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="21" t="s">
-        <v>1830</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="21" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="21" t="s">
-        <v>1832</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1833</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="21" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" s="46" customFormat="1">
-      <c r="A22" s="44" t="s">
-        <v>1834</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="44" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="66" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="E10" s="67" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="50" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="50" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="50" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C13"/>
+      <c r="E13" s="56" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="66" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>2027</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="50" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C15"/>
+      <c r="E15" s="56" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="66" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="F16" s="56" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="66" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="E17" s="56" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="66" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="66" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="66" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="66" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="50" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C22"/>
+      <c r="E22" s="56" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="50" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C23"/>
+      <c r="E23" s="56" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="50" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C24"/>
+      <c r="E24" s="56" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="66" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>2059</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="66" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64"/>
+      <c r="F64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -20712,6 +21025,1002 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1CA169-4FB0-43D8-9F60-FA4DC3576143}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="36" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="21" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="36" customFormat="1">
+      <c r="A11" s="21" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="21" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="36" customFormat="1">
+      <c r="A12" s="21" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="21" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="36" customFormat="1">
+      <c r="A13" s="21" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="21" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="36" customFormat="1">
+      <c r="A14" s="21" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="21" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="36" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="21" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="36" customFormat="1">
+      <c r="A16" s="21" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="21" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="36" customFormat="1">
+      <c r="A17" s="21" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="21" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="36" customFormat="1">
+      <c r="A18" s="21" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="21" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="36" customFormat="1">
+      <c r="A19" s="21" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="21" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" s="46" customFormat="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F9426-BF9A-4F69-8DB7-E6D9FAB47FDC}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="21" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="21" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="21" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="21" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="21" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="21" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="21" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="21" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="21" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="21" t="s">
+        <v>1868</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="21" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="21" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="21" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="21" t="s">
+        <v>1870</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="21" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="21" t="s">
+        <v>1871</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="21" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="21" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="21" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="21" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="21" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="21" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="21" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="21" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" s="46" customFormat="1">
+      <c r="A22" s="44" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="44" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E537A6-C63B-444A-987C-2E8C3CA81E02}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -20873,7 +22182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0545B1B-517B-4CE5-AAD0-165B9A1E1BDF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -21058,7 +22367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA591B4A-9FC5-C747-8937-BC88FF6AE57D}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -21080,22 +22389,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D1" t="s">
         <v>1902</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1903</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1904</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1906</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1907</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -21103,19 +22412,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C2" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D2" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="E2" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="F2" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -21123,19 +22432,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E3" t="s">
         <v>1911</v>
       </c>
-      <c r="C3" t="s">
-        <v>1912</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1914</v>
-      </c>
       <c r="F3" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -21143,16 +22452,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D4" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="E4" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="F4" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -21160,16 +22469,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D5" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="E5" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="F5" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21177,19 +22486,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E6" t="s">
         <v>1921</v>
       </c>
-      <c r="C6" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1923</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1924</v>
-      </c>
       <c r="F6" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21197,19 +22506,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E7" t="s">
         <v>1925</v>
       </c>
-      <c r="C7" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1927</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1928</v>
-      </c>
       <c r="F7" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -21217,16 +22526,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D8" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="E8" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="F8" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21234,16 +22543,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D9" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="E9" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="F9" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21251,19 +22560,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C10" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="D10" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="E10" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="F10" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21271,16 +22580,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="D11" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="E11" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="F11" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21288,16 +22597,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="D12" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="E12" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="F12" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -21305,16 +22614,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="D13" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="E13" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="F13" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21322,16 +22631,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="D14" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="E14" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F14" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21339,19 +22648,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E15" t="s">
         <v>1948</v>
       </c>
-      <c r="C15" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1951</v>
-      </c>
       <c r="F15" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21359,16 +22668,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="D16" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="E16" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="F16" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -21376,16 +22685,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="D17" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="E17" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="F17" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -21393,16 +22702,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D18" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E18" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="F18" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -21410,19 +22719,19 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="C19" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D19" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E19" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="F19" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -21430,16 +22739,16 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D20" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="E20" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="F20" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21447,16 +22756,16 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D21" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="E21" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="F21" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21464,16 +22773,16 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="D22" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="E22" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="F22" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21481,16 +22790,16 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D23" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="E23" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="F23" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21498,16 +22807,16 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D24" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="E24" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="F24" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21515,16 +22824,16 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="D25" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="E25" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="F25" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21532,16 +22841,16 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D26" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="E26" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="F26" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21549,16 +22858,16 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F27" t="s">
         <v>1981</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1982</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1983</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21566,16 +22875,16 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D28" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="E28" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="F28" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21583,16 +22892,16 @@
         <v>218</v>
       </c>
       <c r="C29" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F29" t="s">
         <v>1988</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1991</v>
       </c>
     </row>
   </sheetData>

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E3AE2A9-48E6-4275-8143-3511AF03FE6C}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB02A10-B2DF-4A05-9415-EC4F0022A4C9}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="0" windowWidth="25635" windowHeight="14460" tabRatio="877" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3930" yWindow="345" windowWidth="23385" windowHeight="13110" tabRatio="877" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Type de devenir du patient" sheetId="35" r:id="rId16"/>
     <sheet name="Effet à obtenir" sheetId="10" r:id="rId17"/>
     <sheet name="Cadre conventionnel" sheetId="43" r:id="rId18"/>
-    <sheet name="Status du vecteur" sheetId="42" r:id="rId19"/>
+    <sheet name="Statut du vecteur" sheetId="42" r:id="rId19"/>
     <sheet name="#Delai d'intervention demande" sheetId="40" r:id="rId20"/>
     <sheet name="#Delai de réponse" sheetId="39" r:id="rId21"/>
     <sheet name="#Nombre de patients-victimes" sheetId="2" r:id="rId22"/>
@@ -6313,9 +6313,6 @@
     <t>RS-RR</t>
   </si>
   <si>
-    <t>Status du vecteur</t>
-  </si>
-  <si>
     <t>DECISION</t>
   </si>
   <si>
@@ -6569,6 +6566,9 @@
   </si>
   <si>
     <t>Ressource engagée / resourcesStatus</t>
+  </si>
+  <si>
+    <t>Statut du vecteur</t>
   </si>
 </sst>
 </file>
@@ -6903,7 +6903,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7038,7 +7038,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -7046,28 +7045,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <fill>
         <patternFill>
@@ -7093,6 +7071,13 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8690,154 +8675,154 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8BF6ADF-B677-473E-8ABE-51264084FE99}" name="Table13" displayName="Table13" ref="A9:D14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A9:D14" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{98FD5D52-1BC0-4054-8358-F924F6A4BAB5}" name="Code" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{09CB4271-3531-437E-96F1-FF338E0F430E}" name="Libellé niveau 1" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2E9B13FA-3333-42A6-BF3A-F3B7AD42D98A}" name="Description" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{EBA22499-7DD5-405F-82CA-7058FFC1AB2F}" name="Commentaire" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}" name="Table1345" displayName="Table1345" ref="A9:D27" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A9:D27" xr:uid="{9BBAEC71-98FF-4AB8-B5E1-1CE8C8584409}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{CC3785D5-DB9A-4D60-862F-F8E090985E56}" name="Code" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0E29D007-DD2B-4361-B0B6-3124B15DD8DA}" name="Libellé niveau 1" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2F058103-5AD9-4F2B-A662-54DD0A6EEAE9}" name="Description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E9F88BD4-157D-4840-B9EE-0122B96E7D08}" name="Commentaire" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="66"/>
+    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
     <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1"/>
     <tableColumn id="5" xr3:uid="{A8693491-C517-461F-B62C-F068AE507B25}" name="Libellé niveau 2"/>
-    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}" name="Table13611" displayName="Table13611" ref="A9:E55" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{FE27AEC6-A24C-4178-99A7-1B2812152DC5}" name="Code" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EB0C358C-6506-4607-BF79-8A517F8D75A1}" name="Libellé niveau 1" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{6068A160-E74F-4F9B-B66D-B8B2A21807F0}" name="Libellé niveau 2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{F5E953CB-171A-4B76-B54B-CA690E7F0F8D}" name="Description" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7CB61F33-9B59-4443-8AA1-CF748FC4482A}" name="Commentaire" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9108,8 +9093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
   <dimension ref="A1:L216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -9684,7 +9669,7 @@
         <v>1803</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Cadre conventionnel'!$B$1</f>
@@ -9709,17 +9694,17 @@
     </row>
     <row r="20" spans="1:12" ht="15">
       <c r="A20" s="32" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>2095</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>2010</v>
-      </c>
       <c r="C20" s="31" t="str">
-        <f>'Status du vecteur'!$B$1</f>
+        <f>'Statut du vecteur'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D20" s="31" t="str">
-        <f>'Status du vecteur'!$B$2</f>
+        <f>'Statut du vecteur'!$B$2</f>
         <v>STATUS_VECTEUR</v>
       </c>
       <c r="E20" s="33" t="s">
@@ -12485,36 +12470,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:K18" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}"/>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>ISEVEN(ROW())</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4">
+      <formula>ISODD(ROW())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A3:L216">
-    <cfRule type="expression" dxfId="7" priority="16">
+    <cfRule type="expression" dxfId="4" priority="16">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
     <cfRule type="expression" priority="18">
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:L37 G3:K19">
-    <cfRule type="expression" dxfId="6" priority="11">
+  <conditionalFormatting sqref="G3:L37">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>G3=""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>G3="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L19">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>L3=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>L3="X"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4">
-      <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
@@ -13589,9 +13566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9407A0FF-6A83-4239-B794-9A5636395AD1}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -16526,7 +16501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -16602,113 +16577,113 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68" t="s">
+      <c r="A10" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B10" t="s">
         <v>2065</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="F10" t="s">
         <v>2066</v>
       </c>
-      <c r="F10" s="68" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="68" t="s">
+      <c r="B11" t="s">
         <v>2068</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="F11" t="s">
         <v>2069</v>
       </c>
-      <c r="F11" s="68" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="68" t="s">
+      <c r="B12" t="s">
         <v>2071</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="F12" t="s">
         <v>2072</v>
       </c>
-      <c r="F12" s="68" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="68" t="s">
+      <c r="B13" t="s">
         <v>2074</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="F13" t="s">
         <v>2075</v>
       </c>
-      <c r="F13" s="68" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="68" t="s">
+      <c r="B14" t="s">
         <v>2077</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="F14" t="s">
         <v>2078</v>
       </c>
-      <c r="F14" s="68" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="68" t="s">
+      <c r="B15" t="s">
         <v>2080</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="F15" t="s">
         <v>2081</v>
       </c>
-      <c r="F15" s="68" t="s">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
+      <c r="B16" t="s">
         <v>2083</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="F16" t="s">
         <v>2084</v>
       </c>
-      <c r="F16" s="68" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="68" t="s">
+      <c r="B17" t="s">
         <v>2086</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="F17" t="s">
         <v>2087</v>
       </c>
-      <c r="F17" s="68" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="68" t="s">
+      <c r="B18" t="s">
         <v>2089</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="F18" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>2090</v>
       </c>
-      <c r="F18" s="68" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="68" t="s">
+      <c r="B19" t="s">
         <v>2091</v>
       </c>
-      <c r="B19" s="68" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>2088</v>
+      <c r="F19" t="s">
+        <v>2087</v>
       </c>
     </row>
   </sheetData>
@@ -16720,7 +16695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730C132-AF0D-4124-AB29-0565D21E3ED1}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -16748,7 +16725,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -16825,92 +16802,92 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="66" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>2011</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>2012</v>
       </c>
       <c r="C10" s="67"/>
       <c r="E10" s="67" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F10" s="56" t="s">
         <v>2013</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>2014</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="50" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>2015</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="E11" s="56" t="s">
         <v>2016</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="50" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>2018</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="E12" s="56" t="s">
         <v>2019</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="F12" s="56" t="s">
         <v>2020</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="50" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>2022</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>2023</v>
       </c>
       <c r="C13"/>
       <c r="E13" s="56" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F13" s="56" t="s">
         <v>2024</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>2025</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="66" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>2026</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="E14" s="56" t="s">
         <v>2027</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>2028</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="50" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>2029</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>2030</v>
       </c>
       <c r="C15"/>
       <c r="E15" s="56" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="66" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B16" s="56" t="s">
         <v>2032</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>2033</v>
       </c>
       <c r="C16" s="54"/>
       <c r="F16" s="56" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -16918,113 +16895,113 @@
         <v>1624</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C17" s="67"/>
       <c r="E17" s="56" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F17" s="56" t="s">
         <v>2036</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>2037</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="66" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>2038</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="66" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C19" s="54" t="s">
         <v>2040</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="66" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C20" s="54" t="s">
         <v>2042</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="66" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C21" s="54" t="s">
         <v>2044</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>2045</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="50" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>2046</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>2047</v>
       </c>
       <c r="C22"/>
       <c r="E22" s="56" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F22" s="56" t="s">
         <v>2048</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="50" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>2050</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>2051</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="56" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F23" s="56" t="s">
         <v>2052</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="50" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>2054</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>2055</v>
       </c>
       <c r="C24"/>
       <c r="E24" s="56" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>2056</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>2057</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="66" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>2058</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="E25" s="56" t="s">
         <v>2059</v>
-      </c>
-      <c r="E25" s="56" t="s">
-        <v>2060</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="66" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B26" s="56" t="s">
         <v>2061</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="E26" s="56" t="s">
         <v>2062</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>2063</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -29042,6 +29019,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -29093,15 +29079,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059494DF-AC78-4572-AFB9-E7754F64CB4B}">
   <ds:schemaRefs>
@@ -29123,27 +29100,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB02A10-B2DF-4A05-9415-EC4F0022A4C9}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3930" yWindow="345" windowWidth="23385" windowHeight="13110" tabRatio="877" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="877" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -7040,8 +7040,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
+    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
@@ -7049,14 +7049,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9097,16 +9097,16 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
-    <col min="7" max="12" width="12.7109375" style="28" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="28"/>
+    <col min="4" max="4" width="37.1640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="28" customWidth="1"/>
+    <col min="7" max="12" width="12.6640625" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9114,7 +9114,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:12" s="30" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="30" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>1801</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12">
       <c r="A3" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9184,7 +9184,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12">
       <c r="A4" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12">
       <c r="A5" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9248,7 +9248,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:12" ht="15">
+    <row r="6" spans="1:12">
       <c r="A6" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12">
       <c r="A7" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12">
       <c r="A8" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9340,7 +9340,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12">
       <c r="A9" s="31" t="s">
         <v>1779</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:12" ht="15">
+    <row r="10" spans="1:12">
       <c r="A10" s="31" t="s">
         <v>1779</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12">
       <c r="A11" s="32" t="s">
         <v>1795</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12">
       <c r="A12" s="32" t="s">
         <v>1795</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:12">
       <c r="A13" s="31" t="s">
         <v>1796</v>
       </c>
@@ -9498,7 +9498,7 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="1:12" ht="15">
+    <row r="14" spans="1:12">
       <c r="A14" s="31" t="s">
         <v>1802</v>
       </c>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="1:12" ht="15">
+    <row r="15" spans="1:12">
       <c r="A15" s="32" t="s">
         <v>1802</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12">
       <c r="A16" s="31" t="s">
         <v>1802</v>
       </c>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12" ht="15">
+    <row r="17" spans="1:12">
       <c r="A17" s="31" t="s">
         <v>1796</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12" ht="15">
+    <row r="18" spans="1:12">
       <c r="A18" s="32" t="s">
         <v>1803</v>
       </c>
@@ -9664,7 +9664,7 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12" ht="15">
+    <row r="19" spans="1:12">
       <c r="A19" s="32" t="s">
         <v>1803</v>
       </c>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12" ht="15">
+    <row r="20" spans="1:12">
       <c r="A20" s="32" t="s">
         <v>2094</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15">
+    <row r="21" spans="1:12">
       <c r="A21" s="32"/>
       <c r="B21" s="35"/>
       <c r="C21" s="32"/>
@@ -9738,7 +9738,7 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:12" ht="15">
+    <row r="22" spans="1:12">
       <c r="A22" s="32"/>
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
@@ -9752,7 +9752,7 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:12" ht="15">
+    <row r="23" spans="1:12">
       <c r="A23" s="32"/>
       <c r="B23" s="35"/>
       <c r="C23" s="32"/>
@@ -9766,7 +9766,7 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="24" spans="1:12" ht="15">
+    <row r="24" spans="1:12">
       <c r="A24" s="32"/>
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
@@ -9780,7 +9780,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:12" ht="15">
+    <row r="25" spans="1:12">
       <c r="A25" s="32"/>
       <c r="B25" s="35"/>
       <c r="C25" s="32"/>
@@ -12479,11 +12479,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L216">
+    <cfRule type="expression" priority="18">
+      <formula>ISODD(ROW())</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="4" priority="16">
       <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18">
-      <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:L37">
@@ -12495,11 +12495,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>L19="X"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>L19=""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>L19="X"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -12536,13 +12536,13 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12696,14 +12696,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13125,14 +13125,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13568,13 +13568,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14018,15 +14018,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="27.7109375" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="21.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1">
@@ -14091,7 +14091,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" customFormat="1" ht="36.75">
+    <row r="8" spans="1:6" customFormat="1" ht="40">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -15043,13 +15043,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15465,13 +15465,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15977,13 +15977,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16065,7 +16065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="48" t="s">
         <v>1888</v>
       </c>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="50" t="s">
         <v>1890</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="50" t="s">
         <v>1580</v>
       </c>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="50" t="s">
         <v>1444</v>
       </c>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="50" t="s">
         <v>1573</v>
       </c>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="50" t="s">
         <v>1891</v>
       </c>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="51" t="s">
         <v>1892</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="52" t="s">
         <v>1893</v>
       </c>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="50" t="s">
         <v>1894</v>
       </c>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="50" t="s">
         <v>1895</v>
       </c>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="50" t="s">
         <v>1896</v>
       </c>
@@ -16479,11 +16479,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="95.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="56" customFormat="1">
@@ -16695,19 +16695,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730C132-AF0D-4124-AB29-0565D21E3ED1}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="56" customWidth="1"/>
-    <col min="5" max="5" width="88.7109375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="56" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="21.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="56" customWidth="1"/>
+    <col min="5" max="5" width="88.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16800,7 +16800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="66" t="s">
         <v>2010</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="50" t="s">
         <v>2014</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="50" t="s">
         <v>2017</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="50" t="s">
         <v>2021</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="66" t="s">
         <v>2025</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="50" t="s">
         <v>2028</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="66" t="s">
         <v>2031</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="66" t="s">
         <v>1624</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="66" t="s">
         <v>2037</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="66" t="s">
         <v>2039</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="66" t="s">
         <v>2041</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="66" t="s">
         <v>2043</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="50" t="s">
         <v>2045</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="50" t="s">
         <v>2049</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="50" t="s">
         <v>2053</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="16">
       <c r="A25" s="66" t="s">
         <v>2057</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="66" t="s">
         <v>2060</v>
       </c>
@@ -17165,14 +17165,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" customWidth="1"/>
+    <col min="5" max="5" width="47.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17255,7 +17255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="64.5">
+    <row r="10" spans="1:6" ht="60">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -17281,7 +17281,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="26.25">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="26.25">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6" ht="26.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="26.25">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -17350,7 +17350,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6" ht="26.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -17376,7 +17376,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="26.25">
+    <row r="19" spans="1:6" ht="30">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -17417,7 +17417,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="39">
+    <row r="22" spans="1:6" ht="30">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="39">
+    <row r="23" spans="1:6" ht="30">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -17455,7 +17455,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25">
+    <row r="25" spans="1:6" ht="30">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25">
+    <row r="26" spans="1:6" ht="30">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25">
+    <row r="27" spans="1:6" ht="30">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -17533,7 +17533,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="51.75">
+    <row r="31" spans="1:6" ht="60">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="26.25">
+    <row r="32" spans="1:6" ht="30">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="26.25">
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -17612,7 +17612,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="102.75">
+    <row r="37" spans="1:6" ht="120">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="26.25">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="39">
+    <row r="39" spans="1:6" ht="30">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -17665,7 +17665,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="39">
+    <row r="41" spans="1:6" ht="30">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="26.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="39">
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -17717,7 +17717,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="39">
+    <row r="45" spans="1:6" ht="45">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -17816,7 +17816,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6" ht="26.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="64.5">
+    <row r="54" spans="1:6" ht="60">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -18201,7 +18201,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="39">
+    <row r="85" spans="1:6" ht="45">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -18227,7 +18227,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="128.25">
+    <row r="87" spans="1:6" ht="135">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -18253,7 +18253,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="51.75">
+    <row r="89" spans="1:6" ht="60">
       <c r="A89" s="2" t="s">
         <v>212</v>
       </c>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" ht="26.25">
+    <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -18306,7 +18306,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="26.25">
+    <row r="93" spans="1:6" ht="30">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -18477,7 +18477,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="26.25">
+    <row r="107" spans="1:6" ht="30">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6" ht="26.25">
+    <row r="108" spans="1:6">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -18615,7 +18615,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="26.25">
+    <row r="118" spans="1:6" ht="30">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="26.25">
+    <row r="119" spans="1:6">
       <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="39">
+    <row r="120" spans="1:6" ht="45">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -18680,7 +18680,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="39">
+    <row r="123" spans="1:6" ht="45">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -18741,7 +18741,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="39">
+    <row r="128" spans="1:6" ht="45">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -18875,7 +18875,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="26.25">
+    <row r="139" spans="1:6" ht="30">
       <c r="A139" s="2" t="s">
         <v>336</v>
       </c>
@@ -18900,7 +18900,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="26.25">
+    <row r="141" spans="1:6" ht="30">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="26.25">
+    <row r="142" spans="1:6" ht="30">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -18928,7 +18928,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6" ht="26.25">
+    <row r="143" spans="1:6">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="26.25">
+    <row r="144" spans="1:6" ht="30">
       <c r="A144" s="2" t="s">
         <v>344</v>
       </c>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6" ht="26.25">
+    <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="39">
+    <row r="147" spans="1:6" ht="30">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -18999,7 +18999,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="39">
+    <row r="148" spans="1:6" ht="30">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -19013,7 +19013,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="26.25">
+    <row r="149" spans="1:6" ht="30">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -19026,7 +19026,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="26.25">
+    <row r="150" spans="1:6" ht="30">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="26.25">
+    <row r="151" spans="1:6" ht="30">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -19172,7 +19172,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="39">
+    <row r="162" spans="1:6" ht="30">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -19186,7 +19186,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="39">
+    <row r="163" spans="1:6" ht="45">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="39">
+    <row r="164" spans="1:6" ht="45">
       <c r="A164" s="2" t="s">
         <v>379</v>
       </c>
@@ -19251,7 +19251,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="26.25">
+    <row r="168" spans="1:6" ht="30">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -19468,7 +19468,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="26.25">
+    <row r="186" spans="1:6" ht="30">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -19604,7 +19604,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6" ht="26.25">
+    <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -19704,7 +19704,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="26.25">
+    <row r="205" spans="1:6" ht="30">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="26.25">
+    <row r="207" spans="1:6" ht="30">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -19828,7 +19828,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="26.25">
+    <row r="215" spans="1:6" ht="30">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -20649,7 +20649,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="26.25">
+    <row r="283" spans="1:6" ht="30">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -20663,7 +20663,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="26.25">
+    <row r="284" spans="1:6" ht="30">
       <c r="A284" s="2" t="s">
         <v>641</v>
       </c>
@@ -21012,13 +21012,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="80.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21501,13 +21501,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22008,12 +22008,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22170,12 +22170,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22359,9 +22359,9 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22894,14 +22894,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25609,16 +25609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25629,7 +25629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.75">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -25717,7 +25717,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="26.25">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -25727,7 +25727,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="39">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="26.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -25747,7 +25747,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="26.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -25757,7 +25757,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="26.25">
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -25769,7 +25769,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="39">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="39">
+    <row r="18" spans="1:4" ht="30">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -25791,7 +25791,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="39">
+    <row r="19" spans="1:4" ht="45">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -25801,7 +25801,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="26.25">
+    <row r="20" spans="1:4" ht="30">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -25811,7 +25811,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="26.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -25821,7 +25821,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="26.25">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -25851,7 +25851,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="26.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -25881,7 +25881,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="26.25">
+    <row r="28" spans="1:4" ht="30">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -25893,7 +25893,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="26.25">
+    <row r="29" spans="1:4" ht="30">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -25905,7 +25905,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="26.25">
+    <row r="30" spans="1:4" ht="30">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -25927,7 +25927,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="26.25">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="39">
+    <row r="33" spans="1:4" ht="30">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="26.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -25963,7 +25963,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="128.25">
+    <row r="35" spans="1:4" ht="135">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -25975,7 +25975,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="128.25">
+    <row r="36" spans="1:4" ht="135">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -26059,7 +26059,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="26.25">
+    <row r="44" spans="1:4" ht="30">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -26071,7 +26071,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="26.25">
+    <row r="45" spans="1:4" ht="30">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -26081,7 +26081,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="77.25">
+    <row r="46" spans="1:4" ht="75">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -26110,13 +26110,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" customWidth="1"/>
-    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" ht="26.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -26255,7 +26255,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="26.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -26292,7 +26292,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="48.75">
+    <row r="18" spans="1:5" ht="40">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="64.5">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -26454,7 +26454,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="26.25">
+    <row r="32" spans="1:5" ht="30">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -26467,7 +26467,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="26.25">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -26554,7 +26554,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="51.75">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -26591,7 +26591,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="26.25">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -26604,7 +26604,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="39">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -26663,7 +26663,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="26.25">
+    <row r="49" spans="1:5" ht="30">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -26698,7 +26698,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="26.25">
+    <row r="52" spans="1:5" ht="30">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -26792,7 +26792,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="39">
+    <row r="60" spans="1:5" ht="45">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -26834,14 +26834,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.7109375" customWidth="1"/>
-    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.6640625" customWidth="1"/>
+    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -27455,14 +27455,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -27890,13 +27890,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27982,7 +27982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
+    <row r="10" spans="1:5" ht="32">
       <c r="A10" s="18" t="s">
         <v>1314</v>
       </c>
@@ -27995,7 +27995,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="45">
+    <row r="11" spans="1:5" ht="32">
       <c r="A11" s="18" t="s">
         <v>1317</v>
       </c>
@@ -28008,7 +28008,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="18" t="s">
         <v>1320</v>
       </c>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="32">
       <c r="A13" s="18" t="s">
         <v>1323</v>
       </c>
@@ -28034,7 +28034,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="30">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="18" t="s">
         <v>1326</v>
       </c>
@@ -28047,7 +28047,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="45">
+    <row r="15" spans="1:5" ht="32">
       <c r="A15" s="18" t="s">
         <v>1329</v>
       </c>
@@ -28060,7 +28060,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="32">
       <c r="A16" s="18" t="s">
         <v>1332</v>
       </c>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="32">
       <c r="A17" s="18" t="s">
         <v>1335</v>
       </c>
@@ -28086,7 +28086,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="45">
+    <row r="18" spans="1:5" ht="48">
       <c r="A18" s="18" t="s">
         <v>1338</v>
       </c>
@@ -28099,7 +28099,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="48">
       <c r="A19" s="18" t="s">
         <v>1341</v>
       </c>
@@ -28112,7 +28112,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="45">
+    <row r="20" spans="1:5" ht="32">
       <c r="A20" s="18" t="s">
         <v>1344</v>
       </c>
@@ -28125,7 +28125,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="30">
+    <row r="21" spans="1:5" ht="32">
       <c r="A21" s="18" t="s">
         <v>1347</v>
       </c>
@@ -28138,7 +28138,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="30">
+    <row r="22" spans="1:5" ht="32">
       <c r="A22" s="18" t="s">
         <v>1350</v>
       </c>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="30">
+    <row r="23" spans="1:5" ht="32">
       <c r="A23" s="18" t="s">
         <v>1353</v>
       </c>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="32">
       <c r="A24" s="18" t="s">
         <v>1356</v>
       </c>
@@ -28177,7 +28177,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="30">
+    <row r="25" spans="1:5" ht="32">
       <c r="A25" s="18" t="s">
         <v>1359</v>
       </c>
@@ -28190,7 +28190,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="30">
+    <row r="26" spans="1:5" ht="32">
       <c r="A26" s="18" t="s">
         <v>1362</v>
       </c>
@@ -28203,7 +28203,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="18" t="s">
         <v>1365</v>
       </c>
@@ -28216,7 +28216,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="30">
+    <row r="28" spans="1:5" ht="32">
       <c r="A28" s="18" t="s">
         <v>1367</v>
       </c>
@@ -28229,7 +28229,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="18" t="s">
         <v>1370</v>
       </c>
@@ -28242,7 +28242,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="18" t="s">
         <v>1373</v>
       </c>
@@ -28270,13 +28270,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.33203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -28373,7 +28373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="18" t="s">
         <v>1378</v>
       </c>
@@ -28387,7 +28387,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="48">
       <c r="A11" s="18" t="s">
         <v>1381</v>
       </c>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="32">
       <c r="A12" s="18" t="s">
         <v>1384</v>
       </c>
@@ -28415,7 +28415,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="32">
       <c r="A13" s="18" t="s">
         <v>1387</v>
       </c>
@@ -28429,7 +28429,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="45">
+    <row r="14" spans="1:6" ht="32">
       <c r="A14" s="18" t="s">
         <v>1390</v>
       </c>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="32">
       <c r="A15" s="18" t="s">
         <v>1393</v>
       </c>
@@ -28457,7 +28457,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="30">
+    <row r="16" spans="1:6" ht="32">
       <c r="A16" s="18" t="s">
         <v>1396</v>
       </c>
@@ -28471,7 +28471,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6" ht="48">
       <c r="A17" s="18" t="s">
         <v>1370</v>
       </c>
@@ -28485,7 +28485,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="32">
       <c r="A18" s="18" t="s">
         <v>1401</v>
       </c>
@@ -29019,15 +29019,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -29079,6 +29070,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059494DF-AC78-4572-AFB9-E7754F64CB4B}">
   <ds:schemaRefs>
@@ -29100,27 +29100,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -28605,8 +28605,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="a24e46c8e369b0d0dbf292fc067594e6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b005a03a4b86eaa0f9218a8d7ff13ee" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5a233c5be867259e7f523794110a7773">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71fc54e2a62b1985aea6da9d2195ce0c" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -28669,12 +28669,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -28787,7 +28787,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -28806,7 +28806,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -28879,7 +28879,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -28928,8 +28928,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -29080,23 +29080,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{059494DF-AC78-4572-AFB9-E7754F64CB4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ECB47E9-2B60-4219-92DB-621EC7B64685}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB02A10-B2DF-4A05-9415-EC4F0022A4C9}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35A5D8E9-2519-457B-9EB1-2338627C3F4B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" tabRatio="877" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="877" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -6373,9 +6373,6 @@
     <t>Annulation  de l’intervention</t>
   </si>
   <si>
-    <t>La ressource engagée a été annulée : heure d'annulation de la ressource</t>
-  </si>
-  <si>
     <t>BILAN</t>
   </si>
   <si>
@@ -6569,6 +6566,9 @@
   </si>
   <si>
     <t>Statut du vecteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ressource engagée a été annulée </t>
   </si>
 </sst>
 </file>
@@ -7040,8 +7040,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="60% - Accent5" xfId="1" builtinId="48"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
@@ -7049,14 +7049,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9097,16 +9097,16 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" style="28" customWidth="1"/>
-    <col min="7" max="12" width="12.6640625" style="28" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="28"/>
+    <col min="4" max="4" width="37.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" style="28" customWidth="1"/>
+    <col min="7" max="12" width="12.7109375" style="28" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9114,7 +9114,7 @@
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:12" s="30" customFormat="1">
+    <row r="2" spans="1:12" s="30" customFormat="1" ht="15">
       <c r="A2" s="29" t="s">
         <v>1801</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9184,7 +9184,7 @@
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9216,7 +9216,7 @@
       <c r="K4" s="34"/>
       <c r="L4" s="34"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9248,7 +9248,7 @@
       <c r="K5" s="34"/>
       <c r="L5" s="34"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="K6" s="34"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="34"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="31" t="s">
         <v>1776</v>
       </c>
@@ -9340,7 +9340,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="34"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="31" t="s">
         <v>1779</v>
       </c>
@@ -9372,7 +9372,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="31" t="s">
         <v>1779</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="32" t="s">
         <v>1795</v>
       </c>
@@ -9436,7 +9436,7 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="32" t="s">
         <v>1795</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="31" t="s">
         <v>1796</v>
       </c>
@@ -9498,7 +9498,7 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="31" t="s">
         <v>1802</v>
       </c>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="32" t="s">
         <v>1802</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="31" t="s">
         <v>1802</v>
       </c>
@@ -9602,7 +9602,7 @@
       </c>
       <c r="L16" s="34"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="31" t="s">
         <v>1796</v>
       </c>
@@ -9634,7 +9634,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="32" t="s">
         <v>1803</v>
       </c>
@@ -9664,12 +9664,12 @@
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="32" t="s">
         <v>1803</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C19" s="31" t="str">
         <f>'Cadre conventionnel'!$B$1</f>
@@ -9692,12 +9692,12 @@
       </c>
       <c r="L19" s="34"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="32" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>2094</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>2095</v>
       </c>
       <c r="C20" s="31" t="str">
         <f>'Statut du vecteur'!$B$1</f>
@@ -9724,7 +9724,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="32"/>
       <c r="B21" s="35"/>
       <c r="C21" s="32"/>
@@ -9738,7 +9738,7 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="32"/>
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
@@ -9752,7 +9752,7 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="32"/>
       <c r="B23" s="35"/>
       <c r="C23" s="32"/>
@@ -9766,7 +9766,7 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" ht="15">
       <c r="A24" s="32"/>
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
@@ -9780,7 +9780,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" ht="15">
       <c r="A25" s="32"/>
       <c r="B25" s="35"/>
       <c r="C25" s="32"/>
@@ -12479,11 +12479,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:L216">
+    <cfRule type="expression" dxfId="4" priority="16">
+      <formula>ISEVEN(ROW())</formula>
+    </cfRule>
     <cfRule type="expression" priority="18">
       <formula>ISODD(ROW())</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="16">
-      <formula>ISEVEN(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:L37">
@@ -12495,11 +12495,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>L19=""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>L19="X"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>L19=""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -12536,13 +12536,13 @@
       <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12696,14 +12696,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13125,14 +13125,14 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -13568,13 +13568,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -14014,19 +14014,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" style="36" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="36"/>
+    <col min="1" max="1" width="21.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="36" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1">
@@ -14091,7 +14091,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:6" customFormat="1" ht="40">
+    <row r="8" spans="1:6" customFormat="1" ht="36.75">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -15040,16 +15040,16 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15465,13 +15465,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -15977,13 +15977,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -16065,7 +16065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
+    <row r="10" spans="1:5">
       <c r="A10" s="48" t="s">
         <v>1888</v>
       </c>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
         <v>1890</v>
       </c>
@@ -16104,7 +16104,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="16">
+    <row r="13" spans="1:5">
       <c r="A13" s="50" t="s">
         <v>1580</v>
       </c>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:5">
       <c r="A14" s="50" t="s">
         <v>1444</v>
       </c>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="16">
+    <row r="15" spans="1:5">
       <c r="A15" s="50" t="s">
         <v>1573</v>
       </c>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="16">
+    <row r="16" spans="1:5">
       <c r="A16" s="50" t="s">
         <v>1891</v>
       </c>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="16">
+    <row r="17" spans="1:5">
       <c r="A17" s="51" t="s">
         <v>1892</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row r="18" spans="1:5">
       <c r="A18" s="52" t="s">
         <v>1893</v>
       </c>
@@ -16182,7 +16182,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row r="19" spans="1:5">
       <c r="A19" s="50" t="s">
         <v>1894</v>
       </c>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="16">
+    <row r="20" spans="1:5">
       <c r="A20" s="50" t="s">
         <v>1895</v>
       </c>
@@ -16208,7 +16208,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="16">
+    <row r="21" spans="1:5">
       <c r="A21" s="50" t="s">
         <v>1896</v>
       </c>
@@ -16479,11 +16479,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="95.5" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="95.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="56" customFormat="1">
@@ -16501,7 +16501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -16578,112 +16578,112 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B10" t="s">
         <v>2064</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>2065</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2066</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B11" t="s">
         <v>2067</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>2068</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2069</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B12" t="s">
         <v>2070</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>2071</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2072</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B13" t="s">
         <v>2073</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
         <v>2074</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B14" t="s">
         <v>2076</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>2077</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B15" t="s">
         <v>2079</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>2080</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B16" t="s">
         <v>2082</v>
       </c>
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>2083</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B17" t="s">
         <v>2085</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>2086</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2087</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B18" t="s">
         <v>2088</v>
       </c>
-      <c r="B18" t="s">
-        <v>2089</v>
-      </c>
       <c r="F18" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B19" t="s">
         <v>2090</v>
       </c>
-      <c r="B19" t="s">
-        <v>2091</v>
-      </c>
       <c r="F19" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
   </sheetData>
@@ -16696,18 +16696,18 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="56" customWidth="1"/>
-    <col min="5" max="5" width="88.6640625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="56" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="56"/>
+    <col min="1" max="1" width="21.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="88.7109375" style="56" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -16725,7 +16725,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -16800,7 +16800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6">
       <c r="A10" s="66" t="s">
         <v>2010</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
+    <row r="11" spans="1:6">
       <c r="A11" s="50" t="s">
         <v>2014</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6">
       <c r="A12" s="50" t="s">
         <v>2017</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6">
       <c r="A13" s="50" t="s">
         <v>2021</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6">
       <c r="A14" s="66" t="s">
         <v>2025</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6">
       <c r="A15" s="50" t="s">
         <v>2028</v>
       </c>
@@ -16875,133 +16875,133 @@
       </c>
       <c r="C15"/>
       <c r="E15" s="56" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="66" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="66" t="s">
+      <c r="B16" s="56" t="s">
         <v>2031</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>2032</v>
       </c>
       <c r="C16" s="54"/>
       <c r="F16" s="56" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="66" t="s">
         <v>1624</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C17" s="67"/>
       <c r="E17" s="56" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F17" s="56" t="s">
         <v>2035</v>
       </c>
-      <c r="F17" s="56" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="66" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16">
-      <c r="A18" s="66" t="s">
+      <c r="C18" s="54" t="s">
         <v>2037</v>
       </c>
-      <c r="C18" s="54" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="66" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="66" t="s">
+      <c r="C19" s="54" t="s">
         <v>2039</v>
       </c>
-      <c r="C19" s="54" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="66" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="66" t="s">
+      <c r="C20" s="54" t="s">
         <v>2041</v>
       </c>
-      <c r="C20" s="54" t="s">
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="66" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16">
-      <c r="A21" s="66" t="s">
+      <c r="C21" s="54" t="s">
         <v>2043</v>
       </c>
-      <c r="C21" s="54" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="50" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16">
-      <c r="A22" s="50" t="s">
+      <c r="B22" s="39" t="s">
         <v>2045</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>2046</v>
       </c>
       <c r="C22"/>
       <c r="E22" s="56" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F22" s="56" t="s">
         <v>2047</v>
       </c>
-      <c r="F22" s="56" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="50" t="s">
         <v>2048</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16">
-      <c r="A23" s="50" t="s">
+      <c r="B23" s="39" t="s">
         <v>2049</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>2050</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="56" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F23" s="56" t="s">
         <v>2051</v>
       </c>
-      <c r="F23" s="56" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="50" t="s">
         <v>2052</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16">
-      <c r="A24" s="50" t="s">
+      <c r="B24" s="39" t="s">
         <v>2053</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>2054</v>
       </c>
       <c r="C24"/>
       <c r="E24" s="56" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F24" s="56" t="s">
         <v>2055</v>
       </c>
-      <c r="F24" s="56" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="66" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="66" t="s">
+      <c r="C25" s="39" t="s">
         <v>2057</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="E25" s="56" t="s">
         <v>2058</v>
       </c>
-      <c r="E25" s="56" t="s">
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="66" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16">
-      <c r="A26" s="66" t="s">
+      <c r="B26" s="56" t="s">
         <v>2060</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="E26" s="56" t="s">
         <v>2061</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>2062</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -17165,14 +17165,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17255,7 +17255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="60">
+    <row r="10" spans="1:6" ht="64.5">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -17281,7 +17281,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -17309,7 +17309,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -17322,7 +17322,7 @@
       </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -17350,7 +17350,7 @@
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="26.25">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -17376,7 +17376,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="26.25">
       <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>60</v>
       </c>
@@ -17417,7 +17417,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6" ht="39">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="30">
+    <row r="23" spans="1:6" ht="39">
       <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
@@ -17455,7 +17455,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6" ht="30">
+    <row r="25" spans="1:6" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="26.25">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="30">
+    <row r="27" spans="1:6" ht="26.25">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -17497,7 +17497,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -17533,7 +17533,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" ht="60">
+    <row r="31" spans="1:6" ht="51.75">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -17547,7 +17547,7 @@
       </c>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" ht="30">
+    <row r="35" spans="1:6" ht="26.25">
       <c r="A35" s="2" t="s">
         <v>100</v>
       </c>
@@ -17612,7 +17612,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" ht="120">
+    <row r="37" spans="1:6" ht="102.75">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
@@ -17626,7 +17626,7 @@
       </c>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="26.25">
       <c r="A38" s="2" t="s">
         <v>108</v>
       </c>
@@ -17640,7 +17640,7 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" ht="30">
+    <row r="39" spans="1:6" ht="39">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
@@ -17665,7 +17665,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="39">
       <c r="A41" s="2" t="s">
         <v>116</v>
       </c>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="26.25">
       <c r="A42" s="2" t="s">
         <v>119</v>
       </c>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" ht="30">
+    <row r="43" spans="1:6" ht="39">
       <c r="A43" s="2" t="s">
         <v>122</v>
       </c>
@@ -17717,7 +17717,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" ht="45">
+    <row r="45" spans="1:6" ht="39">
       <c r="A45" s="2" t="s">
         <v>127</v>
       </c>
@@ -17816,7 +17816,7 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" ht="26.25">
       <c r="A53" s="2" t="s">
         <v>145</v>
       </c>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" ht="60">
+    <row r="54" spans="1:6" ht="64.5">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -18201,7 +18201,7 @@
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
-    <row r="85" spans="1:6" ht="45">
+    <row r="85" spans="1:6" ht="39">
       <c r="A85" s="2" t="s">
         <v>214</v>
       </c>
@@ -18227,7 +18227,7 @@
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
     </row>
-    <row r="87" spans="1:6" ht="135">
+    <row r="87" spans="1:6" ht="128.25">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -18253,7 +18253,7 @@
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
     </row>
-    <row r="89" spans="1:6" ht="60">
+    <row r="89" spans="1:6" ht="51.75">
       <c r="A89" s="2" t="s">
         <v>212</v>
       </c>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="26.25">
       <c r="A90" s="2" t="s">
         <v>214</v>
       </c>
@@ -18306,7 +18306,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="30">
+    <row r="93" spans="1:6" ht="26.25">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -18477,7 +18477,7 @@
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
     </row>
-    <row r="107" spans="1:6" ht="30">
+    <row r="107" spans="1:6" ht="26.25">
       <c r="A107" s="2" t="s">
         <v>261</v>
       </c>
@@ -18491,7 +18491,7 @@
       </c>
       <c r="F107" s="12"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="26.25">
       <c r="A108" s="2" t="s">
         <v>264</v>
       </c>
@@ -18615,7 +18615,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" ht="30">
+    <row r="118" spans="1:6" ht="26.25">
       <c r="A118" s="2" t="s">
         <v>287</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="26.25">
       <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="45">
+    <row r="120" spans="1:6" ht="39">
       <c r="A120" s="2" t="s">
         <v>293</v>
       </c>
@@ -18680,7 +18680,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6" ht="45">
+    <row r="123" spans="1:6" ht="39">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -18741,7 +18741,7 @@
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
     </row>
-    <row r="128" spans="1:6" ht="45">
+    <row r="128" spans="1:6" ht="39">
       <c r="A128" s="2" t="s">
         <v>311</v>
       </c>
@@ -18875,7 +18875,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6" ht="30">
+    <row r="139" spans="1:6" ht="26.25">
       <c r="A139" s="2" t="s">
         <v>336</v>
       </c>
@@ -18900,7 +18900,7 @@
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
     </row>
-    <row r="141" spans="1:6" ht="30">
+    <row r="141" spans="1:6" ht="26.25">
       <c r="A141" s="2" t="s">
         <v>341</v>
       </c>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6" ht="30">
+    <row r="142" spans="1:6" ht="26.25">
       <c r="A142" s="2" t="s">
         <v>342</v>
       </c>
@@ -18928,7 +18928,7 @@
       </c>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="26.25">
       <c r="A143" s="2" t="s">
         <v>343</v>
       </c>
@@ -18942,7 +18942,7 @@
       </c>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6" ht="30">
+    <row r="144" spans="1:6" ht="26.25">
       <c r="A144" s="2" t="s">
         <v>344</v>
       </c>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="26.25">
       <c r="A146" s="2" t="s">
         <v>347</v>
       </c>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6" ht="30">
+    <row r="147" spans="1:6" ht="39">
       <c r="A147" s="2" t="s">
         <v>348</v>
       </c>
@@ -18999,7 +18999,7 @@
       </c>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6" ht="30">
+    <row r="148" spans="1:6" ht="39">
       <c r="A148" s="2" t="s">
         <v>349</v>
       </c>
@@ -19013,7 +19013,7 @@
       </c>
       <c r="F148" s="12"/>
     </row>
-    <row r="149" spans="1:6" ht="30">
+    <row r="149" spans="1:6" ht="26.25">
       <c r="A149" s="2" t="s">
         <v>350</v>
       </c>
@@ -19026,7 +19026,7 @@
       </c>
       <c r="F149" s="12"/>
     </row>
-    <row r="150" spans="1:6" ht="30">
+    <row r="150" spans="1:6" ht="26.25">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -19040,7 +19040,7 @@
       </c>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6" ht="30">
+    <row r="151" spans="1:6" ht="26.25">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -19172,7 +19172,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="30">
+    <row r="162" spans="1:6" ht="39">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -19186,7 +19186,7 @@
       </c>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="45">
+    <row r="163" spans="1:6" ht="39">
       <c r="A163" s="2" t="s">
         <v>376</v>
       </c>
@@ -19200,7 +19200,7 @@
       </c>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6" ht="45">
+    <row r="164" spans="1:6" ht="39">
       <c r="A164" s="2" t="s">
         <v>379</v>
       </c>
@@ -19251,7 +19251,7 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
     </row>
-    <row r="168" spans="1:6" ht="30">
+    <row r="168" spans="1:6" ht="26.25">
       <c r="A168" s="2" t="s">
         <v>389</v>
       </c>
@@ -19468,7 +19468,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
     </row>
-    <row r="186" spans="1:6" ht="30">
+    <row r="186" spans="1:6" ht="26.25">
       <c r="A186" s="2" t="s">
         <v>426</v>
       </c>
@@ -19604,7 +19604,7 @@
       </c>
       <c r="F196" s="12"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" ht="26.25">
       <c r="A197" s="2" t="s">
         <v>451</v>
       </c>
@@ -19704,7 +19704,7 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
     </row>
-    <row r="205" spans="1:6" ht="30">
+    <row r="205" spans="1:6" ht="26.25">
       <c r="A205" s="2" t="s">
         <v>470</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
     </row>
-    <row r="207" spans="1:6" ht="30">
+    <row r="207" spans="1:6" ht="26.25">
       <c r="A207" s="2" t="s">
         <v>475</v>
       </c>
@@ -19828,7 +19828,7 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
     </row>
-    <row r="215" spans="1:6" ht="30">
+    <row r="215" spans="1:6" ht="26.25">
       <c r="A215" s="2" t="s">
         <v>493</v>
       </c>
@@ -20649,7 +20649,7 @@
       <c r="E282" s="12"/>
       <c r="F282" s="12"/>
     </row>
-    <row r="283" spans="1:6" ht="30">
+    <row r="283" spans="1:6" ht="26.25">
       <c r="A283" s="2" t="s">
         <v>638</v>
       </c>
@@ -20663,7 +20663,7 @@
       </c>
       <c r="F283" s="12"/>
     </row>
-    <row r="284" spans="1:6" ht="30">
+    <row r="284" spans="1:6" ht="26.25">
       <c r="A284" s="2" t="s">
         <v>641</v>
       </c>
@@ -21012,13 +21012,13 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="80.5" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="80.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -21501,13 +21501,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="56.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -22008,12 +22008,12 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22170,12 +22170,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -22359,9 +22359,9 @@
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22894,14 +22894,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -25609,16 +25609,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25629,7 +25629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="24.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="39">
       <c r="A10" s="2" t="s">
         <v>1082</v>
       </c>
@@ -25717,7 +25717,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4" ht="26.25">
       <c r="A12" s="2" t="s">
         <v>1087</v>
       </c>
@@ -25727,7 +25727,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="39">
       <c r="A13" s="2" t="s">
         <v>1089</v>
       </c>
@@ -25737,7 +25737,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="26.25">
       <c r="A14" s="2" t="s">
         <v>1091</v>
       </c>
@@ -25747,7 +25747,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1093</v>
       </c>
@@ -25757,7 +25757,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1095</v>
       </c>
@@ -25769,7 +25769,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="45">
+    <row r="17" spans="1:4" ht="39">
       <c r="A17" s="2" t="s">
         <v>1098</v>
       </c>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="30">
+    <row r="18" spans="1:4" ht="39">
       <c r="A18" s="2" t="s">
         <v>1101</v>
       </c>
@@ -25791,7 +25791,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="45">
+    <row r="19" spans="1:4" ht="39">
       <c r="A19" s="2" t="s">
         <v>1103</v>
       </c>
@@ -25801,7 +25801,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:4" ht="26.25">
       <c r="A20" s="2" t="s">
         <v>1105</v>
       </c>
@@ -25811,7 +25811,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="26.25">
       <c r="A21" s="2" t="s">
         <v>1107</v>
       </c>
@@ -25821,7 +25821,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="26.25">
       <c r="A22" s="2" t="s">
         <v>1109</v>
       </c>
@@ -25851,7 +25851,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="26.25">
       <c r="A25" s="2" t="s">
         <v>1115</v>
       </c>
@@ -25881,7 +25881,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="30">
+    <row r="28" spans="1:4" ht="26.25">
       <c r="A28" s="2" t="s">
         <v>1120</v>
       </c>
@@ -25893,7 +25893,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="30">
+    <row r="29" spans="1:4" ht="26.25">
       <c r="A29" s="2" t="s">
         <v>1123</v>
       </c>
@@ -25905,7 +25905,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="30">
+    <row r="30" spans="1:4" ht="26.25">
       <c r="A30" s="2" t="s">
         <v>1126</v>
       </c>
@@ -25927,7 +25927,7 @@
       <c r="C31" s="12"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1131</v>
       </c>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="39">
       <c r="A33" s="2" t="s">
         <v>1134</v>
       </c>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="26.25">
       <c r="A34" s="2" t="s">
         <v>1137</v>
       </c>
@@ -25963,7 +25963,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="135">
+    <row r="35" spans="1:4" ht="128.25">
       <c r="A35" s="2" t="s">
         <v>1140</v>
       </c>
@@ -25975,7 +25975,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="135">
+    <row r="36" spans="1:4" ht="128.25">
       <c r="A36" s="2" t="s">
         <v>1143</v>
       </c>
@@ -26059,7 +26059,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="30">
+    <row r="44" spans="1:4" ht="26.25">
       <c r="A44" s="2" t="s">
         <v>1160</v>
       </c>
@@ -26071,7 +26071,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="30">
+    <row r="45" spans="1:4" ht="26.25">
       <c r="A45" s="2" t="s">
         <v>1163</v>
       </c>
@@ -26081,7 +26081,7 @@
       <c r="C45" s="12"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="75">
+    <row r="46" spans="1:4" ht="77.25">
       <c r="A46" s="2" t="s">
         <v>1165</v>
       </c>
@@ -26110,13 +26110,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26231,7 +26231,7 @@
       </c>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="26.25">
       <c r="A13" s="2" t="s">
         <v>1177</v>
       </c>
@@ -26255,7 +26255,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="30">
+    <row r="15" spans="1:5" ht="26.25">
       <c r="A15" s="2" t="s">
         <v>1182</v>
       </c>
@@ -26268,7 +26268,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5" ht="26.25">
       <c r="A16" s="2" t="s">
         <v>1185</v>
       </c>
@@ -26292,7 +26292,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" ht="40">
+    <row r="18" spans="1:5" ht="48.75">
       <c r="A18" s="2" t="s">
         <v>1190</v>
       </c>
@@ -26305,7 +26305,7 @@
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" ht="60">
+    <row r="19" spans="1:5" ht="64.5">
       <c r="A19" s="2" t="s">
         <v>1193</v>
       </c>
@@ -26454,7 +26454,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="30">
+    <row r="32" spans="1:5" ht="26.25">
       <c r="A32" s="2" t="s">
         <v>1222</v>
       </c>
@@ -26467,7 +26467,7 @@
       </c>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" ht="30">
+    <row r="33" spans="1:5" ht="26.25">
       <c r="A33" s="2" t="s">
         <v>1225</v>
       </c>
@@ -26554,7 +26554,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="51.75">
       <c r="A40" s="2" t="s">
         <v>1244</v>
       </c>
@@ -26591,7 +26591,7 @@
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" ht="30">
+    <row r="43" spans="1:5" ht="26.25">
       <c r="A43" s="2" t="s">
         <v>1252</v>
       </c>
@@ -26604,7 +26604,7 @@
       </c>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" ht="30">
+    <row r="44" spans="1:5" ht="39">
       <c r="A44" s="2" t="s">
         <v>1253</v>
       </c>
@@ -26663,7 +26663,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5" ht="30">
+    <row r="49" spans="1:5" ht="26.25">
       <c r="A49" s="2" t="s">
         <v>1265</v>
       </c>
@@ -26698,7 +26698,7 @@
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:5" ht="30">
+    <row r="52" spans="1:5" ht="26.25">
       <c r="A52" s="2" t="s">
         <v>1272</v>
       </c>
@@ -26792,7 +26792,7 @@
       </c>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="1:5" ht="45">
+    <row r="60" spans="1:5" ht="39">
       <c r="A60" s="2" t="s">
         <v>1291</v>
       </c>
@@ -26834,14 +26834,14 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="91.6640625" customWidth="1"/>
-    <col min="5" max="5" width="170.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.7109375" customWidth="1"/>
+    <col min="5" max="5" width="170.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -27455,14 +27455,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -27890,13 +27890,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="86.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="86.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27982,7 +27982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="18" t="s">
         <v>1314</v>
       </c>
@@ -27995,7 +27995,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="32">
+    <row r="11" spans="1:5" ht="45">
       <c r="A11" s="18" t="s">
         <v>1317</v>
       </c>
@@ -28008,7 +28008,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5" ht="30">
       <c r="A12" s="18" t="s">
         <v>1320</v>
       </c>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="32">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="18" t="s">
         <v>1323</v>
       </c>
@@ -28034,7 +28034,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="18" t="s">
         <v>1326</v>
       </c>
@@ -28047,7 +28047,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="32">
+    <row r="15" spans="1:5" ht="45">
       <c r="A15" s="18" t="s">
         <v>1329</v>
       </c>
@@ -28060,7 +28060,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="32">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="18" t="s">
         <v>1332</v>
       </c>
@@ -28073,7 +28073,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="32">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="18" t="s">
         <v>1335</v>
       </c>
@@ -28086,7 +28086,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="48">
+    <row r="18" spans="1:5" ht="45">
       <c r="A18" s="18" t="s">
         <v>1338</v>
       </c>
@@ -28099,7 +28099,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="48">
+    <row r="19" spans="1:5" ht="60">
       <c r="A19" s="18" t="s">
         <v>1341</v>
       </c>
@@ -28112,7 +28112,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="32">
+    <row r="20" spans="1:5" ht="45">
       <c r="A20" s="18" t="s">
         <v>1344</v>
       </c>
@@ -28125,7 +28125,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="32">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="18" t="s">
         <v>1347</v>
       </c>
@@ -28138,7 +28138,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="32">
+    <row r="22" spans="1:5" ht="30">
       <c r="A22" s="18" t="s">
         <v>1350</v>
       </c>
@@ -28151,7 +28151,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="32">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="18" t="s">
         <v>1353</v>
       </c>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="32">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="18" t="s">
         <v>1356</v>
       </c>
@@ -28177,7 +28177,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="32">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="18" t="s">
         <v>1359</v>
       </c>
@@ -28190,7 +28190,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="32">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="18" t="s">
         <v>1362</v>
       </c>
@@ -28203,7 +28203,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row r="27" spans="1:5">
       <c r="A27" s="18" t="s">
         <v>1365</v>
       </c>
@@ -28216,7 +28216,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="32">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="18" t="s">
         <v>1367</v>
       </c>
@@ -28229,7 +28229,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:5">
       <c r="A29" s="18" t="s">
         <v>1370</v>
       </c>
@@ -28242,7 +28242,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row r="30" spans="1:5">
       <c r="A30" s="18" t="s">
         <v>1373</v>
       </c>
@@ -28270,13 +28270,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -28373,7 +28373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="18" t="s">
         <v>1378</v>
       </c>
@@ -28387,7 +28387,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="48">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="18" t="s">
         <v>1381</v>
       </c>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="32">
+    <row r="12" spans="1:6" ht="45">
       <c r="A12" s="18" t="s">
         <v>1384</v>
       </c>
@@ -28415,7 +28415,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="32">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="18" t="s">
         <v>1387</v>
       </c>
@@ -28429,7 +28429,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="32">
+    <row r="14" spans="1:6" ht="45">
       <c r="A14" s="18" t="s">
         <v>1390</v>
       </c>
@@ -28443,7 +28443,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="32">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="18" t="s">
         <v>1393</v>
       </c>
@@ -28457,7 +28457,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="32">
+    <row r="16" spans="1:6" ht="30">
       <c r="A16" s="18" t="s">
         <v>1396</v>
       </c>
@@ -28471,7 +28471,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="48">
+    <row r="17" spans="1:6" ht="45">
       <c r="A17" s="18" t="s">
         <v>1370</v>
       </c>
@@ -28485,7 +28485,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="32">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="18" t="s">
         <v>1401</v>
       </c>
@@ -28605,8 +28605,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="5a233c5be867259e7f523794110a7773">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71fc54e2a62b1985aea6da9d2195ce0c" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document - Suivi de projet" ma:contentTypeID="0x010100333226B5D6902549BFE4A72F45A4400B0100E98F8C089710A74CA077FC6D601326A8" ma:contentTypeVersion="52" ma:contentTypeDescription="Type de contenu - Documentation de suivi de projet" ma:contentTypeScope="" ma:versionID="a24e46c8e369b0d0dbf292fc067594e6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xmlns:ns3="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b005a03a4b86eaa0f9218a8d7ff13ee" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
     <xsd:import namespace="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
@@ -28669,12 +28669,12 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="49" nillable="true" ma:displayName="Propriétés de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="50" nillable="true" ma:displayName="Action d’interface utilisateur de la stratégie de conformité unifiée" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -28787,7 +28787,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="35" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -28806,7 +28806,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="36" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -28879,7 +28879,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="44" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c4480557-28ee-4200-b705-f4b4ceb9c11a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -28928,8 +28928,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="7" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Titre"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -29019,6 +29019,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
@@ -29070,41 +29079,32 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ECB47E9-2B60-4219-92DB-621EC7B64685}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42E5C9F3-538C-4D41-BA64-EAC55C1DE6EB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D858164C-96BA-4E56-96B6-D31AD34B2945}"/>
+  <xr:revisionPtr revIDLastSave="987" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7A42EB2-F1A1-42DF-A36B-FDCA7278AF85}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3165" yWindow="1170" windowWidth="25410" windowHeight="14145" tabRatio="877" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="810" windowWidth="21930" windowHeight="14145" tabRatio="877" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -10919,8 +10919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -14716,7 +14716,7 @@
     <hyperlink ref="E31" location="'Type de devenir du patient'!A1" display="Lien nomenclature" xr:uid="{0E2A9314-0B8D-4156-A7C3-BC0E2885D9D2}"/>
     <hyperlink ref="E32" location="'Effet à obtenir'!A1" display="Lien nomenclature" xr:uid="{F32B9CB2-26FC-4D51-B612-B9EB269DC3B1}"/>
     <hyperlink ref="E36" location="'Attribution du dossier'!A1" display="Lien nomenclature" xr:uid="{9DFDDF82-C842-46CA-9B9A-3545027D4646}"/>
-    <hyperlink ref="E36" location="'Status du vecteur'!A1" display="Lien nomenclature" xr:uid="{CBB6C543-B740-4053-95FD-E8C10E8B561C}"/>
+    <hyperlink ref="E36" location="'Statut du vecteur'!A1" display="Lien nomenclature" xr:uid="{CBB6C543-B740-4053-95FD-E8C10E8B561C}"/>
     <hyperlink ref="E33" location="'Cadre conventionnel'!A1" display="Lien nomenclature" xr:uid="{018B40BB-963F-4A1C-AF4F-5EA9FD5F329B}"/>
     <hyperlink ref="E34" location="'Delai d''intervention souhaite'!A1" display="Lien nomenclature" xr:uid="{FA2A5069-90AE-4459-B4C7-F1CDCCD8EAB0}"/>
     <hyperlink ref="E10" location="'Nombre de patients-victimes'!A1" display="Lien nomenclature" xr:uid="{6309BD82-9F33-4F60-88D8-A0006F1258C1}"/>
@@ -21257,9 +21257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2B8C8C-87E7-449D-BC82-028AFFEC58AC}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -22602,7 +22600,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -23026,8 +23024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -24011,7 +24009,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -26632,9 +26630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730C132-AF0D-4124-AB29-0565D21E3ED1}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -27526,7 +27522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244BE68D-3EF4-4212-8122-4351014F1789}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -36746,7 +36742,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A24BC060-E3AE-4C00-A658-3FA30565C89A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CEB336-22C7-4193-AADF-B99C7A8D0B12}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="987" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7A42EB2-F1A1-42DF-A36B-FDCA7278AF85}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="810" windowWidth="21930" windowHeight="14145" tabRatio="877" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="600" windowWidth="21930" windowHeight="14145" tabRatio="877" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -22600,7 +22600,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -23024,8 +23024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -26630,7 +26630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730C132-AF0D-4124-AB29-0565D21E3ED1}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -36742,7 +36744,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CEB336-22C7-4193-AADF-B99C7A8D0B12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A1BDBD4-E316-45AC-920A-A6692C88096C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="987" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7A42EB2-F1A1-42DF-A36B-FDCA7278AF85}"/>
+  <xr:revisionPtr revIDLastSave="988" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DF46E25-A718-4E24-8A24-4527CE04DF8E}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="600" windowWidth="21930" windowHeight="14145" tabRatio="877" firstSheet="28" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29010" yWindow="675" windowWidth="24270" windowHeight="14025" tabRatio="877" firstSheet="25" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -5311,9 +5311,6 @@
     <t>Ambulance privée petit contenant - type C</t>
   </si>
   <si>
-    <t>Ambulance de catégorie non définie</t>
-  </si>
-  <si>
     <t>Véhicule Sanitaire Léger</t>
   </si>
   <si>
@@ -6513,6 +6510,9 @@
   </si>
   <si>
     <t>La demande est refusée, le motif de refus est à préciser dans le freetext</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -6885,7 +6885,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7046,9 +7046,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -10942,48 +10939,48 @@
     </row>
     <row r="2" spans="1:12" s="26" customFormat="1" ht="15">
       <c r="A2" s="25" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>1733</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>1734</v>
-      </c>
       <c r="D2" s="25" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>1725</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>1726</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>1727</v>
-      </c>
       <c r="G2" s="25" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>1798</v>
+      </c>
+      <c r="J2" s="25" t="s">
         <v>1799</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>1800</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>1801</v>
-      </c>
       <c r="L2" s="25" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15">
       <c r="A3" s="27" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C3" s="27" t="str">
         <f>Filiere!$B$1</f>
@@ -10994,14 +10991,14 @@
         <v>FILIERE</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G3" s="30"/>
       <c r="H3" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
@@ -11010,10 +11007,10 @@
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="27" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C4" s="27" t="str">
         <f>'Type d''intervention'!$B$1</f>
@@ -11024,14 +11021,14 @@
         <v>TYPE_Intervention</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -11040,10 +11037,10 @@
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C5" s="27" t="str">
         <f>'Origine de l''appel'!$B$1</f>
@@ -11054,14 +11051,14 @@
         <v>ORIGINE</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
@@ -11070,10 +11067,10 @@
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="27" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>1728</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>1729</v>
       </c>
       <c r="C6" s="27" t="str">
         <f>'Nature de fait'!$B$1</f>
@@ -11084,16 +11081,16 @@
         <v>Code_Nature_de_fait</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
@@ -11102,10 +11099,10 @@
     </row>
     <row r="7" spans="1:12" ht="15">
       <c r="A7" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Type de lieu'!$B$1</f>
@@ -11116,16 +11113,16 @@
         <v>Code_Type_de_lieu</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
@@ -11134,10 +11131,10 @@
     </row>
     <row r="8" spans="1:12" ht="15">
       <c r="A8" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C8" s="27" t="str">
         <f>'Risque, menace et sensibilité'!$B$1</f>
@@ -11148,16 +11145,16 @@
         <v>Code_Risque-Menace-Sensibilité</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
@@ -11166,10 +11163,10 @@
     </row>
     <row r="9" spans="1:12" ht="15">
       <c r="A9" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C9" s="49" t="str">
         <f>'Motif de recours médico-secouri'!$B$1</f>
@@ -11180,16 +11177,16 @@
         <v>Code_Motif_patient-victime</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -11198,10 +11195,10 @@
     </row>
     <row r="10" spans="1:12" ht="15">
       <c r="A10" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C10" s="28" t="str">
         <f>'Nombre de patients-victimes'!$B1</f>
@@ -11212,13 +11209,13 @@
         <v>NOMBRE_Patient_Victime</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -11228,10 +11225,10 @@
     </row>
     <row r="11" spans="1:12" ht="15">
       <c r="A11" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C11" s="28" t="str">
         <f>'Type du patient-victime'!$B1</f>
@@ -11242,13 +11239,13 @@
         <v>TYPE_Patient_Victime</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -11258,10 +11255,10 @@
     </row>
     <row r="12" spans="1:12" ht="15">
       <c r="A12" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C12" s="49" t="str">
         <f>'Attribution du dossier'!$B$1</f>
@@ -11272,14 +11269,14 @@
         <v>DEVENIRD</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
@@ -11288,10 +11285,10 @@
     </row>
     <row r="13" spans="1:12" ht="15">
       <c r="A13" s="27" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C13" s="49" t="str">
         <f>'Priorité de régulation médicale'!$B$1</f>
@@ -11302,14 +11299,14 @@
         <v>PRIORITE</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -11318,10 +11315,10 @@
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="27" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>'Lieu - Source ou type d''id'!$B$1</f>
@@ -11332,16 +11329,16 @@
         <v>SOURCE_Id_Lieu</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
@@ -11350,10 +11347,10 @@
     </row>
     <row r="15" spans="1:12" ht="15">
       <c r="A15" s="27" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C15" s="28" t="str">
         <f>Precision!$B$1</f>
@@ -11364,16 +11361,16 @@
         <v>PRECISION</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
@@ -11382,10 +11379,10 @@
     </row>
     <row r="16" spans="1:12" ht="15">
       <c r="A16" s="27" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C16" s="28" t="str">
         <f>'Nom de la source'!$B$1</f>
@@ -11396,16 +11393,16 @@
         <v>SOURCE_Loc</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -11414,10 +11411,10 @@
     </row>
     <row r="17" spans="1:12" ht="15">
       <c r="A17" s="27" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C17" s="28" t="str">
         <f>'Type d''objet'!$B$1</f>
@@ -11428,16 +11425,16 @@
         <v>TYPE_Objet_Sys</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
@@ -11446,10 +11443,10 @@
     </row>
     <row r="18" spans="1:12" ht="15">
       <c r="A18" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C18" s="28" t="str">
         <f>Signalement!$B$1</f>
@@ -11460,13 +11457,13 @@
         <v>SIGNALEMENT</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -11476,10 +11473,10 @@
     </row>
     <row r="19" spans="1:12" ht="15">
       <c r="A19" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C19" s="28" t="str">
         <f>Canal!$B$1</f>
@@ -11490,16 +11487,16 @@
         <v>CONTACT_Canal</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
@@ -11508,10 +11505,10 @@
     </row>
     <row r="20" spans="1:12" ht="15">
       <c r="A20" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C20" s="28" t="str">
         <f>'Type de contact'!$B$1</f>
@@ -11522,16 +11519,16 @@
         <v>CONTACT_Type</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
@@ -11540,10 +11537,10 @@
     </row>
     <row r="21" spans="1:12" ht="15">
       <c r="A21" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C21" s="49" t="str">
         <f>'Type de requérant'!$B$1</f>
@@ -11554,16 +11551,16 @@
         <v>TYPAPPLT</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H21" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -11572,10 +11569,10 @@
     </row>
     <row r="22" spans="1:12" ht="15">
       <c r="A22" s="27" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C22" s="49" t="str">
         <f>'Difficultés de communication'!$B$1</f>
@@ -11586,16 +11583,16 @@
         <v>PBAPL</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
@@ -11604,10 +11601,10 @@
     </row>
     <row r="23" spans="1:12" ht="15">
       <c r="A23" s="28" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C23" s="49" t="str">
         <f>'Patient - type d''Id'!$B$1</f>
@@ -11618,14 +11615,14 @@
         <v>TYPE_Id_Patient</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G23" s="30"/>
       <c r="H23" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -11634,10 +11631,10 @@
     </row>
     <row r="24" spans="1:12" ht="15">
       <c r="A24" s="28" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C24" s="49" t="str">
         <f>Sexe!$B$1</f>
@@ -11648,16 +11645,16 @@
         <v>NOMENC_SEXE</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -11666,10 +11663,10 @@
     </row>
     <row r="25" spans="1:12" ht="15">
       <c r="A25" s="28" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C25" s="49" t="str">
         <f>'Niveau de soin'!$B$1</f>
@@ -11680,14 +11677,14 @@
         <v>GRAVITE</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="30"/>
@@ -11696,10 +11693,10 @@
     </row>
     <row r="26" spans="1:12" ht="15">
       <c r="A26" s="28" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>2062</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>2063</v>
       </c>
       <c r="C26" s="49" t="str">
         <f>Role!$B$1</f>
@@ -11710,14 +11707,14 @@
         <v>ROLE</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
@@ -11726,10 +11723,10 @@
     </row>
     <row r="27" spans="1:12" ht="15">
       <c r="A27" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C27" s="49" t="str">
         <f>'Type de decision'!$B$1</f>
@@ -11740,16 +11737,16 @@
         <v>TYPEDEC</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G27" s="72" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H27" s="72" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -11758,10 +11755,10 @@
     </row>
     <row r="28" spans="1:12" ht="15">
       <c r="A28" s="27" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C28" s="49" t="str">
         <f>'Type de ressource'!$B$1</f>
@@ -11772,30 +11769,30 @@
         <v>TYPE_MOYEN</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="15">
       <c r="A29" s="28" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C29" s="49" t="str">
         <f>'Type de vecteurs'!$B$1</f>
@@ -11806,30 +11803,30 @@
         <v>TYPE_VECTEUR</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="15">
       <c r="A30" s="27" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C30" s="27" t="str">
         <f>'Niveau de prise en charge'!$B$1</f>
@@ -11840,32 +11837,32 @@
         <v>NIVSOIN</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="15">
       <c r="A31" s="27" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C31" s="27" t="str">
         <f>'Type de devenir du patient'!$B$1</f>
@@ -11876,16 +11873,16 @@
         <v>NOMENC_DEVENIR_PAT</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -11894,10 +11891,10 @@
     </row>
     <row r="32" spans="1:12" ht="15">
       <c r="A32" s="28" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C32" s="27" t="str">
         <f>'Effet à obtenir'!$B$1</f>
@@ -11908,26 +11905,26 @@
         <v>Code_Effet_a_obtenir</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="1:12" ht="15">
       <c r="A33" s="28" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C33" s="27" t="str">
         <f>'Cadre conventionnel'!$B$1</f>
@@ -11938,24 +11935,24 @@
         <v>CADRE_CONV</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="J33" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="1:12" ht="15">
       <c r="A34" s="28" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C34" s="27" t="str">
         <f>'Delai d''intervention souhaite'!$B1</f>
@@ -11966,26 +11963,26 @@
         <v>DELAI</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" ht="15">
       <c r="A35" s="28" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C35" s="27" t="str">
         <f>'Reponse demande ressources'!$B$1</f>
@@ -11996,26 +11993,26 @@
         <v>REPONSE</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" ht="15">
       <c r="A36" s="28" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B36" s="31" t="s">
         <v>1885</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>1886</v>
       </c>
       <c r="C36" s="27" t="str">
         <f>'Statut du vecteur'!$B$1</f>
@@ -12026,20 +12023,20 @@
         <v>STATUS_VECTEUR</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="30" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15">
@@ -14665,7 +14662,7 @@
       <formula>ISODD(ROW())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:L37 A38:L222 A6:L36">
+  <conditionalFormatting sqref="A6:L36 B37:L37 A38:L222">
     <cfRule type="expression" dxfId="27" priority="52">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -14762,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -14771,7 +14768,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -14817,7 +14814,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -14840,10 +14837,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -14851,10 +14848,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -14862,10 +14859,10 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52"/>
@@ -14873,10 +14870,10 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52"/>
@@ -14884,10 +14881,10 @@
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52"/>
@@ -15277,7 +15274,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -15335,7 +15332,7 @@
         <v>1384</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
@@ -15902,7 +15899,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -16272,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -16281,7 +16278,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16327,7 +16324,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -16350,10 +16347,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -16361,10 +16358,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -16372,10 +16369,10 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52"/>
@@ -16383,10 +16380,10 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52"/>
@@ -16394,10 +16391,10 @@
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52"/>
@@ -16720,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -16729,7 +16726,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -16775,7 +16772,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -16798,66 +16795,66 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -17175,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -17184,7 +17181,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -17230,7 +17227,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -17253,10 +17250,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -17264,10 +17261,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -17275,10 +17272,10 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52"/>
@@ -17615,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -17624,7 +17621,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -17670,7 +17667,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -17693,10 +17690,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -17704,10 +17701,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -17726,10 +17723,10 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52"/>
@@ -17737,10 +17734,10 @@
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52"/>
@@ -18062,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -18071,7 +18068,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -18117,7 +18114,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -18140,10 +18137,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -18151,10 +18148,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -18237,7 +18234,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="40"/>
       <c r="M22" s="68" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -18247,7 +18244,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="M23" s="69" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -18521,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -18530,7 +18527,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -18576,7 +18573,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -18599,10 +18596,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -18610,10 +18607,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -18621,10 +18618,10 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52"/>
@@ -18632,10 +18629,10 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52"/>
@@ -18643,10 +18640,10 @@
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52"/>
@@ -18654,10 +18651,10 @@
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1">
       <c r="A15" s="52" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="52"/>
@@ -18712,7 +18709,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="40"/>
       <c r="M22" s="68" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -18722,7 +18719,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="M23" s="69" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -18995,7 +18992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -19004,7 +19001,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -19050,7 +19047,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -19073,10 +19070,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -19084,10 +19081,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -19106,10 +19103,10 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52"/>
@@ -19117,10 +19114,10 @@
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52"/>
@@ -19128,10 +19125,10 @@
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1">
       <c r="A15" s="52" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="52"/>
@@ -19186,7 +19183,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="40"/>
       <c r="M22" s="68" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -19196,7 +19193,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="M23" s="69" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -19470,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -19479,7 +19476,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -19525,7 +19522,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -19548,27 +19545,27 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="71" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>2013</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>2014</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -19577,24 +19574,24 @@
         <v>1396</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -19989,7 +19986,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -20380,7 +20377,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -20657,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -20666,7 +20663,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -20733,66 +20730,66 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="2" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="2" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="2" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="2" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="2" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -21179,7 +21176,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -21340,7 +21337,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -21701,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -21710,7 +21707,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -21756,7 +21753,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -21779,53 +21776,53 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="74" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="75" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="76" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="75" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="75" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -21838,7 +21835,7 @@
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -21851,7 +21848,7 @@
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="52" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -22237,7 +22234,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -22600,7 +22597,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -22630,7 +22627,7 @@
         <v>1552</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -22681,7 +22678,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -22729,7 +22726,7 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="19" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F11" s="16"/>
     </row>
@@ -22772,7 +22769,7 @@
     </row>
     <row r="15" spans="1:6" s="32" customFormat="1">
       <c r="A15" s="19" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>1567</v>
@@ -23024,8 +23021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55EE5AD-9985-4D20-8EAC-8B61AD8038D6}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -23106,7 +23103,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -23132,823 +23129,823 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="53" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="52"/>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="53" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="52" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="53" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="53" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="52" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="53" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="52"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="53" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="52" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="53" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="52" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="53" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="53" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="53" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="53" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="53" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="53" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="53" t="s">
         <v>1721</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B23" s="53" t="s">
         <v>1721</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="78"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="80" t="s">
-        <v>1684</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="79" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="53" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="52" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="53" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="52" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="53" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="52" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="53" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="52" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="53" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="52" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="52" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="52" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="52" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="52" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52" t="s">
         <v>1794</v>
       </c>
-      <c r="F11" s="78"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="80" t="s">
-        <v>1620</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="79" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="52" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="52" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="52" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="52" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="52" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="52" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="52" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="52" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="52" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="52" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="52" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="52" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="52" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="52" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="52" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52" t="s">
         <v>1795</v>
       </c>
-      <c r="F12" s="78"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="80" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="79" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F13" s="78"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="80" t="s">
-        <v>1888</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="78"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="80" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="79" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="52" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52" t="s">
         <v>1795</v>
       </c>
-      <c r="F15" s="78"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="80" t="s">
-        <v>1686</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80" t="s">
-        <v>1625</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="79" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="52" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B50" s="52"/>
+      <c r="C50" s="52" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52" t="s">
         <v>1795</v>
       </c>
-      <c r="F16" s="78"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="80" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="80" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D18" s="80"/>
-      <c r="E18" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="80" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D19" s="80"/>
-      <c r="E19" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="80" t="s">
-        <v>1687</v>
-      </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="80" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="79" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="52" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B51" s="52" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="52" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="52" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="52" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="52" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="52" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="52" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="52" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="52" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="80" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="52" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="52" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="52" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="52" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="52" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="52" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="52" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="52" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="52" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="52" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="52" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="52" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52" t="s">
         <v>1889</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="80" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="79"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="80" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="80" t="s">
-        <v>1689</v>
-      </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="80" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80" t="s">
-        <v>1634</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="80" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="80" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="79"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="79" t="s">
-        <v>1692</v>
-      </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79" t="s">
+      <c r="D71" s="52"/>
+      <c r="E71" s="52" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="79" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="52" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="79" t="s">
-        <v>1693</v>
-      </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="79" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="79" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79" t="s">
-        <v>1638</v>
-      </c>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="79" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="79" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="79" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79" t="s">
-        <v>1643</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="79" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="79" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79" t="s">
-        <v>1645</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="79" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79" t="s">
-        <v>1646</v>
-      </c>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="79" t="s">
-        <v>1701</v>
-      </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="79" t="s">
-        <v>1702</v>
-      </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="79" t="s">
-        <v>1703</v>
-      </c>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="79" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79" t="s">
-        <v>1650</v>
-      </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="79" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79" t="s">
-        <v>1651</v>
-      </c>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="79" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="79" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="79" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79" t="s">
-        <v>1637</v>
-      </c>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="79" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="79" t="s">
-        <v>1708</v>
-      </c>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79" t="s">
-        <v>1654</v>
-      </c>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="79" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79" t="s">
-        <v>1682</v>
-      </c>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="79" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B51" s="79" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="79" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="79" t="s">
-        <v>1711</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79" t="s">
-        <v>1661</v>
-      </c>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="79" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="79" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="79" t="s">
-        <v>1674</v>
-      </c>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="79" t="s">
-        <v>1715</v>
-      </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="79" t="s">
-        <v>1716</v>
-      </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="79" t="s">
-        <v>1658</v>
-      </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="79" t="s">
-        <v>1709</v>
-      </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="79" t="s">
-        <v>1710</v>
-      </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="79" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="79" t="s">
-        <v>1712</v>
-      </c>
-      <c r="B63" s="79"/>
-      <c r="C63" s="79" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="79" t="s">
-        <v>1713</v>
-      </c>
-      <c r="B64" s="79"/>
-      <c r="C64" s="79" t="s">
-        <v>1665</v>
-      </c>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="79" t="s">
-        <v>1714</v>
-      </c>
-      <c r="B65" s="79"/>
-      <c r="C65" s="79" t="s">
-        <v>1666</v>
-      </c>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="79" t="s">
-        <v>1668</v>
-      </c>
-      <c r="B66" s="79"/>
-      <c r="C66" s="79" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="79" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B67" s="79" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C67" s="79"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="79" t="s">
-        <v>1681</v>
-      </c>
-      <c r="B68" s="79"/>
-      <c r="C68" s="79" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="79" t="s">
-        <v>1717</v>
-      </c>
-      <c r="B69" s="79"/>
-      <c r="C69" s="79" t="s">
-        <v>1677</v>
-      </c>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="79" t="s">
-        <v>1718</v>
-      </c>
-      <c r="B70" s="79"/>
-      <c r="C70" s="79" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="79" t="s">
-        <v>1719</v>
-      </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79" t="s">
-        <v>1890</v>
-      </c>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="79" t="s">
-        <v>1720</v>
-      </c>
-      <c r="B72" s="79"/>
-      <c r="C72" s="79" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79" t="s">
-        <v>1795</v>
-      </c>
-    </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="80"/>
-      <c r="E73" s="80"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="52"/>
@@ -24008,7 +24005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF0C217-B984-434C-BFBC-BE2A43ACAFC2}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -24092,7 +24089,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -24450,7 +24447,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -24459,7 +24456,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -24526,10 +24523,10 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="71" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52"/>
@@ -24537,10 +24534,10 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52"/>
@@ -24548,10 +24545,10 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52"/>
@@ -24950,7 +24947,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -25413,7 +25410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -25459,7 +25456,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -25482,40 +25479,40 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="44" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="50" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="45" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C11" s="36"/>
       <c r="D11" s="50" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="46" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="50" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -25524,11 +25521,11 @@
         <v>1553</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="50" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -25537,11 +25534,11 @@
         <v>1417</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C14" s="36"/>
       <c r="D14" s="50" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -25550,89 +25547,89 @@
         <v>1546</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="50" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="46" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C16" s="36"/>
       <c r="D16" s="50" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="47" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="50" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="48" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C18" s="36"/>
       <c r="D18" s="50" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="46" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="50" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="46" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="50" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="46" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="50" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -25917,7 +25914,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -25969,7 +25966,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -25996,112 +25993,112 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B10" t="s">
         <v>1855</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>1856</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B11" t="s">
         <v>1858</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>1859</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1860</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B12" t="s">
         <v>1861</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>1862</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B13" t="s">
         <v>1864</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>1865</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1866</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B14" t="s">
         <v>1867</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>1868</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B15" t="s">
         <v>1870</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>1871</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1872</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B16" t="s">
         <v>1873</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>1874</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1875</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B17" t="s">
         <v>1876</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>1877</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B18" t="s">
         <v>1879</v>
       </c>
-      <c r="B18" t="s">
-        <v>1880</v>
-      </c>
       <c r="E18" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B19" t="s">
         <v>1881</v>
       </c>
-      <c r="B19" t="s">
-        <v>1882</v>
-      </c>
       <c r="E19" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26138,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -26187,7 +26184,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -26210,14 +26207,14 @@
     </row>
     <row r="10" spans="1:5" s="32" customFormat="1">
       <c r="A10" s="52" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="52" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -26225,14 +26222,14 @@
     </row>
     <row r="11" spans="1:5" s="32" customFormat="1">
       <c r="A11" s="52" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>1911</v>
-      </c>
-      <c r="B11" s="52" t="s">
-        <v>1912</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="52" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -26240,14 +26237,14 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="52" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="E12" s="2">
         <v>3</v>
@@ -26255,14 +26252,14 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="52" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
@@ -26270,14 +26267,14 @@
     </row>
     <row r="14" spans="1:5" s="32" customFormat="1">
       <c r="A14" s="52" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="52" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E14" s="2">
         <v>5</v>
@@ -26285,14 +26282,14 @@
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1">
       <c r="A15" s="52" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="52" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="E15" s="2">
         <v>6</v>
@@ -26300,14 +26297,14 @@
     </row>
     <row r="16" spans="1:5" s="32" customFormat="1">
       <c r="A16" s="52" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="52" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="E16" s="2">
         <v>7</v>
@@ -26315,14 +26312,14 @@
     </row>
     <row r="17" spans="1:5" s="32" customFormat="1">
       <c r="A17" s="52" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>1918</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>1919</v>
       </c>
       <c r="C17" s="43"/>
       <c r="D17" s="52" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E17" s="2">
         <v>8</v>
@@ -26330,14 +26327,14 @@
     </row>
     <row r="18" spans="1:5" s="32" customFormat="1">
       <c r="A18" s="52" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="52" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E18" s="2">
         <v>9</v>
@@ -26345,14 +26342,14 @@
     </row>
     <row r="19" spans="1:5" s="32" customFormat="1">
       <c r="A19" s="52" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="52" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
@@ -26360,14 +26357,14 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="52" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B20" s="52" t="s">
         <v>1922</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>1923</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="52" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E20" s="2">
         <v>11</v>
@@ -26630,7 +26627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B730C132-AF0D-4124-AB29-0565D21E3ED1}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -26660,7 +26657,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -26712,7 +26709,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -26739,92 +26736,92 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>1802</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>1803</v>
       </c>
       <c r="C10" s="61"/>
       <c r="E10" s="61" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F10" s="52" t="s">
         <v>1804</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>1806</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="E11" s="52" t="s">
         <v>1807</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="46" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>1809</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="E12" s="52" t="s">
         <v>1810</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="F12" s="52" t="s">
         <v>1811</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="46" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B13" s="35" t="s">
         <v>1813</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>1814</v>
       </c>
       <c r="C13"/>
       <c r="E13" s="52" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F13" s="52" t="s">
         <v>1815</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="60" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>1817</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="E14" s="52" t="s">
         <v>1818</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="46" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>1820</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>1821</v>
       </c>
       <c r="C15"/>
       <c r="E15" s="52" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="60" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>1822</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>1823</v>
       </c>
       <c r="C16" s="50"/>
       <c r="F16" s="52" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -26832,113 +26829,113 @@
         <v>1590</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C17" s="61"/>
       <c r="E17" s="52" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>1826</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="60" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>1828</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="60" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C19" s="50" t="s">
         <v>1830</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="60" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C20" s="50" t="s">
         <v>1832</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="60" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C21" s="50" t="s">
         <v>1834</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="46" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>1836</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>1837</v>
       </c>
       <c r="C22"/>
       <c r="E22" s="52" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F22" s="52" t="s">
         <v>1838</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="46" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>1840</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>1841</v>
       </c>
       <c r="C23"/>
       <c r="E23" s="52" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F23" s="52" t="s">
         <v>1842</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="46" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>1844</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>1845</v>
       </c>
       <c r="C24"/>
       <c r="E24" s="52" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>1846</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>1848</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="E25" s="52" t="s">
         <v>1849</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>1850</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="60" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B26" s="52" t="s">
         <v>1851</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="E26" s="52" t="s">
         <v>1852</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -27116,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -27126,7 +27123,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -27178,7 +27175,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -27205,57 +27202,57 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="19" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="19" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="46" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="19" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="46" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="19" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="F13" s="16"/>
     </row>
@@ -27541,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -27550,7 +27547,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -27596,7 +27593,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -27626,7 +27623,7 @@
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="2" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -27639,7 +27636,7 @@
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="2" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -27652,7 +27649,7 @@
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="2" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -27665,7 +27662,7 @@
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="2" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -27678,7 +27675,7 @@
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="2" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -28076,7 +28073,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -31931,7 +31928,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -34650,7 +34647,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -35148,7 +35145,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -35820,7 +35817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -35829,7 +35826,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -35875,7 +35872,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -35920,10 +35917,10 @@
     </row>
     <row r="12" spans="1:5" s="32" customFormat="1">
       <c r="A12" s="65" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="52"/>
@@ -35931,10 +35928,10 @@
     </row>
     <row r="13" spans="1:5" s="32" customFormat="1">
       <c r="A13" s="65" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="52"/>
@@ -35953,10 +35950,10 @@
     </row>
     <row r="15" spans="1:5" s="32" customFormat="1">
       <c r="A15" s="65" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="52"/>
@@ -36251,55 +36248,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f8b6baa267c0456bbf6a8d18c49a130b>
-    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
-    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p671c8df16a44846939d278d4958f62c>
-    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b2804ef99be44b9e8166e80a6c2eb9f1>
-    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </mc4aa6e782e045f6bb87dab01c971b56>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m312bc62cb0243b6a873cbbf4dace6b2>
-    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b084a4cb34a444d7969136255594d2f3>
-    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g30fb2d8061a4d40b63138f91c1a832e>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </m9a76db3058146ae844db6599c9d7036>
-    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
-    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l0a6b4600f484920bbceae0813174244>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36717,40 +36671,99 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ModificateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <f8b6baa267c0456bbf6a8d18c49a130b xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f8b6baa267c0456bbf6a8d18c49a130b>
+    <eef0f6fc4ed046399a9d01fd3a7d6a6a xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </eef0f6fc4ed046399a9d01fd3a7d6a6a>
+    <Référence_x0020_Bon_x0020_de_x0020_Commande xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Référence_x0020_Documentaire xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Chantier xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <p671c8df16a44846939d278d4958f62c xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p671c8df16a44846939d278d4958f62c>
+    <Durée_x0020_d_x0027_Utilité_x0020_Administrative_x0020__x0028_DUA_x0029_ xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <Environnement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <b2804ef99be44b9e8166e80a6c2eb9f1 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b2804ef99be44b9e8166e80a6c2eb9f1>
+    <_ExtendedDescription xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <mc4aa6e782e045f6bb87dab01c971b56 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </mc4aa6e782e045f6bb87dab01c971b56>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <m312bc62cb0243b6a873cbbf4dace6b2 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m312bc62cb0243b6a873cbbf4dace6b2>
+    <b084a4cb34a444d7969136255594d2f3 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b084a4cb34a444d7969136255594d2f3>
+    <CreateurAlfresco xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <g30fb2d8061a4d40b63138f91c1a832e xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g30fb2d8061a4d40b63138f91c1a832e>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <m9a76db3058146ae844db6599c9d7036 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </m9a76db3058146ae844db6599c9d7036>
+    <Ticket_x0020_Changement xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3" xsi:nil="true"/>
+    <l0a6b4600f484920bbceae0813174244 xmlns="f6ca01e7-bd19-41f1-999c-e032ef5104c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l0a6b4600f484920bbceae0813174244>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A1BDBD4-E316-45AC-920A-A6692C88096C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A1BDBD4-E316-45AC-920A-A6692C88096C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5967638-FCD9-44FD-B4E1-300D2A834C2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBBB1551-8692-41DC-9582-B0EFCC1A2247}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="1720d4e8-2b1e-4bd1-aad5-1b4debf9b56d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f6ca01e7-bd19-41f1-999c-e032ef5104c3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
+++ b/nomenclature_parser/in/Nomenclatures RC-EDA et messages RS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://esantegouv.sharepoint.com/sites/GED-Calypso/espace-projets/Espace Programme SISAMU/01 - Equipe projet/07 - Innovation et prospectif/12 - Hub Santé/17 - MDD/Nomenclatures/01 - Base interne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="988" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DF46E25-A718-4E24-8A24-4527CE04DF8E}"/>
+  <xr:revisionPtr revIDLastSave="1082" documentId="13_ncr:1_{39F4392A-9E63-F244-B431-F45D1B40DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2F39E02-ED39-45ED-ABFB-B5934905C6C0}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="675" windowWidth="24270" windowHeight="14025" tabRatio="877" firstSheet="25" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="450" windowWidth="23160" windowHeight="13320" tabRatio="877" firstSheet="27" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#Sommaire" sheetId="38" r:id="rId1"/>
@@ -21,36 +21,38 @@
     <sheet name="Type de lieu" sheetId="6" r:id="rId6"/>
     <sheet name="Risque, menace et sensibilité" sheetId="1" r:id="rId7"/>
     <sheet name="Motif de recours médico-secouri" sheetId="7" r:id="rId8"/>
-    <sheet name="Nombre de patients-victimes" sheetId="44" r:id="rId9"/>
-    <sheet name="Type du patient-victime" sheetId="45" r:id="rId10"/>
-    <sheet name="Attribution du dossier" sheetId="12" r:id="rId11"/>
-    <sheet name="Priorité de régulation médicale" sheetId="32" r:id="rId12"/>
-    <sheet name="Lieu - Source ou type d'id" sheetId="46" r:id="rId13"/>
-    <sheet name="Precision" sheetId="47" r:id="rId14"/>
-    <sheet name="Nom de la source" sheetId="49" r:id="rId15"/>
-    <sheet name="Type d'objet" sheetId="50" r:id="rId16"/>
-    <sheet name="Signalement" sheetId="48" r:id="rId17"/>
-    <sheet name="Canal" sheetId="51" r:id="rId18"/>
-    <sheet name="Type de contact" sheetId="52" r:id="rId19"/>
-    <sheet name="Type de requérant" sheetId="11" r:id="rId20"/>
-    <sheet name="Difficultés de communication" sheetId="13" r:id="rId21"/>
-    <sheet name="Patient - type d'Id" sheetId="56" r:id="rId22"/>
-    <sheet name="Sexe" sheetId="26" r:id="rId23"/>
-    <sheet name="Niveau de soin" sheetId="29" r:id="rId24"/>
-    <sheet name="Role" sheetId="57" r:id="rId25"/>
-    <sheet name="Type de decision" sheetId="30" r:id="rId26"/>
-    <sheet name="Type de ressource" sheetId="36" r:id="rId27"/>
-    <sheet name="Type de vecteurs" sheetId="37" r:id="rId28"/>
-    <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId29"/>
-    <sheet name="Type de devenir du patient" sheetId="35" r:id="rId30"/>
-    <sheet name="Effet à obtenir" sheetId="10" r:id="rId31"/>
-    <sheet name="Cadre conventionnel" sheetId="43" r:id="rId32"/>
-    <sheet name="Delai d'intervention souhaite" sheetId="40" r:id="rId33"/>
-    <sheet name="Statut du vecteur" sheetId="42" r:id="rId34"/>
-    <sheet name="Reponse demande ressources" sheetId="59" r:id="rId35"/>
+    <sheet name="Etats du dossier" sheetId="60" r:id="rId9"/>
+    <sheet name="Nombre de patients-victimes" sheetId="44" r:id="rId10"/>
+    <sheet name="Type du patient-victime" sheetId="45" r:id="rId11"/>
+    <sheet name="Attribution du dossier" sheetId="12" r:id="rId12"/>
+    <sheet name="Priorité de régulation médicale" sheetId="32" r:id="rId13"/>
+    <sheet name="Lieu - Source ou type d'id" sheetId="46" r:id="rId14"/>
+    <sheet name="Precision" sheetId="47" r:id="rId15"/>
+    <sheet name="Nom de la source" sheetId="49" r:id="rId16"/>
+    <sheet name="Type d'objet" sheetId="50" r:id="rId17"/>
+    <sheet name="Signalement" sheetId="48" r:id="rId18"/>
+    <sheet name="Canal" sheetId="51" r:id="rId19"/>
+    <sheet name="Type de contact" sheetId="52" r:id="rId20"/>
+    <sheet name="Type de requérant" sheetId="11" r:id="rId21"/>
+    <sheet name="Difficultés de communication" sheetId="13" r:id="rId22"/>
+    <sheet name="Patient - type d'Id" sheetId="56" r:id="rId23"/>
+    <sheet name="Sexe" sheetId="26" r:id="rId24"/>
+    <sheet name="Niveau de soin" sheetId="29" r:id="rId25"/>
+    <sheet name="Role" sheetId="57" r:id="rId26"/>
+    <sheet name="Type de decision" sheetId="30" r:id="rId27"/>
+    <sheet name="Type de ressource" sheetId="36" r:id="rId28"/>
+    <sheet name="Type de vecteurs" sheetId="37" r:id="rId29"/>
+    <sheet name="Niveau de prise en charge" sheetId="31" r:id="rId30"/>
+    <sheet name="Type de devenir du patient" sheetId="35" r:id="rId31"/>
+    <sheet name="Type de destination" sheetId="61" r:id="rId32"/>
+    <sheet name="Effet à obtenir" sheetId="10" r:id="rId33"/>
+    <sheet name="Cadre conventionnel" sheetId="43" r:id="rId34"/>
+    <sheet name="Delai d'intervention souhaite" sheetId="40" r:id="rId35"/>
+    <sheet name="Statut du vecteur" sheetId="42" r:id="rId36"/>
+    <sheet name="Reponse demande ressources" sheetId="59" r:id="rId37"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$2:$K$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#Sommaire'!$A$2:$K$34</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -73,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="2080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="2101">
   <si>
     <t>Référentiel nomenclature</t>
   </si>
@@ -6514,12 +6516,75 @@
   <si>
     <t>A</t>
   </si>
+  <si>
+    <t>Qualification / Patient</t>
+  </si>
+  <si>
+    <t>Etat du dossier</t>
+  </si>
+  <si>
+    <t>ARCHIVE</t>
+  </si>
+  <si>
+    <t>ACHEVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACTIF</t>
+  </si>
+  <si>
+    <t>PROGRAMME</t>
+  </si>
+  <si>
+    <t>VALIDE</t>
+  </si>
+  <si>
+    <t>CLOTURE</t>
+  </si>
+  <si>
+    <t>CLASSE</t>
+  </si>
+  <si>
+    <t>Etats_Dossier</t>
+  </si>
+  <si>
+    <t>Type de destination</t>
+  </si>
+  <si>
+    <t>TYPE_Destination</t>
+  </si>
+  <si>
+    <t>DOMICILE</t>
+  </si>
+  <si>
+    <t>Service d’urgences d’un établissement de sante</t>
+  </si>
+  <si>
+    <t>Autres services d’un établissement de sante</t>
+  </si>
+  <si>
+    <t>Cabinet d’un professionnel de sante</t>
+  </si>
+  <si>
+    <t>EPHAD ou Long séjour</t>
+  </si>
+  <si>
+    <t>Autre</t>
+  </si>
+  <si>
+    <t>URGENCES</t>
+  </si>
+  <si>
+    <t>CABINET</t>
+  </si>
+  <si>
+    <t>EPHAD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6749,6 +6814,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -6885,7 +6956,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7046,6 +7117,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60 % - Accent5" xfId="1" builtinId="48"/>
@@ -7053,77 +7127,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{289B6461-38A1-47EB-AD2F-3A7ED8C77D6E}"/>
   </cellStyles>
-  <dxfs count="182">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE1FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF58383"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="199">
     <dxf>
       <fill>
         <patternFill>
@@ -7204,6 +7208,97 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF58383"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE1FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -7261,6 +7356,270 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10338,314 +10697,346 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8CBD23D8-3CB7-491B-B00E-5486B907388F}" name="Table13611123111813" displayName="Table13611123111813" ref="A9:E55" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{8CBD23D8-3CB7-491B-B00E-5486B907388F}" name="Table13611123111813" displayName="Table13611123111813" ref="A9:E55" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197">
   <autoFilter ref="A9:E55" xr:uid="{8CBD23D8-3CB7-491B-B00E-5486B907388F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E0E4BEF8-D213-4F3F-97E1-4EF95756B90E}" name="Code" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{3431D095-AE1F-4ABA-9D63-EC4DB501B423}" name="Libellé niveau 1" dataDxfId="178"/>
-    <tableColumn id="5" xr3:uid="{97BD8D92-80A6-4F7F-9379-59C2B46726A3}" name="Libellé niveau 2" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{127B5052-742A-4FFC-ABFE-8F7750C796F5}" name="Description" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{166EA99C-D40A-41CA-8E35-76670A47C2FF}" name="Commentaire" dataDxfId="175"/>
+    <tableColumn id="1" xr3:uid="{E0E4BEF8-D213-4F3F-97E1-4EF95756B90E}" name="Code" dataDxfId="196"/>
+    <tableColumn id="2" xr3:uid="{3431D095-AE1F-4ABA-9D63-EC4DB501B423}" name="Libellé niveau 1" dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{97BD8D92-80A6-4F7F-9379-59C2B46726A3}" name="Libellé niveau 2" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{127B5052-742A-4FFC-ABFE-8F7750C796F5}" name="Description" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{166EA99C-D40A-41CA-8E35-76670A47C2FF}" name="Commentaire" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C3C96985-E377-4F48-BA27-F14A223DCC95}" name="Table1361112311" displayName="Table1361112311" ref="A9:E55" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{823C2F13-948D-4974-9C9C-1AD390776B68}" name="Table136111235" displayName="Table136111235" ref="A9:E55" totalsRowShown="0" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="A9:E55" xr:uid="{B647832F-37DE-421D-B1F3-9D38947A9A6A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{888FD29E-2275-4F75-ADD9-E04935713E5C}" name="Code" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{49B955E3-E63C-42E4-A3D1-7E9F8878B275}" name="Libellé niveau 1" dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{C2281989-9EA7-462C-90E1-C689C38F32FC}" name="Libellé niveau 2" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{693429A6-E746-47FF-A745-B1D8AFE53E56}" name="Description" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{91A2BB1F-5F3A-47DF-86F4-E97AB53ADD89}" name="Commentaire" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{C65B8274-E954-4CBF-8B3B-6DACFEF3D09F}" name="Code" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{84ACD83D-893A-4B00-89F4-93AEE374E815}" name="Libellé niveau 1" dataDxfId="138"/>
+    <tableColumn id="5" xr3:uid="{E64A61DE-4BB8-4C3E-B7B9-726F1A447BD7}" name="Libellé niveau 2" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{B1043381-4D28-4782-8747-DA98FAFD4504}" name="Description" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{DF53D3E2-A057-4D40-BE92-9E7F311D817E}" name="Commentaire" dataDxfId="135"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FCFF9977-C677-479A-85FC-B06533A394C5}" name="Table136111231115" displayName="Table136111231115" ref="A9:E55" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
-  <autoFilter ref="A9:E55" xr:uid="{FCFF9977-C677-479A-85FC-B06533A394C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C3C96985-E377-4F48-BA27-F14A223DCC95}" name="Table1361112311" displayName="Table1361112311" ref="A9:E55" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+  <autoFilter ref="A9:E55" xr:uid="{B647832F-37DE-421D-B1F3-9D38947A9A6A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4A576D64-7823-4B55-BF7E-F5CB76EA3E3E}" name="Code" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{CBBE7E46-1033-4C8A-AE13-078E2F5F30BD}" name="Libellé niveau 1" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{294792C7-CE9D-42DF-96E0-1035ACCFF003}" name="Libellé niveau 2" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{CA095527-FAAE-4845-8EC8-35CF34674BD1}" name="Description" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{D599D956-3DCB-49BC-91E2-9495FEFE3A0D}" name="Commentaire" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{888FD29E-2275-4F75-ADD9-E04935713E5C}" name="Code" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{49B955E3-E63C-42E4-A3D1-7E9F8878B275}" name="Libellé niveau 1" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{C2281989-9EA7-462C-90E1-C689C38F32FC}" name="Libellé niveau 2" dataDxfId="130"/>
+    <tableColumn id="3" xr3:uid="{693429A6-E746-47FF-A745-B1D8AFE53E56}" name="Description" dataDxfId="129"/>
+    <tableColumn id="4" xr3:uid="{91A2BB1F-5F3A-47DF-86F4-E97AB53ADD89}" name="Commentaire" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2A2AD6DF-70D1-4862-8B6B-3EA16EA226E8}" name="Table136111231116" displayName="Table136111231116" ref="A9:E55" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
-  <autoFilter ref="A9:E55" xr:uid="{2A2AD6DF-70D1-4862-8B6B-3EA16EA226E8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FCFF9977-C677-479A-85FC-B06533A394C5}" name="Table136111231115" displayName="Table136111231115" ref="A9:E55" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+  <autoFilter ref="A9:E55" xr:uid="{FCFF9977-C677-479A-85FC-B06533A394C5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DAD71D71-B89C-4E24-B32B-350EE5ECD2D7}" name="Code" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{9814D279-C1B5-40C4-8A18-1E240B57B85C}" name="Libellé niveau 1" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{4BFAD3EE-A659-4BE0-8AAB-3469FECB5643}" name="Libellé niveau 2" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{96657DDA-8D57-40A2-B54B-E4AC1B489A0D}" name="Description" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{12AB4119-159D-434F-85AA-2B89F1A63856}" name="Commentaire" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{4A576D64-7823-4B55-BF7E-F5CB76EA3E3E}" name="Code" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{CBBE7E46-1033-4C8A-AE13-078E2F5F30BD}" name="Libellé niveau 1" dataDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{294792C7-CE9D-42DF-96E0-1035ACCFF003}" name="Libellé niveau 2" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{CA095527-FAAE-4845-8EC8-35CF34674BD1}" name="Description" dataDxfId="122"/>
+    <tableColumn id="4" xr3:uid="{D599D956-3DCB-49BC-91E2-9495FEFE3A0D}" name="Commentaire" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4D2E6F8C-DACC-4A26-AF1C-27A96B5B0CEB}" name="Table136111231117" displayName="Table136111231117" ref="A9:E55" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
-  <autoFilter ref="A9:E55" xr:uid="{4D2E6F8C-DACC-4A26-AF1C-27A96B5B0CEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2A2AD6DF-70D1-4862-8B6B-3EA16EA226E8}" name="Table136111231116" displayName="Table136111231116" ref="A9:E55" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+  <autoFilter ref="A9:E55" xr:uid="{2A2AD6DF-70D1-4862-8B6B-3EA16EA226E8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{73A28F86-A0B9-4591-B8D2-0160E457A112}" name="Code" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{F7506F92-2DA9-4093-9FDA-9893B7117480}" name="Libellé niveau 1" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{87CA381F-E725-4FBA-9AD1-5C61C6B110A7}" name="Libellé niveau 2" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{39D920FE-DBE6-4BFE-9670-1D3E45145CF4}" name="Description" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{6A637CD0-E4AE-4CBB-B448-5134035C720F}" name="Commentaire" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{DAD71D71-B89C-4E24-B32B-350EE5ECD2D7}" name="Code" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{9814D279-C1B5-40C4-8A18-1E240B57B85C}" name="Libellé niveau 1" dataDxfId="117"/>
+    <tableColumn id="5" xr3:uid="{4BFAD3EE-A659-4BE0-8AAB-3469FECB5643}" name="Libellé niveau 2" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{96657DDA-8D57-40A2-B54B-E4AC1B489A0D}" name="Description" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{12AB4119-159D-434F-85AA-2B89F1A63856}" name="Commentaire" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{E64CCCB9-2511-4EC1-8A5A-FF1038C81F09}" name="Table136111231118" displayName="Table136111231118" ref="A9:E55" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
-  <autoFilter ref="A9:E55" xr:uid="{E64CCCB9-2511-4EC1-8A5A-FF1038C81F09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{4D2E6F8C-DACC-4A26-AF1C-27A96B5B0CEB}" name="Table136111231117" displayName="Table136111231117" ref="A9:E55" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+  <autoFilter ref="A9:E55" xr:uid="{4D2E6F8C-DACC-4A26-AF1C-27A96B5B0CEB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{09E6D0E8-8FB6-4435-A553-92417353F896}" name="Code" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{A213C1A0-1722-4289-A2D1-5A6EB30EA09B}" name="Libellé niveau 1" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{53CF9BCE-0E7D-4BDE-B31F-55A8819FC0A0}" name="Libellé niveau 2" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{514C1BC9-9ADF-4004-BAB2-15D24A3A1D09}" name="Description" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{B12E6EEC-3F2C-407F-9AA7-389D7A17FCF7}" name="Commentaire" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{73A28F86-A0B9-4591-B8D2-0160E457A112}" name="Code" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{F7506F92-2DA9-4093-9FDA-9893B7117480}" name="Libellé niveau 1" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{87CA381F-E725-4FBA-9AD1-5C61C6B110A7}" name="Libellé niveau 2" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{39D920FE-DBE6-4BFE-9670-1D3E45145CF4}" name="Description" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{6A637CD0-E4AE-4CBB-B448-5134035C720F}" name="Commentaire" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E49A72A2-799E-4EB5-A633-DA9AD17ABED3}" name="Table136111231119" displayName="Table136111231119" ref="A9:E55" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A9:E55" xr:uid="{E49A72A2-799E-4EB5-A633-DA9AD17ABED3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E55">
-    <sortCondition ref="A10:A55"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{E64CCCB9-2511-4EC1-8A5A-FF1038C81F09}" name="Table136111231118" displayName="Table136111231118" ref="A9:E55" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+  <autoFilter ref="A9:E55" xr:uid="{E64CCCB9-2511-4EC1-8A5A-FF1038C81F09}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7BFF7477-5274-4DF2-96EF-E56B7D69958A}" name="Code" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{FA4C3FFB-F1E7-4D2E-A4DD-0D3DF4405172}" name="Libellé niveau 1" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{A8127A8F-6B34-448D-A889-6BE2CE9E132C}" name="Libellé niveau 2" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{7B4AEDBA-3677-4E04-9052-1F30AB73A25F}" name="Description" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{9F627AE1-28AD-49D7-815A-4D3C089B24ED}" name="Commentaire" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{09E6D0E8-8FB6-4435-A553-92417353F896}" name="Code" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{A213C1A0-1722-4289-A2D1-5A6EB30EA09B}" name="Libellé niveau 1" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{53CF9BCE-0E7D-4BDE-B31F-55A8819FC0A0}" name="Libellé niveau 2" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{514C1BC9-9ADF-4004-BAB2-15D24A3A1D09}" name="Description" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{B12E6EEC-3F2C-407F-9AA7-389D7A17FCF7}" name="Commentaire" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4B4CDC31-DA4C-4411-9B0D-8DA3539A0493}" name="Table136111231120" displayName="Table136111231120" ref="A9:E55" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
-  <autoFilter ref="A9:E55" xr:uid="{4B4CDC31-DA4C-4411-9B0D-8DA3539A0493}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{E49A72A2-799E-4EB5-A633-DA9AD17ABED3}" name="Table136111231119" displayName="Table136111231119" ref="A9:E55" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+  <autoFilter ref="A9:E55" xr:uid="{E49A72A2-799E-4EB5-A633-DA9AD17ABED3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E55">
+    <sortCondition ref="A10:A55"/>
+  </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{317D1C42-0F4B-4773-8F99-F1B182F45481}" name="Code" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{77113B58-1151-4391-BEF5-DB56D3F4E4D5}" name="Libellé niveau 1" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{1CB9B5EC-80A3-4CA4-A035-92C9648D737A}" name="Libellé niveau 2" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{5FD1FD14-CDEB-40D4-9245-CD50BA9263BB}" name="Description" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{84BF17F5-072D-4227-B551-BE57A4509B17}" name="Commentaire" dataDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{7BFF7477-5274-4DF2-96EF-E56B7D69958A}" name="Code" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{FA4C3FFB-F1E7-4D2E-A4DD-0D3DF4405172}" name="Libellé niveau 1" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{A8127A8F-6B34-448D-A889-6BE2CE9E132C}" name="Libellé niveau 2" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{7B4AEDBA-3677-4E04-9052-1F30AB73A25F}" name="Description" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{9F627AE1-28AD-49D7-815A-4D3C089B24ED}" name="Commentaire" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{4B4CDC31-DA4C-4411-9B0D-8DA3539A0493}" name="Table136111231120" displayName="Table136111231120" ref="A9:E55" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+  <autoFilter ref="A9:E55" xr:uid="{4B4CDC31-DA4C-4411-9B0D-8DA3539A0493}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1"/>
-    <tableColumn id="5" xr3:uid="{A8693491-C517-461F-B62C-F068AE507B25}" name="Libellé niveau 2"/>
-    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{317D1C42-0F4B-4773-8F99-F1B182F45481}" name="Code" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{77113B58-1151-4391-BEF5-DB56D3F4E4D5}" name="Libellé niveau 1" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{1CB9B5EC-80A3-4CA4-A035-92C9648D737A}" name="Libellé niveau 2" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{5FD1FD14-CDEB-40D4-9245-CD50BA9263BB}" name="Description" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{84BF17F5-072D-4227-B551-BE57A4509B17}" name="Commentaire" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
-  <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
-    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}" name="Table134" displayName="Table134" ref="A9:E30" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+  <autoFilter ref="A9:E30" xr:uid="{58BAE6F7-D01C-41AD-9846-4ED090DE684C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{865D8B57-135B-4BFA-938D-B62BC39AC970}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{E07D1CE2-997E-4A59-9869-D1EFB60F0809}" name="Libellé niveau 1"/>
+    <tableColumn id="5" xr3:uid="{A8693491-C517-461F-B62C-F068AE507B25}" name="Libellé niveau 2"/>
+    <tableColumn id="3" xr3:uid="{5BEB0E75-8B05-44A8-99B9-CB9CB8DD7E0C}" name="Description" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{0C12ADAB-8B2E-4D44-B007-B1D25D7BAB07}" name="Commentaire" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{53E2508C-FDA4-492A-BCC5-54C2C9927701}" name="Table1361112311182122" displayName="Table1361112311182122" ref="A9:E55" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A9:E55" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{61EFFEA6-F404-4D86-AF5A-470909BE208C}" name="Code" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{03E7B1DA-4913-4752-81D9-0DC5A650C798}" name="Libellé niveau 1" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{37E58575-3D14-49D7-8CD2-5DBE167C1AB2}" name="Libellé niveau 2" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{A2966C92-9801-4F74-B82F-3949B0B677E2}" name="Description" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{024E1FD3-4136-4C4D-9326-7EB1C41CE3F6}" name="Commentaire" dataDxfId="51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}" name="Table13410" displayName="Table13410" ref="A9:F30" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="A9:F30" xr:uid="{91C84658-0601-42A2-85F6-BBDF103A10CD}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9B470DB1-BD5A-4D37-B9A2-613B4968664F}" name="Code"/>
+    <tableColumn id="2" xr3:uid="{C642441E-F665-4E14-A6AD-9D3C8769E0C7}" name="Libellé niveau 1" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{2FD7C62E-F3A8-479C-9488-B45577D597CB}" name="Libellé niveau 2" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{E474BB77-DCDC-415E-B7AC-9F51B933F4E0}" name="Libellé niveau 3" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{39AFB611-6F39-4451-B931-6D448FB9F381}" name="Description" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{2D0AD57C-4196-46DA-AA26-8087A6B411DB}" name="Commentaire" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3B0BCC87-0508-4B50-B37F-D0A3A984A79D}" name="Table13611123111814" displayName="Table13611123111814" ref="A9:E55" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3B0BCC87-0508-4B50-B37F-D0A3A984A79D}" name="Table13611123111814" displayName="Table13611123111814" ref="A9:E55" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A9:E55" xr:uid="{3B0BCC87-0508-4B50-B37F-D0A3A984A79D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{526E210B-F075-426E-960B-2873C3BD0C3B}" name="Code" dataDxfId="172"/>
-    <tableColumn id="2" xr3:uid="{2DA7E824-8886-4D58-ADE6-5377ED969D2A}" name="Libellé niveau 1" dataDxfId="171"/>
-    <tableColumn id="5" xr3:uid="{5D94993D-C9B5-47AD-AE15-32C420404C57}" name="Libellé niveau 2" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{436A1EAF-13B2-4CB3-9DDA-971E988E804D}" name="Description" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{82927005-4386-4694-9FA0-CF3D6DDB541C}" name="Commentaire" dataDxfId="168"/>
+    <tableColumn id="1" xr3:uid="{526E210B-F075-426E-960B-2873C3BD0C3B}" name="Code" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{2DA7E824-8886-4D58-ADE6-5377ED969D2A}" name="Libellé niveau 1" dataDxfId="188"/>
+    <tableColumn id="5" xr3:uid="{5D94993D-C9B5-47AD-AE15-32C420404C57}" name="Libellé niveau 2" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{436A1EAF-13B2-4CB3-9DDA-971E988E804D}" name="Description" dataDxfId="186"/>
+    <tableColumn id="4" xr3:uid="{82927005-4386-4694-9FA0-CF3D6DDB541C}" name="Commentaire" dataDxfId="185"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B9D58545-FB9E-446E-B811-6132BB1C3102}" name="Table136111231118212223" displayName="Table136111231118212223" ref="A9:E56" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
-  <autoFilter ref="A9:E56" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{53E2508C-FDA4-492A-BCC5-54C2C9927701}" name="Table1361112311182122" displayName="Table1361112311182122" ref="A9:E55" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A9:E55" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E024BFB1-D7BC-4643-A173-73487B8EA76A}" name="Code" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{1FF3D037-3DC1-4032-AEEC-DB4E0FB2E125}" name="Libellé niveau 1" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{62B7E7BB-D7DB-42E9-9D6E-BCC352A62FAB}" name="Libellé niveau 2" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{D76DC12D-18A0-4B2C-9CCF-77E99D26B9F8}" name="Description" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{76F1640A-E1D7-412F-8753-57C0DE81055A}" name="Commentaire" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{61EFFEA6-F404-4D86-AF5A-470909BE208C}" name="Code" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{03E7B1DA-4913-4752-81D9-0DC5A650C798}" name="Libellé niveau 1" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{37E58575-3D14-49D7-8CD2-5DBE167C1AB2}" name="Libellé niveau 2" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{A2966C92-9801-4F74-B82F-3949B0B677E2}" name="Description" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{024E1FD3-4136-4C4D-9326-7EB1C41CE3F6}" name="Commentaire" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B9D58545-FB9E-446E-B811-6132BB1C3102}" name="Table136111231118212223" displayName="Table136111231118212223" ref="A9:E56" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+  <autoFilter ref="A9:E56" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{E024BFB1-D7BC-4643-A173-73487B8EA76A}" name="Code" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{1FF3D037-3DC1-4032-AEEC-DB4E0FB2E125}" name="Libellé niveau 1" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{62B7E7BB-D7DB-42E9-9D6E-BCC352A62FAB}" name="Libellé niveau 2" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{D76DC12D-18A0-4B2C-9CCF-77E99D26B9F8}" name="Description" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{76F1640A-E1D7-412F-8753-57C0DE81055A}" name="Commentaire" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{02356107-77B0-4BE5-BEAF-E473DB32590C}" name="Table1361112311181325" displayName="Table1361112311181325" ref="A9:E55" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A9:E55" xr:uid="{02356107-77B0-4BE5-BEAF-E473DB32590C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A3539628-1B96-4BB4-8A92-807D3B263DB7}" name="Code" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{AB8BA679-7023-4CF4-9883-6EE0FCD762F0}" name="Libellé niveau 1" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{5539128F-5313-4E5E-9C65-3502BDA2C44F}" name="Libellé niveau 2" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D014B530-2E82-44D4-8C35-E5E40F3B9E3F}" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{70515DEB-B1E5-4074-8DF3-44DBE6841499}" name="Commentaire" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DACF081D-DC50-403B-ADE1-57E5CB746E1E}" name="Table136" displayName="Table136" ref="A9:E55" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A9:E55" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B3B3839E-7AA1-40F2-8D40-8B4C4130C33F}" name="Code" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{5B41AD54-EF54-419D-9557-D10165E3ECF6}" name="Libellé niveau 1" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{653C927B-56B9-4E39-8BC4-421DABCEC24B}" name="Libellé niveau 2" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{582D657A-1BB1-4D1A-882E-2FC91EF4A158}" name="Description" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{DD9122FE-5E05-4333-A4C2-0761574C47AC}" name="Commentaire" dataDxfId="54"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADC06F70-889C-49F4-A602-458A21122DFC}" name="Table1361112" displayName="Table1361112" ref="A9:E55" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A9:E55" xr:uid="{EB7ACF14-FFBA-43E8-87A9-ACD7498B7895}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{73A2FECF-6CB9-4077-B0C7-A871C559AE83}" name="Code" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{FF04C7BE-CF51-4071-983D-631D78CC4E8F}" name="Libellé niveau 1" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{2BC45373-CCDD-4D71-AED7-35BA573538EC}" name="Libellé niveau 2" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{F975606E-B093-444F-A92B-4454E9D1F6FB}" name="Description" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{7F0D53E8-DCA3-4B3E-9BD7-47FE9D948220}" name="Commentaire" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}" name="Table13611123111821" displayName="Table13611123111821" ref="A9:E55" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}" name="Table13611123111821" displayName="Table13611123111821" ref="A9:E55" totalsRowShown="0" headerRowDxfId="184" dataDxfId="183">
   <autoFilter ref="A9:E55" xr:uid="{17969914-72E8-45E0-B159-7FC4D4E17FB0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E79380D3-D068-423A-A034-02D5BAD28B34}" name="Code" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{38AD2FF1-8A7F-4689-AF86-3D0B5B4171F9}" name="Libellé niveau 1" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{F5EB8D60-F8AE-488C-8A75-B040D771B063}" name="Libellé niveau 2" dataDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{1346777B-B4B8-4C5A-A2A0-C55CA418799A}" name="Description" dataDxfId="162"/>
-    <tableColumn id="4" xr3:uid="{7565A967-B560-4204-9869-CC57B1587900}" name="Commentaire" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{E79380D3-D068-423A-A034-02D5BAD28B34}" name="Code" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{38AD2FF1-8A7F-4689-AF86-3D0B5B4171F9}" name="Libellé niveau 1" dataDxfId="181"/>
+    <tableColumn id="5" xr3:uid="{F5EB8D60-F8AE-488C-8A75-B040D771B063}" name="Libellé niveau 2" dataDxfId="180"/>
+    <tableColumn id="3" xr3:uid="{1346777B-B4B8-4C5A-A2A0-C55CA418799A}" name="Description" dataDxfId="179"/>
+    <tableColumn id="4" xr3:uid="{7565A967-B560-4204-9869-CC57B1587900}" name="Commentaire" dataDxfId="178"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="160" dataDxfId="159">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}" name="Table137" displayName="Table137" ref="A9:F308" totalsRowShown="0" headerRowDxfId="177" dataDxfId="176">
   <autoFilter ref="A9:F308" xr:uid="{09B386D5-C588-4FF7-932D-04D6B9913019}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="157"/>
-    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="156"/>
-    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="155"/>
-    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="154"/>
-    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="153"/>
+    <tableColumn id="1" xr3:uid="{F19F314C-B88E-48A0-9134-0480F8CF5303}" name="Code" dataDxfId="175"/>
+    <tableColumn id="2" xr3:uid="{600128F5-608F-4F75-ADD7-09E47F508C64}" name="Libellé niveau 1" dataDxfId="174"/>
+    <tableColumn id="6" xr3:uid="{69B015DB-FEAC-41E1-97CC-32D2D70D1E5F}" name="Libellé niveau 2" dataDxfId="173"/>
+    <tableColumn id="7" xr3:uid="{DDCC42E9-EE40-4BB4-8B10-7F7964B45C24}" name="Libellé niveau 3" dataDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{B18EF0E1-670C-4280-93AF-67B4FB66EE2F}" name="Description" dataDxfId="171"/>
+    <tableColumn id="4" xr3:uid="{B87504F2-E81C-4AC3-AFB9-7F1544707E97}" name="Commentaire" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}" name="Table138" displayName="Table138" ref="A9:F188" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="A9:F188" xr:uid="{1926E7F2-C41A-49BC-938F-DC437CDBFF61}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="149"/>
-    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="148"/>
-    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="147"/>
-    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="146"/>
-    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="145"/>
+    <tableColumn id="1" xr3:uid="{68E43B73-9A3F-4404-BFFA-9D2C83024853}" name="Code" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{4EE1502F-9D93-480B-9E76-CF9D4340C70D}" name="Libellé niveau 1" dataDxfId="166"/>
+    <tableColumn id="5" xr3:uid="{7B9C8786-A455-41BE-8B0E-D205B49FACF5}" name="Libellé niveau 2" dataDxfId="165"/>
+    <tableColumn id="6" xr3:uid="{254DB673-9BA3-42AE-9511-308D7BCD2FC5}" name="Libellé niveau 3" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{704D9D94-904F-4137-9FA6-AF5A0D326491}" name="Description" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{E0842B8F-A591-4C1E-A821-41D16E287145}" name="Commentaire" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}" name="Table1" displayName="Table1" ref="A9:D46" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A9:D46" xr:uid="{57784127-1058-49CC-86D5-E956DD9E7341}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{41A202AF-0A91-4C8F-B1DD-1D8B78C88B67}" name="Code" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{787839B6-641F-4C38-B883-AA61D5F0F7BA}" name="Libellé niveau 1" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{EA8B2165-6449-4C73-AB38-E548BEDD1CC6}" name="Description" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{E8FC5318-5334-4D19-B99B-DF7F88C59DC8}" name="Commentaire" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}" name="Table139" displayName="Table139" ref="A9:E61" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="A9:E61" xr:uid="{B5CED85C-8B87-4150-8F6E-210F8E0A2FFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="135"/>
-    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{1E16E225-2AC0-42BC-891A-DE42FEC023D6}" name="Code" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{EAF0C6A6-B766-472E-B250-B4F25993D46E}" name="Libellé niveau 1" dataDxfId="152"/>
+    <tableColumn id="5" xr3:uid="{81750735-53CA-440E-972E-333E415A08B6}" name="Libellé niveau 2" dataDxfId="151"/>
+    <tableColumn id="3" xr3:uid="{D8928B6E-6058-44ED-A422-FB52AA55B676}" name="Description" dataDxfId="150"/>
+    <tableColumn id="4" xr3:uid="{8EE4E12B-725F-47C8-B534-7688D1544C58}" name="Commentaire" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B647832F-37DE-421D-B1F3-9D38947A9A6A}" name="Table13611123" displayName="Table13611123" ref="A9:E55" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
-  <autoFilter ref="A9:E55" xr:uid="{B647832F-37DE-421D-B1F3-9D38947A9A6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{B4F34E16-6907-43F3-BE39-7236A5E958C1}" name="Table1361112311181324" displayName="Table1361112311181324" ref="A9:E55" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+  <autoFilter ref="A9:E55" xr:uid="{B4F34E16-6907-43F3-BE39-7236A5E958C1}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A5D7830D-ADAE-49D1-AC01-5A1DFA001520}" name="Code" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{314EEFD1-40EA-4FC8-B871-E91D87553FAE}" name="Libellé niveau 1" dataDxfId="128"/>
-    <tableColumn id="5" xr3:uid="{2A634FA7-602A-4CA9-B5C2-AF22E2C2C4B5}" name="Libellé niveau 2" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{110DEB60-AD15-400E-BCE9-BFB19B19C22B}" name="Description" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{946798AA-F310-452C-873A-8DEE9082FA3D}" name="Commentaire" dataDxfId="125"/>
+    <tableColumn id="1" xr3:uid="{E04E8FE3-37D1-4BCD-B413-743E4DC4D779}" name="Code" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{AD3A7356-1689-4604-9ECC-BE119363210C}" name="Libellé niveau 1" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{2348B431-9FD0-4141-896C-0D101A9A5F99}" name="Libellé niveau 2" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{4B8B8570-D8A1-4AEA-90A5-8E0E9C6DD58C}" name="Description" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{B436BE35-AE75-458E-BF9D-1A1F55295033}" name="Commentaire" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{823C2F13-948D-4974-9C9C-1AD390776B68}" name="Table136111235" displayName="Table136111235" ref="A9:E55" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B647832F-37DE-421D-B1F3-9D38947A9A6A}" name="Table13611123" displayName="Table13611123" ref="A9:E55" totalsRowShown="0" headerRowDxfId="148" dataDxfId="147">
   <autoFilter ref="A9:E55" xr:uid="{B647832F-37DE-421D-B1F3-9D38947A9A6A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C65B8274-E954-4CBF-8B3B-6DACFEF3D09F}" name="Code" dataDxfId="122"/>
-    <tableColumn id="2" xr3:uid="{84ACD83D-893A-4B00-89F4-93AEE374E815}" name="Libellé niveau 1" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{E64A61DE-4BB8-4C3E-B7B9-726F1A447BD7}" name="Libellé niveau 2" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{B1043381-4D28-4782-8747-DA98FAFD4504}" name="Description" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{DF53D3E2-A057-4D40-BE92-9E7F311D817E}" name="Commentaire" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{A5D7830D-ADAE-49D1-AC01-5A1DFA001520}" name="Code" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{314EEFD1-40EA-4FC8-B871-E91D87553FAE}" name="Libellé niveau 1" dataDxfId="145"/>
+    <tableColumn id="5" xr3:uid="{2A634FA7-602A-4CA9-B5C2-AF22E2C2C4B5}" name="Libellé niveau 2" dataDxfId="144"/>
+    <tableColumn id="3" xr3:uid="{110DEB60-AD15-400E-BCE9-BFB19B19C22B}" name="Description" dataDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{946798AA-F310-452C-873A-8DEE9082FA3D}" name="Commentaire" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10914,10 +11305,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C501F445-31F5-46E1-AB08-5738D3066605}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -11197,27 +11591,27 @@
       <c r="A10" s="27" t="s">
         <v>1727</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>1996</v>
-      </c>
-      <c r="C10" s="28" t="str">
-        <f>'Nombre de patients-victimes'!$B1</f>
+      <c r="B10" s="34" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C10" s="49" t="str">
+        <f>'Etats du dossier'!B1</f>
         <v>ENUM</v>
       </c>
-      <c r="D10" s="28" t="str">
-        <f>'Nombre de patients-victimes'!$B$2</f>
-        <v>NOMBRE_Patient_Victime</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="27" t="str">
+        <f>'Etats du dossier'!B2</f>
+        <v>Etats_Dossier</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>1729</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="s">
         <v>1749</v>
       </c>
-      <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -11228,15 +11622,15 @@
         <v>1727</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>2004</v>
+        <v>1996</v>
       </c>
       <c r="C11" s="28" t="str">
-        <f>'Type du patient-victime'!$B1</f>
+        <f>'Nombre de patients-victimes'!$B1</f>
         <v>ENUM</v>
       </c>
       <c r="D11" s="28" t="str">
-        <f>'Type du patient-victime'!$B$2</f>
-        <v>TYPE_Patient_Victime</v>
+        <f>'Nombre de patients-victimes'!$B$2</f>
+        <v>NOMBRE_Patient_Victime</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>1729</v>
@@ -11257,16 +11651,16 @@
       <c r="A12" s="27" t="s">
         <v>1727</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C12" s="49" t="str">
-        <f>'Attribution du dossier'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D12" s="27" t="str">
-        <f>'Attribution du dossier'!$B$2</f>
-        <v>DEVENIRD</v>
+      <c r="B12" s="31" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>'Type du patient-victime'!$B1</f>
+        <v>ENUM</v>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f>'Type du patient-victime'!$B$2</f>
+        <v>TYPE_Patient_Victime</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>1729</v>
@@ -11274,10 +11668,10 @@
       <c r="F12" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="30" t="s">
         <v>1749</v>
       </c>
+      <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
@@ -11288,15 +11682,15 @@
         <v>1727</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="C13" s="49" t="str">
-        <f>'Priorité de régulation médicale'!$B$1</f>
+        <f>'Attribution du dossier'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D13" s="27" t="str">
-        <f>'Priorité de régulation médicale'!$B$2</f>
-        <v>PRIORITE</v>
+        <f>'Attribution du dossier'!$B$2</f>
+        <v>DEVENIRD</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>1729</v>
@@ -11315,28 +11709,26 @@
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="27" t="s">
-        <v>2005</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C14" s="28" t="str">
-        <f>'Lieu - Source ou type d''id'!$B$1</f>
-        <v>ENUM</v>
-      </c>
-      <c r="D14" s="28" t="str">
-        <f>'Lieu - Source ou type d''id'!$B2</f>
-        <v>SOURCE_Id_Lieu</v>
-      </c>
-      <c r="E14" s="70" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C14" s="49" t="str">
+        <f>'Priorité de régulation médicale'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D14" s="27" t="str">
+        <f>'Priorité de régulation médicale'!$B$2</f>
+        <v>PRIORITE</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>1729</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G14" s="30" t="s">
-        <v>1749</v>
-      </c>
+      <c r="G14" s="30"/>
       <c r="H14" s="30" t="s">
         <v>1749</v>
       </c>
@@ -11350,17 +11742,17 @@
         <v>2005</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>2002</v>
+        <v>2009</v>
       </c>
       <c r="C15" s="28" t="str">
-        <f>Precision!$B$1</f>
+        <f>'Lieu - Source ou type d''id'!$B$1</f>
         <v>ENUM</v>
       </c>
       <c r="D15" s="28" t="str">
-        <f>Precision!$B$2</f>
-        <v>PRECISION</v>
-      </c>
-      <c r="E15" s="29" t="s">
+        <f>'Lieu - Source ou type d''id'!$B2</f>
+        <v>SOURCE_Id_Lieu</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>1729</v>
       </c>
       <c r="F15" s="28" t="s">
@@ -11382,15 +11774,15 @@
         <v>2005</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C16" s="28" t="str">
-        <f>'Nom de la source'!$B$1</f>
+        <f>Precision!$B$1</f>
         <v>ENUM</v>
       </c>
       <c r="D16" s="28" t="str">
-        <f>'Nom de la source'!$B$2</f>
-        <v>SOURCE_Loc</v>
+        <f>Precision!$B$2</f>
+        <v>PRECISION</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>1729</v>
@@ -11414,15 +11806,15 @@
         <v>2005</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="C17" s="28" t="str">
-        <f>'Type d''objet'!$B$1</f>
+        <f>'Nom de la source'!$B$1</f>
         <v>ENUM</v>
       </c>
       <c r="D17" s="28" t="str">
-        <f>'Type d''objet'!$B$2</f>
-        <v>TYPE_Objet_Sys</v>
+        <f>'Nom de la source'!$B$2</f>
+        <v>SOURCE_Loc</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>1729</v>
@@ -11443,18 +11835,18 @@
     </row>
     <row r="18" spans="1:12" ht="15">
       <c r="A18" s="27" t="s">
-        <v>1730</v>
+        <v>2005</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C18" s="28" t="str">
-        <f>Signalement!$B$1</f>
+        <f>'Type d''objet'!$B$1</f>
         <v>ENUM</v>
       </c>
       <c r="D18" s="28" t="str">
-        <f>Signalement!$B$2</f>
-        <v>SIGNALEMENT</v>
+        <f>'Type d''objet'!$B$2</f>
+        <v>TYPE_Objet_Sys</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>1729</v>
@@ -11465,7 +11857,9 @@
       <c r="G18" s="30" t="s">
         <v>1749</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="30" t="s">
+        <v>1749</v>
+      </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
@@ -11476,15 +11870,15 @@
         <v>1730</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C19" s="28" t="str">
-        <f>Canal!$B$1</f>
+        <f>Signalement!$B$1</f>
         <v>ENUM</v>
       </c>
       <c r="D19" s="28" t="str">
-        <f>Canal!$B$2</f>
-        <v>CONTACT_Canal</v>
+        <f>Signalement!$B$2</f>
+        <v>SIGNALEMENT</v>
       </c>
       <c r="E19" s="29" t="s">
         <v>1729</v>
@@ -11495,9 +11889,7 @@
       <c r="G19" s="30" t="s">
         <v>1749</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>1749</v>
-      </c>
+      <c r="H19" s="30"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -11508,15 +11900,15 @@
         <v>1730</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C20" s="28" t="str">
-        <f>'Type de contact'!$B$1</f>
+        <f>Canal!$B$1</f>
         <v>ENUM</v>
       </c>
       <c r="D20" s="28" t="str">
-        <f>'Type de contact'!$B$2</f>
-        <v>CONTACT_Type</v>
+        <f>Canal!$B$2</f>
+        <v>CONTACT_Canal</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>1729</v>
@@ -11539,16 +11931,16 @@
       <c r="A21" s="27" t="s">
         <v>1730</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C21" s="49" t="str">
-        <f>'Type de requérant'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D21" s="27" t="str">
-        <f>'Type de requérant'!$B$2</f>
-        <v>TYPAPPLT</v>
+      <c r="B21" s="31" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>'Type de contact'!$B$1</f>
+        <v>ENUM</v>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f>'Type de contact'!$B$2</f>
+        <v>CONTACT_Type</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>1729</v>
@@ -11572,15 +11964,15 @@
         <v>1730</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C22" s="49" t="str">
-        <f>'Difficultés de communication'!$B$1</f>
+        <f>'Type de requérant'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D22" s="27" t="str">
-        <f>'Difficultés de communication'!$B$2</f>
-        <v>PBAPL</v>
+        <f>'Type de requérant'!$B$2</f>
+        <v>TYPAPPLT</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>1729</v>
@@ -11600,19 +11992,19 @@
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="1:12" ht="15">
-      <c r="A23" s="28" t="s">
-        <v>1745</v>
+      <c r="A23" s="27" t="s">
+        <v>1730</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>2060</v>
+        <v>1737</v>
       </c>
       <c r="C23" s="49" t="str">
-        <f>'Patient - type d''Id'!$B$1</f>
-        <v>ENUM</v>
-      </c>
-      <c r="D23" s="49" t="str">
-        <f>'Patient - type d''Id'!$B$2</f>
-        <v>TYPE_Id_Patient</v>
+        <f>'Difficultés de communication'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D23" s="27" t="str">
+        <f>'Difficultés de communication'!$B$2</f>
+        <v>PBAPL</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>1729</v>
@@ -11620,7 +12012,9 @@
       <c r="F23" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="30" t="s">
+        <v>1749</v>
+      </c>
       <c r="H23" s="30" t="s">
         <v>1749</v>
       </c>
@@ -11634,15 +12028,15 @@
         <v>1745</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1740</v>
+        <v>2060</v>
       </c>
       <c r="C24" s="49" t="str">
-        <f>Sexe!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D24" s="27" t="str">
-        <f>Sexe!$B$2</f>
-        <v>NOMENC_SEXE</v>
+        <f>'Patient - type d''Id'!$B$1</f>
+        <v>ENUM</v>
+      </c>
+      <c r="D24" s="49" t="str">
+        <f>'Patient - type d''Id'!$B$2</f>
+        <v>TYPE_Id_Patient</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>1729</v>
@@ -11650,9 +12044,7 @@
       <c r="F24" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>1749</v>
-      </c>
+      <c r="G24" s="30"/>
       <c r="H24" s="30" t="s">
         <v>1749</v>
       </c>
@@ -11666,15 +12058,15 @@
         <v>1745</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C25" s="49" t="str">
-        <f>'Niveau de soin'!$B$1</f>
+        <f>Sexe!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D25" s="27" t="str">
-        <f>'Niveau de soin'!$B$2</f>
-        <v>GRAVITE</v>
+        <f>Sexe!$B$2</f>
+        <v>NOMENC_SEXE</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>1729</v>
@@ -11682,7 +12074,9 @@
       <c r="F25" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>1749</v>
+      </c>
       <c r="H25" s="30" t="s">
         <v>1749</v>
       </c>
@@ -11693,18 +12087,18 @@
     </row>
     <row r="26" spans="1:12" ht="15">
       <c r="A26" s="28" t="s">
-        <v>2061</v>
+        <v>2080</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>2062</v>
+        <v>1741</v>
       </c>
       <c r="C26" s="49" t="str">
-        <f>Role!$B$1</f>
-        <v>ENUM</v>
-      </c>
-      <c r="D26" s="49" t="str">
-        <f>Role!$B$2</f>
-        <v>ROLE</v>
+        <f>'Niveau de soin'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D26" s="27" t="str">
+        <f>'Niveau de soin'!$B$2</f>
+        <v>GRAVITE</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>1729</v>
@@ -11722,19 +12116,19 @@
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="15">
-      <c r="A27" s="27" t="s">
-        <v>1746</v>
+      <c r="A27" s="28" t="s">
+        <v>2061</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>2074</v>
+        <v>2062</v>
       </c>
       <c r="C27" s="49" t="str">
-        <f>'Type de decision'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D27" s="27" t="str">
-        <f>'Type de decision'!$B$2</f>
-        <v>TYPEDEC</v>
+        <f>Role!$B$1</f>
+        <v>ENUM</v>
+      </c>
+      <c r="D27" s="49" t="str">
+        <f>Role!$B$2</f>
+        <v>ROLE</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>1729</v>
@@ -11742,10 +12136,8 @@
       <c r="F27" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G27" s="72" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H27" s="72" t="s">
+      <c r="G27" s="30"/>
+      <c r="H27" s="30" t="s">
         <v>1749</v>
       </c>
       <c r="I27" s="30"/>
@@ -11755,52 +12147,50 @@
     </row>
     <row r="28" spans="1:12" ht="15">
       <c r="A28" s="27" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C28" s="49" t="str">
+        <f>'Type de decision'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D28" s="27" t="str">
+        <f>'Type de decision'!$B$2</f>
+        <v>TYPEDEC</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H28" s="72" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:12" ht="15">
+      <c r="A29" s="27" t="s">
         <v>1752</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B29" s="34" t="s">
         <v>1743</v>
       </c>
-      <c r="C28" s="49" t="str">
+      <c r="C29" s="49" t="str">
         <f>'Type de ressource'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="D29" s="27" t="str">
         <f>'Type de ressource'!$B$2</f>
         <v>TYPE_MOYEN</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>1729</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>1744</v>
-      </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30" t="s">
-        <v>1749</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>1749</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30" t="s">
-        <v>1749</v>
-      </c>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12" ht="15">
-      <c r="A29" s="28" t="s">
-        <v>1752</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C29" s="49" t="str">
-        <f>'Type de vecteurs'!$B$1</f>
-        <v>SI-SAMU</v>
-      </c>
-      <c r="D29" s="27" t="str">
-        <f>'Type de vecteurs'!$B$2</f>
-        <v>TYPE_VECTEUR</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>1729</v>
@@ -11822,19 +12212,19 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="15">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="28" t="s">
         <v>1752</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C30" s="27" t="str">
-        <f>'Niveau de prise en charge'!$B$1</f>
+        <v>1754</v>
+      </c>
+      <c r="C30" s="49" t="str">
+        <f>'Type de vecteurs'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
       <c r="D30" s="27" t="str">
-        <f>'Niveau de prise en charge'!$B$2</f>
-        <v>NIVSOIN</v>
+        <f>'Type de vecteurs'!$B$2</f>
+        <v>TYPE_VECTEUR</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>1729</v>
@@ -11842,9 +12232,7 @@
       <c r="F30" s="28" t="s">
         <v>1744</v>
       </c>
-      <c r="G30" s="30" t="s">
-        <v>1749</v>
-      </c>
+      <c r="G30" s="30"/>
       <c r="H30" s="30" t="s">
         <v>1749</v>
       </c>
@@ -11859,108 +12247,116 @@
     </row>
     <row r="31" spans="1:12" ht="15">
       <c r="A31" s="27" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f>'Niveau de prise en charge'!$B$1</f>
+        <v>SI-SAMU</v>
+      </c>
+      <c r="D31" s="27" t="str">
+        <f>'Niveau de prise en charge'!$B$2</f>
+        <v>NIVSOIN</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>1729</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30" t="s">
+        <v>1749</v>
+      </c>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="1:12" ht="15">
+      <c r="A32" s="27" t="s">
         <v>1746</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B32" s="34" t="s">
         <v>1742</v>
       </c>
-      <c r="C31" s="27" t="str">
+      <c r="C32" s="27" t="str">
         <f>'Type de devenir du patient'!$B$1</f>
         <v>SI-SAMU</v>
       </c>
-      <c r="D31" s="27" t="str">
+      <c r="D32" s="27" t="str">
         <f>'Type de devenir du patient'!$B$2</f>
         <v>NOMENC_DEVENIR_PAT</v>
       </c>